--- a/RunSummaries.xlsx
+++ b/RunSummaries.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>rcp60</t>
+  </si>
+  <si>
+    <t>rcp85</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:P13"/>
+      <selection activeCell="A23" sqref="A23:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,6 +1104,506 @@
         <v>4.7156000000000002</v>
       </c>
     </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42945.580775462964</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>10.197927302969147</v>
+      </c>
+      <c r="G14">
+        <v>9.615384615384615</v>
+      </c>
+      <c r="H14">
+        <v>0.3</v>
+      </c>
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>0.36</v>
+      </c>
+      <c r="N14">
+        <v>1.5</v>
+      </c>
+      <c r="O14">
+        <v>0.46</v>
+      </c>
+      <c r="P14">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42945.733703703707</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>19.929067068743567</v>
+      </c>
+      <c r="G15">
+        <v>9.615384615384615</v>
+      </c>
+      <c r="H15">
+        <v>0.3</v>
+      </c>
+      <c r="I15">
+        <v>0.1</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>0.36</v>
+      </c>
+      <c r="N15">
+        <v>1.5</v>
+      </c>
+      <c r="O15">
+        <v>0.46</v>
+      </c>
+      <c r="P15">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42945.743715277778</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>5.336427200732647</v>
+      </c>
+      <c r="G16">
+        <v>9.615384615384615</v>
+      </c>
+      <c r="H16">
+        <v>0.3</v>
+      </c>
+      <c r="I16">
+        <v>0.1</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>0.36</v>
+      </c>
+      <c r="N16">
+        <v>1.5</v>
+      </c>
+      <c r="O16">
+        <v>0.46</v>
+      </c>
+      <c r="P16">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42945.744398148148</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>5.0318168305917208</v>
+      </c>
+      <c r="G17">
+        <v>9.615384615384615</v>
+      </c>
+      <c r="H17">
+        <v>0.3</v>
+      </c>
+      <c r="I17">
+        <v>0.1</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>0.36</v>
+      </c>
+      <c r="N17">
+        <v>1.5</v>
+      </c>
+      <c r="O17">
+        <v>0.46</v>
+      </c>
+      <c r="P17">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42945.752025462964</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>12.080413886628522</v>
+      </c>
+      <c r="G18">
+        <v>13.01775147928994</v>
+      </c>
+      <c r="H18">
+        <v>0.3</v>
+      </c>
+      <c r="I18">
+        <v>0.1</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>0.36</v>
+      </c>
+      <c r="N18">
+        <v>1.5</v>
+      </c>
+      <c r="O18">
+        <v>0.46</v>
+      </c>
+      <c r="P18">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42945.752662037034</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1000</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>7.3886378930385428</v>
+      </c>
+      <c r="G19">
+        <v>13.01775147928994</v>
+      </c>
+      <c r="H19">
+        <v>0.3</v>
+      </c>
+      <c r="I19">
+        <v>0.1</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>0.36</v>
+      </c>
+      <c r="N19">
+        <v>1.5</v>
+      </c>
+      <c r="O19">
+        <v>0.46</v>
+      </c>
+      <c r="P19">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42945.759548611109</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>6.8727726762635646</v>
+      </c>
+      <c r="G20">
+        <v>11.834319526627219</v>
+      </c>
+      <c r="H20">
+        <v>0.3</v>
+      </c>
+      <c r="I20">
+        <v>0.1</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>0.36</v>
+      </c>
+      <c r="N20">
+        <v>1.5</v>
+      </c>
+      <c r="O20">
+        <v>0.46</v>
+      </c>
+      <c r="P20">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42945.759872685187</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>6.5432937176231087</v>
+      </c>
+      <c r="G21">
+        <v>11.538461538461538</v>
+      </c>
+      <c r="H21">
+        <v>0.3</v>
+      </c>
+      <c r="I21">
+        <v>0.1</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>0.36</v>
+      </c>
+      <c r="N21">
+        <v>1.5</v>
+      </c>
+      <c r="O21">
+        <v>0.46</v>
+      </c>
+      <c r="P21">
+        <v>4.2549999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42945.922500000001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>24.113477714523054</v>
+      </c>
+      <c r="G22">
+        <v>11.538461538461538</v>
+      </c>
+      <c r="H22">
+        <v>0.3</v>
+      </c>
+      <c r="I22">
+        <v>0.1</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>0.36</v>
+      </c>
+      <c r="N22">
+        <v>1.5</v>
+      </c>
+      <c r="O22">
+        <v>0.46</v>
+      </c>
+      <c r="P22">
+        <v>4.2549999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>42945.923935185187</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>5.4166161350635358</v>
+      </c>
+      <c r="G23">
+        <v>8.6538461538461533</v>
+      </c>
+      <c r="H23">
+        <v>0.3</v>
+      </c>
+      <c r="I23">
+        <v>0.1</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>0.36</v>
+      </c>
+      <c r="N23">
+        <v>1.5</v>
+      </c>
+      <c r="O23">
+        <v>0.46</v>
+      </c>
+      <c r="P23">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RunSummaries.xlsx
+++ b/RunSummaries.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>rcp85</t>
+  </si>
+  <si>
+    <t>rcp26</t>
+  </si>
+  <si>
+    <t>rcp45</t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:P23"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:P98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,6 +1610,3756 @@
         <v>4.7156000000000002</v>
       </c>
     </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>42948.518310185187</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>10000</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>19.151348426459808</v>
+      </c>
+      <c r="G24">
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="H24">
+        <v>0.3</v>
+      </c>
+      <c r="I24">
+        <v>0.1</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>0.36</v>
+      </c>
+      <c r="N24">
+        <v>1.5</v>
+      </c>
+      <c r="O24">
+        <v>0.46</v>
+      </c>
+      <c r="P24">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>42948.520636574074</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>10000</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>5.6688680987121316</v>
+      </c>
+      <c r="G25">
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="H25">
+        <v>0.3</v>
+      </c>
+      <c r="I25">
+        <v>0.1</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>0.36</v>
+      </c>
+      <c r="N25">
+        <v>1.5</v>
+      </c>
+      <c r="O25">
+        <v>0.46</v>
+      </c>
+      <c r="P25">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>42948.546724537038</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>10000</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>4.7194404507778502</v>
+      </c>
+      <c r="G26">
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="H26">
+        <v>0.3</v>
+      </c>
+      <c r="I26">
+        <v>0.1</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>0.36</v>
+      </c>
+      <c r="N26">
+        <v>1.5</v>
+      </c>
+      <c r="O26">
+        <v>0.46</v>
+      </c>
+      <c r="P26">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>42948.547789351855</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>10000</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>4.5057123209689847</v>
+      </c>
+      <c r="G27">
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="H27">
+        <v>0.3</v>
+      </c>
+      <c r="I27">
+        <v>0.1</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>0.36</v>
+      </c>
+      <c r="N27">
+        <v>1.5</v>
+      </c>
+      <c r="O27">
+        <v>0.46</v>
+      </c>
+      <c r="P27">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>42948.553784722222</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>10000</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>11.121917885806059</v>
+      </c>
+      <c r="G28">
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="H28">
+        <v>0.3</v>
+      </c>
+      <c r="I28">
+        <v>0.1</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>0.36</v>
+      </c>
+      <c r="N28">
+        <v>1.5</v>
+      </c>
+      <c r="O28">
+        <v>0.46</v>
+      </c>
+      <c r="P28">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>42948.578252314815</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>10000</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>5.731394357981074</v>
+      </c>
+      <c r="G29">
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="H29">
+        <v>0.3</v>
+      </c>
+      <c r="I29">
+        <v>0.1</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>0.36</v>
+      </c>
+      <c r="N29">
+        <v>1.5</v>
+      </c>
+      <c r="O29">
+        <v>0.46</v>
+      </c>
+      <c r="P29">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>42948.579594907409</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>10000</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>5.8572270147999079</v>
+      </c>
+      <c r="G30">
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="H30">
+        <v>0.3</v>
+      </c>
+      <c r="I30">
+        <v>0.1</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>0.36</v>
+      </c>
+      <c r="N30">
+        <v>1.5</v>
+      </c>
+      <c r="O30">
+        <v>0.46</v>
+      </c>
+      <c r="P30">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>42948.580474537041</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>10000</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>5.6712568322097914</v>
+      </c>
+      <c r="G31">
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="H31">
+        <v>0.3</v>
+      </c>
+      <c r="I31">
+        <v>0.1</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>0.36</v>
+      </c>
+      <c r="N31">
+        <v>1.5</v>
+      </c>
+      <c r="O31">
+        <v>0.46</v>
+      </c>
+      <c r="P31">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>42948.581018518518</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>10000</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>5.8272342497984857</v>
+      </c>
+      <c r="G32">
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="H32">
+        <v>0.3</v>
+      </c>
+      <c r="I32">
+        <v>0.1</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>0.36</v>
+      </c>
+      <c r="N32">
+        <v>1.5</v>
+      </c>
+      <c r="O32">
+        <v>0.46</v>
+      </c>
+      <c r="P32">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>42948.587685185186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>10000</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>15.350285288057581</v>
+      </c>
+      <c r="G33">
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="H33">
+        <v>0.3</v>
+      </c>
+      <c r="I33">
+        <v>0.1</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>0.36</v>
+      </c>
+      <c r="N33">
+        <v>1.5</v>
+      </c>
+      <c r="O33">
+        <v>0.46</v>
+      </c>
+      <c r="P33">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>42948.591168981482</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>10000</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>5.8492595566139443</v>
+      </c>
+      <c r="G34">
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="H34">
+        <v>0.3</v>
+      </c>
+      <c r="I34">
+        <v>0.1</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>0.36</v>
+      </c>
+      <c r="N34">
+        <v>1.5</v>
+      </c>
+      <c r="O34">
+        <v>0.46</v>
+      </c>
+      <c r="P34">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>42948.593113425923</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>10000</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>5.6098444619301802</v>
+      </c>
+      <c r="G35">
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="H35">
+        <v>0.3</v>
+      </c>
+      <c r="I35">
+        <v>0.1</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>0.36</v>
+      </c>
+      <c r="N35">
+        <v>1.5</v>
+      </c>
+      <c r="O35">
+        <v>0.46</v>
+      </c>
+      <c r="P35">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>42948.764282407406</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>10000</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>32.657379138564785</v>
+      </c>
+      <c r="G36">
+        <v>4.9145299145299139</v>
+      </c>
+      <c r="H36">
+        <v>0.3</v>
+      </c>
+      <c r="I36">
+        <v>0.1</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>0.36</v>
+      </c>
+      <c r="N36">
+        <v>1.5</v>
+      </c>
+      <c r="O36">
+        <v>0.46</v>
+      </c>
+      <c r="P36">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>42948.900358796294</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>10000</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>19.955785870921353</v>
+      </c>
+      <c r="G37">
+        <v>11.538461538461538</v>
+      </c>
+      <c r="H37">
+        <v>0.3</v>
+      </c>
+      <c r="I37">
+        <v>0.1</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>0.36</v>
+      </c>
+      <c r="N37">
+        <v>1.5</v>
+      </c>
+      <c r="O37">
+        <v>0.46</v>
+      </c>
+      <c r="P37">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>42950.620891203704</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>42.516463701650544</v>
+      </c>
+      <c r="G38">
+        <v>5.575158786167961</v>
+      </c>
+      <c r="H38">
+        <v>0.3</v>
+      </c>
+      <c r="I38">
+        <v>0.1</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>0.36</v>
+      </c>
+      <c r="N38">
+        <v>1.5</v>
+      </c>
+      <c r="O38">
+        <v>0.46</v>
+      </c>
+      <c r="P38">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>42950.623182870368</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>20.428312235787356</v>
+      </c>
+      <c r="G39">
+        <v>5.575158786167961</v>
+      </c>
+      <c r="H39">
+        <v>0.3</v>
+      </c>
+      <c r="I39">
+        <v>0.1</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>0.36</v>
+      </c>
+      <c r="N39">
+        <v>1.5</v>
+      </c>
+      <c r="O39">
+        <v>0.46</v>
+      </c>
+      <c r="P39">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>42950.623900462961</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>19.434780535709887</v>
+      </c>
+      <c r="G40">
+        <v>5.575158786167961</v>
+      </c>
+      <c r="H40">
+        <v>0.3</v>
+      </c>
+      <c r="I40">
+        <v>0.1</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>0.36</v>
+      </c>
+      <c r="N40">
+        <v>1.5</v>
+      </c>
+      <c r="O40">
+        <v>0.46</v>
+      </c>
+      <c r="P40">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>42950.628275462965</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>21.089719422211285</v>
+      </c>
+      <c r="G41">
+        <v>5.575158786167961</v>
+      </c>
+      <c r="H41">
+        <v>0.3</v>
+      </c>
+      <c r="I41">
+        <v>0.1</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>0.36</v>
+      </c>
+      <c r="N41">
+        <v>1.5</v>
+      </c>
+      <c r="O41">
+        <v>0.46</v>
+      </c>
+      <c r="P41">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>42950.646331018521</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>28.311024301083457</v>
+      </c>
+      <c r="G42">
+        <v>5.457875457875458</v>
+      </c>
+      <c r="H42">
+        <v>0.3</v>
+      </c>
+      <c r="I42">
+        <v>0.1</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>0.36</v>
+      </c>
+      <c r="N42">
+        <v>1.5</v>
+      </c>
+      <c r="O42">
+        <v>0.46</v>
+      </c>
+      <c r="P42">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42950.647256944445</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>22.765830839269434</v>
+      </c>
+      <c r="G43">
+        <v>5.457875457875458</v>
+      </c>
+      <c r="H43">
+        <v>0.3</v>
+      </c>
+      <c r="I43">
+        <v>0.1</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>0.36</v>
+      </c>
+      <c r="N43">
+        <v>1.5</v>
+      </c>
+      <c r="O43">
+        <v>0.46</v>
+      </c>
+      <c r="P43">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42950.651423611111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>22.221955100769996</v>
+      </c>
+      <c r="G44">
+        <v>5.457875457875458</v>
+      </c>
+      <c r="H44">
+        <v>0.3</v>
+      </c>
+      <c r="I44">
+        <v>0.1</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>0.36</v>
+      </c>
+      <c r="N44">
+        <v>1.5</v>
+      </c>
+      <c r="O44">
+        <v>0.46</v>
+      </c>
+      <c r="P44">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>42950.65388888889</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>22.490358508419124</v>
+      </c>
+      <c r="G45">
+        <v>5.457875457875458</v>
+      </c>
+      <c r="H45">
+        <v>0.3</v>
+      </c>
+      <c r="I45">
+        <v>0.1</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>0.36</v>
+      </c>
+      <c r="N45">
+        <v>1.5</v>
+      </c>
+      <c r="O45">
+        <v>0.46</v>
+      </c>
+      <c r="P45">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>42950.655497685184</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>23.075022871363263</v>
+      </c>
+      <c r="G46">
+        <v>5.457875457875458</v>
+      </c>
+      <c r="H46">
+        <v>0.3</v>
+      </c>
+      <c r="I46">
+        <v>0.1</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>0.36</v>
+      </c>
+      <c r="N46">
+        <v>1.5</v>
+      </c>
+      <c r="O46">
+        <v>0.46</v>
+      </c>
+      <c r="P46">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>42950.656944444447</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>33.542326021643561</v>
+      </c>
+      <c r="G47">
+        <v>4.9810189810189813</v>
+      </c>
+      <c r="H47">
+        <v>0.3</v>
+      </c>
+      <c r="I47">
+        <v>0.1</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>0.36</v>
+      </c>
+      <c r="N47">
+        <v>1.5</v>
+      </c>
+      <c r="O47">
+        <v>0.46</v>
+      </c>
+      <c r="P47">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>42950.665219907409</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>309.79539385623502</v>
+      </c>
+      <c r="G48">
+        <v>4.9810189810189813</v>
+      </c>
+      <c r="H48">
+        <v>0.3</v>
+      </c>
+      <c r="I48">
+        <v>0.1</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>0.36</v>
+      </c>
+      <c r="N48">
+        <v>1.5</v>
+      </c>
+      <c r="O48">
+        <v>0.46</v>
+      </c>
+      <c r="P48">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>42950.674722222226</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>23.531067135090961</v>
+      </c>
+      <c r="G49">
+        <v>4.9930069930069925</v>
+      </c>
+      <c r="H49">
+        <v>0.3</v>
+      </c>
+      <c r="I49">
+        <v>0.1</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>0.36</v>
+      </c>
+      <c r="N49">
+        <v>1.5</v>
+      </c>
+      <c r="O49">
+        <v>0.46</v>
+      </c>
+      <c r="P49">
+        <v>4.1849999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>42950.67496527778</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>19.611533694901933</v>
+      </c>
+      <c r="G50">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H50">
+        <v>0.3</v>
+      </c>
+      <c r="I50">
+        <v>0.1</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>0.36</v>
+      </c>
+      <c r="N50">
+        <v>1.5</v>
+      </c>
+      <c r="O50">
+        <v>0.46</v>
+      </c>
+      <c r="P50">
+        <v>4.3616999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>42950.675196759257</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>18.241380159976345</v>
+      </c>
+      <c r="G51">
+        <v>5.0009990009990011</v>
+      </c>
+      <c r="H51">
+        <v>0.3</v>
+      </c>
+      <c r="I51">
+        <v>0.1</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>0.36</v>
+      </c>
+      <c r="N51">
+        <v>1.5</v>
+      </c>
+      <c r="O51">
+        <v>0.46</v>
+      </c>
+      <c r="P51">
+        <v>4.2077</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>42950.675428240742</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>18.208555473815608</v>
+      </c>
+      <c r="G52">
+        <v>4.9870129870129869</v>
+      </c>
+      <c r="H52">
+        <v>0.3</v>
+      </c>
+      <c r="I52">
+        <v>0.1</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>0.36</v>
+      </c>
+      <c r="N52">
+        <v>1.5</v>
+      </c>
+      <c r="O52">
+        <v>0.46</v>
+      </c>
+      <c r="P52">
+        <v>4.2549999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>42950.67564814815</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>18.049780374114384</v>
+      </c>
+      <c r="G53">
+        <v>4.9870129870129869</v>
+      </c>
+      <c r="H53">
+        <v>0.3</v>
+      </c>
+      <c r="I53">
+        <v>0.1</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>0.36</v>
+      </c>
+      <c r="N53">
+        <v>1.5</v>
+      </c>
+      <c r="O53">
+        <v>0.46</v>
+      </c>
+      <c r="P53">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>42950.675879629627</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>18.293084320532515</v>
+      </c>
+      <c r="G54">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H54">
+        <v>0.3</v>
+      </c>
+      <c r="I54">
+        <v>0.1</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>0.36</v>
+      </c>
+      <c r="N54">
+        <v>1.5</v>
+      </c>
+      <c r="O54">
+        <v>0.46</v>
+      </c>
+      <c r="P54">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>42950.676111111112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>18.041409407162103</v>
+      </c>
+      <c r="G55">
+        <v>4.9950049950049946</v>
+      </c>
+      <c r="H55">
+        <v>0.3</v>
+      </c>
+      <c r="I55">
+        <v>0.1</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>0.36</v>
+      </c>
+      <c r="N55">
+        <v>1.5</v>
+      </c>
+      <c r="O55">
+        <v>0.46</v>
+      </c>
+      <c r="P55">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>42950.67633101852</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>17.956479611607612</v>
+      </c>
+      <c r="G56">
+        <v>4.9810189810189813</v>
+      </c>
+      <c r="H56">
+        <v>0.3</v>
+      </c>
+      <c r="I56">
+        <v>0.1</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>0.36</v>
+      </c>
+      <c r="N56">
+        <v>1.5</v>
+      </c>
+      <c r="O56">
+        <v>0.46</v>
+      </c>
+      <c r="P56">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>42950.676562499997</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>18.044715875110036</v>
+      </c>
+      <c r="G57">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H57">
+        <v>0.3</v>
+      </c>
+      <c r="I57">
+        <v>0.1</v>
+      </c>
+      <c r="J57">
+        <v>4</v>
+      </c>
+      <c r="K57">
+        <v>4</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>0.36</v>
+      </c>
+      <c r="N57">
+        <v>1.5</v>
+      </c>
+      <c r="O57">
+        <v>0.46</v>
+      </c>
+      <c r="P57">
+        <v>4.1849999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>42950.676782407405</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>18.023171514905027</v>
+      </c>
+      <c r="G58">
+        <v>5.0089910089910088</v>
+      </c>
+      <c r="H58">
+        <v>0.3</v>
+      </c>
+      <c r="I58">
+        <v>0.1</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <v>4</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>0.36</v>
+      </c>
+      <c r="N58">
+        <v>1.5</v>
+      </c>
+      <c r="O58">
+        <v>0.46</v>
+      </c>
+      <c r="P58">
+        <v>4.3616999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>42950.67701388889</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>8</v>
+      </c>
+      <c r="F59">
+        <v>18.040013606021208</v>
+      </c>
+      <c r="G59">
+        <v>5.0009990009990011</v>
+      </c>
+      <c r="H59">
+        <v>0.3</v>
+      </c>
+      <c r="I59">
+        <v>0.1</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>0.36</v>
+      </c>
+      <c r="N59">
+        <v>1.5</v>
+      </c>
+      <c r="O59">
+        <v>0.46</v>
+      </c>
+      <c r="P59">
+        <v>4.2077</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>42950.677245370367</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>18.100111452897153</v>
+      </c>
+      <c r="G60">
+        <v>4.9850149850149847</v>
+      </c>
+      <c r="H60">
+        <v>0.3</v>
+      </c>
+      <c r="I60">
+        <v>0.1</v>
+      </c>
+      <c r="J60">
+        <v>4</v>
+      </c>
+      <c r="K60">
+        <v>4</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>0.36</v>
+      </c>
+      <c r="N60">
+        <v>1.5</v>
+      </c>
+      <c r="O60">
+        <v>0.46</v>
+      </c>
+      <c r="P60">
+        <v>4.2549999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>42950.677465277775</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <v>17.996418339713422</v>
+      </c>
+      <c r="G61">
+        <v>5.0109890109890109</v>
+      </c>
+      <c r="H61">
+        <v>0.3</v>
+      </c>
+      <c r="I61">
+        <v>0.1</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>0.36</v>
+      </c>
+      <c r="N61">
+        <v>1.5</v>
+      </c>
+      <c r="O61">
+        <v>0.46</v>
+      </c>
+      <c r="P61">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>42950.67769675926</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>18.05337675399117</v>
+      </c>
+      <c r="G62">
+        <v>5.0089910089910088</v>
+      </c>
+      <c r="H62">
+        <v>0.3</v>
+      </c>
+      <c r="I62">
+        <v>0.1</v>
+      </c>
+      <c r="J62">
+        <v>4</v>
+      </c>
+      <c r="K62">
+        <v>4</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>0.36</v>
+      </c>
+      <c r="N62">
+        <v>1.5</v>
+      </c>
+      <c r="O62">
+        <v>0.46</v>
+      </c>
+      <c r="P62">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>42950.677916666667</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <v>18.03355650578688</v>
+      </c>
+      <c r="G63">
+        <v>5.0089910089910088</v>
+      </c>
+      <c r="H63">
+        <v>0.3</v>
+      </c>
+      <c r="I63">
+        <v>0.1</v>
+      </c>
+      <c r="J63">
+        <v>4</v>
+      </c>
+      <c r="K63">
+        <v>4</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>0.36</v>
+      </c>
+      <c r="N63">
+        <v>1.5</v>
+      </c>
+      <c r="O63">
+        <v>0.46</v>
+      </c>
+      <c r="P63">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>42950.678148148145</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>17.936061620044498</v>
+      </c>
+      <c r="G64">
+        <v>5.0009990009990011</v>
+      </c>
+      <c r="H64">
+        <v>0.3</v>
+      </c>
+      <c r="I64">
+        <v>0.1</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>0.36</v>
+      </c>
+      <c r="N64">
+        <v>1.5</v>
+      </c>
+      <c r="O64">
+        <v>0.46</v>
+      </c>
+      <c r="P64">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>42950.683749999997</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>8</v>
+      </c>
+      <c r="F65">
+        <v>19.028563044804834</v>
+      </c>
+      <c r="G65">
+        <v>4.9930069930069925</v>
+      </c>
+      <c r="H65">
+        <v>0.3</v>
+      </c>
+      <c r="I65">
+        <v>0.1</v>
+      </c>
+      <c r="J65">
+        <v>4</v>
+      </c>
+      <c r="K65">
+        <v>4</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>0.36</v>
+      </c>
+      <c r="N65">
+        <v>1.5</v>
+      </c>
+      <c r="O65">
+        <v>0.46</v>
+      </c>
+      <c r="P65">
+        <v>4.1849999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>42950.683993055558</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <v>18.776473102988813</v>
+      </c>
+      <c r="G66">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H66">
+        <v>0.3</v>
+      </c>
+      <c r="I66">
+        <v>0.1</v>
+      </c>
+      <c r="J66">
+        <v>4</v>
+      </c>
+      <c r="K66">
+        <v>4</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>0.36</v>
+      </c>
+      <c r="N66">
+        <v>1.5</v>
+      </c>
+      <c r="O66">
+        <v>0.46</v>
+      </c>
+      <c r="P66">
+        <v>4.3616999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>42950.684212962966</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>8</v>
+      </c>
+      <c r="F67">
+        <v>18.263416986471096</v>
+      </c>
+      <c r="G67">
+        <v>5.0009990009990011</v>
+      </c>
+      <c r="H67">
+        <v>0.3</v>
+      </c>
+      <c r="I67">
+        <v>0.1</v>
+      </c>
+      <c r="J67">
+        <v>4</v>
+      </c>
+      <c r="K67">
+        <v>4</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>0.36</v>
+      </c>
+      <c r="N67">
+        <v>1.5</v>
+      </c>
+      <c r="O67">
+        <v>0.46</v>
+      </c>
+      <c r="P67">
+        <v>4.2077</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>42950.684444444443</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>8</v>
+      </c>
+      <c r="F68">
+        <v>18.493792972803636</v>
+      </c>
+      <c r="G68">
+        <v>4.9870129870129869</v>
+      </c>
+      <c r="H68">
+        <v>0.3</v>
+      </c>
+      <c r="I68">
+        <v>0.1</v>
+      </c>
+      <c r="J68">
+        <v>4</v>
+      </c>
+      <c r="K68">
+        <v>4</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>0.36</v>
+      </c>
+      <c r="N68">
+        <v>1.5</v>
+      </c>
+      <c r="O68">
+        <v>0.46</v>
+      </c>
+      <c r="P68">
+        <v>4.2549999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>42950.684687499997</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>8</v>
+      </c>
+      <c r="F69">
+        <v>18.50474754782827</v>
+      </c>
+      <c r="G69">
+        <v>4.9870129870129869</v>
+      </c>
+      <c r="H69">
+        <v>0.3</v>
+      </c>
+      <c r="I69">
+        <v>0.1</v>
+      </c>
+      <c r="J69">
+        <v>4</v>
+      </c>
+      <c r="K69">
+        <v>4</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>0.36</v>
+      </c>
+      <c r="N69">
+        <v>1.5</v>
+      </c>
+      <c r="O69">
+        <v>0.46</v>
+      </c>
+      <c r="P69">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>42950.684976851851</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>8</v>
+      </c>
+      <c r="F70">
+        <v>24.064077256089192</v>
+      </c>
+      <c r="G70">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H70">
+        <v>0.3</v>
+      </c>
+      <c r="I70">
+        <v>0.1</v>
+      </c>
+      <c r="J70">
+        <v>4</v>
+      </c>
+      <c r="K70">
+        <v>4</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>0.36</v>
+      </c>
+      <c r="N70">
+        <v>1.5</v>
+      </c>
+      <c r="O70">
+        <v>0.46</v>
+      </c>
+      <c r="P70">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>42950.685208333336</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>8</v>
+      </c>
+      <c r="F71">
+        <v>18.430263861454097</v>
+      </c>
+      <c r="G71">
+        <v>4.9950049950049946</v>
+      </c>
+      <c r="H71">
+        <v>0.3</v>
+      </c>
+      <c r="I71">
+        <v>0.1</v>
+      </c>
+      <c r="J71">
+        <v>4</v>
+      </c>
+      <c r="K71">
+        <v>4</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>0.36</v>
+      </c>
+      <c r="N71">
+        <v>1.5</v>
+      </c>
+      <c r="O71">
+        <v>0.46</v>
+      </c>
+      <c r="P71">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>42950.685439814813</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <v>18.363254846985061</v>
+      </c>
+      <c r="G72">
+        <v>4.9810189810189813</v>
+      </c>
+      <c r="H72">
+        <v>0.3</v>
+      </c>
+      <c r="I72">
+        <v>0.1</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+      <c r="K72">
+        <v>4</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>0.36</v>
+      </c>
+      <c r="N72">
+        <v>1.5</v>
+      </c>
+      <c r="O72">
+        <v>0.46</v>
+      </c>
+      <c r="P72">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>42950.685960648145</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>8</v>
+      </c>
+      <c r="F73">
+        <v>18.844260655783344</v>
+      </c>
+      <c r="G73">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H73">
+        <v>0.3</v>
+      </c>
+      <c r="I73">
+        <v>0.1</v>
+      </c>
+      <c r="J73">
+        <v>4</v>
+      </c>
+      <c r="K73">
+        <v>4</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>0.36</v>
+      </c>
+      <c r="N73">
+        <v>1.5</v>
+      </c>
+      <c r="O73">
+        <v>0.46</v>
+      </c>
+      <c r="P73">
+        <v>4.1849999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>42950.686192129629</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>8</v>
+      </c>
+      <c r="F74">
+        <v>18.13469769001631</v>
+      </c>
+      <c r="G74">
+        <v>5.0089910089910088</v>
+      </c>
+      <c r="H74">
+        <v>0.3</v>
+      </c>
+      <c r="I74">
+        <v>0.1</v>
+      </c>
+      <c r="J74">
+        <v>4</v>
+      </c>
+      <c r="K74">
+        <v>4</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>0.36</v>
+      </c>
+      <c r="N74">
+        <v>1.5</v>
+      </c>
+      <c r="O74">
+        <v>0.46</v>
+      </c>
+      <c r="P74">
+        <v>4.3616999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>42950.686412037037</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>8</v>
+      </c>
+      <c r="F75">
+        <v>18.329689701438713</v>
+      </c>
+      <c r="G75">
+        <v>5.0009990009990011</v>
+      </c>
+      <c r="H75">
+        <v>0.3</v>
+      </c>
+      <c r="I75">
+        <v>0.1</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+      <c r="K75">
+        <v>4</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>0.36</v>
+      </c>
+      <c r="N75">
+        <v>1.5</v>
+      </c>
+      <c r="O75">
+        <v>0.46</v>
+      </c>
+      <c r="P75">
+        <v>4.2077</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>42950.686643518522</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>8</v>
+      </c>
+      <c r="F76">
+        <v>18.198526633018538</v>
+      </c>
+      <c r="G76">
+        <v>4.9850149850149847</v>
+      </c>
+      <c r="H76">
+        <v>0.3</v>
+      </c>
+      <c r="I76">
+        <v>0.1</v>
+      </c>
+      <c r="J76">
+        <v>4</v>
+      </c>
+      <c r="K76">
+        <v>4</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>0.36</v>
+      </c>
+      <c r="N76">
+        <v>1.5</v>
+      </c>
+      <c r="O76">
+        <v>0.46</v>
+      </c>
+      <c r="P76">
+        <v>4.2549999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>42950.686874999999</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>8</v>
+      </c>
+      <c r="F77">
+        <v>18.187266786492664</v>
+      </c>
+      <c r="G77">
+        <v>5.0109890109890109</v>
+      </c>
+      <c r="H77">
+        <v>0.3</v>
+      </c>
+      <c r="I77">
+        <v>0.1</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+      <c r="K77">
+        <v>4</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>0.36</v>
+      </c>
+      <c r="N77">
+        <v>1.5</v>
+      </c>
+      <c r="O77">
+        <v>0.46</v>
+      </c>
+      <c r="P77">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>42950.687106481484</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>8</v>
+      </c>
+      <c r="F78">
+        <v>19.114680007308596</v>
+      </c>
+      <c r="G78">
+        <v>5.0089910089910088</v>
+      </c>
+      <c r="H78">
+        <v>0.3</v>
+      </c>
+      <c r="I78">
+        <v>0.1</v>
+      </c>
+      <c r="J78">
+        <v>4</v>
+      </c>
+      <c r="K78">
+        <v>4</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>0.36</v>
+      </c>
+      <c r="N78">
+        <v>1.5</v>
+      </c>
+      <c r="O78">
+        <v>0.46</v>
+      </c>
+      <c r="P78">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>42950.687349537038</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>8</v>
+      </c>
+      <c r="F79">
+        <v>18.703314499724328</v>
+      </c>
+      <c r="G79">
+        <v>5.0089910089910088</v>
+      </c>
+      <c r="H79">
+        <v>0.3</v>
+      </c>
+      <c r="I79">
+        <v>0.1</v>
+      </c>
+      <c r="J79">
+        <v>4</v>
+      </c>
+      <c r="K79">
+        <v>4</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>0.36</v>
+      </c>
+      <c r="N79">
+        <v>1.5</v>
+      </c>
+      <c r="O79">
+        <v>0.46</v>
+      </c>
+      <c r="P79">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>42950.687569444446</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>18.040489432774191</v>
+      </c>
+      <c r="G80">
+        <v>5.0009990009990011</v>
+      </c>
+      <c r="H80">
+        <v>0.3</v>
+      </c>
+      <c r="I80">
+        <v>0.1</v>
+      </c>
+      <c r="J80">
+        <v>4</v>
+      </c>
+      <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>0.36</v>
+      </c>
+      <c r="N80">
+        <v>1.5</v>
+      </c>
+      <c r="O80">
+        <v>0.46</v>
+      </c>
+      <c r="P80">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>42950.696111111109</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>8</v>
+      </c>
+      <c r="F81">
+        <v>18.216251259564935</v>
+      </c>
+      <c r="G81">
+        <v>4.9930069930069925</v>
+      </c>
+      <c r="H81">
+        <v>0.3</v>
+      </c>
+      <c r="I81">
+        <v>0.1</v>
+      </c>
+      <c r="J81">
+        <v>4</v>
+      </c>
+      <c r="K81">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>0.36</v>
+      </c>
+      <c r="N81">
+        <v>1.5</v>
+      </c>
+      <c r="O81">
+        <v>0.46</v>
+      </c>
+      <c r="P81">
+        <v>4.1849999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>42950.696331018517</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>8</v>
+      </c>
+      <c r="F82">
+        <v>17.995057417601494</v>
+      </c>
+      <c r="G82">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H82">
+        <v>0.3</v>
+      </c>
+      <c r="I82">
+        <v>0.1</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
+      </c>
+      <c r="K82">
+        <v>4</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>0.36</v>
+      </c>
+      <c r="N82">
+        <v>1.5</v>
+      </c>
+      <c r="O82">
+        <v>0.46</v>
+      </c>
+      <c r="P82">
+        <v>4.3616999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>42950.696562500001</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>8</v>
+      </c>
+      <c r="F83">
+        <v>18.177899047290524</v>
+      </c>
+      <c r="G83">
+        <v>5.0009990009990011</v>
+      </c>
+      <c r="H83">
+        <v>0.3</v>
+      </c>
+      <c r="I83">
+        <v>0.1</v>
+      </c>
+      <c r="J83">
+        <v>4</v>
+      </c>
+      <c r="K83">
+        <v>4</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>0.36</v>
+      </c>
+      <c r="N83">
+        <v>1.5</v>
+      </c>
+      <c r="O83">
+        <v>0.46</v>
+      </c>
+      <c r="P83">
+        <v>4.2077</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>42950.696805555555</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>8</v>
+      </c>
+      <c r="F84">
+        <v>19.108041472125414</v>
+      </c>
+      <c r="G84">
+        <v>4.9870129870129869</v>
+      </c>
+      <c r="H84">
+        <v>0.3</v>
+      </c>
+      <c r="I84">
+        <v>0.1</v>
+      </c>
+      <c r="J84">
+        <v>4</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>0.36</v>
+      </c>
+      <c r="N84">
+        <v>1.5</v>
+      </c>
+      <c r="O84">
+        <v>0.46</v>
+      </c>
+      <c r="P84">
+        <v>4.2549999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>42950.697025462963</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>8</v>
+      </c>
+      <c r="F85">
+        <v>18.074015219416292</v>
+      </c>
+      <c r="G85">
+        <v>4.9870129870129869</v>
+      </c>
+      <c r="H85">
+        <v>0.3</v>
+      </c>
+      <c r="I85">
+        <v>0.1</v>
+      </c>
+      <c r="J85">
+        <v>4</v>
+      </c>
+      <c r="K85">
+        <v>4</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>0.36</v>
+      </c>
+      <c r="N85">
+        <v>1.5</v>
+      </c>
+      <c r="O85">
+        <v>0.46</v>
+      </c>
+      <c r="P85">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>42950.697256944448</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>8</v>
+      </c>
+      <c r="F86">
+        <v>18.074863835790811</v>
+      </c>
+      <c r="G86">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H86">
+        <v>0.3</v>
+      </c>
+      <c r="I86">
+        <v>0.1</v>
+      </c>
+      <c r="J86">
+        <v>4</v>
+      </c>
+      <c r="K86">
+        <v>4</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>0.36</v>
+      </c>
+      <c r="N86">
+        <v>1.5</v>
+      </c>
+      <c r="O86">
+        <v>0.46</v>
+      </c>
+      <c r="P86">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>42950.697488425925</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>8</v>
+      </c>
+      <c r="F87">
+        <v>18.184543662304442</v>
+      </c>
+      <c r="G87">
+        <v>4.9950049950049946</v>
+      </c>
+      <c r="H87">
+        <v>0.3</v>
+      </c>
+      <c r="I87">
+        <v>0.1</v>
+      </c>
+      <c r="J87">
+        <v>4</v>
+      </c>
+      <c r="K87">
+        <v>4</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>0.36</v>
+      </c>
+      <c r="N87">
+        <v>1.5</v>
+      </c>
+      <c r="O87">
+        <v>0.46</v>
+      </c>
+      <c r="P87">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>42950.697708333333</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>8</v>
+      </c>
+      <c r="F88">
+        <v>17.856046887654649</v>
+      </c>
+      <c r="G88">
+        <v>4.9810189810189813</v>
+      </c>
+      <c r="H88">
+        <v>0.3</v>
+      </c>
+      <c r="I88">
+        <v>0.1</v>
+      </c>
+      <c r="J88">
+        <v>4</v>
+      </c>
+      <c r="K88">
+        <v>4</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>0.36</v>
+      </c>
+      <c r="N88">
+        <v>1.5</v>
+      </c>
+      <c r="O88">
+        <v>0.46</v>
+      </c>
+      <c r="P88">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>42950.697928240741</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>8</v>
+      </c>
+      <c r="F89">
+        <v>17.78955049891411</v>
+      </c>
+      <c r="G89">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H89">
+        <v>0.3</v>
+      </c>
+      <c r="I89">
+        <v>0.1</v>
+      </c>
+      <c r="J89">
+        <v>4</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>0.36</v>
+      </c>
+      <c r="N89">
+        <v>1.5</v>
+      </c>
+      <c r="O89">
+        <v>0.46</v>
+      </c>
+      <c r="P89">
+        <v>4.1849999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>42950.698159722226</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>8</v>
+      </c>
+      <c r="F90">
+        <v>17.987847378328986</v>
+      </c>
+      <c r="G90">
+        <v>5.0089910089910088</v>
+      </c>
+      <c r="H90">
+        <v>0.3</v>
+      </c>
+      <c r="I90">
+        <v>0.1</v>
+      </c>
+      <c r="J90">
+        <v>4</v>
+      </c>
+      <c r="K90">
+        <v>4</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>0.36</v>
+      </c>
+      <c r="N90">
+        <v>1.5</v>
+      </c>
+      <c r="O90">
+        <v>0.46</v>
+      </c>
+      <c r="P90">
+        <v>4.3616999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>42950.698391203703</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>8</v>
+      </c>
+      <c r="F91">
+        <v>18.545626089769662</v>
+      </c>
+      <c r="G91">
+        <v>5.0009990009990011</v>
+      </c>
+      <c r="H91">
+        <v>0.3</v>
+      </c>
+      <c r="I91">
+        <v>0.1</v>
+      </c>
+      <c r="J91">
+        <v>4</v>
+      </c>
+      <c r="K91">
+        <v>4</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>0.36</v>
+      </c>
+      <c r="N91">
+        <v>1.5</v>
+      </c>
+      <c r="O91">
+        <v>0.46</v>
+      </c>
+      <c r="P91">
+        <v>4.2077</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>42950.698622685188</v>
+      </c>
+      <c r="B92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>8</v>
+      </c>
+      <c r="F92">
+        <v>18.439260410990158</v>
+      </c>
+      <c r="G92">
+        <v>4.9850149850149847</v>
+      </c>
+      <c r="H92">
+        <v>0.3</v>
+      </c>
+      <c r="I92">
+        <v>0.1</v>
+      </c>
+      <c r="J92">
+        <v>4</v>
+      </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>0.36</v>
+      </c>
+      <c r="N92">
+        <v>1.5</v>
+      </c>
+      <c r="O92">
+        <v>0.46</v>
+      </c>
+      <c r="P92">
+        <v>4.2549999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>42950.698854166665</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>8</v>
+      </c>
+      <c r="F93">
+        <v>18.649250084877636</v>
+      </c>
+      <c r="G93">
+        <v>5.0109890109890109</v>
+      </c>
+      <c r="H93">
+        <v>0.3</v>
+      </c>
+      <c r="I93">
+        <v>0.1</v>
+      </c>
+      <c r="J93">
+        <v>4</v>
+      </c>
+      <c r="K93">
+        <v>4</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>0.36</v>
+      </c>
+      <c r="N93">
+        <v>1.5</v>
+      </c>
+      <c r="O93">
+        <v>0.46</v>
+      </c>
+      <c r="P93">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>42950.69908564815</v>
+      </c>
+      <c r="B94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>8</v>
+      </c>
+      <c r="F94">
+        <v>18.47814572842292</v>
+      </c>
+      <c r="G94">
+        <v>5.0089910089910088</v>
+      </c>
+      <c r="H94">
+        <v>0.3</v>
+      </c>
+      <c r="I94">
+        <v>0.1</v>
+      </c>
+      <c r="J94">
+        <v>4</v>
+      </c>
+      <c r="K94">
+        <v>4</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>0.36</v>
+      </c>
+      <c r="N94">
+        <v>1.5</v>
+      </c>
+      <c r="O94">
+        <v>0.46</v>
+      </c>
+      <c r="P94">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>42950.699317129627</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>8</v>
+      </c>
+      <c r="F95">
+        <v>18.521495561563565</v>
+      </c>
+      <c r="G95">
+        <v>5.0089910089910088</v>
+      </c>
+      <c r="H95">
+        <v>0.3</v>
+      </c>
+      <c r="I95">
+        <v>0.1</v>
+      </c>
+      <c r="J95">
+        <v>4</v>
+      </c>
+      <c r="K95">
+        <v>4</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>0.36</v>
+      </c>
+      <c r="N95">
+        <v>1.5</v>
+      </c>
+      <c r="O95">
+        <v>0.46</v>
+      </c>
+      <c r="P95">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>42950.699548611112</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>8</v>
+      </c>
+      <c r="F96">
+        <v>18.498346126043852</v>
+      </c>
+      <c r="G96">
+        <v>5.0009990009990011</v>
+      </c>
+      <c r="H96">
+        <v>0.3</v>
+      </c>
+      <c r="I96">
+        <v>0.1</v>
+      </c>
+      <c r="J96">
+        <v>4</v>
+      </c>
+      <c r="K96">
+        <v>4</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>0.36</v>
+      </c>
+      <c r="N96">
+        <v>1.5</v>
+      </c>
+      <c r="O96">
+        <v>0.46</v>
+      </c>
+      <c r="P96">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>42951.748981481483</v>
+      </c>
+      <c r="B97" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>100</v>
+      </c>
+      <c r="E97">
+        <v>8</v>
+      </c>
+      <c r="F97">
+        <v>15.868170390136338</v>
+      </c>
+      <c r="G97">
+        <v>7.3076923076923075</v>
+      </c>
+      <c r="H97">
+        <v>0.3</v>
+      </c>
+      <c r="I97">
+        <v>0.1</v>
+      </c>
+      <c r="J97">
+        <v>4</v>
+      </c>
+      <c r="K97">
+        <v>4</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>0.36</v>
+      </c>
+      <c r="N97">
+        <v>1.5</v>
+      </c>
+      <c r="O97">
+        <v>0.46</v>
+      </c>
+      <c r="P97">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>42951.872708333336</v>
+      </c>
+      <c r="B98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>8</v>
+      </c>
+      <c r="F98">
+        <v>24.973420579971055</v>
+      </c>
+      <c r="G98">
+        <v>3.6163836163836161</v>
+      </c>
+      <c r="H98">
+        <v>0.3</v>
+      </c>
+      <c r="I98">
+        <v>0.1</v>
+      </c>
+      <c r="J98">
+        <v>4</v>
+      </c>
+      <c r="K98">
+        <v>4</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>0.36</v>
+      </c>
+      <c r="N98">
+        <v>1.5</v>
+      </c>
+      <c r="O98">
+        <v>0.46</v>
+      </c>
+      <c r="P98">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RunSummaries.xlsx
+++ b/RunSummaries.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P98"/>
+  <dimension ref="A1:P124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:P98"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124:P124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5360,6 +5360,1306 @@
         <v>4.7156000000000002</v>
       </c>
     </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>42956.645231481481</v>
+      </c>
+      <c r="B99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>8</v>
+      </c>
+      <c r="F99">
+        <v>47.62330968705831</v>
+      </c>
+      <c r="G99">
+        <v>4.9810189810189813</v>
+      </c>
+      <c r="H99">
+        <v>0.3</v>
+      </c>
+      <c r="I99">
+        <v>0.1</v>
+      </c>
+      <c r="J99">
+        <v>4</v>
+      </c>
+      <c r="K99">
+        <v>4</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>0.36</v>
+      </c>
+      <c r="N99">
+        <v>1.5</v>
+      </c>
+      <c r="O99">
+        <v>0.46</v>
+      </c>
+      <c r="P99">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>42956.652326388888</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>8</v>
+      </c>
+      <c r="F100">
+        <v>301.17806192275606</v>
+      </c>
+      <c r="G100">
+        <v>4.9810189810189813</v>
+      </c>
+      <c r="H100">
+        <v>0.3</v>
+      </c>
+      <c r="I100">
+        <v>0.1</v>
+      </c>
+      <c r="J100">
+        <v>4</v>
+      </c>
+      <c r="K100">
+        <v>4</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>0.36</v>
+      </c>
+      <c r="N100">
+        <v>1.5</v>
+      </c>
+      <c r="O100">
+        <v>0.46</v>
+      </c>
+      <c r="P100">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>42956.682754629626</v>
+      </c>
+      <c r="B101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1000</v>
+      </c>
+      <c r="E101">
+        <v>6</v>
+      </c>
+      <c r="F101">
+        <v>19.633311968594793</v>
+      </c>
+      <c r="G101">
+        <v>9.615384615384615</v>
+      </c>
+      <c r="H101">
+        <v>0.3</v>
+      </c>
+      <c r="I101">
+        <v>0.1</v>
+      </c>
+      <c r="J101">
+        <v>4</v>
+      </c>
+      <c r="K101">
+        <v>4</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>0.36</v>
+      </c>
+      <c r="N101">
+        <v>1.5</v>
+      </c>
+      <c r="O101">
+        <v>0.46</v>
+      </c>
+      <c r="P101">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>42956.850173611114</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>10</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>28.813696706683686</v>
+      </c>
+      <c r="G102">
+        <v>4.6661460367044123</v>
+      </c>
+      <c r="H102">
+        <v>0.3</v>
+      </c>
+      <c r="I102">
+        <v>0.1</v>
+      </c>
+      <c r="J102">
+        <v>4</v>
+      </c>
+      <c r="K102">
+        <v>4</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>0.36</v>
+      </c>
+      <c r="N102">
+        <v>1.5</v>
+      </c>
+      <c r="O102">
+        <v>0.46</v>
+      </c>
+      <c r="P102">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>42956.850439814814</v>
+      </c>
+      <c r="B103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>10</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>16.1089326473151</v>
+      </c>
+      <c r="G103">
+        <v>4.6661460367044123</v>
+      </c>
+      <c r="H103">
+        <v>0.3</v>
+      </c>
+      <c r="I103">
+        <v>0.1</v>
+      </c>
+      <c r="J103">
+        <v>4</v>
+      </c>
+      <c r="K103">
+        <v>4</v>
+      </c>
+      <c r="L103">
+        <v>2</v>
+      </c>
+      <c r="M103">
+        <v>0.36</v>
+      </c>
+      <c r="N103">
+        <v>1.5</v>
+      </c>
+      <c r="O103">
+        <v>0.46</v>
+      </c>
+      <c r="P103">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>42956.85119212963</v>
+      </c>
+      <c r="B104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>14.267030005884637</v>
+      </c>
+      <c r="G104">
+        <v>4.6661460367044123</v>
+      </c>
+      <c r="H104">
+        <v>0.3</v>
+      </c>
+      <c r="I104">
+        <v>0.1</v>
+      </c>
+      <c r="J104">
+        <v>4</v>
+      </c>
+      <c r="K104">
+        <v>4</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>0.36</v>
+      </c>
+      <c r="N104">
+        <v>1.5</v>
+      </c>
+      <c r="O104">
+        <v>0.46</v>
+      </c>
+      <c r="P104">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>42956.851574074077</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>11.997601346778506</v>
+      </c>
+      <c r="G105">
+        <v>4.6661460367044123</v>
+      </c>
+      <c r="H105">
+        <v>0.3</v>
+      </c>
+      <c r="I105">
+        <v>0.1</v>
+      </c>
+      <c r="J105">
+        <v>4</v>
+      </c>
+      <c r="K105">
+        <v>4</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>0.36</v>
+      </c>
+      <c r="N105">
+        <v>1.5</v>
+      </c>
+      <c r="O105">
+        <v>0.46</v>
+      </c>
+      <c r="P105">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>42956.852013888885</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>20.510265474209199</v>
+      </c>
+      <c r="G106">
+        <v>4.6661460367044123</v>
+      </c>
+      <c r="H106">
+        <v>0.3</v>
+      </c>
+      <c r="I106">
+        <v>0.1</v>
+      </c>
+      <c r="J106">
+        <v>4</v>
+      </c>
+      <c r="K106">
+        <v>4</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>0.36</v>
+      </c>
+      <c r="N106">
+        <v>1.5</v>
+      </c>
+      <c r="O106">
+        <v>0.46</v>
+      </c>
+      <c r="P106">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>42956.855196759258</v>
+      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>11.85646735594881</v>
+      </c>
+      <c r="G107">
+        <v>4.6661460367044123</v>
+      </c>
+      <c r="H107">
+        <v>0.3</v>
+      </c>
+      <c r="I107">
+        <v>0.1</v>
+      </c>
+      <c r="J107">
+        <v>4</v>
+      </c>
+      <c r="K107">
+        <v>4</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>0.36</v>
+      </c>
+      <c r="N107">
+        <v>1.5</v>
+      </c>
+      <c r="O107">
+        <v>0.46</v>
+      </c>
+      <c r="P107">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>42956.855474537035</v>
+      </c>
+      <c r="B108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>10</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>11.591607209655283</v>
+      </c>
+      <c r="G108">
+        <v>4.6661460367044123</v>
+      </c>
+      <c r="H108">
+        <v>0.3</v>
+      </c>
+      <c r="I108">
+        <v>0.1</v>
+      </c>
+      <c r="J108">
+        <v>4</v>
+      </c>
+      <c r="K108">
+        <v>4</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>0.36</v>
+      </c>
+      <c r="N108">
+        <v>1.5</v>
+      </c>
+      <c r="O108">
+        <v>0.46</v>
+      </c>
+      <c r="P108">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>42956.856041666666</v>
+      </c>
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>17.15924036674819</v>
+      </c>
+      <c r="G109">
+        <v>4.7557840616966578</v>
+      </c>
+      <c r="H109">
+        <v>0.3</v>
+      </c>
+      <c r="I109">
+        <v>0.1</v>
+      </c>
+      <c r="J109">
+        <v>4</v>
+      </c>
+      <c r="K109">
+        <v>4</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>0.36</v>
+      </c>
+      <c r="N109">
+        <v>1.5</v>
+      </c>
+      <c r="O109">
+        <v>0.46</v>
+      </c>
+      <c r="P109">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>42956.85633101852</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>17.206368014714471</v>
+      </c>
+      <c r="G110">
+        <v>4.7557840616966578</v>
+      </c>
+      <c r="H110">
+        <v>0.3</v>
+      </c>
+      <c r="I110">
+        <v>0.1</v>
+      </c>
+      <c r="J110">
+        <v>4</v>
+      </c>
+      <c r="K110">
+        <v>4</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>0.36</v>
+      </c>
+      <c r="N110">
+        <v>1.5</v>
+      </c>
+      <c r="O110">
+        <v>0.46</v>
+      </c>
+      <c r="P110">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>42956.85665509259</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>18.301213054228569</v>
+      </c>
+      <c r="G111">
+        <v>4.7557840616966578</v>
+      </c>
+      <c r="H111">
+        <v>0.3</v>
+      </c>
+      <c r="I111">
+        <v>0.1</v>
+      </c>
+      <c r="J111">
+        <v>4</v>
+      </c>
+      <c r="K111">
+        <v>4</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>0.36</v>
+      </c>
+      <c r="N111">
+        <v>1.5</v>
+      </c>
+      <c r="O111">
+        <v>0.46</v>
+      </c>
+      <c r="P111">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>42956.857569444444</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>34.42381156108614</v>
+      </c>
+      <c r="G112">
+        <v>4.7557840616966578</v>
+      </c>
+      <c r="H112">
+        <v>0.3</v>
+      </c>
+      <c r="I112">
+        <v>0.1</v>
+      </c>
+      <c r="J112">
+        <v>4</v>
+      </c>
+      <c r="K112">
+        <v>4</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>0.36</v>
+      </c>
+      <c r="N112">
+        <v>1.5</v>
+      </c>
+      <c r="O112">
+        <v>0.46</v>
+      </c>
+      <c r="P112">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>42956.857939814814</v>
+      </c>
+      <c r="B113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>22.853282484615629</v>
+      </c>
+      <c r="G113">
+        <v>4.7557840616966578</v>
+      </c>
+      <c r="H113">
+        <v>0.3</v>
+      </c>
+      <c r="I113">
+        <v>0.1</v>
+      </c>
+      <c r="J113">
+        <v>4</v>
+      </c>
+      <c r="K113">
+        <v>4</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>0.36</v>
+      </c>
+      <c r="N113">
+        <v>1.5</v>
+      </c>
+      <c r="O113">
+        <v>0.46</v>
+      </c>
+      <c r="P113">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>42956.858344907407</v>
+      </c>
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>22.492494448954542</v>
+      </c>
+      <c r="G114">
+        <v>4.7557840616966578</v>
+      </c>
+      <c r="H114">
+        <v>0.3</v>
+      </c>
+      <c r="I114">
+        <v>0.1</v>
+      </c>
+      <c r="J114">
+        <v>4</v>
+      </c>
+      <c r="K114">
+        <v>4</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>0.36</v>
+      </c>
+      <c r="N114">
+        <v>1.5</v>
+      </c>
+      <c r="O114">
+        <v>0.46</v>
+      </c>
+      <c r="P114">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>42956.858935185184</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>34.52645382352555</v>
+      </c>
+      <c r="G115">
+        <v>4.7557840616966578</v>
+      </c>
+      <c r="H115">
+        <v>0.3</v>
+      </c>
+      <c r="I115">
+        <v>0.1</v>
+      </c>
+      <c r="J115">
+        <v>4</v>
+      </c>
+      <c r="K115">
+        <v>4</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>0.36</v>
+      </c>
+      <c r="N115">
+        <v>1.5</v>
+      </c>
+      <c r="O115">
+        <v>0.46</v>
+      </c>
+      <c r="P115">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>42956.860717592594</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>18.546751818429374</v>
+      </c>
+      <c r="G116">
+        <v>4.7557840616966578</v>
+      </c>
+      <c r="H116">
+        <v>0.3</v>
+      </c>
+      <c r="I116">
+        <v>0.1</v>
+      </c>
+      <c r="J116">
+        <v>4</v>
+      </c>
+      <c r="K116">
+        <v>4</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>0.36</v>
+      </c>
+      <c r="N116">
+        <v>1.5</v>
+      </c>
+      <c r="O116">
+        <v>0.46</v>
+      </c>
+      <c r="P116">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>42956.861284722225</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>18.184056315872166</v>
+      </c>
+      <c r="G117">
+        <v>4.7557840616966578</v>
+      </c>
+      <c r="H117">
+        <v>0.3</v>
+      </c>
+      <c r="I117">
+        <v>0.1</v>
+      </c>
+      <c r="J117">
+        <v>4</v>
+      </c>
+      <c r="K117">
+        <v>4</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>0.36</v>
+      </c>
+      <c r="N117">
+        <v>1.5</v>
+      </c>
+      <c r="O117">
+        <v>0.46</v>
+      </c>
+      <c r="P117">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>42956.974212962959</v>
+      </c>
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>10000</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>21.975067894109827</v>
+      </c>
+      <c r="G118">
+        <v>5.384615384615385</v>
+      </c>
+      <c r="H118">
+        <v>0.3</v>
+      </c>
+      <c r="I118">
+        <v>0.1</v>
+      </c>
+      <c r="J118">
+        <v>4</v>
+      </c>
+      <c r="K118">
+        <v>4</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>0.36</v>
+      </c>
+      <c r="N118">
+        <v>1.5</v>
+      </c>
+      <c r="O118">
+        <v>0.46</v>
+      </c>
+      <c r="P118">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>42956.975682870368</v>
+      </c>
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>10000</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>3.4992485009217345</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0.3</v>
+      </c>
+      <c r="I119">
+        <v>0.1</v>
+      </c>
+      <c r="J119">
+        <v>4</v>
+      </c>
+      <c r="K119">
+        <v>4</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>0.36</v>
+      </c>
+      <c r="N119">
+        <v>1.5</v>
+      </c>
+      <c r="O119">
+        <v>0.46</v>
+      </c>
+      <c r="P119">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>42956.975949074076</v>
+      </c>
+      <c r="B120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>10000</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>3.2868390544007253</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0.3</v>
+      </c>
+      <c r="I120">
+        <v>0.1</v>
+      </c>
+      <c r="J120">
+        <v>4</v>
+      </c>
+      <c r="K120">
+        <v>4</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>0.36</v>
+      </c>
+      <c r="N120">
+        <v>1.5</v>
+      </c>
+      <c r="O120">
+        <v>0.46</v>
+      </c>
+      <c r="P120">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>42956.97797453704</v>
+      </c>
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>10000</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>5.1121139987462749</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0.3</v>
+      </c>
+      <c r="I121">
+        <v>0.1</v>
+      </c>
+      <c r="J121">
+        <v>4</v>
+      </c>
+      <c r="K121">
+        <v>4</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>0.36</v>
+      </c>
+      <c r="N121">
+        <v>1.5</v>
+      </c>
+      <c r="O121">
+        <v>0.46</v>
+      </c>
+      <c r="P121">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>42956.979097222225</v>
+      </c>
+      <c r="B122" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>6</v>
+      </c>
+      <c r="F122">
+        <v>71.727423908518389</v>
+      </c>
+      <c r="G122">
+        <v>4.9810189810189813</v>
+      </c>
+      <c r="H122">
+        <v>0.3</v>
+      </c>
+      <c r="I122">
+        <v>0.1</v>
+      </c>
+      <c r="J122">
+        <v>4</v>
+      </c>
+      <c r="K122">
+        <v>4</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>0.36</v>
+      </c>
+      <c r="N122">
+        <v>1.5</v>
+      </c>
+      <c r="O122">
+        <v>0.46</v>
+      </c>
+      <c r="P122">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>42956.980752314812</v>
+      </c>
+      <c r="B123" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>6</v>
+      </c>
+      <c r="F123">
+        <v>57.564139494356475</v>
+      </c>
+      <c r="G123">
+        <v>4.9810189810189813</v>
+      </c>
+      <c r="H123">
+        <v>0.3</v>
+      </c>
+      <c r="I123">
+        <v>0.1</v>
+      </c>
+      <c r="J123">
+        <v>4</v>
+      </c>
+      <c r="K123">
+        <v>4</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>0.36</v>
+      </c>
+      <c r="N123">
+        <v>1.5</v>
+      </c>
+      <c r="O123">
+        <v>0.46</v>
+      </c>
+      <c r="P123">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>42956.984583333331</v>
+      </c>
+      <c r="B124" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>6</v>
+      </c>
+      <c r="F124">
+        <v>19.456468251923866</v>
+      </c>
+      <c r="G124">
+        <v>4.9810189810189813</v>
+      </c>
+      <c r="H124">
+        <v>0.3</v>
+      </c>
+      <c r="I124">
+        <v>0.1</v>
+      </c>
+      <c r="J124">
+        <v>4</v>
+      </c>
+      <c r="K124">
+        <v>4</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>0.36</v>
+      </c>
+      <c r="N124">
+        <v>1.5</v>
+      </c>
+      <c r="O124">
+        <v>0.46</v>
+      </c>
+      <c r="P124">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RunSummaries.xlsx
+++ b/RunSummaries.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P124"/>
+  <dimension ref="A1:P131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124:P124"/>
+      <selection activeCell="A131" sqref="A131:P131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6660,6 +6660,356 @@
         <v>4.7156000000000002</v>
       </c>
     </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>42956.989444444444</v>
+      </c>
+      <c r="B125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>10000</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>2.5123978948426076</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0.3</v>
+      </c>
+      <c r="I125">
+        <v>0.1</v>
+      </c>
+      <c r="J125">
+        <v>4</v>
+      </c>
+      <c r="K125">
+        <v>4</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>0.36</v>
+      </c>
+      <c r="N125">
+        <v>1.5</v>
+      </c>
+      <c r="O125">
+        <v>0.46</v>
+      </c>
+      <c r="P125">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>42956.989837962959</v>
+      </c>
+      <c r="B126" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>10000</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>2.4294366844827042</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0.3</v>
+      </c>
+      <c r="I126">
+        <v>0.1</v>
+      </c>
+      <c r="J126">
+        <v>4</v>
+      </c>
+      <c r="K126">
+        <v>4</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>0.36</v>
+      </c>
+      <c r="N126">
+        <v>1.5</v>
+      </c>
+      <c r="O126">
+        <v>0.46</v>
+      </c>
+      <c r="P126">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>42956.990289351852</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>1000</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127">
+        <v>2.4243488261286807</v>
+      </c>
+      <c r="G127">
+        <v>15.384615384615385</v>
+      </c>
+      <c r="H127">
+        <v>0.3</v>
+      </c>
+      <c r="I127">
+        <v>0.1</v>
+      </c>
+      <c r="J127">
+        <v>4</v>
+      </c>
+      <c r="K127">
+        <v>4</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>0.36</v>
+      </c>
+      <c r="N127">
+        <v>1.5</v>
+      </c>
+      <c r="O127">
+        <v>0.46</v>
+      </c>
+      <c r="P127">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>42956.990694444445</v>
+      </c>
+      <c r="B128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>1000</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>2.318066985015137</v>
+      </c>
+      <c r="G128">
+        <v>15.384615384615385</v>
+      </c>
+      <c r="H128">
+        <v>0.3</v>
+      </c>
+      <c r="I128">
+        <v>0.1</v>
+      </c>
+      <c r="J128">
+        <v>4</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>0.36</v>
+      </c>
+      <c r="N128">
+        <v>1.5</v>
+      </c>
+      <c r="O128">
+        <v>0.46</v>
+      </c>
+      <c r="P128">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>42956.99113425926</v>
+      </c>
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>1000</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>3.6538281974229836</v>
+      </c>
+      <c r="G129">
+        <v>15.384615384615385</v>
+      </c>
+      <c r="H129">
+        <v>0.3</v>
+      </c>
+      <c r="I129">
+        <v>0.1</v>
+      </c>
+      <c r="J129">
+        <v>4</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>0.36</v>
+      </c>
+      <c r="N129">
+        <v>1.5</v>
+      </c>
+      <c r="O129">
+        <v>0.46</v>
+      </c>
+      <c r="P129">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>42956.991215277776</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1000</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>3.5865519903925875</v>
+      </c>
+      <c r="G130">
+        <v>15.384615384615385</v>
+      </c>
+      <c r="H130">
+        <v>0.3</v>
+      </c>
+      <c r="I130">
+        <v>0.1</v>
+      </c>
+      <c r="J130">
+        <v>4</v>
+      </c>
+      <c r="K130">
+        <v>4</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>0.36</v>
+      </c>
+      <c r="N130">
+        <v>1.5</v>
+      </c>
+      <c r="O130">
+        <v>0.46</v>
+      </c>
+      <c r="P130">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>42956.991481481484</v>
+      </c>
+      <c r="B131" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>1000</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>2.5608333463996362</v>
+      </c>
+      <c r="G131">
+        <v>15.384615384615385</v>
+      </c>
+      <c r="H131">
+        <v>0.3</v>
+      </c>
+      <c r="I131">
+        <v>0.1</v>
+      </c>
+      <c r="J131">
+        <v>4</v>
+      </c>
+      <c r="K131">
+        <v>4</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>0.36</v>
+      </c>
+      <c r="N131">
+        <v>1.5</v>
+      </c>
+      <c r="O131">
+        <v>0.46</v>
+      </c>
+      <c r="P131">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RunSummaries.xlsx
+++ b/RunSummaries.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>rcp45</t>
+  </si>
+  <si>
+    <t>control400</t>
   </si>
 </sst>
 </file>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P131"/>
+  <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131:P131"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202:P202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7010,6 +7013,3556 @@
         <v>4.7156000000000002</v>
       </c>
     </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>42957.002951388888</v>
+      </c>
+      <c r="B132" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>62.902967821375853</v>
+      </c>
+      <c r="G132">
+        <v>4.9810189810189813</v>
+      </c>
+      <c r="H132">
+        <v>0.3</v>
+      </c>
+      <c r="I132">
+        <v>0.1</v>
+      </c>
+      <c r="J132">
+        <v>4</v>
+      </c>
+      <c r="K132">
+        <v>4</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>0.36</v>
+      </c>
+      <c r="N132">
+        <v>1.5</v>
+      </c>
+      <c r="O132">
+        <v>0.46</v>
+      </c>
+      <c r="P132">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>42957.4996875</v>
+      </c>
+      <c r="B133" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>1000</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>11.888252711044524</v>
+      </c>
+      <c r="G133">
+        <v>15.384615384615385</v>
+      </c>
+      <c r="H133">
+        <v>0.3</v>
+      </c>
+      <c r="I133">
+        <v>0.1</v>
+      </c>
+      <c r="J133">
+        <v>4</v>
+      </c>
+      <c r="K133">
+        <v>4</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>0.36</v>
+      </c>
+      <c r="N133">
+        <v>1.5</v>
+      </c>
+      <c r="O133">
+        <v>0.46</v>
+      </c>
+      <c r="P133">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>42957.508032407408</v>
+      </c>
+      <c r="B134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1000</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>13.603447840012134</v>
+      </c>
+      <c r="G134">
+        <v>15.384615384615385</v>
+      </c>
+      <c r="H134">
+        <v>0.3</v>
+      </c>
+      <c r="I134">
+        <v>0.1</v>
+      </c>
+      <c r="J134">
+        <v>4</v>
+      </c>
+      <c r="K134">
+        <v>4</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>0.36</v>
+      </c>
+      <c r="N134">
+        <v>1.5</v>
+      </c>
+      <c r="O134">
+        <v>0.46</v>
+      </c>
+      <c r="P134">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>42957.513055555559</v>
+      </c>
+      <c r="B135" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>100</v>
+      </c>
+      <c r="E135">
+        <v>6</v>
+      </c>
+      <c r="F135">
+        <v>13.298190738369843</v>
+      </c>
+      <c r="G135">
+        <v>6.1538461538461542</v>
+      </c>
+      <c r="H135">
+        <v>0.3</v>
+      </c>
+      <c r="I135">
+        <v>0.1</v>
+      </c>
+      <c r="J135">
+        <v>4</v>
+      </c>
+      <c r="K135">
+        <v>4</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>0.36</v>
+      </c>
+      <c r="N135">
+        <v>1.5</v>
+      </c>
+      <c r="O135">
+        <v>0.46</v>
+      </c>
+      <c r="P135">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>42957.571574074071</v>
+      </c>
+      <c r="B136" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>100</v>
+      </c>
+      <c r="E136">
+        <v>6</v>
+      </c>
+      <c r="F136">
+        <v>17.038819079276834</v>
+      </c>
+      <c r="G136">
+        <v>6.1538461538461542</v>
+      </c>
+      <c r="H136">
+        <v>0.3</v>
+      </c>
+      <c r="I136">
+        <v>0.1</v>
+      </c>
+      <c r="J136">
+        <v>4</v>
+      </c>
+      <c r="K136">
+        <v>4</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>0.36</v>
+      </c>
+      <c r="N136">
+        <v>1.5</v>
+      </c>
+      <c r="O136">
+        <v>0.46</v>
+      </c>
+      <c r="P136">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>42957.574444444443</v>
+      </c>
+      <c r="B137" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>100</v>
+      </c>
+      <c r="E137">
+        <v>6</v>
+      </c>
+      <c r="F137">
+        <v>18.642487713142067</v>
+      </c>
+      <c r="G137">
+        <v>6.1538461538461542</v>
+      </c>
+      <c r="H137">
+        <v>0.3</v>
+      </c>
+      <c r="I137">
+        <v>0.1</v>
+      </c>
+      <c r="J137">
+        <v>4</v>
+      </c>
+      <c r="K137">
+        <v>4</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>0.36</v>
+      </c>
+      <c r="N137">
+        <v>1.5</v>
+      </c>
+      <c r="O137">
+        <v>0.46</v>
+      </c>
+      <c r="P137">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>42957.581134259257</v>
+      </c>
+      <c r="B138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>100</v>
+      </c>
+      <c r="E138">
+        <v>6</v>
+      </c>
+      <c r="F138">
+        <v>3.3770819820376201</v>
+      </c>
+      <c r="G138">
+        <v>6.1538461538461542</v>
+      </c>
+      <c r="H138">
+        <v>0.3</v>
+      </c>
+      <c r="I138">
+        <v>0.1</v>
+      </c>
+      <c r="J138">
+        <v>4</v>
+      </c>
+      <c r="K138">
+        <v>4</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>0.36</v>
+      </c>
+      <c r="N138">
+        <v>1.5</v>
+      </c>
+      <c r="O138">
+        <v>0.46</v>
+      </c>
+      <c r="P138">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>42957.583773148152</v>
+      </c>
+      <c r="B139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>100</v>
+      </c>
+      <c r="E139">
+        <v>6</v>
+      </c>
+      <c r="F139">
+        <v>3.2931131197307466</v>
+      </c>
+      <c r="G139">
+        <v>6.5384615384615383</v>
+      </c>
+      <c r="H139">
+        <v>0.3</v>
+      </c>
+      <c r="I139">
+        <v>0.1</v>
+      </c>
+      <c r="J139">
+        <v>4</v>
+      </c>
+      <c r="K139">
+        <v>4</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>0.36</v>
+      </c>
+      <c r="N139">
+        <v>1.5</v>
+      </c>
+      <c r="O139">
+        <v>0.46</v>
+      </c>
+      <c r="P139">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>42957.594050925924</v>
+      </c>
+      <c r="B140" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>6</v>
+      </c>
+      <c r="F140">
+        <v>59.541133734836819</v>
+      </c>
+      <c r="G140">
+        <v>5.0189810189810187</v>
+      </c>
+      <c r="H140">
+        <v>0.3</v>
+      </c>
+      <c r="I140">
+        <v>0.1</v>
+      </c>
+      <c r="J140">
+        <v>4</v>
+      </c>
+      <c r="K140">
+        <v>4</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>0.36</v>
+      </c>
+      <c r="N140">
+        <v>1.5</v>
+      </c>
+      <c r="O140">
+        <v>0.46</v>
+      </c>
+      <c r="P140">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>42957.59716435185</v>
+      </c>
+      <c r="B141" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>6</v>
+      </c>
+      <c r="F141">
+        <v>59.195022090584999</v>
+      </c>
+      <c r="G141">
+        <v>5.0089910089910088</v>
+      </c>
+      <c r="H141">
+        <v>0.3</v>
+      </c>
+      <c r="I141">
+        <v>0.1</v>
+      </c>
+      <c r="J141">
+        <v>4</v>
+      </c>
+      <c r="K141">
+        <v>4</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>0.36</v>
+      </c>
+      <c r="N141">
+        <v>1.5</v>
+      </c>
+      <c r="O141">
+        <v>0.46</v>
+      </c>
+      <c r="P141">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>42957.598391203705</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>6</v>
+      </c>
+      <c r="F142">
+        <v>59.018364288738205</v>
+      </c>
+      <c r="G142">
+        <v>4.9950049950049946</v>
+      </c>
+      <c r="H142">
+        <v>0.3</v>
+      </c>
+      <c r="I142">
+        <v>0.1</v>
+      </c>
+      <c r="J142">
+        <v>4</v>
+      </c>
+      <c r="K142">
+        <v>4</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>0.36</v>
+      </c>
+      <c r="N142">
+        <v>1.5</v>
+      </c>
+      <c r="O142">
+        <v>0.46</v>
+      </c>
+      <c r="P142">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>42957.600902777776</v>
+      </c>
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>6</v>
+      </c>
+      <c r="F143">
+        <v>59.375413548486812</v>
+      </c>
+      <c r="G143">
+        <v>5.0089910089910088</v>
+      </c>
+      <c r="H143">
+        <v>0.3</v>
+      </c>
+      <c r="I143">
+        <v>0.1</v>
+      </c>
+      <c r="J143">
+        <v>4</v>
+      </c>
+      <c r="K143">
+        <v>4</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>0.36</v>
+      </c>
+      <c r="N143">
+        <v>1.5</v>
+      </c>
+      <c r="O143">
+        <v>0.46</v>
+      </c>
+      <c r="P143">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>42957.602118055554</v>
+      </c>
+      <c r="B144" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>6</v>
+      </c>
+      <c r="F144">
+        <v>59.025479610647636</v>
+      </c>
+      <c r="G144">
+        <v>5.022977022977023</v>
+      </c>
+      <c r="H144">
+        <v>0.3</v>
+      </c>
+      <c r="I144">
+        <v>0.1</v>
+      </c>
+      <c r="J144">
+        <v>4</v>
+      </c>
+      <c r="K144">
+        <v>4</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>0.36</v>
+      </c>
+      <c r="N144">
+        <v>1.5</v>
+      </c>
+      <c r="O144">
+        <v>0.46</v>
+      </c>
+      <c r="P144">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>42957.603483796294</v>
+      </c>
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>6</v>
+      </c>
+      <c r="F145">
+        <v>21.082561861477778</v>
+      </c>
+      <c r="G145">
+        <v>5.0189810189810187</v>
+      </c>
+      <c r="H145">
+        <v>0.3</v>
+      </c>
+      <c r="I145">
+        <v>0.1</v>
+      </c>
+      <c r="J145">
+        <v>4</v>
+      </c>
+      <c r="K145">
+        <v>4</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>0.36</v>
+      </c>
+      <c r="N145">
+        <v>1.5</v>
+      </c>
+      <c r="O145">
+        <v>0.46</v>
+      </c>
+      <c r="P145">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>42957.626006944447</v>
+      </c>
+      <c r="B146" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>6</v>
+      </c>
+      <c r="F146">
+        <v>19.258903832117316</v>
+      </c>
+      <c r="G146">
+        <v>5.0089910089910088</v>
+      </c>
+      <c r="H146">
+        <v>0.3</v>
+      </c>
+      <c r="I146">
+        <v>0.1</v>
+      </c>
+      <c r="J146">
+        <v>4</v>
+      </c>
+      <c r="K146">
+        <v>4</v>
+      </c>
+      <c r="L146">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>0.36</v>
+      </c>
+      <c r="N146">
+        <v>1.5</v>
+      </c>
+      <c r="O146">
+        <v>0.46</v>
+      </c>
+      <c r="P146">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>42957.627187500002</v>
+      </c>
+      <c r="B147" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>6</v>
+      </c>
+      <c r="F147">
+        <v>19.06129045367377</v>
+      </c>
+      <c r="G147">
+        <v>5.0189810189810187</v>
+      </c>
+      <c r="H147">
+        <v>0.3</v>
+      </c>
+      <c r="I147">
+        <v>0.1</v>
+      </c>
+      <c r="J147">
+        <v>4</v>
+      </c>
+      <c r="K147">
+        <v>4</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>0.36</v>
+      </c>
+      <c r="N147">
+        <v>1.5</v>
+      </c>
+      <c r="O147">
+        <v>0.46</v>
+      </c>
+      <c r="P147">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>42957.641458333332</v>
+      </c>
+      <c r="B148" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>1000</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148">
+        <v>76.406863232927591</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0.3</v>
+      </c>
+      <c r="I148">
+        <v>0.1</v>
+      </c>
+      <c r="J148">
+        <v>4</v>
+      </c>
+      <c r="K148">
+        <v>4</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>0.36</v>
+      </c>
+      <c r="N148">
+        <v>1.5</v>
+      </c>
+      <c r="O148">
+        <v>0.46</v>
+      </c>
+      <c r="P148">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>42957.642060185186</v>
+      </c>
+      <c r="B149" t="s">
+        <v>20</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>1000</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149">
+        <v>24.58546722059258</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0.3</v>
+      </c>
+      <c r="I149">
+        <v>0.1</v>
+      </c>
+      <c r="J149">
+        <v>4</v>
+      </c>
+      <c r="K149">
+        <v>4</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>0.36</v>
+      </c>
+      <c r="N149">
+        <v>1.5</v>
+      </c>
+      <c r="O149">
+        <v>0.46</v>
+      </c>
+      <c r="P149">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>42957.642256944448</v>
+      </c>
+      <c r="B150" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>1000</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>4.4351075666053461</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0.3</v>
+      </c>
+      <c r="I150">
+        <v>0.1</v>
+      </c>
+      <c r="J150">
+        <v>4</v>
+      </c>
+      <c r="K150">
+        <v>4</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>0.36</v>
+      </c>
+      <c r="N150">
+        <v>1.5</v>
+      </c>
+      <c r="O150">
+        <v>0.46</v>
+      </c>
+      <c r="P150">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>42957.646898148145</v>
+      </c>
+      <c r="B151" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>6</v>
+      </c>
+      <c r="F151">
+        <v>29.867333613432201</v>
+      </c>
+      <c r="G151">
+        <v>0.62937062937062938</v>
+      </c>
+      <c r="H151">
+        <v>0.3</v>
+      </c>
+      <c r="I151">
+        <v>0.1</v>
+      </c>
+      <c r="J151">
+        <v>4</v>
+      </c>
+      <c r="K151">
+        <v>4</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>0.36</v>
+      </c>
+      <c r="N151">
+        <v>1.5</v>
+      </c>
+      <c r="O151">
+        <v>0.46</v>
+      </c>
+      <c r="P151">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>42957.648715277777</v>
+      </c>
+      <c r="B152" t="s">
+        <v>20</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>6</v>
+      </c>
+      <c r="F152">
+        <v>29.688067884190104</v>
+      </c>
+      <c r="G152">
+        <v>0.62537462537462529</v>
+      </c>
+      <c r="H152">
+        <v>0.3</v>
+      </c>
+      <c r="I152">
+        <v>0.1</v>
+      </c>
+      <c r="J152">
+        <v>4</v>
+      </c>
+      <c r="K152">
+        <v>4</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>0.36</v>
+      </c>
+      <c r="N152">
+        <v>1.5</v>
+      </c>
+      <c r="O152">
+        <v>0.46</v>
+      </c>
+      <c r="P152">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>42957.65184027778</v>
+      </c>
+      <c r="B153" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>6</v>
+      </c>
+      <c r="F153">
+        <v>34.676261812871132</v>
+      </c>
+      <c r="G153">
+        <v>0.62537462537462529</v>
+      </c>
+      <c r="H153">
+        <v>0.3</v>
+      </c>
+      <c r="I153">
+        <v>0.1</v>
+      </c>
+      <c r="J153">
+        <v>4</v>
+      </c>
+      <c r="K153">
+        <v>4</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>0.36</v>
+      </c>
+      <c r="N153">
+        <v>1.5</v>
+      </c>
+      <c r="O153">
+        <v>0.46</v>
+      </c>
+      <c r="P153">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>42957.652002314811</v>
+      </c>
+      <c r="B154" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>100</v>
+      </c>
+      <c r="E154">
+        <v>6</v>
+      </c>
+      <c r="F154">
+        <v>8.6008296729019058</v>
+      </c>
+      <c r="G154">
+        <v>0.73260073260073255</v>
+      </c>
+      <c r="H154">
+        <v>0.3</v>
+      </c>
+      <c r="I154">
+        <v>0.1</v>
+      </c>
+      <c r="J154">
+        <v>4</v>
+      </c>
+      <c r="K154">
+        <v>4</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>0.36</v>
+      </c>
+      <c r="N154">
+        <v>1.5</v>
+      </c>
+      <c r="O154">
+        <v>0.46</v>
+      </c>
+      <c r="P154">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>42957.656504629631</v>
+      </c>
+      <c r="B155" t="s">
+        <v>20</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>100</v>
+      </c>
+      <c r="E155">
+        <v>6</v>
+      </c>
+      <c r="F155">
+        <v>8.4300353878148027</v>
+      </c>
+      <c r="G155">
+        <v>0.73260073260073255</v>
+      </c>
+      <c r="H155">
+        <v>0.3</v>
+      </c>
+      <c r="I155">
+        <v>0.1</v>
+      </c>
+      <c r="J155">
+        <v>4</v>
+      </c>
+      <c r="K155">
+        <v>4</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>0.36</v>
+      </c>
+      <c r="N155">
+        <v>1.5</v>
+      </c>
+      <c r="O155">
+        <v>0.46</v>
+      </c>
+      <c r="P155">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>42957.657164351855</v>
+      </c>
+      <c r="B156" t="s">
+        <v>20</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>100</v>
+      </c>
+      <c r="E156">
+        <v>6</v>
+      </c>
+      <c r="F156">
+        <v>8.278543925337118</v>
+      </c>
+      <c r="G156">
+        <v>0.73260073260073255</v>
+      </c>
+      <c r="H156">
+        <v>0.3</v>
+      </c>
+      <c r="I156">
+        <v>0.1</v>
+      </c>
+      <c r="J156">
+        <v>4</v>
+      </c>
+      <c r="K156">
+        <v>4</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>0.36</v>
+      </c>
+      <c r="N156">
+        <v>1.5</v>
+      </c>
+      <c r="O156">
+        <v>0.46</v>
+      </c>
+      <c r="P156">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>42957.660578703704</v>
+      </c>
+      <c r="B157" t="s">
+        <v>20</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>100</v>
+      </c>
+      <c r="E157">
+        <v>6</v>
+      </c>
+      <c r="F157">
+        <v>8.5740464185477077</v>
+      </c>
+      <c r="G157">
+        <v>0.73260073260073255</v>
+      </c>
+      <c r="H157">
+        <v>0.3</v>
+      </c>
+      <c r="I157">
+        <v>0.1</v>
+      </c>
+      <c r="J157">
+        <v>4</v>
+      </c>
+      <c r="K157">
+        <v>4</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>0.36</v>
+      </c>
+      <c r="N157">
+        <v>1.5</v>
+      </c>
+      <c r="O157">
+        <v>0.46</v>
+      </c>
+      <c r="P157">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>42957.663194444445</v>
+      </c>
+      <c r="B158" t="s">
+        <v>20</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>100</v>
+      </c>
+      <c r="E158">
+        <v>6</v>
+      </c>
+      <c r="F158">
+        <v>14.7483695653913</v>
+      </c>
+      <c r="G158">
+        <v>0.73260073260073255</v>
+      </c>
+      <c r="H158">
+        <v>0.3</v>
+      </c>
+      <c r="I158">
+        <v>0.1</v>
+      </c>
+      <c r="J158">
+        <v>4</v>
+      </c>
+      <c r="K158">
+        <v>4</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>0.36</v>
+      </c>
+      <c r="N158">
+        <v>1.5</v>
+      </c>
+      <c r="O158">
+        <v>0.46</v>
+      </c>
+      <c r="P158">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>42960.496620370373</v>
+      </c>
+      <c r="B159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>6</v>
+      </c>
+      <c r="F159">
+        <v>78.309013477064795</v>
+      </c>
+      <c r="G159">
+        <v>4.9990009990009989</v>
+      </c>
+      <c r="H159">
+        <v>0.3</v>
+      </c>
+      <c r="I159">
+        <v>0.1</v>
+      </c>
+      <c r="J159">
+        <v>4</v>
+      </c>
+      <c r="K159">
+        <v>4</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>0.36</v>
+      </c>
+      <c r="N159">
+        <v>1.5</v>
+      </c>
+      <c r="O159">
+        <v>0.46</v>
+      </c>
+      <c r="P159">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>42960.497673611113</v>
+      </c>
+      <c r="B160" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>6</v>
+      </c>
+      <c r="F160">
+        <v>22.906805154544497</v>
+      </c>
+      <c r="G160">
+        <v>5.0089910089910088</v>
+      </c>
+      <c r="H160">
+        <v>0.3</v>
+      </c>
+      <c r="I160">
+        <v>0.1</v>
+      </c>
+      <c r="J160">
+        <v>4</v>
+      </c>
+      <c r="K160">
+        <v>4</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>0.36</v>
+      </c>
+      <c r="N160">
+        <v>1.5</v>
+      </c>
+      <c r="O160">
+        <v>0.46</v>
+      </c>
+      <c r="P160">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>42960.497997685183</v>
+      </c>
+      <c r="B161" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>6</v>
+      </c>
+      <c r="F161">
+        <v>20.166203052907008</v>
+      </c>
+      <c r="G161">
+        <v>5.0029970029970023</v>
+      </c>
+      <c r="H161">
+        <v>0.3</v>
+      </c>
+      <c r="I161">
+        <v>0.1</v>
+      </c>
+      <c r="J161">
+        <v>4</v>
+      </c>
+      <c r="K161">
+        <v>4</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>0.36</v>
+      </c>
+      <c r="N161">
+        <v>1.5</v>
+      </c>
+      <c r="O161">
+        <v>0.46</v>
+      </c>
+      <c r="P161">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>42960.499236111114</v>
+      </c>
+      <c r="B162" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>6</v>
+      </c>
+      <c r="F162">
+        <v>19.463902604951478</v>
+      </c>
+      <c r="G162">
+        <v>4.9930069930069925</v>
+      </c>
+      <c r="H162">
+        <v>0.3</v>
+      </c>
+      <c r="I162">
+        <v>0.1</v>
+      </c>
+      <c r="J162">
+        <v>4</v>
+      </c>
+      <c r="K162">
+        <v>4</v>
+      </c>
+      <c r="L162">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>0.36</v>
+      </c>
+      <c r="N162">
+        <v>1.5</v>
+      </c>
+      <c r="O162">
+        <v>0.46</v>
+      </c>
+      <c r="P162">
+        <v>4.1849999999999996</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>42960.499490740738</v>
+      </c>
+      <c r="B163" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>6</v>
+      </c>
+      <c r="F163">
+        <v>20.195672632473912</v>
+      </c>
+      <c r="G163">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H163">
+        <v>0.3</v>
+      </c>
+      <c r="I163">
+        <v>0.1</v>
+      </c>
+      <c r="J163">
+        <v>4</v>
+      </c>
+      <c r="K163">
+        <v>4</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>0.36</v>
+      </c>
+      <c r="N163">
+        <v>1.5</v>
+      </c>
+      <c r="O163">
+        <v>0.46</v>
+      </c>
+      <c r="P163">
+        <v>4.3616999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>42960.4997337963</v>
+      </c>
+      <c r="B164" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>6</v>
+      </c>
+      <c r="F164">
+        <v>18.925173923157978</v>
+      </c>
+      <c r="G164">
+        <v>4.9870129870129869</v>
+      </c>
+      <c r="H164">
+        <v>0.3</v>
+      </c>
+      <c r="I164">
+        <v>0.1</v>
+      </c>
+      <c r="J164">
+        <v>4</v>
+      </c>
+      <c r="K164">
+        <v>4</v>
+      </c>
+      <c r="L164">
+        <v>2</v>
+      </c>
+      <c r="M164">
+        <v>0.36</v>
+      </c>
+      <c r="N164">
+        <v>1.5</v>
+      </c>
+      <c r="O164">
+        <v>0.46</v>
+      </c>
+      <c r="P164">
+        <v>4.2549999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>42960.499976851854</v>
+      </c>
+      <c r="B165" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>6</v>
+      </c>
+      <c r="F165">
+        <v>19.263766096751866</v>
+      </c>
+      <c r="G165">
+        <v>4.9870129870129869</v>
+      </c>
+      <c r="H165">
+        <v>0.3</v>
+      </c>
+      <c r="I165">
+        <v>0.1</v>
+      </c>
+      <c r="J165">
+        <v>4</v>
+      </c>
+      <c r="K165">
+        <v>4</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>0.36</v>
+      </c>
+      <c r="N165">
+        <v>1.5</v>
+      </c>
+      <c r="O165">
+        <v>0.46</v>
+      </c>
+      <c r="P165">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>42960.500219907408</v>
+      </c>
+      <c r="B166" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>6</v>
+      </c>
+      <c r="F166">
+        <v>19.483969566287275</v>
+      </c>
+      <c r="G166">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H166">
+        <v>0.3</v>
+      </c>
+      <c r="I166">
+        <v>0.1</v>
+      </c>
+      <c r="J166">
+        <v>4</v>
+      </c>
+      <c r="K166">
+        <v>4</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>0.36</v>
+      </c>
+      <c r="N166">
+        <v>1.5</v>
+      </c>
+      <c r="O166">
+        <v>0.46</v>
+      </c>
+      <c r="P166">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>42960.500451388885</v>
+      </c>
+      <c r="B167" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>6</v>
+      </c>
+      <c r="F167">
+        <v>18.600395764981904</v>
+      </c>
+      <c r="G167">
+        <v>4.9810189810189813</v>
+      </c>
+      <c r="H167">
+        <v>0.3</v>
+      </c>
+      <c r="I167">
+        <v>0.1</v>
+      </c>
+      <c r="J167">
+        <v>4</v>
+      </c>
+      <c r="K167">
+        <v>4</v>
+      </c>
+      <c r="L167">
+        <v>2</v>
+      </c>
+      <c r="M167">
+        <v>0.36</v>
+      </c>
+      <c r="N167">
+        <v>1.5</v>
+      </c>
+      <c r="O167">
+        <v>0.46</v>
+      </c>
+      <c r="P167">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>42960.500671296293</v>
+      </c>
+      <c r="B168" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>6</v>
+      </c>
+      <c r="F168">
+        <v>18.203098025750965</v>
+      </c>
+      <c r="G168">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H168">
+        <v>0.3</v>
+      </c>
+      <c r="I168">
+        <v>0.1</v>
+      </c>
+      <c r="J168">
+        <v>4</v>
+      </c>
+      <c r="K168">
+        <v>4</v>
+      </c>
+      <c r="L168">
+        <v>2</v>
+      </c>
+      <c r="M168">
+        <v>0.36</v>
+      </c>
+      <c r="N168">
+        <v>1.5</v>
+      </c>
+      <c r="O168">
+        <v>0.46</v>
+      </c>
+      <c r="P168">
+        <v>4.1849999999999996</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>42960.500902777778</v>
+      </c>
+      <c r="B169" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>6</v>
+      </c>
+      <c r="F169">
+        <v>17.754741228004214</v>
+      </c>
+      <c r="G169">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H169">
+        <v>0.3</v>
+      </c>
+      <c r="I169">
+        <v>0.1</v>
+      </c>
+      <c r="J169">
+        <v>4</v>
+      </c>
+      <c r="K169">
+        <v>4</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>0.36</v>
+      </c>
+      <c r="N169">
+        <v>1.5</v>
+      </c>
+      <c r="O169">
+        <v>0.46</v>
+      </c>
+      <c r="P169">
+        <v>4.3616999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>42960.501122685186</v>
+      </c>
+      <c r="B170" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>6</v>
+      </c>
+      <c r="F170">
+        <v>17.820155406873472</v>
+      </c>
+      <c r="G170">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H170">
+        <v>0.3</v>
+      </c>
+      <c r="I170">
+        <v>0.1</v>
+      </c>
+      <c r="J170">
+        <v>4</v>
+      </c>
+      <c r="K170">
+        <v>4</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>0.36</v>
+      </c>
+      <c r="N170">
+        <v>1.5</v>
+      </c>
+      <c r="O170">
+        <v>0.46</v>
+      </c>
+      <c r="P170">
+        <v>4.2549999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>42960.501354166663</v>
+      </c>
+      <c r="B171" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>6</v>
+      </c>
+      <c r="F171">
+        <v>18.453888483744613</v>
+      </c>
+      <c r="G171">
+        <v>5.0089910089910088</v>
+      </c>
+      <c r="H171">
+        <v>0.3</v>
+      </c>
+      <c r="I171">
+        <v>0.1</v>
+      </c>
+      <c r="J171">
+        <v>4</v>
+      </c>
+      <c r="K171">
+        <v>4</v>
+      </c>
+      <c r="L171">
+        <v>2</v>
+      </c>
+      <c r="M171">
+        <v>0.36</v>
+      </c>
+      <c r="N171">
+        <v>1.5</v>
+      </c>
+      <c r="O171">
+        <v>0.46</v>
+      </c>
+      <c r="P171">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>42960.501585648148</v>
+      </c>
+      <c r="B172" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>6</v>
+      </c>
+      <c r="F172">
+        <v>18.173215017693906</v>
+      </c>
+      <c r="G172">
+        <v>5.0029970029970023</v>
+      </c>
+      <c r="H172">
+        <v>0.3</v>
+      </c>
+      <c r="I172">
+        <v>0.1</v>
+      </c>
+      <c r="J172">
+        <v>4</v>
+      </c>
+      <c r="K172">
+        <v>4</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>0.36</v>
+      </c>
+      <c r="N172">
+        <v>1.5</v>
+      </c>
+      <c r="O172">
+        <v>0.46</v>
+      </c>
+      <c r="P172">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>42960.501805555556</v>
+      </c>
+      <c r="B173" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>6</v>
+      </c>
+      <c r="F173">
+        <v>18.025063942219848</v>
+      </c>
+      <c r="G173">
+        <v>4.9990009990009989</v>
+      </c>
+      <c r="H173">
+        <v>0.3</v>
+      </c>
+      <c r="I173">
+        <v>0.1</v>
+      </c>
+      <c r="J173">
+        <v>4</v>
+      </c>
+      <c r="K173">
+        <v>4</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>0.36</v>
+      </c>
+      <c r="N173">
+        <v>1.5</v>
+      </c>
+      <c r="O173">
+        <v>0.46</v>
+      </c>
+      <c r="P173">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>42960.504965277774</v>
+      </c>
+      <c r="B174" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>6</v>
+      </c>
+      <c r="F174">
+        <v>18.561240375067957</v>
+      </c>
+      <c r="G174">
+        <v>4.9930069930069925</v>
+      </c>
+      <c r="H174">
+        <v>0.3</v>
+      </c>
+      <c r="I174">
+        <v>0.1</v>
+      </c>
+      <c r="J174">
+        <v>4</v>
+      </c>
+      <c r="K174">
+        <v>4</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>0.36</v>
+      </c>
+      <c r="N174">
+        <v>1.5</v>
+      </c>
+      <c r="O174">
+        <v>0.46</v>
+      </c>
+      <c r="P174">
+        <v>4.1849999999999996</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>42960.505208333336</v>
+      </c>
+      <c r="B175" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>6</v>
+      </c>
+      <c r="F175">
+        <v>18.455886188128524</v>
+      </c>
+      <c r="G175">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H175">
+        <v>0.3</v>
+      </c>
+      <c r="I175">
+        <v>0.1</v>
+      </c>
+      <c r="J175">
+        <v>4</v>
+      </c>
+      <c r="K175">
+        <v>4</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>0.36</v>
+      </c>
+      <c r="N175">
+        <v>1.5</v>
+      </c>
+      <c r="O175">
+        <v>0.46</v>
+      </c>
+      <c r="P175">
+        <v>4.3616999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>42960.505439814813</v>
+      </c>
+      <c r="B176" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>6</v>
+      </c>
+      <c r="F176">
+        <v>18.296431107357972</v>
+      </c>
+      <c r="G176">
+        <v>4.9870129870129869</v>
+      </c>
+      <c r="H176">
+        <v>0.3</v>
+      </c>
+      <c r="I176">
+        <v>0.1</v>
+      </c>
+      <c r="J176">
+        <v>4</v>
+      </c>
+      <c r="K176">
+        <v>4</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>0.36</v>
+      </c>
+      <c r="N176">
+        <v>1.5</v>
+      </c>
+      <c r="O176">
+        <v>0.46</v>
+      </c>
+      <c r="P176">
+        <v>4.2549999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>42960.505671296298</v>
+      </c>
+      <c r="B177" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>6</v>
+      </c>
+      <c r="F177">
+        <v>18.534198247920777</v>
+      </c>
+      <c r="G177">
+        <v>4.9870129870129869</v>
+      </c>
+      <c r="H177">
+        <v>0.3</v>
+      </c>
+      <c r="I177">
+        <v>0.1</v>
+      </c>
+      <c r="J177">
+        <v>4</v>
+      </c>
+      <c r="K177">
+        <v>4</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>0.36</v>
+      </c>
+      <c r="N177">
+        <v>1.5</v>
+      </c>
+      <c r="O177">
+        <v>0.46</v>
+      </c>
+      <c r="P177">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>42960.505902777775</v>
+      </c>
+      <c r="B178" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>6</v>
+      </c>
+      <c r="F178">
+        <v>18.509483415981698</v>
+      </c>
+      <c r="G178">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H178">
+        <v>0.3</v>
+      </c>
+      <c r="I178">
+        <v>0.1</v>
+      </c>
+      <c r="J178">
+        <v>4</v>
+      </c>
+      <c r="K178">
+        <v>4</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>0.36</v>
+      </c>
+      <c r="N178">
+        <v>1.5</v>
+      </c>
+      <c r="O178">
+        <v>0.46</v>
+      </c>
+      <c r="P178">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>42960.50613425926</v>
+      </c>
+      <c r="B179" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>6</v>
+      </c>
+      <c r="F179">
+        <v>18.531687277826187</v>
+      </c>
+      <c r="G179">
+        <v>4.9810189810189813</v>
+      </c>
+      <c r="H179">
+        <v>0.3</v>
+      </c>
+      <c r="I179">
+        <v>0.1</v>
+      </c>
+      <c r="J179">
+        <v>4</v>
+      </c>
+      <c r="K179">
+        <v>4</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>0.36</v>
+      </c>
+      <c r="N179">
+        <v>1.5</v>
+      </c>
+      <c r="O179">
+        <v>0.46</v>
+      </c>
+      <c r="P179">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>42960.506377314814</v>
+      </c>
+      <c r="B180" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>6</v>
+      </c>
+      <c r="F180">
+        <v>19.212594401371867</v>
+      </c>
+      <c r="G180">
+        <v>4.9930069930069925</v>
+      </c>
+      <c r="H180">
+        <v>0.3</v>
+      </c>
+      <c r="I180">
+        <v>0.1</v>
+      </c>
+      <c r="J180">
+        <v>4</v>
+      </c>
+      <c r="K180">
+        <v>4</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>0.36</v>
+      </c>
+      <c r="N180">
+        <v>1.5</v>
+      </c>
+      <c r="O180">
+        <v>0.46</v>
+      </c>
+      <c r="P180">
+        <v>4.1849999999999996</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>42960.506620370368</v>
+      </c>
+      <c r="B181" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>6</v>
+      </c>
+      <c r="F181">
+        <v>19.817954508146492</v>
+      </c>
+      <c r="G181">
+        <v>4.9930069930069925</v>
+      </c>
+      <c r="H181">
+        <v>0.3</v>
+      </c>
+      <c r="I181">
+        <v>0.1</v>
+      </c>
+      <c r="J181">
+        <v>4</v>
+      </c>
+      <c r="K181">
+        <v>4</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>0.36</v>
+      </c>
+      <c r="N181">
+        <v>1.5</v>
+      </c>
+      <c r="O181">
+        <v>0.46</v>
+      </c>
+      <c r="P181">
+        <v>4.3616999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>42960.506863425922</v>
+      </c>
+      <c r="B182" t="s">
+        <v>17</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>6</v>
+      </c>
+      <c r="F182">
+        <v>19.572197510021322</v>
+      </c>
+      <c r="G182">
+        <v>4.9730269730269736</v>
+      </c>
+      <c r="H182">
+        <v>0.3</v>
+      </c>
+      <c r="I182">
+        <v>0.1</v>
+      </c>
+      <c r="J182">
+        <v>4</v>
+      </c>
+      <c r="K182">
+        <v>4</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>0.36</v>
+      </c>
+      <c r="N182">
+        <v>1.5</v>
+      </c>
+      <c r="O182">
+        <v>0.46</v>
+      </c>
+      <c r="P182">
+        <v>4.2549999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>42960.507118055553</v>
+      </c>
+      <c r="B183" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>6</v>
+      </c>
+      <c r="F183">
+        <v>20.479820881786651</v>
+      </c>
+      <c r="G183">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H183">
+        <v>0.3</v>
+      </c>
+      <c r="I183">
+        <v>0.1</v>
+      </c>
+      <c r="J183">
+        <v>4</v>
+      </c>
+      <c r="K183">
+        <v>4</v>
+      </c>
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>0.36</v>
+      </c>
+      <c r="N183">
+        <v>1.5</v>
+      </c>
+      <c r="O183">
+        <v>0.46</v>
+      </c>
+      <c r="P183">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>42960.507372685184</v>
+      </c>
+      <c r="B184" t="s">
+        <v>19</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>6</v>
+      </c>
+      <c r="F184">
+        <v>19.62903528765759</v>
+      </c>
+      <c r="G184">
+        <v>4.9990009990009989</v>
+      </c>
+      <c r="H184">
+        <v>0.3</v>
+      </c>
+      <c r="I184">
+        <v>0.1</v>
+      </c>
+      <c r="J184">
+        <v>4</v>
+      </c>
+      <c r="K184">
+        <v>4</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>0.36</v>
+      </c>
+      <c r="N184">
+        <v>1.5</v>
+      </c>
+      <c r="O184">
+        <v>0.46</v>
+      </c>
+      <c r="P184">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>42960.507615740738</v>
+      </c>
+      <c r="B185" t="s">
+        <v>17</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>6</v>
+      </c>
+      <c r="F185">
+        <v>19.489024785549969</v>
+      </c>
+      <c r="G185">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H185">
+        <v>0.3</v>
+      </c>
+      <c r="I185">
+        <v>0.1</v>
+      </c>
+      <c r="J185">
+        <v>4</v>
+      </c>
+      <c r="K185">
+        <v>4</v>
+      </c>
+      <c r="L185">
+        <v>2</v>
+      </c>
+      <c r="M185">
+        <v>0.36</v>
+      </c>
+      <c r="N185">
+        <v>1.5</v>
+      </c>
+      <c r="O185">
+        <v>0.46</v>
+      </c>
+      <c r="P185">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>42960.510324074072</v>
+      </c>
+      <c r="B186" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>6</v>
+      </c>
+      <c r="F186">
+        <v>19.687673335174349</v>
+      </c>
+      <c r="G186">
+        <v>4.9930069930069925</v>
+      </c>
+      <c r="H186">
+        <v>0.3</v>
+      </c>
+      <c r="I186">
+        <v>0.1</v>
+      </c>
+      <c r="J186">
+        <v>4</v>
+      </c>
+      <c r="K186">
+        <v>4</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186">
+        <v>0.36</v>
+      </c>
+      <c r="N186">
+        <v>1.5</v>
+      </c>
+      <c r="O186">
+        <v>0.46</v>
+      </c>
+      <c r="P186">
+        <v>4.1849999999999996</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>42960.510578703703</v>
+      </c>
+      <c r="B187" t="s">
+        <v>19</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>6</v>
+      </c>
+      <c r="F187">
+        <v>19.742720442662876</v>
+      </c>
+      <c r="G187">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H187">
+        <v>0.3</v>
+      </c>
+      <c r="I187">
+        <v>0.1</v>
+      </c>
+      <c r="J187">
+        <v>4</v>
+      </c>
+      <c r="K187">
+        <v>4</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>0.36</v>
+      </c>
+      <c r="N187">
+        <v>1.5</v>
+      </c>
+      <c r="O187">
+        <v>0.46</v>
+      </c>
+      <c r="P187">
+        <v>4.3616999999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>42960.510821759257</v>
+      </c>
+      <c r="B188" t="s">
+        <v>17</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <v>6</v>
+      </c>
+      <c r="F188">
+        <v>19.413367051861275</v>
+      </c>
+      <c r="G188">
+        <v>4.9870129870129869</v>
+      </c>
+      <c r="H188">
+        <v>0.3</v>
+      </c>
+      <c r="I188">
+        <v>0.1</v>
+      </c>
+      <c r="J188">
+        <v>4</v>
+      </c>
+      <c r="K188">
+        <v>4</v>
+      </c>
+      <c r="L188">
+        <v>2</v>
+      </c>
+      <c r="M188">
+        <v>0.36</v>
+      </c>
+      <c r="N188">
+        <v>1.5</v>
+      </c>
+      <c r="O188">
+        <v>0.46</v>
+      </c>
+      <c r="P188">
+        <v>4.2549999999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>42960.511064814818</v>
+      </c>
+      <c r="B189" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>6</v>
+      </c>
+      <c r="F189">
+        <v>19.872586587189414</v>
+      </c>
+      <c r="G189">
+        <v>4.9870129870129869</v>
+      </c>
+      <c r="H189">
+        <v>0.3</v>
+      </c>
+      <c r="I189">
+        <v>0.1</v>
+      </c>
+      <c r="J189">
+        <v>4</v>
+      </c>
+      <c r="K189">
+        <v>4</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>0.36</v>
+      </c>
+      <c r="N189">
+        <v>1.5</v>
+      </c>
+      <c r="O189">
+        <v>0.46</v>
+      </c>
+      <c r="P189">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>42960.511307870373</v>
+      </c>
+      <c r="B190" t="s">
+        <v>19</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>6</v>
+      </c>
+      <c r="F190">
+        <v>19.739045344977598</v>
+      </c>
+      <c r="G190">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H190">
+        <v>0.3</v>
+      </c>
+      <c r="I190">
+        <v>0.1</v>
+      </c>
+      <c r="J190">
+        <v>4</v>
+      </c>
+      <c r="K190">
+        <v>4</v>
+      </c>
+      <c r="L190">
+        <v>2</v>
+      </c>
+      <c r="M190">
+        <v>0.36</v>
+      </c>
+      <c r="N190">
+        <v>1.5</v>
+      </c>
+      <c r="O190">
+        <v>0.46</v>
+      </c>
+      <c r="P190">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>42960.511562500003</v>
+      </c>
+      <c r="B191" t="s">
+        <v>17</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>6</v>
+      </c>
+      <c r="F191">
+        <v>19.716772365057356</v>
+      </c>
+      <c r="G191">
+        <v>4.9810189810189813</v>
+      </c>
+      <c r="H191">
+        <v>0.3</v>
+      </c>
+      <c r="I191">
+        <v>0.1</v>
+      </c>
+      <c r="J191">
+        <v>4</v>
+      </c>
+      <c r="K191">
+        <v>4</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>0.36</v>
+      </c>
+      <c r="N191">
+        <v>1.5</v>
+      </c>
+      <c r="O191">
+        <v>0.46</v>
+      </c>
+      <c r="P191">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>42960.511805555558</v>
+      </c>
+      <c r="B192" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>6</v>
+      </c>
+      <c r="F192">
+        <v>19.765673403652443</v>
+      </c>
+      <c r="G192">
+        <v>4.9930069930069925</v>
+      </c>
+      <c r="H192">
+        <v>0.3</v>
+      </c>
+      <c r="I192">
+        <v>0.1</v>
+      </c>
+      <c r="J192">
+        <v>4</v>
+      </c>
+      <c r="K192">
+        <v>4</v>
+      </c>
+      <c r="L192">
+        <v>2</v>
+      </c>
+      <c r="M192">
+        <v>0.36</v>
+      </c>
+      <c r="N192">
+        <v>1.5</v>
+      </c>
+      <c r="O192">
+        <v>0.46</v>
+      </c>
+      <c r="P192">
+        <v>4.1849999999999996</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>42960.512048611112</v>
+      </c>
+      <c r="B193" t="s">
+        <v>19</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>6</v>
+      </c>
+      <c r="F193">
+        <v>19.512423814121014</v>
+      </c>
+      <c r="G193">
+        <v>4.9930069930069925</v>
+      </c>
+      <c r="H193">
+        <v>0.3</v>
+      </c>
+      <c r="I193">
+        <v>0.1</v>
+      </c>
+      <c r="J193">
+        <v>4</v>
+      </c>
+      <c r="K193">
+        <v>4</v>
+      </c>
+      <c r="L193">
+        <v>2</v>
+      </c>
+      <c r="M193">
+        <v>0.36</v>
+      </c>
+      <c r="N193">
+        <v>1.5</v>
+      </c>
+      <c r="O193">
+        <v>0.46</v>
+      </c>
+      <c r="P193">
+        <v>4.3616999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>42960.512303240743</v>
+      </c>
+      <c r="B194" t="s">
+        <v>17</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>6</v>
+      </c>
+      <c r="F194">
+        <v>19.537917504376679</v>
+      </c>
+      <c r="G194">
+        <v>4.9730269730269736</v>
+      </c>
+      <c r="H194">
+        <v>0.3</v>
+      </c>
+      <c r="I194">
+        <v>0.1</v>
+      </c>
+      <c r="J194">
+        <v>4</v>
+      </c>
+      <c r="K194">
+        <v>4</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>0.36</v>
+      </c>
+      <c r="N194">
+        <v>1.5</v>
+      </c>
+      <c r="O194">
+        <v>0.46</v>
+      </c>
+      <c r="P194">
+        <v>4.2549999999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>42960.512546296297</v>
+      </c>
+      <c r="B195" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>6</v>
+      </c>
+      <c r="F195">
+        <v>19.894502457051594</v>
+      </c>
+      <c r="G195">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H195">
+        <v>0.3</v>
+      </c>
+      <c r="I195">
+        <v>0.1</v>
+      </c>
+      <c r="J195">
+        <v>4</v>
+      </c>
+      <c r="K195">
+        <v>4</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>0.36</v>
+      </c>
+      <c r="N195">
+        <v>1.5</v>
+      </c>
+      <c r="O195">
+        <v>0.46</v>
+      </c>
+      <c r="P195">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>42960.512789351851</v>
+      </c>
+      <c r="B196" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>6</v>
+      </c>
+      <c r="F196">
+        <v>19.703744887742324</v>
+      </c>
+      <c r="G196">
+        <v>4.9990009990009989</v>
+      </c>
+      <c r="H196">
+        <v>0.3</v>
+      </c>
+      <c r="I196">
+        <v>0.1</v>
+      </c>
+      <c r="J196">
+        <v>4</v>
+      </c>
+      <c r="K196">
+        <v>4</v>
+      </c>
+      <c r="L196">
+        <v>2</v>
+      </c>
+      <c r="M196">
+        <v>0.36</v>
+      </c>
+      <c r="N196">
+        <v>1.5</v>
+      </c>
+      <c r="O196">
+        <v>0.46</v>
+      </c>
+      <c r="P196">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>42960.513043981482</v>
+      </c>
+      <c r="B197" t="s">
+        <v>17</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>6</v>
+      </c>
+      <c r="F197">
+        <v>19.745414127670685</v>
+      </c>
+      <c r="G197">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H197">
+        <v>0.3</v>
+      </c>
+      <c r="I197">
+        <v>0.1</v>
+      </c>
+      <c r="J197">
+        <v>4</v>
+      </c>
+      <c r="K197">
+        <v>4</v>
+      </c>
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="M197">
+        <v>0.36</v>
+      </c>
+      <c r="N197">
+        <v>1.5</v>
+      </c>
+      <c r="O197">
+        <v>0.46</v>
+      </c>
+      <c r="P197">
+        <v>4.7156000000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>42960.692754629628</v>
+      </c>
+      <c r="B198" t="s">
+        <v>20</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>6</v>
+      </c>
+      <c r="F198">
+        <v>47.198455914987328</v>
+      </c>
+      <c r="G198">
+        <v>0.62737262737262733</v>
+      </c>
+      <c r="H198">
+        <v>0.3</v>
+      </c>
+      <c r="I198">
+        <v>0.1</v>
+      </c>
+      <c r="J198">
+        <v>4</v>
+      </c>
+      <c r="K198">
+        <v>4</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>0.36</v>
+      </c>
+      <c r="N198">
+        <v>1.5</v>
+      </c>
+      <c r="O198">
+        <v>0.46</v>
+      </c>
+      <c r="P198">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>42960.693668981483</v>
+      </c>
+      <c r="B199" t="s">
+        <v>20</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <v>6</v>
+      </c>
+      <c r="F199">
+        <v>35.539485460724777</v>
+      </c>
+      <c r="G199">
+        <v>0.62537462537462529</v>
+      </c>
+      <c r="H199">
+        <v>0.3</v>
+      </c>
+      <c r="I199">
+        <v>0.1</v>
+      </c>
+      <c r="J199">
+        <v>4</v>
+      </c>
+      <c r="K199">
+        <v>4</v>
+      </c>
+      <c r="L199">
+        <v>2</v>
+      </c>
+      <c r="M199">
+        <v>0.36</v>
+      </c>
+      <c r="N199">
+        <v>1.5</v>
+      </c>
+      <c r="O199">
+        <v>0.46</v>
+      </c>
+      <c r="P199">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>42960.694895833331</v>
+      </c>
+      <c r="B200" t="s">
+        <v>20</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>6</v>
+      </c>
+      <c r="F200">
+        <v>31.824127776282708</v>
+      </c>
+      <c r="G200">
+        <v>0.62937062937062938</v>
+      </c>
+      <c r="H200">
+        <v>0.3</v>
+      </c>
+      <c r="I200">
+        <v>0.1</v>
+      </c>
+      <c r="J200">
+        <v>4</v>
+      </c>
+      <c r="K200">
+        <v>4</v>
+      </c>
+      <c r="L200">
+        <v>2</v>
+      </c>
+      <c r="M200">
+        <v>0.36</v>
+      </c>
+      <c r="N200">
+        <v>1.5</v>
+      </c>
+      <c r="O200">
+        <v>0.46</v>
+      </c>
+      <c r="P200">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>42961.610706018517</v>
+      </c>
+      <c r="B201" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>10000</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>24.679417245023899</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0.3</v>
+      </c>
+      <c r="I201">
+        <v>0.1</v>
+      </c>
+      <c r="J201">
+        <v>4</v>
+      </c>
+      <c r="K201">
+        <v>4</v>
+      </c>
+      <c r="L201">
+        <v>2</v>
+      </c>
+      <c r="M201">
+        <v>0.36</v>
+      </c>
+      <c r="N201">
+        <v>1.5</v>
+      </c>
+      <c r="O201">
+        <v>0.46</v>
+      </c>
+      <c r="P201">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>42961.794999999998</v>
+      </c>
+      <c r="B202" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>10000</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>26.562735291943603</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0.3</v>
+      </c>
+      <c r="I202">
+        <v>0.1</v>
+      </c>
+      <c r="J202">
+        <v>4</v>
+      </c>
+      <c r="K202">
+        <v>4</v>
+      </c>
+      <c r="L202">
+        <v>2</v>
+      </c>
+      <c r="M202">
+        <v>0.36</v>
+      </c>
+      <c r="N202">
+        <v>1.5</v>
+      </c>
+      <c r="O202">
+        <v>0.46</v>
+      </c>
+      <c r="P202">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RunSummaries.xlsx
+++ b/RunSummaries.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P202"/>
+  <dimension ref="A1:P205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:P202"/>
+      <selection activeCell="A205" sqref="A205:P205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10563,6 +10563,156 @@
         <v>4.8444000000000003</v>
       </c>
     </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>42962.441550925927</v>
+      </c>
+      <c r="B203" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>10000</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>8.8682453696637253</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>0.3</v>
+      </c>
+      <c r="I203">
+        <v>0.1</v>
+      </c>
+      <c r="J203">
+        <v>4</v>
+      </c>
+      <c r="K203">
+        <v>4</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
+      </c>
+      <c r="M203">
+        <v>0.36</v>
+      </c>
+      <c r="N203">
+        <v>1.5</v>
+      </c>
+      <c r="O203">
+        <v>0.46</v>
+      </c>
+      <c r="P203">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>42962.480162037034</v>
+      </c>
+      <c r="B204" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>10000</v>
+      </c>
+      <c r="E204">
+        <v>2</v>
+      </c>
+      <c r="F204">
+        <v>4.2437469940933035</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0.3</v>
+      </c>
+      <c r="I204">
+        <v>0.1</v>
+      </c>
+      <c r="J204">
+        <v>4</v>
+      </c>
+      <c r="K204">
+        <v>4</v>
+      </c>
+      <c r="L204">
+        <v>2</v>
+      </c>
+      <c r="M204">
+        <v>0.36</v>
+      </c>
+      <c r="N204">
+        <v>1.5</v>
+      </c>
+      <c r="O204">
+        <v>0.46</v>
+      </c>
+      <c r="P204">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>42962.489386574074</v>
+      </c>
+      <c r="B205" t="s">
+        <v>19</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>6</v>
+      </c>
+      <c r="F205">
+        <v>39.402462387567489</v>
+      </c>
+      <c r="G205">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H205">
+        <v>0.3</v>
+      </c>
+      <c r="I205">
+        <v>0.1</v>
+      </c>
+      <c r="J205">
+        <v>4</v>
+      </c>
+      <c r="K205">
+        <v>4</v>
+      </c>
+      <c r="L205">
+        <v>2</v>
+      </c>
+      <c r="M205">
+        <v>0.36</v>
+      </c>
+      <c r="N205">
+        <v>1.5</v>
+      </c>
+      <c r="O205">
+        <v>0.46</v>
+      </c>
+      <c r="P205">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RunSummaries.xlsx
+++ b/RunSummaries.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P205"/>
+  <dimension ref="A1:P209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205:P205"/>
+      <selection activeCell="A209" sqref="A209:P209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10713,6 +10713,206 @@
         <v>4.8444000000000003</v>
       </c>
     </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>42962.527442129627</v>
+      </c>
+      <c r="B206" t="s">
+        <v>19</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>6</v>
+      </c>
+      <c r="F206">
+        <v>19.147612058121716</v>
+      </c>
+      <c r="G206">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H206">
+        <v>0.3</v>
+      </c>
+      <c r="I206">
+        <v>0.1</v>
+      </c>
+      <c r="J206">
+        <v>4</v>
+      </c>
+      <c r="K206">
+        <v>4</v>
+      </c>
+      <c r="L206">
+        <v>2</v>
+      </c>
+      <c r="M206">
+        <v>0.36</v>
+      </c>
+      <c r="N206">
+        <v>1.5</v>
+      </c>
+      <c r="O206">
+        <v>0.46</v>
+      </c>
+      <c r="P206">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>42962.527881944443</v>
+      </c>
+      <c r="B207" t="s">
+        <v>19</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>6</v>
+      </c>
+      <c r="F207">
+        <v>21.710316191785406</v>
+      </c>
+      <c r="G207">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H207">
+        <v>0.3</v>
+      </c>
+      <c r="I207">
+        <v>0.1</v>
+      </c>
+      <c r="J207">
+        <v>4</v>
+      </c>
+      <c r="K207">
+        <v>4</v>
+      </c>
+      <c r="L207">
+        <v>2</v>
+      </c>
+      <c r="M207">
+        <v>0.36</v>
+      </c>
+      <c r="N207">
+        <v>1.5</v>
+      </c>
+      <c r="O207">
+        <v>0.46</v>
+      </c>
+      <c r="P207">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>42962.530034722222</v>
+      </c>
+      <c r="B208" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>100</v>
+      </c>
+      <c r="E208">
+        <v>6</v>
+      </c>
+      <c r="F208">
+        <v>7.8395451405188386</v>
+      </c>
+      <c r="G208">
+        <v>6.4685314685314683</v>
+      </c>
+      <c r="H208">
+        <v>0.3</v>
+      </c>
+      <c r="I208">
+        <v>0.1</v>
+      </c>
+      <c r="J208">
+        <v>4</v>
+      </c>
+      <c r="K208">
+        <v>4</v>
+      </c>
+      <c r="L208">
+        <v>2</v>
+      </c>
+      <c r="M208">
+        <v>0.36</v>
+      </c>
+      <c r="N208">
+        <v>1.5</v>
+      </c>
+      <c r="O208">
+        <v>0.46</v>
+      </c>
+      <c r="P208">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>42962.544351851851</v>
+      </c>
+      <c r="B209" t="s">
+        <v>19</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>100</v>
+      </c>
+      <c r="E209">
+        <v>6</v>
+      </c>
+      <c r="F209">
+        <v>26.86526018232394</v>
+      </c>
+      <c r="G209">
+        <v>6.4685314685314683</v>
+      </c>
+      <c r="H209">
+        <v>0.3</v>
+      </c>
+      <c r="I209">
+        <v>0.1</v>
+      </c>
+      <c r="J209">
+        <v>4</v>
+      </c>
+      <c r="K209">
+        <v>4</v>
+      </c>
+      <c r="L209">
+        <v>2</v>
+      </c>
+      <c r="M209">
+        <v>0.36</v>
+      </c>
+      <c r="N209">
+        <v>1.5</v>
+      </c>
+      <c r="O209">
+        <v>0.46</v>
+      </c>
+      <c r="P209">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RunSummaries.xlsx
+++ b/RunSummaries.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P209"/>
+  <dimension ref="A1:P211"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="A209" sqref="A209:P209"/>
+      <selection activeCell="A211" sqref="A211:P211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10913,6 +10913,106 @@
         <v>4.8444000000000003</v>
       </c>
     </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>42962.559849537036</v>
+      </c>
+      <c r="B210" t="s">
+        <v>19</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>100</v>
+      </c>
+      <c r="E210">
+        <v>6</v>
+      </c>
+      <c r="F210">
+        <v>6.1736576496665547</v>
+      </c>
+      <c r="G210">
+        <v>6.4685314685314683</v>
+      </c>
+      <c r="H210">
+        <v>0.3</v>
+      </c>
+      <c r="I210">
+        <v>0.1</v>
+      </c>
+      <c r="J210">
+        <v>4</v>
+      </c>
+      <c r="K210">
+        <v>4</v>
+      </c>
+      <c r="L210">
+        <v>2</v>
+      </c>
+      <c r="M210">
+        <v>0.36</v>
+      </c>
+      <c r="N210">
+        <v>1.5</v>
+      </c>
+      <c r="O210">
+        <v>0.46</v>
+      </c>
+      <c r="P210">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>42962.560706018521</v>
+      </c>
+      <c r="B211" t="s">
+        <v>19</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>6</v>
+      </c>
+      <c r="F211">
+        <v>21.410376381917104</v>
+      </c>
+      <c r="G211">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H211">
+        <v>0.3</v>
+      </c>
+      <c r="I211">
+        <v>0.1</v>
+      </c>
+      <c r="J211">
+        <v>4</v>
+      </c>
+      <c r="K211">
+        <v>4</v>
+      </c>
+      <c r="L211">
+        <v>2</v>
+      </c>
+      <c r="M211">
+        <v>0.36</v>
+      </c>
+      <c r="N211">
+        <v>1.5</v>
+      </c>
+      <c r="O211">
+        <v>0.46</v>
+      </c>
+      <c r="P211">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RunSummaries.xlsx
+++ b/RunSummaries.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P211"/>
+  <dimension ref="A1:P220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="A211" sqref="A211:P211"/>
+      <selection activeCell="A220" sqref="A220:P220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11013,6 +11013,456 @@
         <v>4.8444000000000003</v>
       </c>
     </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>42963.427152777775</v>
+      </c>
+      <c r="B212" t="s">
+        <v>19</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <v>6</v>
+      </c>
+      <c r="F212">
+        <v>43.311756045473004</v>
+      </c>
+      <c r="G212">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H212">
+        <v>0.3</v>
+      </c>
+      <c r="I212">
+        <v>0.1</v>
+      </c>
+      <c r="J212">
+        <v>4</v>
+      </c>
+      <c r="K212">
+        <v>4</v>
+      </c>
+      <c r="L212">
+        <v>2</v>
+      </c>
+      <c r="M212">
+        <v>0.36</v>
+      </c>
+      <c r="N212">
+        <v>1.5</v>
+      </c>
+      <c r="O212">
+        <v>0.46</v>
+      </c>
+      <c r="P212">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>42963.472777777781</v>
+      </c>
+      <c r="B213" t="s">
+        <v>19</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>6</v>
+      </c>
+      <c r="F213">
+        <v>42.049631260625638</v>
+      </c>
+      <c r="G213">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H213">
+        <v>0.3</v>
+      </c>
+      <c r="I213">
+        <v>0.1</v>
+      </c>
+      <c r="J213">
+        <v>4</v>
+      </c>
+      <c r="K213">
+        <v>4</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+      <c r="M213">
+        <v>0.36</v>
+      </c>
+      <c r="N213">
+        <v>1.5</v>
+      </c>
+      <c r="O213">
+        <v>0.46</v>
+      </c>
+      <c r="P213">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>42963.473807870374</v>
+      </c>
+      <c r="B214" t="s">
+        <v>19</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214">
+        <v>11</v>
+      </c>
+      <c r="F214">
+        <v>39.755159423341347</v>
+      </c>
+      <c r="G214">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H214">
+        <v>0.3</v>
+      </c>
+      <c r="I214">
+        <v>0.1</v>
+      </c>
+      <c r="J214">
+        <v>4</v>
+      </c>
+      <c r="K214">
+        <v>4</v>
+      </c>
+      <c r="L214">
+        <v>2</v>
+      </c>
+      <c r="M214">
+        <v>0.36</v>
+      </c>
+      <c r="N214">
+        <v>1.5</v>
+      </c>
+      <c r="O214">
+        <v>0.46</v>
+      </c>
+      <c r="P214">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>42963.474479166667</v>
+      </c>
+      <c r="B215" t="s">
+        <v>19</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>6</v>
+      </c>
+      <c r="F215">
+        <v>35.52102600006976</v>
+      </c>
+      <c r="G215">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H215">
+        <v>0.3</v>
+      </c>
+      <c r="I215">
+        <v>0.1</v>
+      </c>
+      <c r="J215">
+        <v>4</v>
+      </c>
+      <c r="K215">
+        <v>4</v>
+      </c>
+      <c r="L215">
+        <v>2</v>
+      </c>
+      <c r="M215">
+        <v>0.36</v>
+      </c>
+      <c r="N215">
+        <v>1.5</v>
+      </c>
+      <c r="O215">
+        <v>0.46</v>
+      </c>
+      <c r="P215">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>42963.692175925928</v>
+      </c>
+      <c r="B216" t="s">
+        <v>19</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>10000</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>14.547541572176568</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>0.3</v>
+      </c>
+      <c r="I216">
+        <v>0.1</v>
+      </c>
+      <c r="J216">
+        <v>4</v>
+      </c>
+      <c r="K216">
+        <v>4</v>
+      </c>
+      <c r="L216">
+        <v>2</v>
+      </c>
+      <c r="M216">
+        <v>0.36</v>
+      </c>
+      <c r="N216">
+        <v>1.5</v>
+      </c>
+      <c r="O216">
+        <v>0.46</v>
+      </c>
+      <c r="P216">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>42963.696458333332</v>
+      </c>
+      <c r="B217" t="s">
+        <v>19</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>10000</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>13.107532958071516</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0.3</v>
+      </c>
+      <c r="I217">
+        <v>0.1</v>
+      </c>
+      <c r="J217">
+        <v>4</v>
+      </c>
+      <c r="K217">
+        <v>4</v>
+      </c>
+      <c r="L217">
+        <v>2</v>
+      </c>
+      <c r="M217">
+        <v>0.36</v>
+      </c>
+      <c r="N217">
+        <v>1.5</v>
+      </c>
+      <c r="O217">
+        <v>0.46</v>
+      </c>
+      <c r="P217">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>42963.711736111109</v>
+      </c>
+      <c r="B218" t="s">
+        <v>19</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>10000</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>14.766424637620409</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>0.3</v>
+      </c>
+      <c r="I218">
+        <v>0.1</v>
+      </c>
+      <c r="J218">
+        <v>4</v>
+      </c>
+      <c r="K218">
+        <v>4</v>
+      </c>
+      <c r="L218">
+        <v>2</v>
+      </c>
+      <c r="M218">
+        <v>0.36</v>
+      </c>
+      <c r="N218">
+        <v>1.5</v>
+      </c>
+      <c r="O218">
+        <v>0.46</v>
+      </c>
+      <c r="P218">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>42963.712789351855</v>
+      </c>
+      <c r="B219" t="s">
+        <v>19</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>10000</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>13.574009145926844</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>0.3</v>
+      </c>
+      <c r="I219">
+        <v>0.1</v>
+      </c>
+      <c r="J219">
+        <v>4</v>
+      </c>
+      <c r="K219">
+        <v>4</v>
+      </c>
+      <c r="L219">
+        <v>2</v>
+      </c>
+      <c r="M219">
+        <v>0.36</v>
+      </c>
+      <c r="N219">
+        <v>1.5</v>
+      </c>
+      <c r="O219">
+        <v>0.46</v>
+      </c>
+      <c r="P219">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>42963.743738425925</v>
+      </c>
+      <c r="B220" t="s">
+        <v>19</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>10000</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>14.438064040687246</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0.3</v>
+      </c>
+      <c r="I220">
+        <v>0.1</v>
+      </c>
+      <c r="J220">
+        <v>4</v>
+      </c>
+      <c r="K220">
+        <v>4</v>
+      </c>
+      <c r="L220">
+        <v>2</v>
+      </c>
+      <c r="M220">
+        <v>0.36</v>
+      </c>
+      <c r="N220">
+        <v>1.5</v>
+      </c>
+      <c r="O220">
+        <v>0.46</v>
+      </c>
+      <c r="P220">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RunSummaries.xlsx
+++ b/RunSummaries.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P220"/>
+  <dimension ref="A1:P223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="A220" sqref="A220:P220"/>
+      <selection activeCell="A223" sqref="A223:P223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11463,6 +11463,156 @@
         <v>4.8444000000000003</v>
       </c>
     </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>42964.457928240743</v>
+      </c>
+      <c r="B221" t="s">
+        <v>19</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>10000</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>31.701007680721592</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>0.3</v>
+      </c>
+      <c r="I221">
+        <v>0.1</v>
+      </c>
+      <c r="J221">
+        <v>4</v>
+      </c>
+      <c r="K221">
+        <v>4</v>
+      </c>
+      <c r="L221">
+        <v>2</v>
+      </c>
+      <c r="M221">
+        <v>0.36</v>
+      </c>
+      <c r="N221">
+        <v>1.5</v>
+      </c>
+      <c r="O221">
+        <v>0.46</v>
+      </c>
+      <c r="P221">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>42964.458611111113</v>
+      </c>
+      <c r="B222" t="s">
+        <v>19</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>10000</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>17.358420554625983</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0.3</v>
+      </c>
+      <c r="I222">
+        <v>0.1</v>
+      </c>
+      <c r="J222">
+        <v>4</v>
+      </c>
+      <c r="K222">
+        <v>4</v>
+      </c>
+      <c r="L222">
+        <v>2</v>
+      </c>
+      <c r="M222">
+        <v>0.36</v>
+      </c>
+      <c r="N222">
+        <v>1.5</v>
+      </c>
+      <c r="O222">
+        <v>0.46</v>
+      </c>
+      <c r="P222">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>42964.460914351854</v>
+      </c>
+      <c r="B223" t="s">
+        <v>19</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>10000</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>109.01754249548094</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0.3</v>
+      </c>
+      <c r="I223">
+        <v>0.1</v>
+      </c>
+      <c r="J223">
+        <v>4</v>
+      </c>
+      <c r="K223">
+        <v>4</v>
+      </c>
+      <c r="L223">
+        <v>2</v>
+      </c>
+      <c r="M223">
+        <v>0.36</v>
+      </c>
+      <c r="N223">
+        <v>1.5</v>
+      </c>
+      <c r="O223">
+        <v>0.46</v>
+      </c>
+      <c r="P223">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RunSummaries.xlsx
+++ b/RunSummaries.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P223"/>
+  <dimension ref="A1:P309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="A223" sqref="A223:P223"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="A309" sqref="A309:P309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11613,6 +11613,4306 @@
         <v>4.8444000000000003</v>
       </c>
     </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>42965.394548611112</v>
+      </c>
+      <c r="B224" t="s">
+        <v>18</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>6</v>
+      </c>
+      <c r="F224">
+        <v>16.581075844520381</v>
+      </c>
+      <c r="G224">
+        <v>9.0489510489510501</v>
+      </c>
+      <c r="H224">
+        <v>0.3</v>
+      </c>
+      <c r="I224">
+        <v>0.1</v>
+      </c>
+      <c r="J224">
+        <v>4</v>
+      </c>
+      <c r="K224">
+        <v>4</v>
+      </c>
+      <c r="L224">
+        <v>2</v>
+      </c>
+      <c r="M224">
+        <v>0.36670000000000003</v>
+      </c>
+      <c r="N224">
+        <v>1.3</v>
+      </c>
+      <c r="O224">
+        <v>0.375</v>
+      </c>
+      <c r="P224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>42965.394918981481</v>
+      </c>
+      <c r="B225" t="s">
+        <v>17</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>6</v>
+      </c>
+      <c r="F225">
+        <v>17.248627811374742</v>
+      </c>
+      <c r="G225">
+        <v>8.965034965034965</v>
+      </c>
+      <c r="H225">
+        <v>0.3</v>
+      </c>
+      <c r="I225">
+        <v>0.1</v>
+      </c>
+      <c r="J225">
+        <v>4</v>
+      </c>
+      <c r="K225">
+        <v>4</v>
+      </c>
+      <c r="L225">
+        <v>2</v>
+      </c>
+      <c r="M225">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="N225">
+        <v>1.2222</v>
+      </c>
+      <c r="O225">
+        <v>0.4556</v>
+      </c>
+      <c r="P225">
+        <v>5.1111000000000004</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>42965.395127314812</v>
+      </c>
+      <c r="B226" t="s">
+        <v>18</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>6</v>
+      </c>
+      <c r="F226">
+        <v>16.381399800391474</v>
+      </c>
+      <c r="G226">
+        <v>8.9370629370629366</v>
+      </c>
+      <c r="H226">
+        <v>0.3</v>
+      </c>
+      <c r="I226">
+        <v>0.1</v>
+      </c>
+      <c r="J226">
+        <v>4</v>
+      </c>
+      <c r="K226">
+        <v>4</v>
+      </c>
+      <c r="L226">
+        <v>2</v>
+      </c>
+      <c r="M226">
+        <v>0.36</v>
+      </c>
+      <c r="N226">
+        <v>1.2</v>
+      </c>
+      <c r="O226">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="P226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>42965.395335648151</v>
+      </c>
+      <c r="B227" t="s">
+        <v>17</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>6</v>
+      </c>
+      <c r="F227">
+        <v>16.339915913548197</v>
+      </c>
+      <c r="G227">
+        <v>9.6203796203796212</v>
+      </c>
+      <c r="H227">
+        <v>0.3</v>
+      </c>
+      <c r="I227">
+        <v>0.1</v>
+      </c>
+      <c r="J227">
+        <v>4</v>
+      </c>
+      <c r="K227">
+        <v>4</v>
+      </c>
+      <c r="L227">
+        <v>2</v>
+      </c>
+      <c r="M227">
+        <v>0.36</v>
+      </c>
+      <c r="N227">
+        <v>1.2222</v>
+      </c>
+      <c r="O227">
+        <v>0.4778</v>
+      </c>
+      <c r="P227">
+        <v>6.3333000000000004</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>42965.395543981482</v>
+      </c>
+      <c r="B228" t="s">
+        <v>18</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>6</v>
+      </c>
+      <c r="F228">
+        <v>16.283409229158462</v>
+      </c>
+      <c r="G228">
+        <v>9.044955044955044</v>
+      </c>
+      <c r="H228">
+        <v>0.3</v>
+      </c>
+      <c r="I228">
+        <v>0.1</v>
+      </c>
+      <c r="J228">
+        <v>4</v>
+      </c>
+      <c r="K228">
+        <v>4</v>
+      </c>
+      <c r="L228">
+        <v>2</v>
+      </c>
+      <c r="M228">
+        <v>0.36670000000000003</v>
+      </c>
+      <c r="N228">
+        <v>1.3</v>
+      </c>
+      <c r="O228">
+        <v>0.375</v>
+      </c>
+      <c r="P228">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>42965.395752314813</v>
+      </c>
+      <c r="B229" t="s">
+        <v>17</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>6</v>
+      </c>
+      <c r="F229">
+        <v>16.711085056975467</v>
+      </c>
+      <c r="G229">
+        <v>8.965034965034965</v>
+      </c>
+      <c r="H229">
+        <v>0.3</v>
+      </c>
+      <c r="I229">
+        <v>0.1</v>
+      </c>
+      <c r="J229">
+        <v>4</v>
+      </c>
+      <c r="K229">
+        <v>4</v>
+      </c>
+      <c r="L229">
+        <v>2</v>
+      </c>
+      <c r="M229">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="N229">
+        <v>1.2222</v>
+      </c>
+      <c r="O229">
+        <v>0.4556</v>
+      </c>
+      <c r="P229">
+        <v>5.1111000000000004</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>42965.395960648151</v>
+      </c>
+      <c r="B230" t="s">
+        <v>18</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>6</v>
+      </c>
+      <c r="F230">
+        <v>16.460291566683743</v>
+      </c>
+      <c r="G230">
+        <v>8.9370629370629366</v>
+      </c>
+      <c r="H230">
+        <v>0.3</v>
+      </c>
+      <c r="I230">
+        <v>0.1</v>
+      </c>
+      <c r="J230">
+        <v>4</v>
+      </c>
+      <c r="K230">
+        <v>4</v>
+      </c>
+      <c r="L230">
+        <v>2</v>
+      </c>
+      <c r="M230">
+        <v>0.36</v>
+      </c>
+      <c r="N230">
+        <v>1.2</v>
+      </c>
+      <c r="O230">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="P230">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>42965.396168981482</v>
+      </c>
+      <c r="B231" t="s">
+        <v>17</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>6</v>
+      </c>
+      <c r="F231">
+        <v>16.612273396484035</v>
+      </c>
+      <c r="G231">
+        <v>9.594405594405595</v>
+      </c>
+      <c r="H231">
+        <v>0.3</v>
+      </c>
+      <c r="I231">
+        <v>0.1</v>
+      </c>
+      <c r="J231">
+        <v>4</v>
+      </c>
+      <c r="K231">
+        <v>4</v>
+      </c>
+      <c r="L231">
+        <v>2</v>
+      </c>
+      <c r="M231">
+        <v>0.36</v>
+      </c>
+      <c r="N231">
+        <v>1.2222</v>
+      </c>
+      <c r="O231">
+        <v>0.4778</v>
+      </c>
+      <c r="P231">
+        <v>6.3333000000000004</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>42965.471886574072</v>
+      </c>
+      <c r="B232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>5</v>
+      </c>
+      <c r="E232">
+        <v>6</v>
+      </c>
+      <c r="F232">
+        <v>7.7281183392493782</v>
+      </c>
+      <c r="G232">
+        <v>9.5404595404595405</v>
+      </c>
+      <c r="H232">
+        <v>0.3</v>
+      </c>
+      <c r="I232">
+        <v>0.1</v>
+      </c>
+      <c r="J232">
+        <v>4</v>
+      </c>
+      <c r="K232">
+        <v>4</v>
+      </c>
+      <c r="L232">
+        <v>2</v>
+      </c>
+      <c r="M232">
+        <v>0.36</v>
+      </c>
+      <c r="N232">
+        <v>1.2</v>
+      </c>
+      <c r="O232">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="P232">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>42965.489050925928</v>
+      </c>
+      <c r="B233" t="s">
+        <v>19</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>5</v>
+      </c>
+      <c r="E233">
+        <v>6</v>
+      </c>
+      <c r="F233">
+        <v>7.8454093078755127</v>
+      </c>
+      <c r="G233">
+        <v>10</v>
+      </c>
+      <c r="H233">
+        <v>0.3</v>
+      </c>
+      <c r="I233">
+        <v>0.1</v>
+      </c>
+      <c r="J233">
+        <v>4</v>
+      </c>
+      <c r="K233">
+        <v>4</v>
+      </c>
+      <c r="L233">
+        <v>2</v>
+      </c>
+      <c r="M233">
+        <v>0.36</v>
+      </c>
+      <c r="N233">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="O233">
+        <v>0.3527777777777778</v>
+      </c>
+      <c r="P233">
+        <v>4.3888888888888893</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>42965.528611111113</v>
+      </c>
+      <c r="B234" t="s">
+        <v>19</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>6</v>
+      </c>
+      <c r="F234">
+        <v>16.30352975584594</v>
+      </c>
+      <c r="G234">
+        <v>10.005994005994005</v>
+      </c>
+      <c r="H234">
+        <v>0.3</v>
+      </c>
+      <c r="I234">
+        <v>0.1</v>
+      </c>
+      <c r="J234">
+        <v>4</v>
+      </c>
+      <c r="K234">
+        <v>4</v>
+      </c>
+      <c r="L234">
+        <v>2</v>
+      </c>
+      <c r="M234">
+        <v>0.36</v>
+      </c>
+      <c r="N234">
+        <v>1.25</v>
+      </c>
+      <c r="O234">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="P234">
+        <v>4.4444444444444446</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>42965.541388888887</v>
+      </c>
+      <c r="B235" t="s">
+        <v>19</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>5</v>
+      </c>
+      <c r="E235">
+        <v>6</v>
+      </c>
+      <c r="F235">
+        <v>7.7390702492098695</v>
+      </c>
+      <c r="G235">
+        <v>10.109890109890109</v>
+      </c>
+      <c r="H235">
+        <v>0.3</v>
+      </c>
+      <c r="I235">
+        <v>0.1</v>
+      </c>
+      <c r="J235">
+        <v>4</v>
+      </c>
+      <c r="K235">
+        <v>4</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235">
+        <v>0.36</v>
+      </c>
+      <c r="N235">
+        <v>1.4</v>
+      </c>
+      <c r="O235">
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="P235">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>42965.551192129627</v>
+      </c>
+      <c r="B236" t="s">
+        <v>19</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>5</v>
+      </c>
+      <c r="E236">
+        <v>6</v>
+      </c>
+      <c r="F236">
+        <v>5.6406940924131801</v>
+      </c>
+      <c r="G236">
+        <v>10.01998001998002</v>
+      </c>
+      <c r="H236">
+        <v>0.3</v>
+      </c>
+      <c r="I236">
+        <v>0.1</v>
+      </c>
+      <c r="J236">
+        <v>4</v>
+      </c>
+      <c r="K236">
+        <v>4</v>
+      </c>
+      <c r="L236">
+        <v>2</v>
+      </c>
+      <c r="M236">
+        <v>0.36</v>
+      </c>
+      <c r="N236">
+        <v>1.5</v>
+      </c>
+      <c r="O236">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="P236">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>42965.579201388886</v>
+      </c>
+      <c r="B237" t="s">
+        <v>19</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>6</v>
+      </c>
+      <c r="F237">
+        <v>21.442338638841363</v>
+      </c>
+      <c r="G237">
+        <v>9.9820179820179824</v>
+      </c>
+      <c r="H237">
+        <v>0.3</v>
+      </c>
+      <c r="I237">
+        <v>0.1</v>
+      </c>
+      <c r="J237">
+        <v>4</v>
+      </c>
+      <c r="K237">
+        <v>4</v>
+      </c>
+      <c r="L237">
+        <v>2</v>
+      </c>
+      <c r="M237">
+        <v>0.36</v>
+      </c>
+      <c r="N237">
+        <v>1.4</v>
+      </c>
+      <c r="O237">
+        <v>0.34166666666666667</v>
+      </c>
+      <c r="P237">
+        <v>3.8333333333333335</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>42965.590057870373</v>
+      </c>
+      <c r="B238" t="s">
+        <v>19</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>6</v>
+      </c>
+      <c r="F238">
+        <v>22.229905312345107</v>
+      </c>
+      <c r="G238">
+        <v>9.9700299700299695</v>
+      </c>
+      <c r="H238">
+        <v>0.3</v>
+      </c>
+      <c r="I238">
+        <v>0.1</v>
+      </c>
+      <c r="J238">
+        <v>4</v>
+      </c>
+      <c r="K238">
+        <v>4</v>
+      </c>
+      <c r="L238">
+        <v>2</v>
+      </c>
+      <c r="M238">
+        <v>0.36</v>
+      </c>
+      <c r="N238">
+        <v>1.35</v>
+      </c>
+      <c r="O238">
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="P238">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>42965.608148148145</v>
+      </c>
+      <c r="B239" t="s">
+        <v>19</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>5</v>
+      </c>
+      <c r="F239">
+        <v>18.898207331117522</v>
+      </c>
+      <c r="G239">
+        <v>10.009990009990011</v>
+      </c>
+      <c r="H239">
+        <v>0.3</v>
+      </c>
+      <c r="I239">
+        <v>0.1</v>
+      </c>
+      <c r="J239">
+        <v>4</v>
+      </c>
+      <c r="K239">
+        <v>4</v>
+      </c>
+      <c r="L239">
+        <v>2</v>
+      </c>
+      <c r="M239">
+        <v>0.36</v>
+      </c>
+      <c r="N239">
+        <v>1.3055555555555556</v>
+      </c>
+      <c r="O239">
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="P239">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>42965.619409722225</v>
+      </c>
+      <c r="B240" t="s">
+        <v>18</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>5</v>
+      </c>
+      <c r="E240">
+        <v>5</v>
+      </c>
+      <c r="F240">
+        <v>6.6507365964218303</v>
+      </c>
+      <c r="G240">
+        <v>9.8301698301698295</v>
+      </c>
+      <c r="H240">
+        <v>0.3</v>
+      </c>
+      <c r="I240">
+        <v>0.1</v>
+      </c>
+      <c r="J240">
+        <v>4</v>
+      </c>
+      <c r="K240">
+        <v>4</v>
+      </c>
+      <c r="L240">
+        <v>2</v>
+      </c>
+      <c r="M240">
+        <v>0.36</v>
+      </c>
+      <c r="N240">
+        <v>1.2</v>
+      </c>
+      <c r="O240">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="P240">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>42965.640231481484</v>
+      </c>
+      <c r="B241" t="s">
+        <v>18</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>5</v>
+      </c>
+      <c r="E241">
+        <v>5</v>
+      </c>
+      <c r="F241">
+        <v>5.845965127065643</v>
+      </c>
+      <c r="G241">
+        <v>10.04995004995005</v>
+      </c>
+      <c r="H241">
+        <v>0.3</v>
+      </c>
+      <c r="I241">
+        <v>0.1</v>
+      </c>
+      <c r="J241">
+        <v>4</v>
+      </c>
+      <c r="K241">
+        <v>4</v>
+      </c>
+      <c r="L241">
+        <v>2</v>
+      </c>
+      <c r="M241">
+        <v>0.36</v>
+      </c>
+      <c r="N241">
+        <v>1.35</v>
+      </c>
+      <c r="O241">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="P241">
+        <v>4.4444444444444446</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>42965.700231481482</v>
+      </c>
+      <c r="B242" t="s">
+        <v>18</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="E242">
+        <v>5</v>
+      </c>
+      <c r="F242">
+        <v>19.824858397301604</v>
+      </c>
+      <c r="G242">
+        <v>9.9940059940059953</v>
+      </c>
+      <c r="H242">
+        <v>0.3</v>
+      </c>
+      <c r="I242">
+        <v>0.1</v>
+      </c>
+      <c r="J242">
+        <v>4</v>
+      </c>
+      <c r="K242">
+        <v>4</v>
+      </c>
+      <c r="L242">
+        <v>2</v>
+      </c>
+      <c r="M242">
+        <v>0.36</v>
+      </c>
+      <c r="N242">
+        <v>1.3555555555555556</v>
+      </c>
+      <c r="O242">
+        <v>0.38133333333333336</v>
+      </c>
+      <c r="P242">
+        <v>4.7407499999999994</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>42965.70689814815</v>
+      </c>
+      <c r="B243" t="s">
+        <v>17</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>5</v>
+      </c>
+      <c r="E243">
+        <v>5</v>
+      </c>
+      <c r="F243">
+        <v>5.8894489390317224</v>
+      </c>
+      <c r="G243">
+        <v>12.427572427572427</v>
+      </c>
+      <c r="H243">
+        <v>0.3</v>
+      </c>
+      <c r="I243">
+        <v>0.1</v>
+      </c>
+      <c r="J243">
+        <v>4</v>
+      </c>
+      <c r="K243">
+        <v>4</v>
+      </c>
+      <c r="L243">
+        <v>2</v>
+      </c>
+      <c r="M243">
+        <v>0.36</v>
+      </c>
+      <c r="N243">
+        <v>1.3</v>
+      </c>
+      <c r="O243">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="P243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>42965.709340277775</v>
+      </c>
+      <c r="B244" t="s">
+        <v>17</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>5</v>
+      </c>
+      <c r="E244">
+        <v>5</v>
+      </c>
+      <c r="F244">
+        <v>5.8334535954973843</v>
+      </c>
+      <c r="G244">
+        <v>10</v>
+      </c>
+      <c r="H244">
+        <v>0.3</v>
+      </c>
+      <c r="I244">
+        <v>0.1</v>
+      </c>
+      <c r="J244">
+        <v>4</v>
+      </c>
+      <c r="K244">
+        <v>4</v>
+      </c>
+      <c r="L244">
+        <v>2</v>
+      </c>
+      <c r="M244">
+        <v>0.36</v>
+      </c>
+      <c r="N244">
+        <v>1.25</v>
+      </c>
+      <c r="O244">
+        <v>0.4</v>
+      </c>
+      <c r="P244">
+        <v>4.5555555555555554</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>42965.71266203704</v>
+      </c>
+      <c r="B245" t="s">
+        <v>17</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>5</v>
+      </c>
+      <c r="F245">
+        <v>17.772770107487176</v>
+      </c>
+      <c r="G245">
+        <v>10.063936063936065</v>
+      </c>
+      <c r="H245">
+        <v>0.3</v>
+      </c>
+      <c r="I245">
+        <v>0.1</v>
+      </c>
+      <c r="J245">
+        <v>4</v>
+      </c>
+      <c r="K245">
+        <v>4</v>
+      </c>
+      <c r="L245">
+        <v>2</v>
+      </c>
+      <c r="M245">
+        <v>0.36</v>
+      </c>
+      <c r="N245">
+        <v>1.25</v>
+      </c>
+      <c r="O245">
+        <v>0.4</v>
+      </c>
+      <c r="P245">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>42965.715567129628</v>
+      </c>
+      <c r="B246" t="s">
+        <v>17</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>5</v>
+      </c>
+      <c r="F246">
+        <v>17.714467330343151</v>
+      </c>
+      <c r="G246">
+        <v>10.005994005994005</v>
+      </c>
+      <c r="H246">
+        <v>0.3</v>
+      </c>
+      <c r="I246">
+        <v>0.1</v>
+      </c>
+      <c r="J246">
+        <v>4</v>
+      </c>
+      <c r="K246">
+        <v>4</v>
+      </c>
+      <c r="L246">
+        <v>2</v>
+      </c>
+      <c r="M246">
+        <v>0.36</v>
+      </c>
+      <c r="N246">
+        <v>1.25</v>
+      </c>
+      <c r="O246">
+        <v>0.4</v>
+      </c>
+      <c r="P246">
+        <v>4.5388888888888888</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>42965.737812500003</v>
+      </c>
+      <c r="B247" t="s">
+        <v>18</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>5</v>
+      </c>
+      <c r="E247">
+        <v>5</v>
+      </c>
+      <c r="F247">
+        <v>5.9281111715177381</v>
+      </c>
+      <c r="G247">
+        <v>9.4805194805194795</v>
+      </c>
+      <c r="H247">
+        <v>0.3</v>
+      </c>
+      <c r="I247">
+        <v>0.1</v>
+      </c>
+      <c r="J247">
+        <v>4</v>
+      </c>
+      <c r="K247">
+        <v>4</v>
+      </c>
+      <c r="L247">
+        <v>2</v>
+      </c>
+      <c r="M247">
+        <v>0.36</v>
+      </c>
+      <c r="N247">
+        <v>1.5</v>
+      </c>
+      <c r="O247">
+        <v>0.46</v>
+      </c>
+      <c r="P247">
+        <v>5.6666666666666661</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>42965.739872685182</v>
+      </c>
+      <c r="B248" t="s">
+        <v>18</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>5</v>
+      </c>
+      <c r="E248">
+        <v>5</v>
+      </c>
+      <c r="F248">
+        <v>7.2931410248000317</v>
+      </c>
+      <c r="G248">
+        <v>10.009990009990011</v>
+      </c>
+      <c r="H248">
+        <v>0.3</v>
+      </c>
+      <c r="I248">
+        <v>0.1</v>
+      </c>
+      <c r="J248">
+        <v>4</v>
+      </c>
+      <c r="K248">
+        <v>4</v>
+      </c>
+      <c r="L248">
+        <v>2</v>
+      </c>
+      <c r="M248">
+        <v>0.36</v>
+      </c>
+      <c r="N248">
+        <v>1.5</v>
+      </c>
+      <c r="O248">
+        <v>0.46</v>
+      </c>
+      <c r="P248">
+        <v>5.7777777777777777</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>42965.742650462962</v>
+      </c>
+      <c r="B249" t="s">
+        <v>18</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>5</v>
+      </c>
+      <c r="F249">
+        <v>24.631383401005465</v>
+      </c>
+      <c r="G249">
+        <v>10.04995004995005</v>
+      </c>
+      <c r="H249">
+        <v>0.3</v>
+      </c>
+      <c r="I249">
+        <v>0.1</v>
+      </c>
+      <c r="J249">
+        <v>4</v>
+      </c>
+      <c r="K249">
+        <v>4</v>
+      </c>
+      <c r="L249">
+        <v>2</v>
+      </c>
+      <c r="M249">
+        <v>0.36</v>
+      </c>
+      <c r="N249">
+        <v>1.5</v>
+      </c>
+      <c r="O249">
+        <v>0.46</v>
+      </c>
+      <c r="P249">
+        <v>5.6888888888888891</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>42965.744004629632</v>
+      </c>
+      <c r="B250" t="s">
+        <v>18</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>5</v>
+      </c>
+      <c r="E250">
+        <v>5</v>
+      </c>
+      <c r="F250">
+        <v>5.9754073207499108</v>
+      </c>
+      <c r="G250">
+        <v>8.8411588411588404</v>
+      </c>
+      <c r="H250">
+        <v>0.3</v>
+      </c>
+      <c r="I250">
+        <v>0.1</v>
+      </c>
+      <c r="J250">
+        <v>4</v>
+      </c>
+      <c r="K250">
+        <v>4</v>
+      </c>
+      <c r="L250">
+        <v>2</v>
+      </c>
+      <c r="M250">
+        <v>0.36</v>
+      </c>
+      <c r="N250">
+        <v>1.5</v>
+      </c>
+      <c r="O250">
+        <v>0.46</v>
+      </c>
+      <c r="P250">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>42965.74596064815</v>
+      </c>
+      <c r="B251" t="s">
+        <v>18</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>5</v>
+      </c>
+      <c r="E251">
+        <v>5</v>
+      </c>
+      <c r="F251">
+        <v>5.9679407202994321</v>
+      </c>
+      <c r="G251">
+        <v>10</v>
+      </c>
+      <c r="H251">
+        <v>0.3</v>
+      </c>
+      <c r="I251">
+        <v>0.1</v>
+      </c>
+      <c r="J251">
+        <v>4</v>
+      </c>
+      <c r="K251">
+        <v>4</v>
+      </c>
+      <c r="L251">
+        <v>2</v>
+      </c>
+      <c r="M251">
+        <v>0.36</v>
+      </c>
+      <c r="N251">
+        <v>1.5</v>
+      </c>
+      <c r="O251">
+        <v>0.46</v>
+      </c>
+      <c r="P251">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>42965.749421296299</v>
+      </c>
+      <c r="B252" t="s">
+        <v>18</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>5</v>
+      </c>
+      <c r="F252">
+        <v>21.223786501433388</v>
+      </c>
+      <c r="G252">
+        <v>10.057942057942057</v>
+      </c>
+      <c r="H252">
+        <v>0.3</v>
+      </c>
+      <c r="I252">
+        <v>0.1</v>
+      </c>
+      <c r="J252">
+        <v>4</v>
+      </c>
+      <c r="K252">
+        <v>4</v>
+      </c>
+      <c r="L252">
+        <v>2</v>
+      </c>
+      <c r="M252">
+        <v>0.36</v>
+      </c>
+      <c r="N252">
+        <v>1.5</v>
+      </c>
+      <c r="O252">
+        <v>0.46</v>
+      </c>
+      <c r="P252">
+        <v>6.2592722222222221</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>42965.751793981479</v>
+      </c>
+      <c r="B253" t="s">
+        <v>19</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>5</v>
+      </c>
+      <c r="E253">
+        <v>5</v>
+      </c>
+      <c r="F253">
+        <v>5.9606609928524277</v>
+      </c>
+      <c r="G253">
+        <v>9.8401598401598402</v>
+      </c>
+      <c r="H253">
+        <v>0.3</v>
+      </c>
+      <c r="I253">
+        <v>0.1</v>
+      </c>
+      <c r="J253">
+        <v>4</v>
+      </c>
+      <c r="K253">
+        <v>4</v>
+      </c>
+      <c r="L253">
+        <v>2</v>
+      </c>
+      <c r="M253">
+        <v>0.36</v>
+      </c>
+      <c r="N253">
+        <v>1.5</v>
+      </c>
+      <c r="O253">
+        <v>0.46</v>
+      </c>
+      <c r="P253">
+        <v>5.7777777777777777</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>42965.784918981481</v>
+      </c>
+      <c r="B254" t="s">
+        <v>19</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>5</v>
+      </c>
+      <c r="F254">
+        <v>24.141487182719878</v>
+      </c>
+      <c r="G254">
+        <v>10.039960039960039</v>
+      </c>
+      <c r="H254">
+        <v>0.3</v>
+      </c>
+      <c r="I254">
+        <v>0.1</v>
+      </c>
+      <c r="J254">
+        <v>4</v>
+      </c>
+      <c r="K254">
+        <v>4</v>
+      </c>
+      <c r="L254">
+        <v>2</v>
+      </c>
+      <c r="M254">
+        <v>0.36</v>
+      </c>
+      <c r="N254">
+        <v>1.5</v>
+      </c>
+      <c r="O254">
+        <v>0.46</v>
+      </c>
+      <c r="P254">
+        <v>5.7444666666666668</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>42965.798541666663</v>
+      </c>
+      <c r="B255" t="s">
+        <v>19</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>5</v>
+      </c>
+      <c r="E255">
+        <v>5</v>
+      </c>
+      <c r="F255">
+        <v>5.7881432919151505</v>
+      </c>
+      <c r="G255">
+        <v>8.6513486513486519</v>
+      </c>
+      <c r="H255">
+        <v>0.3</v>
+      </c>
+      <c r="I255">
+        <v>0.1</v>
+      </c>
+      <c r="J255">
+        <v>4</v>
+      </c>
+      <c r="K255">
+        <v>4</v>
+      </c>
+      <c r="L255">
+        <v>2</v>
+      </c>
+      <c r="M255">
+        <v>0.36</v>
+      </c>
+      <c r="N255">
+        <v>1.5</v>
+      </c>
+      <c r="O255">
+        <v>0.46</v>
+      </c>
+      <c r="P255">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>42965.800729166665</v>
+      </c>
+      <c r="B256" t="s">
+        <v>19</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>5</v>
+      </c>
+      <c r="E256">
+        <v>5</v>
+      </c>
+      <c r="F256">
+        <v>5.6982180187173794</v>
+      </c>
+      <c r="G256">
+        <v>9.870129870129869</v>
+      </c>
+      <c r="H256">
+        <v>0.3</v>
+      </c>
+      <c r="I256">
+        <v>0.1</v>
+      </c>
+      <c r="J256">
+        <v>4</v>
+      </c>
+      <c r="K256">
+        <v>4</v>
+      </c>
+      <c r="L256">
+        <v>2</v>
+      </c>
+      <c r="M256">
+        <v>0.36</v>
+      </c>
+      <c r="N256">
+        <v>1.5</v>
+      </c>
+      <c r="O256">
+        <v>0.46</v>
+      </c>
+      <c r="P256">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>42965.803854166668</v>
+      </c>
+      <c r="B257" t="s">
+        <v>19</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>5</v>
+      </c>
+      <c r="F257">
+        <v>17.818703107755645</v>
+      </c>
+      <c r="G257">
+        <v>10.053946053946053</v>
+      </c>
+      <c r="H257">
+        <v>0.3</v>
+      </c>
+      <c r="I257">
+        <v>0.1</v>
+      </c>
+      <c r="J257">
+        <v>4</v>
+      </c>
+      <c r="K257">
+        <v>4</v>
+      </c>
+      <c r="L257">
+        <v>2</v>
+      </c>
+      <c r="M257">
+        <v>0.36</v>
+      </c>
+      <c r="N257">
+        <v>1.5</v>
+      </c>
+      <c r="O257">
+        <v>0.46</v>
+      </c>
+      <c r="P257">
+        <v>6.3332999999999995</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>42965.818391203706</v>
+      </c>
+      <c r="B258" t="s">
+        <v>17</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>5</v>
+      </c>
+      <c r="E258">
+        <v>5</v>
+      </c>
+      <c r="F258">
+        <v>7.1812940123521773</v>
+      </c>
+      <c r="G258">
+        <v>5.0249750249750251</v>
+      </c>
+      <c r="H258">
+        <v>0.3</v>
+      </c>
+      <c r="I258">
+        <v>0.1</v>
+      </c>
+      <c r="J258">
+        <v>4</v>
+      </c>
+      <c r="K258">
+        <v>4</v>
+      </c>
+      <c r="L258">
+        <v>2</v>
+      </c>
+      <c r="M258">
+        <v>0.36</v>
+      </c>
+      <c r="N258">
+        <v>1.5</v>
+      </c>
+      <c r="O258">
+        <v>0.46</v>
+      </c>
+      <c r="P258">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>42965.820219907408</v>
+      </c>
+      <c r="B259" t="s">
+        <v>17</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>5</v>
+      </c>
+      <c r="E259">
+        <v>5</v>
+      </c>
+      <c r="F259">
+        <v>5.5983574374975404</v>
+      </c>
+      <c r="G259">
+        <v>5.0249750249750251</v>
+      </c>
+      <c r="H259">
+        <v>0.3</v>
+      </c>
+      <c r="I259">
+        <v>0.1</v>
+      </c>
+      <c r="J259">
+        <v>4</v>
+      </c>
+      <c r="K259">
+        <v>4</v>
+      </c>
+      <c r="L259">
+        <v>2</v>
+      </c>
+      <c r="M259">
+        <v>0.36</v>
+      </c>
+      <c r="N259">
+        <v>1.5</v>
+      </c>
+      <c r="O259">
+        <v>0.46</v>
+      </c>
+      <c r="P259">
+        <v>4.3333333333333339</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>42965.822928240741</v>
+      </c>
+      <c r="B260" t="s">
+        <v>17</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>5</v>
+      </c>
+      <c r="E260">
+        <v>5</v>
+      </c>
+      <c r="F260">
+        <v>5.7169033991367364</v>
+      </c>
+      <c r="G260">
+        <v>5.0249750249750251</v>
+      </c>
+      <c r="H260">
+        <v>0.3</v>
+      </c>
+      <c r="I260">
+        <v>0.1</v>
+      </c>
+      <c r="J260">
+        <v>4</v>
+      </c>
+      <c r="K260">
+        <v>4</v>
+      </c>
+      <c r="L260">
+        <v>2</v>
+      </c>
+      <c r="M260">
+        <v>0.36</v>
+      </c>
+      <c r="N260">
+        <v>1.5</v>
+      </c>
+      <c r="O260">
+        <v>0.46</v>
+      </c>
+      <c r="P260">
+        <v>4.3333333333333339</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>42965.826481481483</v>
+      </c>
+      <c r="B261" t="s">
+        <v>17</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261">
+        <v>5</v>
+      </c>
+      <c r="F261">
+        <v>17.852430485002643</v>
+      </c>
+      <c r="G261">
+        <v>4.9930069930069925</v>
+      </c>
+      <c r="H261">
+        <v>0.3</v>
+      </c>
+      <c r="I261">
+        <v>0.1</v>
+      </c>
+      <c r="J261">
+        <v>4</v>
+      </c>
+      <c r="K261">
+        <v>4</v>
+      </c>
+      <c r="L261">
+        <v>2</v>
+      </c>
+      <c r="M261">
+        <v>0.36</v>
+      </c>
+      <c r="N261">
+        <v>1.5</v>
+      </c>
+      <c r="O261">
+        <v>0.46</v>
+      </c>
+      <c r="P261">
+        <v>4.2555555555555555</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>42965.829583333332</v>
+      </c>
+      <c r="B262" t="s">
+        <v>17</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>5</v>
+      </c>
+      <c r="E262">
+        <v>5</v>
+      </c>
+      <c r="F262">
+        <v>5.64541007584676</v>
+      </c>
+      <c r="G262">
+        <v>5.0549450549450547</v>
+      </c>
+      <c r="H262">
+        <v>0.3</v>
+      </c>
+      <c r="I262">
+        <v>0.1</v>
+      </c>
+      <c r="J262">
+        <v>4</v>
+      </c>
+      <c r="K262">
+        <v>4</v>
+      </c>
+      <c r="L262">
+        <v>2</v>
+      </c>
+      <c r="M262">
+        <v>0.36</v>
+      </c>
+      <c r="N262">
+        <v>1.5</v>
+      </c>
+      <c r="O262">
+        <v>0.46</v>
+      </c>
+      <c r="P262">
+        <v>4.791666666666667</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>42965.833194444444</v>
+      </c>
+      <c r="B263" t="s">
+        <v>17</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+      <c r="E263">
+        <v>5</v>
+      </c>
+      <c r="F263">
+        <v>21.372518212918109</v>
+      </c>
+      <c r="G263">
+        <v>5.0269730269730264</v>
+      </c>
+      <c r="H263">
+        <v>0.3</v>
+      </c>
+      <c r="I263">
+        <v>0.1</v>
+      </c>
+      <c r="J263">
+        <v>4</v>
+      </c>
+      <c r="K263">
+        <v>4</v>
+      </c>
+      <c r="L263">
+        <v>2</v>
+      </c>
+      <c r="M263">
+        <v>0.36</v>
+      </c>
+      <c r="N263">
+        <v>1.5</v>
+      </c>
+      <c r="O263">
+        <v>0.46</v>
+      </c>
+      <c r="P263">
+        <v>4.7250333333333332</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>42965.839675925927</v>
+      </c>
+      <c r="B264" t="s">
+        <v>16</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264">
+        <v>5</v>
+      </c>
+      <c r="F264">
+        <v>17.630244883631558</v>
+      </c>
+      <c r="G264">
+        <v>4.9830169830169826</v>
+      </c>
+      <c r="H264">
+        <v>0.3</v>
+      </c>
+      <c r="I264">
+        <v>0.1</v>
+      </c>
+      <c r="J264">
+        <v>4</v>
+      </c>
+      <c r="K264">
+        <v>4</v>
+      </c>
+      <c r="L264">
+        <v>2</v>
+      </c>
+      <c r="M264">
+        <v>0.36</v>
+      </c>
+      <c r="N264">
+        <v>1.5</v>
+      </c>
+      <c r="O264">
+        <v>0.46</v>
+      </c>
+      <c r="P264">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>42965.843055555553</v>
+      </c>
+      <c r="B265" t="s">
+        <v>16</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>5</v>
+      </c>
+      <c r="F265">
+        <v>21.380464795398062</v>
+      </c>
+      <c r="G265">
+        <v>5.0249750249750251</v>
+      </c>
+      <c r="H265">
+        <v>0.3</v>
+      </c>
+      <c r="I265">
+        <v>0.1</v>
+      </c>
+      <c r="J265">
+        <v>4</v>
+      </c>
+      <c r="K265">
+        <v>4</v>
+      </c>
+      <c r="L265">
+        <v>2</v>
+      </c>
+      <c r="M265">
+        <v>0.36</v>
+      </c>
+      <c r="N265">
+        <v>1.5</v>
+      </c>
+      <c r="O265">
+        <v>0.46</v>
+      </c>
+      <c r="P265">
+        <v>4.7222222222222223</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>42965.852025462962</v>
+      </c>
+      <c r="B266" t="s">
+        <v>17</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>5</v>
+      </c>
+      <c r="E266">
+        <v>5</v>
+      </c>
+      <c r="F266">
+        <v>5.640835527117865</v>
+      </c>
+      <c r="G266">
+        <v>2.5674325674325678</v>
+      </c>
+      <c r="H266">
+        <v>0.3</v>
+      </c>
+      <c r="I266">
+        <v>0.1</v>
+      </c>
+      <c r="J266">
+        <v>4</v>
+      </c>
+      <c r="K266">
+        <v>4</v>
+      </c>
+      <c r="L266">
+        <v>2</v>
+      </c>
+      <c r="M266">
+        <v>0.36</v>
+      </c>
+      <c r="N266">
+        <v>1.5</v>
+      </c>
+      <c r="O266">
+        <v>0.46</v>
+      </c>
+      <c r="P266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>42965.857743055552</v>
+      </c>
+      <c r="B267" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>5</v>
+      </c>
+      <c r="E267">
+        <v>5</v>
+      </c>
+      <c r="F267">
+        <v>7.4004915655957841</v>
+      </c>
+      <c r="G267">
+        <v>2.5674325674325678</v>
+      </c>
+      <c r="H267">
+        <v>0.3</v>
+      </c>
+      <c r="I267">
+        <v>0.1</v>
+      </c>
+      <c r="J267">
+        <v>4</v>
+      </c>
+      <c r="K267">
+        <v>4</v>
+      </c>
+      <c r="L267">
+        <v>2</v>
+      </c>
+      <c r="M267">
+        <v>0.36</v>
+      </c>
+      <c r="N267">
+        <v>1.5</v>
+      </c>
+      <c r="O267">
+        <v>0.46</v>
+      </c>
+      <c r="P267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>42965.865405092591</v>
+      </c>
+      <c r="B268" t="s">
+        <v>17</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268">
+        <v>5</v>
+      </c>
+      <c r="F268">
+        <v>17.662202087153858</v>
+      </c>
+      <c r="G268">
+        <v>2.8231768231768233</v>
+      </c>
+      <c r="H268">
+        <v>0.3</v>
+      </c>
+      <c r="I268">
+        <v>0.1</v>
+      </c>
+      <c r="J268">
+        <v>4</v>
+      </c>
+      <c r="K268">
+        <v>4</v>
+      </c>
+      <c r="L268">
+        <v>2</v>
+      </c>
+      <c r="M268">
+        <v>0.36</v>
+      </c>
+      <c r="N268">
+        <v>1.5</v>
+      </c>
+      <c r="O268">
+        <v>0.46</v>
+      </c>
+      <c r="P268">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>42965.874479166669</v>
+      </c>
+      <c r="B269" t="s">
+        <v>17</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="E269">
+        <v>5</v>
+      </c>
+      <c r="F269">
+        <v>22.430454923767655</v>
+      </c>
+      <c r="G269">
+        <v>2.8691308691308688</v>
+      </c>
+      <c r="H269">
+        <v>0.3</v>
+      </c>
+      <c r="I269">
+        <v>0.1</v>
+      </c>
+      <c r="J269">
+        <v>4</v>
+      </c>
+      <c r="K269">
+        <v>4</v>
+      </c>
+      <c r="L269">
+        <v>2</v>
+      </c>
+      <c r="M269">
+        <v>0.36</v>
+      </c>
+      <c r="N269">
+        <v>1.5</v>
+      </c>
+      <c r="O269">
+        <v>0.46</v>
+      </c>
+      <c r="P269">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>42965.877905092595</v>
+      </c>
+      <c r="B270" t="s">
+        <v>17</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270">
+        <v>5</v>
+      </c>
+      <c r="F270">
+        <v>17.493182495247378</v>
+      </c>
+      <c r="G270">
+        <v>3.0009990009990011</v>
+      </c>
+      <c r="H270">
+        <v>0.3</v>
+      </c>
+      <c r="I270">
+        <v>0.1</v>
+      </c>
+      <c r="J270">
+        <v>4</v>
+      </c>
+      <c r="K270">
+        <v>4</v>
+      </c>
+      <c r="L270">
+        <v>2</v>
+      </c>
+      <c r="M270">
+        <v>0.36</v>
+      </c>
+      <c r="N270">
+        <v>1.5</v>
+      </c>
+      <c r="O270">
+        <v>0.46</v>
+      </c>
+      <c r="P270">
+        <v>2.8888888888888888</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>42965.889432870368</v>
+      </c>
+      <c r="B271" t="s">
+        <v>17</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+      <c r="E271">
+        <v>5</v>
+      </c>
+      <c r="F271">
+        <v>24.729763077670373</v>
+      </c>
+      <c r="G271">
+        <v>2.9990009990009989</v>
+      </c>
+      <c r="H271">
+        <v>0.3</v>
+      </c>
+      <c r="I271">
+        <v>0.1</v>
+      </c>
+      <c r="J271">
+        <v>4</v>
+      </c>
+      <c r="K271">
+        <v>4</v>
+      </c>
+      <c r="L271">
+        <v>2</v>
+      </c>
+      <c r="M271">
+        <v>0.36</v>
+      </c>
+      <c r="N271">
+        <v>1.5</v>
+      </c>
+      <c r="O271">
+        <v>0.46</v>
+      </c>
+      <c r="P271">
+        <v>2.8666777777777779</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>42965.893136574072</v>
+      </c>
+      <c r="B272" t="s">
+        <v>17</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>5</v>
+      </c>
+      <c r="F272">
+        <v>20.468380543832438</v>
+      </c>
+      <c r="G272">
+        <v>2.7052947052947052</v>
+      </c>
+      <c r="H272">
+        <v>0.3</v>
+      </c>
+      <c r="I272">
+        <v>0.1</v>
+      </c>
+      <c r="J272">
+        <v>4</v>
+      </c>
+      <c r="K272">
+        <v>4</v>
+      </c>
+      <c r="L272">
+        <v>2</v>
+      </c>
+      <c r="M272">
+        <v>0.36</v>
+      </c>
+      <c r="N272">
+        <v>1.5</v>
+      </c>
+      <c r="O272">
+        <v>0.46</v>
+      </c>
+      <c r="P272">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>42965.897256944445</v>
+      </c>
+      <c r="B273" t="s">
+        <v>17</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="E273">
+        <v>5</v>
+      </c>
+      <c r="F273">
+        <v>23.99596591103629</v>
+      </c>
+      <c r="G273">
+        <v>3.0389610389610389</v>
+      </c>
+      <c r="H273">
+        <v>0.3</v>
+      </c>
+      <c r="I273">
+        <v>0.1</v>
+      </c>
+      <c r="J273">
+        <v>4</v>
+      </c>
+      <c r="K273">
+        <v>4</v>
+      </c>
+      <c r="L273">
+        <v>2</v>
+      </c>
+      <c r="M273">
+        <v>0.36</v>
+      </c>
+      <c r="N273">
+        <v>1.5</v>
+      </c>
+      <c r="O273">
+        <v>0.46</v>
+      </c>
+      <c r="P273">
+        <v>3.7777777777777777</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>42965.900081018517</v>
+      </c>
+      <c r="B274" t="s">
+        <v>17</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+      <c r="E274">
+        <v>5</v>
+      </c>
+      <c r="F274">
+        <v>25.029356980874635</v>
+      </c>
+      <c r="G274">
+        <v>3.0089910089910088</v>
+      </c>
+      <c r="H274">
+        <v>0.3</v>
+      </c>
+      <c r="I274">
+        <v>0.1</v>
+      </c>
+      <c r="J274">
+        <v>4</v>
+      </c>
+      <c r="K274">
+        <v>4</v>
+      </c>
+      <c r="L274">
+        <v>2</v>
+      </c>
+      <c r="M274">
+        <v>0.36</v>
+      </c>
+      <c r="N274">
+        <v>1.5</v>
+      </c>
+      <c r="O274">
+        <v>0.46</v>
+      </c>
+      <c r="P274">
+        <v>3.7555777777777775</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>42965.90353009259</v>
+      </c>
+      <c r="B275" t="s">
+        <v>16</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275">
+        <v>5</v>
+      </c>
+      <c r="F275">
+        <v>18.756539355166542</v>
+      </c>
+      <c r="G275">
+        <v>2.9930069930069929</v>
+      </c>
+      <c r="H275">
+        <v>0.3</v>
+      </c>
+      <c r="I275">
+        <v>0.1</v>
+      </c>
+      <c r="J275">
+        <v>4</v>
+      </c>
+      <c r="K275">
+        <v>4</v>
+      </c>
+      <c r="L275">
+        <v>2</v>
+      </c>
+      <c r="M275">
+        <v>0.36</v>
+      </c>
+      <c r="N275">
+        <v>1.5</v>
+      </c>
+      <c r="O275">
+        <v>0.46</v>
+      </c>
+      <c r="P275">
+        <v>2.7333333333333334</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>42965.906099537038</v>
+      </c>
+      <c r="B276" t="s">
+        <v>16</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>5</v>
+      </c>
+      <c r="F276">
+        <v>17.572044822641839</v>
+      </c>
+      <c r="G276">
+        <v>3.0069930069930071</v>
+      </c>
+      <c r="H276">
+        <v>0.3</v>
+      </c>
+      <c r="I276">
+        <v>0.1</v>
+      </c>
+      <c r="J276">
+        <v>4</v>
+      </c>
+      <c r="K276">
+        <v>4</v>
+      </c>
+      <c r="L276">
+        <v>2</v>
+      </c>
+      <c r="M276">
+        <v>0.36</v>
+      </c>
+      <c r="N276">
+        <v>1.5</v>
+      </c>
+      <c r="O276">
+        <v>0.46</v>
+      </c>
+      <c r="P276">
+        <v>2.7555222222222224</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>42965.909189814818</v>
+      </c>
+      <c r="B277" t="s">
+        <v>16</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+      <c r="E277">
+        <v>5</v>
+      </c>
+      <c r="F277">
+        <v>24.115578712732994</v>
+      </c>
+      <c r="G277">
+        <v>3.0109890109890114</v>
+      </c>
+      <c r="H277">
+        <v>0.3</v>
+      </c>
+      <c r="I277">
+        <v>0.1</v>
+      </c>
+      <c r="J277">
+        <v>4</v>
+      </c>
+      <c r="K277">
+        <v>4</v>
+      </c>
+      <c r="L277">
+        <v>2</v>
+      </c>
+      <c r="M277">
+        <v>0.36</v>
+      </c>
+      <c r="N277">
+        <v>1.5</v>
+      </c>
+      <c r="O277">
+        <v>0.46</v>
+      </c>
+      <c r="P277">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>42965.914571759262</v>
+      </c>
+      <c r="B278" t="s">
+        <v>16</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>5</v>
+      </c>
+      <c r="F278">
+        <v>17.710802827542135</v>
+      </c>
+      <c r="G278">
+        <v>2.9870129870129869</v>
+      </c>
+      <c r="H278">
+        <v>0.3</v>
+      </c>
+      <c r="I278">
+        <v>0.1</v>
+      </c>
+      <c r="J278">
+        <v>4</v>
+      </c>
+      <c r="K278">
+        <v>4</v>
+      </c>
+      <c r="L278">
+        <v>2</v>
+      </c>
+      <c r="M278">
+        <v>0.36</v>
+      </c>
+      <c r="N278">
+        <v>1.5</v>
+      </c>
+      <c r="O278">
+        <v>0.46</v>
+      </c>
+      <c r="P278">
+        <v>3.6833333333333336</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>42965.943784722222</v>
+      </c>
+      <c r="B279" t="s">
+        <v>18</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279">
+        <v>5</v>
+      </c>
+      <c r="F279">
+        <v>17.768846414390246</v>
+      </c>
+      <c r="G279">
+        <v>3.0009990009990011</v>
+      </c>
+      <c r="H279">
+        <v>0.3</v>
+      </c>
+      <c r="I279">
+        <v>0.1</v>
+      </c>
+      <c r="J279">
+        <v>4</v>
+      </c>
+      <c r="K279">
+        <v>4</v>
+      </c>
+      <c r="L279">
+        <v>2</v>
+      </c>
+      <c r="M279">
+        <v>0.36</v>
+      </c>
+      <c r="N279">
+        <v>1.5</v>
+      </c>
+      <c r="O279">
+        <v>0.46</v>
+      </c>
+      <c r="P279">
+        <v>3.6555555555555554</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>42965.949050925927</v>
+      </c>
+      <c r="B280" t="s">
+        <v>18</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280">
+        <v>5</v>
+      </c>
+      <c r="F280">
+        <v>18.210004937415142</v>
+      </c>
+      <c r="G280">
+        <v>3.0009990009990011</v>
+      </c>
+      <c r="H280">
+        <v>0.3</v>
+      </c>
+      <c r="I280">
+        <v>0.1</v>
+      </c>
+      <c r="J280">
+        <v>4</v>
+      </c>
+      <c r="K280">
+        <v>4</v>
+      </c>
+      <c r="L280">
+        <v>2</v>
+      </c>
+      <c r="M280">
+        <v>0.36</v>
+      </c>
+      <c r="N280">
+        <v>1.5</v>
+      </c>
+      <c r="O280">
+        <v>0.46</v>
+      </c>
+      <c r="P280">
+        <v>2.6527777777777777</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>42965.954085648147</v>
+      </c>
+      <c r="B281" t="s">
+        <v>18</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+      <c r="E281">
+        <v>5</v>
+      </c>
+      <c r="F281">
+        <v>17.628824776800357</v>
+      </c>
+      <c r="G281">
+        <v>3.0009990009990011</v>
+      </c>
+      <c r="H281">
+        <v>0.3</v>
+      </c>
+      <c r="I281">
+        <v>0.1</v>
+      </c>
+      <c r="J281">
+        <v>4</v>
+      </c>
+      <c r="K281">
+        <v>4</v>
+      </c>
+      <c r="L281">
+        <v>2</v>
+      </c>
+      <c r="M281">
+        <v>0.36</v>
+      </c>
+      <c r="N281">
+        <v>1.5</v>
+      </c>
+      <c r="O281">
+        <v>0.46</v>
+      </c>
+      <c r="P281">
+        <v>2.6527777777777777</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>42965.958136574074</v>
+      </c>
+      <c r="B282" t="s">
+        <v>19</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>5</v>
+      </c>
+      <c r="F282">
+        <v>17.726492480121543</v>
+      </c>
+      <c r="G282">
+        <v>3.0009990009990011</v>
+      </c>
+      <c r="H282">
+        <v>0.3</v>
+      </c>
+      <c r="I282">
+        <v>0.1</v>
+      </c>
+      <c r="J282">
+        <v>4</v>
+      </c>
+      <c r="K282">
+        <v>4</v>
+      </c>
+      <c r="L282">
+        <v>2</v>
+      </c>
+      <c r="M282">
+        <v>0.36</v>
+      </c>
+      <c r="N282">
+        <v>1.5</v>
+      </c>
+      <c r="O282">
+        <v>0.46</v>
+      </c>
+      <c r="P282">
+        <v>3.8221999999999996</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>42965.961863425924</v>
+      </c>
+      <c r="B283" t="s">
+        <v>19</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>5</v>
+      </c>
+      <c r="F283">
+        <v>17.618587720075759</v>
+      </c>
+      <c r="G283">
+        <v>3.0009990009990011</v>
+      </c>
+      <c r="H283">
+        <v>0.3</v>
+      </c>
+      <c r="I283">
+        <v>0.1</v>
+      </c>
+      <c r="J283">
+        <v>4</v>
+      </c>
+      <c r="K283">
+        <v>4</v>
+      </c>
+      <c r="L283">
+        <v>2</v>
+      </c>
+      <c r="M283">
+        <v>0.36</v>
+      </c>
+      <c r="N283">
+        <v>1.5</v>
+      </c>
+      <c r="O283">
+        <v>0.46</v>
+      </c>
+      <c r="P283">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>42965.981724537036</v>
+      </c>
+      <c r="B284" t="s">
+        <v>19</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284">
+        <v>5</v>
+      </c>
+      <c r="F284">
+        <v>18.705996287498998</v>
+      </c>
+      <c r="G284">
+        <v>3.1188811188811192</v>
+      </c>
+      <c r="H284">
+        <v>0.3</v>
+      </c>
+      <c r="I284">
+        <v>0.1</v>
+      </c>
+      <c r="J284">
+        <v>4</v>
+      </c>
+      <c r="K284">
+        <v>4</v>
+      </c>
+      <c r="L284">
+        <v>2</v>
+      </c>
+      <c r="M284">
+        <v>0.36</v>
+      </c>
+      <c r="N284">
+        <v>1.5</v>
+      </c>
+      <c r="O284">
+        <v>0.46</v>
+      </c>
+      <c r="P284">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>42965.982222222221</v>
+      </c>
+      <c r="B285" t="s">
+        <v>17</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+      <c r="E285">
+        <v>5</v>
+      </c>
+      <c r="F285">
+        <v>18.159072444327684</v>
+      </c>
+      <c r="G285">
+        <v>10.001998001998002</v>
+      </c>
+      <c r="H285">
+        <v>0.3</v>
+      </c>
+      <c r="I285">
+        <v>0.1</v>
+      </c>
+      <c r="J285">
+        <v>4</v>
+      </c>
+      <c r="K285">
+        <v>4</v>
+      </c>
+      <c r="L285">
+        <v>2</v>
+      </c>
+      <c r="M285">
+        <v>0.36</v>
+      </c>
+      <c r="N285">
+        <v>1.5</v>
+      </c>
+      <c r="O285">
+        <v>0.46</v>
+      </c>
+      <c r="P285">
+        <v>6.2222</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>42965.983946759261</v>
+      </c>
+      <c r="B286" t="s">
+        <v>18</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286">
+        <v>5</v>
+      </c>
+      <c r="F286">
+        <v>17.822325052150049</v>
+      </c>
+      <c r="G286">
+        <v>2.9930069930069929</v>
+      </c>
+      <c r="H286">
+        <v>0.3</v>
+      </c>
+      <c r="I286">
+        <v>0.1</v>
+      </c>
+      <c r="J286">
+        <v>4</v>
+      </c>
+      <c r="K286">
+        <v>4</v>
+      </c>
+      <c r="L286">
+        <v>2</v>
+      </c>
+      <c r="M286">
+        <v>0.36</v>
+      </c>
+      <c r="N286">
+        <v>1.5</v>
+      </c>
+      <c r="O286">
+        <v>0.46</v>
+      </c>
+      <c r="P286">
+        <v>2.629</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>42965.984189814815</v>
+      </c>
+      <c r="B287" t="s">
+        <v>19</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <v>5</v>
+      </c>
+      <c r="F287">
+        <v>19.639815085323207</v>
+      </c>
+      <c r="G287">
+        <v>3.0029970029970032</v>
+      </c>
+      <c r="H287">
+        <v>0.3</v>
+      </c>
+      <c r="I287">
+        <v>0.1</v>
+      </c>
+      <c r="J287">
+        <v>4</v>
+      </c>
+      <c r="K287">
+        <v>4</v>
+      </c>
+      <c r="L287">
+        <v>2</v>
+      </c>
+      <c r="M287">
+        <v>0.36</v>
+      </c>
+      <c r="N287">
+        <v>1.5</v>
+      </c>
+      <c r="O287">
+        <v>0.46</v>
+      </c>
+      <c r="P287">
+        <v>2.9056000000000002</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>42965.984490740739</v>
+      </c>
+      <c r="B288" t="s">
+        <v>16</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>5</v>
+      </c>
+      <c r="F288">
+        <v>23.750183433132264</v>
+      </c>
+      <c r="G288">
+        <v>3.0069930069930071</v>
+      </c>
+      <c r="H288">
+        <v>0.3</v>
+      </c>
+      <c r="I288">
+        <v>0.1</v>
+      </c>
+      <c r="J288">
+        <v>4</v>
+      </c>
+      <c r="K288">
+        <v>4</v>
+      </c>
+      <c r="L288">
+        <v>2</v>
+      </c>
+      <c r="M288">
+        <v>0.36</v>
+      </c>
+      <c r="N288">
+        <v>1.5</v>
+      </c>
+      <c r="O288">
+        <v>0.46</v>
+      </c>
+      <c r="P288">
+        <v>2.7555000000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>42965.984780092593</v>
+      </c>
+      <c r="B289" t="s">
+        <v>17</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+      <c r="E289">
+        <v>5</v>
+      </c>
+      <c r="F289">
+        <v>23.612647462479003</v>
+      </c>
+      <c r="G289">
+        <v>2.9990009990009989</v>
+      </c>
+      <c r="H289">
+        <v>0.3</v>
+      </c>
+      <c r="I289">
+        <v>0.1</v>
+      </c>
+      <c r="J289">
+        <v>4</v>
+      </c>
+      <c r="K289">
+        <v>4</v>
+      </c>
+      <c r="L289">
+        <v>2</v>
+      </c>
+      <c r="M289">
+        <v>0.36</v>
+      </c>
+      <c r="N289">
+        <v>1.5</v>
+      </c>
+      <c r="O289">
+        <v>0.46</v>
+      </c>
+      <c r="P289">
+        <v>2.8666999999999998</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>42965.985081018516</v>
+      </c>
+      <c r="B290" t="s">
+        <v>18</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290">
+        <v>5</v>
+      </c>
+      <c r="F290">
+        <v>23.876882049536064</v>
+      </c>
+      <c r="G290">
+        <v>3.0009990009990011</v>
+      </c>
+      <c r="H290">
+        <v>0.3</v>
+      </c>
+      <c r="I290">
+        <v>0.1</v>
+      </c>
+      <c r="J290">
+        <v>4</v>
+      </c>
+      <c r="K290">
+        <v>4</v>
+      </c>
+      <c r="L290">
+        <v>2</v>
+      </c>
+      <c r="M290">
+        <v>0.36</v>
+      </c>
+      <c r="N290">
+        <v>1.5</v>
+      </c>
+      <c r="O290">
+        <v>0.46</v>
+      </c>
+      <c r="P290">
+        <v>3.6556000000000002</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>42965.985381944447</v>
+      </c>
+      <c r="B291" t="s">
+        <v>19</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291">
+        <v>5</v>
+      </c>
+      <c r="F291">
+        <v>23.820402884116017</v>
+      </c>
+      <c r="G291">
+        <v>3.0009990009990011</v>
+      </c>
+      <c r="H291">
+        <v>0.3</v>
+      </c>
+      <c r="I291">
+        <v>0.1</v>
+      </c>
+      <c r="J291">
+        <v>4</v>
+      </c>
+      <c r="K291">
+        <v>4</v>
+      </c>
+      <c r="L291">
+        <v>2</v>
+      </c>
+      <c r="M291">
+        <v>0.36</v>
+      </c>
+      <c r="N291">
+        <v>1.5</v>
+      </c>
+      <c r="O291">
+        <v>0.46</v>
+      </c>
+      <c r="P291">
+        <v>3.8222</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>42965.985682870371</v>
+      </c>
+      <c r="B292" t="s">
+        <v>16</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+      <c r="E292">
+        <v>5</v>
+      </c>
+      <c r="F292">
+        <v>23.858484978322412</v>
+      </c>
+      <c r="G292">
+        <v>2.9950049950049951</v>
+      </c>
+      <c r="H292">
+        <v>0.3</v>
+      </c>
+      <c r="I292">
+        <v>0.1</v>
+      </c>
+      <c r="J292">
+        <v>4</v>
+      </c>
+      <c r="K292">
+        <v>4</v>
+      </c>
+      <c r="L292">
+        <v>2</v>
+      </c>
+      <c r="M292">
+        <v>0.36</v>
+      </c>
+      <c r="N292">
+        <v>1.5</v>
+      </c>
+      <c r="O292">
+        <v>0.46</v>
+      </c>
+      <c r="P292">
+        <v>3.6917</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>42965.985983796294</v>
+      </c>
+      <c r="B293" t="s">
+        <v>17</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293">
+        <v>5</v>
+      </c>
+      <c r="F293">
+        <v>23.838623321942826</v>
+      </c>
+      <c r="G293">
+        <v>3.0089910089910088</v>
+      </c>
+      <c r="H293">
+        <v>0.3</v>
+      </c>
+      <c r="I293">
+        <v>0.1</v>
+      </c>
+      <c r="J293">
+        <v>4</v>
+      </c>
+      <c r="K293">
+        <v>4</v>
+      </c>
+      <c r="L293">
+        <v>2</v>
+      </c>
+      <c r="M293">
+        <v>0.36</v>
+      </c>
+      <c r="N293">
+        <v>1.5</v>
+      </c>
+      <c r="O293">
+        <v>0.46</v>
+      </c>
+      <c r="P293">
+        <v>3.7555999999999998</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>42965.986273148148</v>
+      </c>
+      <c r="B294" t="s">
+        <v>18</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+      <c r="E294">
+        <v>5</v>
+      </c>
+      <c r="F294">
+        <v>23.614624988440433</v>
+      </c>
+      <c r="G294">
+        <v>3.0049950049950049</v>
+      </c>
+      <c r="H294">
+        <v>0.3</v>
+      </c>
+      <c r="I294">
+        <v>0.1</v>
+      </c>
+      <c r="J294">
+        <v>4</v>
+      </c>
+      <c r="K294">
+        <v>4</v>
+      </c>
+      <c r="L294">
+        <v>2</v>
+      </c>
+      <c r="M294">
+        <v>0.36</v>
+      </c>
+      <c r="N294">
+        <v>1.5</v>
+      </c>
+      <c r="O294">
+        <v>0.46</v>
+      </c>
+      <c r="P294">
+        <v>2.629</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>42965.986574074072</v>
+      </c>
+      <c r="B295" t="s">
+        <v>19</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+      <c r="E295">
+        <v>5</v>
+      </c>
+      <c r="F295">
+        <v>23.670726248009274</v>
+      </c>
+      <c r="G295">
+        <v>3.0149850149850153</v>
+      </c>
+      <c r="H295">
+        <v>0.3</v>
+      </c>
+      <c r="I295">
+        <v>0.1</v>
+      </c>
+      <c r="J295">
+        <v>4</v>
+      </c>
+      <c r="K295">
+        <v>4</v>
+      </c>
+      <c r="L295">
+        <v>2</v>
+      </c>
+      <c r="M295">
+        <v>0.36</v>
+      </c>
+      <c r="N295">
+        <v>1.5</v>
+      </c>
+      <c r="O295">
+        <v>0.46</v>
+      </c>
+      <c r="P295">
+        <v>2.9056000000000002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>42965.986863425926</v>
+      </c>
+      <c r="B296" t="s">
+        <v>16</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+      <c r="E296">
+        <v>5</v>
+      </c>
+      <c r="F296">
+        <v>23.503288996859958</v>
+      </c>
+      <c r="G296">
+        <v>3.0189810189810187</v>
+      </c>
+      <c r="H296">
+        <v>0.3</v>
+      </c>
+      <c r="I296">
+        <v>0.1</v>
+      </c>
+      <c r="J296">
+        <v>4</v>
+      </c>
+      <c r="K296">
+        <v>4</v>
+      </c>
+      <c r="L296">
+        <v>2</v>
+      </c>
+      <c r="M296">
+        <v>0.36</v>
+      </c>
+      <c r="N296">
+        <v>1.5</v>
+      </c>
+      <c r="O296">
+        <v>0.46</v>
+      </c>
+      <c r="P296">
+        <v>2.7555000000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>42965.987175925926</v>
+      </c>
+      <c r="B297" t="s">
+        <v>17</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+      <c r="E297">
+        <v>5</v>
+      </c>
+      <c r="F297">
+        <v>24.519888695367246</v>
+      </c>
+      <c r="G297">
+        <v>3.0029970029970032</v>
+      </c>
+      <c r="H297">
+        <v>0.3</v>
+      </c>
+      <c r="I297">
+        <v>0.1</v>
+      </c>
+      <c r="J297">
+        <v>4</v>
+      </c>
+      <c r="K297">
+        <v>4</v>
+      </c>
+      <c r="L297">
+        <v>2</v>
+      </c>
+      <c r="M297">
+        <v>0.36</v>
+      </c>
+      <c r="N297">
+        <v>1.5</v>
+      </c>
+      <c r="O297">
+        <v>0.46</v>
+      </c>
+      <c r="P297">
+        <v>2.8666999999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>42965.987476851849</v>
+      </c>
+      <c r="B298" t="s">
+        <v>18</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+      <c r="E298">
+        <v>5</v>
+      </c>
+      <c r="F298">
+        <v>24.424107641409904</v>
+      </c>
+      <c r="G298">
+        <v>3.0269730269730268</v>
+      </c>
+      <c r="H298">
+        <v>0.3</v>
+      </c>
+      <c r="I298">
+        <v>0.1</v>
+      </c>
+      <c r="J298">
+        <v>4</v>
+      </c>
+      <c r="K298">
+        <v>4</v>
+      </c>
+      <c r="L298">
+        <v>2</v>
+      </c>
+      <c r="M298">
+        <v>0.36</v>
+      </c>
+      <c r="N298">
+        <v>1.5</v>
+      </c>
+      <c r="O298">
+        <v>0.46</v>
+      </c>
+      <c r="P298">
+        <v>3.6556000000000002</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>42965.98777777778</v>
+      </c>
+      <c r="B299" t="s">
+        <v>19</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+      <c r="E299">
+        <v>5</v>
+      </c>
+      <c r="F299">
+        <v>24.873157708975377</v>
+      </c>
+      <c r="G299">
+        <v>3.0189810189810187</v>
+      </c>
+      <c r="H299">
+        <v>0.3</v>
+      </c>
+      <c r="I299">
+        <v>0.1</v>
+      </c>
+      <c r="J299">
+        <v>4</v>
+      </c>
+      <c r="K299">
+        <v>4</v>
+      </c>
+      <c r="L299">
+        <v>2</v>
+      </c>
+      <c r="M299">
+        <v>0.36</v>
+      </c>
+      <c r="N299">
+        <v>1.5</v>
+      </c>
+      <c r="O299">
+        <v>0.46</v>
+      </c>
+      <c r="P299">
+        <v>3.8222</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>42965.98809027778</v>
+      </c>
+      <c r="B300" t="s">
+        <v>16</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+      <c r="E300">
+        <v>5</v>
+      </c>
+      <c r="F300">
+        <v>24.956452190429989</v>
+      </c>
+      <c r="G300">
+        <v>3.034965034965035</v>
+      </c>
+      <c r="H300">
+        <v>0.3</v>
+      </c>
+      <c r="I300">
+        <v>0.1</v>
+      </c>
+      <c r="J300">
+        <v>4</v>
+      </c>
+      <c r="K300">
+        <v>4</v>
+      </c>
+      <c r="L300">
+        <v>2</v>
+      </c>
+      <c r="M300">
+        <v>0.36</v>
+      </c>
+      <c r="N300">
+        <v>1.5</v>
+      </c>
+      <c r="O300">
+        <v>0.46</v>
+      </c>
+      <c r="P300">
+        <v>3.6917</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>42965.988391203704</v>
+      </c>
+      <c r="B301" t="s">
+        <v>17</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+      <c r="E301">
+        <v>5</v>
+      </c>
+      <c r="F301">
+        <v>24.874819726749429</v>
+      </c>
+      <c r="G301">
+        <v>3.0329670329670333</v>
+      </c>
+      <c r="H301">
+        <v>0.3</v>
+      </c>
+      <c r="I301">
+        <v>0.1</v>
+      </c>
+      <c r="J301">
+        <v>4</v>
+      </c>
+      <c r="K301">
+        <v>4</v>
+      </c>
+      <c r="L301">
+        <v>2</v>
+      </c>
+      <c r="M301">
+        <v>0.36</v>
+      </c>
+      <c r="N301">
+        <v>1.5</v>
+      </c>
+      <c r="O301">
+        <v>0.46</v>
+      </c>
+      <c r="P301">
+        <v>3.7555999999999998</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>42966.384293981479</v>
+      </c>
+      <c r="B302" t="s">
+        <v>17</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+      <c r="E302">
+        <v>5</v>
+      </c>
+      <c r="F302">
+        <v>20.270601388684007</v>
+      </c>
+      <c r="G302">
+        <v>10.001998001998002</v>
+      </c>
+      <c r="H302">
+        <v>0.3</v>
+      </c>
+      <c r="I302">
+        <v>0.1</v>
+      </c>
+      <c r="J302">
+        <v>4</v>
+      </c>
+      <c r="K302">
+        <v>4</v>
+      </c>
+      <c r="L302">
+        <v>2</v>
+      </c>
+      <c r="M302">
+        <v>0.36</v>
+      </c>
+      <c r="N302">
+        <v>1.5</v>
+      </c>
+      <c r="O302">
+        <v>0.46</v>
+      </c>
+      <c r="P302">
+        <v>6.2222000000000008</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>42966.387361111112</v>
+      </c>
+      <c r="B303" t="s">
+        <v>18</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+      <c r="E303">
+        <v>5</v>
+      </c>
+      <c r="F303">
+        <v>21.007846746217822</v>
+      </c>
+      <c r="G303">
+        <v>2.9970029970029968</v>
+      </c>
+      <c r="H303">
+        <v>0.3</v>
+      </c>
+      <c r="I303">
+        <v>0.1</v>
+      </c>
+      <c r="J303">
+        <v>4</v>
+      </c>
+      <c r="K303">
+        <v>4</v>
+      </c>
+      <c r="L303">
+        <v>2</v>
+      </c>
+      <c r="M303">
+        <v>0.36</v>
+      </c>
+      <c r="N303">
+        <v>1.5</v>
+      </c>
+      <c r="O303">
+        <v>0.46</v>
+      </c>
+      <c r="P303">
+        <v>2.6501111111111113</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>42966.390115740738</v>
+      </c>
+      <c r="B304" t="s">
+        <v>17</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+      <c r="E304">
+        <v>5</v>
+      </c>
+      <c r="F304">
+        <v>19.48318286963336</v>
+      </c>
+      <c r="G304">
+        <v>2.8231768231768233</v>
+      </c>
+      <c r="H304">
+        <v>0.3</v>
+      </c>
+      <c r="I304">
+        <v>0.1</v>
+      </c>
+      <c r="J304">
+        <v>4</v>
+      </c>
+      <c r="K304">
+        <v>4</v>
+      </c>
+      <c r="L304">
+        <v>2</v>
+      </c>
+      <c r="M304">
+        <v>0.36</v>
+      </c>
+      <c r="N304">
+        <v>1.5</v>
+      </c>
+      <c r="O304">
+        <v>0.46</v>
+      </c>
+      <c r="P304">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>42966.392916666664</v>
+      </c>
+      <c r="B305" t="s">
+        <v>17</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+      <c r="E305">
+        <v>5</v>
+      </c>
+      <c r="F305">
+        <v>21.616883463883113</v>
+      </c>
+      <c r="G305">
+        <v>2.8231768231768233</v>
+      </c>
+      <c r="H305">
+        <v>0.3</v>
+      </c>
+      <c r="I305">
+        <v>0.1</v>
+      </c>
+      <c r="J305">
+        <v>4</v>
+      </c>
+      <c r="K305">
+        <v>4</v>
+      </c>
+      <c r="L305">
+        <v>2</v>
+      </c>
+      <c r="M305">
+        <v>0.36</v>
+      </c>
+      <c r="N305">
+        <v>1.5</v>
+      </c>
+      <c r="O305">
+        <v>0.46</v>
+      </c>
+      <c r="P305">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>42966.398981481485</v>
+      </c>
+      <c r="B306" t="s">
+        <v>17</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+      <c r="E306">
+        <v>7</v>
+      </c>
+      <c r="F306">
+        <v>17.07692415995945</v>
+      </c>
+      <c r="G306">
+        <v>1.8161838161838162</v>
+      </c>
+      <c r="H306">
+        <v>0.3</v>
+      </c>
+      <c r="I306">
+        <v>0.1</v>
+      </c>
+      <c r="J306">
+        <v>4</v>
+      </c>
+      <c r="K306">
+        <v>4</v>
+      </c>
+      <c r="L306">
+        <v>2</v>
+      </c>
+      <c r="M306">
+        <v>0.36</v>
+      </c>
+      <c r="N306">
+        <v>1.75</v>
+      </c>
+      <c r="O306">
+        <v>0.46</v>
+      </c>
+      <c r="P306">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>42966.401076388887</v>
+      </c>
+      <c r="B307" t="s">
+        <v>17</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+      <c r="E307">
+        <v>7</v>
+      </c>
+      <c r="F307">
+        <v>16.788356723924256</v>
+      </c>
+      <c r="G307">
+        <v>1.8601398601398602</v>
+      </c>
+      <c r="H307">
+        <v>0.3</v>
+      </c>
+      <c r="I307">
+        <v>0.1</v>
+      </c>
+      <c r="J307">
+        <v>4</v>
+      </c>
+      <c r="K307">
+        <v>4</v>
+      </c>
+      <c r="L307">
+        <v>2</v>
+      </c>
+      <c r="M307">
+        <v>0.36</v>
+      </c>
+      <c r="N307">
+        <v>1.9</v>
+      </c>
+      <c r="O307">
+        <v>0.46</v>
+      </c>
+      <c r="P307">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>42966.405532407407</v>
+      </c>
+      <c r="B308" t="s">
+        <v>17</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+      <c r="E308">
+        <v>7</v>
+      </c>
+      <c r="F308">
+        <v>16.200172345547383</v>
+      </c>
+      <c r="G308">
+        <v>1.9540459540459538</v>
+      </c>
+      <c r="H308">
+        <v>0.3</v>
+      </c>
+      <c r="I308">
+        <v>0.1</v>
+      </c>
+      <c r="J308">
+        <v>4</v>
+      </c>
+      <c r="K308">
+        <v>4</v>
+      </c>
+      <c r="L308">
+        <v>2</v>
+      </c>
+      <c r="M308">
+        <v>0.36</v>
+      </c>
+      <c r="N308">
+        <v>1.8499999999999999</v>
+      </c>
+      <c r="O308">
+        <v>0.46</v>
+      </c>
+      <c r="P308">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>42966.418564814812</v>
+      </c>
+      <c r="B309" t="s">
+        <v>17</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+      <c r="E309">
+        <v>7</v>
+      </c>
+      <c r="F309">
+        <v>17.097721781296507</v>
+      </c>
+      <c r="G309">
+        <v>1.9980019980019981</v>
+      </c>
+      <c r="H309">
+        <v>0.3</v>
+      </c>
+      <c r="I309">
+        <v>0.1</v>
+      </c>
+      <c r="J309">
+        <v>4</v>
+      </c>
+      <c r="K309">
+        <v>4</v>
+      </c>
+      <c r="L309">
+        <v>2</v>
+      </c>
+      <c r="M309">
+        <v>0.36</v>
+      </c>
+      <c r="N309">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="O309">
+        <v>0.5</v>
+      </c>
+      <c r="P309">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RunSummaries.xlsx
+++ b/RunSummaries.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -497,10 +497,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P511"/>
+  <dimension ref="A1:P552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="A511" sqref="A511:P511"/>
+    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
+      <selection activeCell="A552" sqref="A552:P552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26055,6 +26055,2056 @@
         <v>4.7156000000000002</v>
       </c>
     </row>
+    <row r="512" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
+        <v>42997.821562500001</v>
+      </c>
+      <c r="B512" t="s">
+        <v>17</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512">
+        <v>1</v>
+      </c>
+      <c r="E512">
+        <v>6</v>
+      </c>
+      <c r="F512">
+        <v>23.25437290426505</v>
+      </c>
+      <c r="G512">
+        <v>4.0199800199800197</v>
+      </c>
+      <c r="H512">
+        <v>0.3</v>
+      </c>
+      <c r="I512">
+        <v>0.1</v>
+      </c>
+      <c r="J512">
+        <v>4</v>
+      </c>
+      <c r="K512">
+        <v>4</v>
+      </c>
+      <c r="L512">
+        <v>2</v>
+      </c>
+      <c r="M512">
+        <v>0.36</v>
+      </c>
+      <c r="N512">
+        <v>1.5</v>
+      </c>
+      <c r="O512">
+        <v>0.46</v>
+      </c>
+      <c r="P512">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="513" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
+        <v>42997.827303240738</v>
+      </c>
+      <c r="B513" t="s">
+        <v>17</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+      <c r="D513">
+        <v>1</v>
+      </c>
+      <c r="E513">
+        <v>6</v>
+      </c>
+      <c r="F513">
+        <v>23.671478357311788</v>
+      </c>
+      <c r="G513">
+        <v>4.9350649350649345</v>
+      </c>
+      <c r="H513">
+        <v>0.3</v>
+      </c>
+      <c r="I513">
+        <v>0.1</v>
+      </c>
+      <c r="J513">
+        <v>4</v>
+      </c>
+      <c r="K513">
+        <v>4</v>
+      </c>
+      <c r="L513">
+        <v>2</v>
+      </c>
+      <c r="M513">
+        <v>0.36</v>
+      </c>
+      <c r="N513">
+        <v>1.5</v>
+      </c>
+      <c r="O513">
+        <v>0.46</v>
+      </c>
+      <c r="P513">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
+        <v>42997.830787037034</v>
+      </c>
+      <c r="B514" t="s">
+        <v>17</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514">
+        <v>1</v>
+      </c>
+      <c r="E514">
+        <v>6</v>
+      </c>
+      <c r="F514">
+        <v>23.359930587754555</v>
+      </c>
+      <c r="G514">
+        <v>5.0209790209790208</v>
+      </c>
+      <c r="H514">
+        <v>0.3</v>
+      </c>
+      <c r="I514">
+        <v>0.1</v>
+      </c>
+      <c r="J514">
+        <v>4</v>
+      </c>
+      <c r="K514">
+        <v>4</v>
+      </c>
+      <c r="L514">
+        <v>2</v>
+      </c>
+      <c r="M514">
+        <v>0.36</v>
+      </c>
+      <c r="N514">
+        <v>1.5</v>
+      </c>
+      <c r="O514">
+        <v>0.46</v>
+      </c>
+      <c r="P514">
+        <v>5.3277777777777775</v>
+      </c>
+    </row>
+    <row r="515" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
+        <v>42997.834016203706</v>
+      </c>
+      <c r="B515" t="s">
+        <v>17</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+      <c r="D515">
+        <v>1</v>
+      </c>
+      <c r="E515">
+        <v>6</v>
+      </c>
+      <c r="F515">
+        <v>23.723335307672048</v>
+      </c>
+      <c r="G515">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H515">
+        <v>0.3</v>
+      </c>
+      <c r="I515">
+        <v>0.1</v>
+      </c>
+      <c r="J515">
+        <v>4</v>
+      </c>
+      <c r="K515">
+        <v>4</v>
+      </c>
+      <c r="L515">
+        <v>2</v>
+      </c>
+      <c r="M515">
+        <v>0.36</v>
+      </c>
+      <c r="N515">
+        <v>1.5</v>
+      </c>
+      <c r="O515">
+        <v>0.46</v>
+      </c>
+      <c r="P515">
+        <v>5.322222222222222</v>
+      </c>
+    </row>
+    <row r="516" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
+        <v>42997.837025462963</v>
+      </c>
+      <c r="B516" t="s">
+        <v>16</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+      <c r="D516">
+        <v>1</v>
+      </c>
+      <c r="E516">
+        <v>6</v>
+      </c>
+      <c r="F516">
+        <v>20.828367567470707</v>
+      </c>
+      <c r="G516">
+        <v>4.9730269730269736</v>
+      </c>
+      <c r="H516">
+        <v>0.3</v>
+      </c>
+      <c r="I516">
+        <v>0.1</v>
+      </c>
+      <c r="J516">
+        <v>4</v>
+      </c>
+      <c r="K516">
+        <v>4</v>
+      </c>
+      <c r="L516">
+        <v>2</v>
+      </c>
+      <c r="M516">
+        <v>0.36</v>
+      </c>
+      <c r="N516">
+        <v>1.5</v>
+      </c>
+      <c r="O516">
+        <v>0.46</v>
+      </c>
+      <c r="P516">
+        <v>5.3666666666666663</v>
+      </c>
+    </row>
+    <row r="517" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
+        <v>42997.840497685182</v>
+      </c>
+      <c r="B517" t="s">
+        <v>16</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+      <c r="D517">
+        <v>1</v>
+      </c>
+      <c r="E517">
+        <v>6</v>
+      </c>
+      <c r="F517">
+        <v>17.513752373126337</v>
+      </c>
+      <c r="G517">
+        <v>4.9850149850149847</v>
+      </c>
+      <c r="H517">
+        <v>0.3</v>
+      </c>
+      <c r="I517">
+        <v>0.1</v>
+      </c>
+      <c r="J517">
+        <v>4</v>
+      </c>
+      <c r="K517">
+        <v>4</v>
+      </c>
+      <c r="L517">
+        <v>2</v>
+      </c>
+      <c r="M517">
+        <v>0.36</v>
+      </c>
+      <c r="N517">
+        <v>1.5</v>
+      </c>
+      <c r="O517">
+        <v>0.46</v>
+      </c>
+      <c r="P517">
+        <v>5.3699999999999992</v>
+      </c>
+    </row>
+    <row r="518" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
+        <v>42997.844918981478</v>
+      </c>
+      <c r="B518" t="s">
+        <v>16</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+      <c r="D518">
+        <v>1</v>
+      </c>
+      <c r="E518">
+        <v>6</v>
+      </c>
+      <c r="F518">
+        <v>23.380630425231601</v>
+      </c>
+      <c r="G518">
+        <v>5.0029970029970023</v>
+      </c>
+      <c r="H518">
+        <v>0.3</v>
+      </c>
+      <c r="I518">
+        <v>0.1</v>
+      </c>
+      <c r="J518">
+        <v>4</v>
+      </c>
+      <c r="K518">
+        <v>4</v>
+      </c>
+      <c r="L518">
+        <v>2</v>
+      </c>
+      <c r="M518">
+        <v>0.36</v>
+      </c>
+      <c r="N518">
+        <v>1.5</v>
+      </c>
+      <c r="O518">
+        <v>0.46</v>
+      </c>
+      <c r="P518">
+        <v>5.3733333333333331</v>
+      </c>
+    </row>
+    <row r="519" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
+        <v>42997.848749999997</v>
+      </c>
+      <c r="B519" t="s">
+        <v>19</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+      <c r="D519">
+        <v>1</v>
+      </c>
+      <c r="E519">
+        <v>6</v>
+      </c>
+      <c r="F519">
+        <v>23.855911672501687</v>
+      </c>
+      <c r="G519">
+        <v>4.977022977022977</v>
+      </c>
+      <c r="H519">
+        <v>0.3</v>
+      </c>
+      <c r="I519">
+        <v>0.1</v>
+      </c>
+      <c r="J519">
+        <v>4</v>
+      </c>
+      <c r="K519">
+        <v>4</v>
+      </c>
+      <c r="L519">
+        <v>2</v>
+      </c>
+      <c r="M519">
+        <v>0.36</v>
+      </c>
+      <c r="N519">
+        <v>1.5</v>
+      </c>
+      <c r="O519">
+        <v>0.46</v>
+      </c>
+      <c r="P519">
+        <v>5.427777777777778</v>
+      </c>
+    </row>
+    <row r="520" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A520" s="1">
+        <v>42997.851307870369</v>
+      </c>
+      <c r="B520" t="s">
+        <v>19</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+      <c r="D520">
+        <v>1</v>
+      </c>
+      <c r="E520">
+        <v>6</v>
+      </c>
+      <c r="F520">
+        <v>22.926220530114744</v>
+      </c>
+      <c r="G520">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H520">
+        <v>0.3</v>
+      </c>
+      <c r="I520">
+        <v>0.1</v>
+      </c>
+      <c r="J520">
+        <v>4</v>
+      </c>
+      <c r="K520">
+        <v>4</v>
+      </c>
+      <c r="L520">
+        <v>2</v>
+      </c>
+      <c r="M520">
+        <v>0.36</v>
+      </c>
+      <c r="N520">
+        <v>1.5</v>
+      </c>
+      <c r="O520">
+        <v>0.46</v>
+      </c>
+      <c r="P520">
+        <v>5.4411111111111117</v>
+      </c>
+    </row>
+    <row r="521" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A521" s="1">
+        <v>42997.854027777779</v>
+      </c>
+      <c r="B521" t="s">
+        <v>18</v>
+      </c>
+      <c r="C521">
+        <v>1</v>
+      </c>
+      <c r="D521">
+        <v>1</v>
+      </c>
+      <c r="E521">
+        <v>6</v>
+      </c>
+      <c r="F521">
+        <v>17.07247679032043</v>
+      </c>
+      <c r="G521">
+        <v>5.0309690309690316</v>
+      </c>
+      <c r="H521">
+        <v>0.3</v>
+      </c>
+      <c r="I521">
+        <v>0.1</v>
+      </c>
+      <c r="J521">
+        <v>4</v>
+      </c>
+      <c r="K521">
+        <v>4</v>
+      </c>
+      <c r="L521">
+        <v>2</v>
+      </c>
+      <c r="M521">
+        <v>0.36</v>
+      </c>
+      <c r="N521">
+        <v>1.5</v>
+      </c>
+      <c r="O521">
+        <v>0.46</v>
+      </c>
+      <c r="P521">
+        <v>5.3422222222222224</v>
+      </c>
+    </row>
+    <row r="522" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A522" s="1">
+        <v>42997.858310185184</v>
+      </c>
+      <c r="B522" t="s">
+        <v>18</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+      <c r="D522">
+        <v>1</v>
+      </c>
+      <c r="E522">
+        <v>6</v>
+      </c>
+      <c r="F522">
+        <v>17.305446198949983</v>
+      </c>
+      <c r="G522">
+        <v>4.9890109890109891</v>
+      </c>
+      <c r="H522">
+        <v>0.3</v>
+      </c>
+      <c r="I522">
+        <v>0.1</v>
+      </c>
+      <c r="J522">
+        <v>4</v>
+      </c>
+      <c r="K522">
+        <v>4</v>
+      </c>
+      <c r="L522">
+        <v>2</v>
+      </c>
+      <c r="M522">
+        <v>0.36</v>
+      </c>
+      <c r="N522">
+        <v>1.5</v>
+      </c>
+      <c r="O522">
+        <v>0.46</v>
+      </c>
+      <c r="P522">
+        <v>5.3288888888888888</v>
+      </c>
+    </row>
+    <row r="523" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A523" s="1">
+        <v>42997.862314814818</v>
+      </c>
+      <c r="B523" t="s">
+        <v>16</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+      <c r="D523">
+        <v>1</v>
+      </c>
+      <c r="E523">
+        <v>6</v>
+      </c>
+      <c r="F523">
+        <v>16.961575912683671</v>
+      </c>
+      <c r="G523">
+        <v>5.0149850149850153</v>
+      </c>
+      <c r="H523">
+        <v>0.3</v>
+      </c>
+      <c r="I523">
+        <v>0.1</v>
+      </c>
+      <c r="J523">
+        <v>4</v>
+      </c>
+      <c r="K523">
+        <v>4</v>
+      </c>
+      <c r="L523">
+        <v>2</v>
+      </c>
+      <c r="M523">
+        <v>0.36</v>
+      </c>
+      <c r="N523">
+        <v>1.5</v>
+      </c>
+      <c r="O523">
+        <v>0.46</v>
+      </c>
+      <c r="P523">
+        <v>5.3755555555555556</v>
+      </c>
+    </row>
+    <row r="524" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A524" s="1">
+        <v>42997.884953703702</v>
+      </c>
+      <c r="B524" t="s">
+        <v>17</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+      <c r="D524">
+        <v>1</v>
+      </c>
+      <c r="E524">
+        <v>6</v>
+      </c>
+      <c r="F524">
+        <v>23.723781373826156</v>
+      </c>
+      <c r="G524">
+        <v>2.9970029970029968</v>
+      </c>
+      <c r="H524">
+        <v>0.3</v>
+      </c>
+      <c r="I524">
+        <v>0.1</v>
+      </c>
+      <c r="J524">
+        <v>4</v>
+      </c>
+      <c r="K524">
+        <v>4</v>
+      </c>
+      <c r="L524">
+        <v>2</v>
+      </c>
+      <c r="M524">
+        <v>0.36</v>
+      </c>
+      <c r="N524">
+        <v>1.5</v>
+      </c>
+      <c r="O524">
+        <v>0.46</v>
+      </c>
+      <c r="P524">
+        <v>4.293333333333333</v>
+      </c>
+    </row>
+    <row r="525" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A525" s="1">
+        <v>42997.887650462966</v>
+      </c>
+      <c r="B525" t="s">
+        <v>16</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+      <c r="E525">
+        <v>6</v>
+      </c>
+      <c r="F525">
+        <v>17.985750842293854</v>
+      </c>
+      <c r="G525">
+        <v>2.2837162837162839</v>
+      </c>
+      <c r="H525">
+        <v>0.3</v>
+      </c>
+      <c r="I525">
+        <v>0.1</v>
+      </c>
+      <c r="J525">
+        <v>4</v>
+      </c>
+      <c r="K525">
+        <v>4</v>
+      </c>
+      <c r="L525">
+        <v>2</v>
+      </c>
+      <c r="M525">
+        <v>0.36</v>
+      </c>
+      <c r="N525">
+        <v>1.5</v>
+      </c>
+      <c r="O525">
+        <v>0.46</v>
+      </c>
+      <c r="P525">
+        <v>3.6917</v>
+      </c>
+    </row>
+    <row r="526" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A526" s="1">
+        <v>42997.890590277777</v>
+      </c>
+      <c r="B526" t="s">
+        <v>16</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+      <c r="D526">
+        <v>1</v>
+      </c>
+      <c r="E526">
+        <v>6</v>
+      </c>
+      <c r="F526">
+        <v>18.37119263818051</v>
+      </c>
+      <c r="G526">
+        <v>3.0009990009990011</v>
+      </c>
+      <c r="H526">
+        <v>0.3</v>
+      </c>
+      <c r="I526">
+        <v>0.1</v>
+      </c>
+      <c r="J526">
+        <v>4</v>
+      </c>
+      <c r="K526">
+        <v>4</v>
+      </c>
+      <c r="L526">
+        <v>2</v>
+      </c>
+      <c r="M526">
+        <v>0.36</v>
+      </c>
+      <c r="N526">
+        <v>1.5</v>
+      </c>
+      <c r="O526">
+        <v>0.46</v>
+      </c>
+      <c r="P526">
+        <v>4.3533333333333335</v>
+      </c>
+    </row>
+    <row r="527" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A527" s="1">
+        <v>42997.89439814815</v>
+      </c>
+      <c r="B527" t="s">
+        <v>19</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+      <c r="D527">
+        <v>1</v>
+      </c>
+      <c r="E527">
+        <v>6</v>
+      </c>
+      <c r="F527">
+        <v>23.835267513296387</v>
+      </c>
+      <c r="G527">
+        <v>2.9930069930069929</v>
+      </c>
+      <c r="H527">
+        <v>0.3</v>
+      </c>
+      <c r="I527">
+        <v>0.1</v>
+      </c>
+      <c r="J527">
+        <v>4</v>
+      </c>
+      <c r="K527">
+        <v>4</v>
+      </c>
+      <c r="L527">
+        <v>2</v>
+      </c>
+      <c r="M527">
+        <v>0.36</v>
+      </c>
+      <c r="N527">
+        <v>1.5</v>
+      </c>
+      <c r="O527">
+        <v>0.46</v>
+      </c>
+      <c r="P527">
+        <v>4.4422222222222221</v>
+      </c>
+    </row>
+    <row r="528" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A528" s="1">
+        <v>42997.897407407407</v>
+      </c>
+      <c r="B528" t="s">
+        <v>18</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+      <c r="D528">
+        <v>1</v>
+      </c>
+      <c r="E528">
+        <v>6</v>
+      </c>
+      <c r="F528">
+        <v>23.794490219023601</v>
+      </c>
+      <c r="G528">
+        <v>3.0129870129870131</v>
+      </c>
+      <c r="H528">
+        <v>0.3</v>
+      </c>
+      <c r="I528">
+        <v>0.1</v>
+      </c>
+      <c r="J528">
+        <v>4</v>
+      </c>
+      <c r="K528">
+        <v>4</v>
+      </c>
+      <c r="L528">
+        <v>2</v>
+      </c>
+      <c r="M528">
+        <v>0.36</v>
+      </c>
+      <c r="N528">
+        <v>1.5</v>
+      </c>
+      <c r="O528">
+        <v>0.46</v>
+      </c>
+      <c r="P528">
+        <v>4.2822222222222219</v>
+      </c>
+    </row>
+    <row r="529" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
+        <v>42997.901122685187</v>
+      </c>
+      <c r="B529" t="s">
+        <v>18</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+      <c r="D529">
+        <v>1</v>
+      </c>
+      <c r="E529">
+        <v>6</v>
+      </c>
+      <c r="F529">
+        <v>17.842280095625831</v>
+      </c>
+      <c r="G529">
+        <v>2.9930069930069929</v>
+      </c>
+      <c r="H529">
+        <v>0.3</v>
+      </c>
+      <c r="I529">
+        <v>0.1</v>
+      </c>
+      <c r="J529">
+        <v>4</v>
+      </c>
+      <c r="K529">
+        <v>4</v>
+      </c>
+      <c r="L529">
+        <v>2</v>
+      </c>
+      <c r="M529">
+        <v>0.36</v>
+      </c>
+      <c r="N529">
+        <v>1.5</v>
+      </c>
+      <c r="O529">
+        <v>0.46</v>
+      </c>
+      <c r="P529">
+        <v>4.2711111111111117</v>
+      </c>
+    </row>
+    <row r="530" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A530" s="1">
+        <v>42997.908854166664</v>
+      </c>
+      <c r="B530" t="s">
+        <v>17</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+      <c r="D530">
+        <v>1</v>
+      </c>
+      <c r="E530">
+        <v>6</v>
+      </c>
+      <c r="F530">
+        <v>17.31121018003601</v>
+      </c>
+      <c r="G530">
+        <v>13.416583416583418</v>
+      </c>
+      <c r="H530">
+        <v>0.3</v>
+      </c>
+      <c r="I530">
+        <v>0.1</v>
+      </c>
+      <c r="J530">
+        <v>4</v>
+      </c>
+      <c r="K530">
+        <v>4</v>
+      </c>
+      <c r="L530">
+        <v>2</v>
+      </c>
+      <c r="M530">
+        <v>0.36</v>
+      </c>
+      <c r="N530">
+        <v>1.5</v>
+      </c>
+      <c r="O530">
+        <v>0.46</v>
+      </c>
+      <c r="P530">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A531" s="1">
+        <v>42997.913240740738</v>
+      </c>
+      <c r="B531" t="s">
+        <v>17</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+      <c r="D531">
+        <v>1</v>
+      </c>
+      <c r="E531">
+        <v>6</v>
+      </c>
+      <c r="F531">
+        <v>25.21320970197085</v>
+      </c>
+      <c r="G531">
+        <v>14.035964035964035</v>
+      </c>
+      <c r="H531">
+        <v>0.3</v>
+      </c>
+      <c r="I531">
+        <v>0.1</v>
+      </c>
+      <c r="J531">
+        <v>4</v>
+      </c>
+      <c r="K531">
+        <v>4</v>
+      </c>
+      <c r="L531">
+        <v>2</v>
+      </c>
+      <c r="M531">
+        <v>0.36</v>
+      </c>
+      <c r="N531">
+        <v>1.5</v>
+      </c>
+      <c r="O531">
+        <v>0.46</v>
+      </c>
+      <c r="P531">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A532" s="1">
+        <v>42997.916041666664</v>
+      </c>
+      <c r="B532" t="s">
+        <v>17</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+      <c r="D532">
+        <v>1</v>
+      </c>
+      <c r="E532">
+        <v>6</v>
+      </c>
+      <c r="F532">
+        <v>25.936665005918215</v>
+      </c>
+      <c r="G532">
+        <v>14.705294705294705</v>
+      </c>
+      <c r="H532">
+        <v>0.3</v>
+      </c>
+      <c r="I532">
+        <v>0.1</v>
+      </c>
+      <c r="J532">
+        <v>4</v>
+      </c>
+      <c r="K532">
+        <v>4</v>
+      </c>
+      <c r="L532">
+        <v>2</v>
+      </c>
+      <c r="M532">
+        <v>0.36</v>
+      </c>
+      <c r="N532">
+        <v>1.5</v>
+      </c>
+      <c r="O532">
+        <v>0.46</v>
+      </c>
+      <c r="P532">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="533" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A533" s="1">
+        <v>42997.919699074075</v>
+      </c>
+      <c r="B533" t="s">
+        <v>17</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+      <c r="D533">
+        <v>1</v>
+      </c>
+      <c r="E533">
+        <v>6</v>
+      </c>
+      <c r="F533">
+        <v>17.392404459765569</v>
+      </c>
+      <c r="G533">
+        <v>14.853146853146853</v>
+      </c>
+      <c r="H533">
+        <v>0.3</v>
+      </c>
+      <c r="I533">
+        <v>0.1</v>
+      </c>
+      <c r="J533">
+        <v>4</v>
+      </c>
+      <c r="K533">
+        <v>4</v>
+      </c>
+      <c r="L533">
+        <v>2</v>
+      </c>
+      <c r="M533">
+        <v>0.36</v>
+      </c>
+      <c r="N533">
+        <v>1.5</v>
+      </c>
+      <c r="O533">
+        <v>0.46</v>
+      </c>
+      <c r="P533">
+        <v>10.241666666666665</v>
+      </c>
+    </row>
+    <row r="534" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A534" s="1">
+        <v>42997.93041666667</v>
+      </c>
+      <c r="B534" t="s">
+        <v>17</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+      <c r="D534">
+        <v>1</v>
+      </c>
+      <c r="E534">
+        <v>6</v>
+      </c>
+      <c r="F534">
+        <v>18.363106809164645</v>
+      </c>
+      <c r="G534">
+        <v>14.86113886113886</v>
+      </c>
+      <c r="H534">
+        <v>0.3</v>
+      </c>
+      <c r="I534">
+        <v>0.1</v>
+      </c>
+      <c r="J534">
+        <v>4</v>
+      </c>
+      <c r="K534">
+        <v>4</v>
+      </c>
+      <c r="L534">
+        <v>2</v>
+      </c>
+      <c r="M534">
+        <v>0.36</v>
+      </c>
+      <c r="N534">
+        <v>1.5</v>
+      </c>
+      <c r="O534">
+        <v>0.46</v>
+      </c>
+      <c r="P534">
+        <v>10.295555555555556</v>
+      </c>
+    </row>
+    <row r="535" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A535" s="1">
+        <v>42997.939293981479</v>
+      </c>
+      <c r="B535" t="s">
+        <v>17</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+      <c r="D535">
+        <v>1</v>
+      </c>
+      <c r="E535">
+        <v>6</v>
+      </c>
+      <c r="F535">
+        <v>19.223795293394094</v>
+      </c>
+      <c r="G535">
+        <v>14.837162837162838</v>
+      </c>
+      <c r="H535">
+        <v>0.3</v>
+      </c>
+      <c r="I535">
+        <v>0.1</v>
+      </c>
+      <c r="J535">
+        <v>4</v>
+      </c>
+      <c r="K535">
+        <v>4</v>
+      </c>
+      <c r="L535">
+        <v>2</v>
+      </c>
+      <c r="M535">
+        <v>0.36</v>
+      </c>
+      <c r="N535">
+        <v>1.5</v>
+      </c>
+      <c r="O535">
+        <v>0.46</v>
+      </c>
+      <c r="P535">
+        <v>10.888888888888889</v>
+      </c>
+    </row>
+    <row r="536" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A536" s="1">
+        <v>42997.948009259257</v>
+      </c>
+      <c r="B536" t="s">
+        <v>17</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+      <c r="D536">
+        <v>1</v>
+      </c>
+      <c r="E536">
+        <v>6</v>
+      </c>
+      <c r="F536">
+        <v>17.154198733671308</v>
+      </c>
+      <c r="G536">
+        <v>15.002997002997004</v>
+      </c>
+      <c r="H536">
+        <v>0.3</v>
+      </c>
+      <c r="I536">
+        <v>0.1</v>
+      </c>
+      <c r="J536">
+        <v>4</v>
+      </c>
+      <c r="K536">
+        <v>4</v>
+      </c>
+      <c r="L536">
+        <v>2</v>
+      </c>
+      <c r="M536">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="N536">
+        <v>1.5</v>
+      </c>
+      <c r="O536">
+        <v>0.46</v>
+      </c>
+      <c r="P536">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="537" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A537" s="1">
+        <v>42997.951608796298</v>
+      </c>
+      <c r="B537" t="s">
+        <v>17</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+      <c r="D537">
+        <v>5</v>
+      </c>
+      <c r="E537">
+        <v>6</v>
+      </c>
+      <c r="F537">
+        <v>5.9348282629307185</v>
+      </c>
+      <c r="G537">
+        <v>14.975024975024976</v>
+      </c>
+      <c r="H537">
+        <v>0.3</v>
+      </c>
+      <c r="I537">
+        <v>0.1</v>
+      </c>
+      <c r="J537">
+        <v>4</v>
+      </c>
+      <c r="K537">
+        <v>4</v>
+      </c>
+      <c r="L537">
+        <v>2</v>
+      </c>
+      <c r="M537">
+        <v>0.45</v>
+      </c>
+      <c r="N537">
+        <v>1.5</v>
+      </c>
+      <c r="O537">
+        <v>0.46</v>
+      </c>
+      <c r="P537">
+        <v>9.8888888888888893</v>
+      </c>
+    </row>
+    <row r="538" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A538" s="1">
+        <v>42997.955358796295</v>
+      </c>
+      <c r="B538" t="s">
+        <v>18</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+      <c r="D538">
+        <v>5</v>
+      </c>
+      <c r="E538">
+        <v>6</v>
+      </c>
+      <c r="F538">
+        <v>5.737666382835477</v>
+      </c>
+      <c r="G538">
+        <v>14.975024975024976</v>
+      </c>
+      <c r="H538">
+        <v>0.3</v>
+      </c>
+      <c r="I538">
+        <v>0.1</v>
+      </c>
+      <c r="J538">
+        <v>4</v>
+      </c>
+      <c r="K538">
+        <v>4</v>
+      </c>
+      <c r="L538">
+        <v>2</v>
+      </c>
+      <c r="M538">
+        <v>0.36</v>
+      </c>
+      <c r="N538">
+        <v>1.5</v>
+      </c>
+      <c r="O538">
+        <v>0.46</v>
+      </c>
+      <c r="P538">
+        <v>9.8888888888888893</v>
+      </c>
+    </row>
+    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A539" s="1">
+        <v>42997.95815972222</v>
+      </c>
+      <c r="B539" t="s">
+        <v>18</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+      <c r="D539">
+        <v>5</v>
+      </c>
+      <c r="E539">
+        <v>6</v>
+      </c>
+      <c r="F539">
+        <v>5.66450097388977</v>
+      </c>
+      <c r="G539">
+        <v>14.975024975024976</v>
+      </c>
+      <c r="H539">
+        <v>0.3</v>
+      </c>
+      <c r="I539">
+        <v>0.1</v>
+      </c>
+      <c r="J539">
+        <v>4</v>
+      </c>
+      <c r="K539">
+        <v>4</v>
+      </c>
+      <c r="L539">
+        <v>2</v>
+      </c>
+      <c r="M539">
+        <v>0.36</v>
+      </c>
+      <c r="N539">
+        <v>1.5</v>
+      </c>
+      <c r="O539">
+        <v>0.46</v>
+      </c>
+      <c r="P539">
+        <v>10.011111111111111</v>
+      </c>
+    </row>
+    <row r="540" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A540" s="1">
+        <v>42997.961145833331</v>
+      </c>
+      <c r="B540" t="s">
+        <v>18</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+      <c r="D540">
+        <v>5</v>
+      </c>
+      <c r="E540">
+        <v>6</v>
+      </c>
+      <c r="F540">
+        <v>5.7565355571363064</v>
+      </c>
+      <c r="G540">
+        <v>14.995004995004994</v>
+      </c>
+      <c r="H540">
+        <v>0.3</v>
+      </c>
+      <c r="I540">
+        <v>0.1</v>
+      </c>
+      <c r="J540">
+        <v>4</v>
+      </c>
+      <c r="K540">
+        <v>4</v>
+      </c>
+      <c r="L540">
+        <v>2</v>
+      </c>
+      <c r="M540">
+        <v>0.36333333333333334</v>
+      </c>
+      <c r="N540">
+        <v>1.5</v>
+      </c>
+      <c r="O540">
+        <v>0.46</v>
+      </c>
+      <c r="P540">
+        <v>10.011111111111111</v>
+      </c>
+    </row>
+    <row r="541" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A541" s="1">
+        <v>42997.966747685183</v>
+      </c>
+      <c r="B541" t="s">
+        <v>18</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+      <c r="D541">
+        <v>5</v>
+      </c>
+      <c r="E541">
+        <v>6</v>
+      </c>
+      <c r="F541">
+        <v>5.5943377117574267</v>
+      </c>
+      <c r="G541">
+        <v>15.284715284715285</v>
+      </c>
+      <c r="H541">
+        <v>0.3</v>
+      </c>
+      <c r="I541">
+        <v>0.1</v>
+      </c>
+      <c r="J541">
+        <v>4</v>
+      </c>
+      <c r="K541">
+        <v>4</v>
+      </c>
+      <c r="L541">
+        <v>2</v>
+      </c>
+      <c r="M541">
+        <v>0.39</v>
+      </c>
+      <c r="N541">
+        <v>1.5</v>
+      </c>
+      <c r="O541">
+        <v>0.46</v>
+      </c>
+      <c r="P541">
+        <v>9.5111111111111111</v>
+      </c>
+    </row>
+    <row r="542" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A542" s="1">
+        <v>42997.971921296295</v>
+      </c>
+      <c r="B542" t="s">
+        <v>17</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+      <c r="D542">
+        <v>5</v>
+      </c>
+      <c r="E542">
+        <v>6</v>
+      </c>
+      <c r="F542">
+        <v>5.5840276317823099</v>
+      </c>
+      <c r="G542">
+        <v>9.1208791208791204</v>
+      </c>
+      <c r="H542">
+        <v>0.3</v>
+      </c>
+      <c r="I542">
+        <v>0.1</v>
+      </c>
+      <c r="J542">
+        <v>4</v>
+      </c>
+      <c r="K542">
+        <v>4</v>
+      </c>
+      <c r="L542">
+        <v>2</v>
+      </c>
+      <c r="M542">
+        <v>0.36</v>
+      </c>
+      <c r="N542">
+        <v>1.5</v>
+      </c>
+      <c r="O542">
+        <v>0.46</v>
+      </c>
+      <c r="P542">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="543" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A543" s="1">
+        <v>42997.973900462966</v>
+      </c>
+      <c r="B543" t="s">
+        <v>17</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+      <c r="D543">
+        <v>5</v>
+      </c>
+      <c r="E543">
+        <v>6</v>
+      </c>
+      <c r="F543">
+        <v>7.4379464061435536</v>
+      </c>
+      <c r="G543">
+        <v>10.04995004995005</v>
+      </c>
+      <c r="H543">
+        <v>0.3</v>
+      </c>
+      <c r="I543">
+        <v>0.1</v>
+      </c>
+      <c r="J543">
+        <v>4</v>
+      </c>
+      <c r="K543">
+        <v>4</v>
+      </c>
+      <c r="L543">
+        <v>2</v>
+      </c>
+      <c r="M543">
+        <v>0.36</v>
+      </c>
+      <c r="N543">
+        <v>1.5</v>
+      </c>
+      <c r="O543">
+        <v>0.46</v>
+      </c>
+      <c r="P543">
+        <v>7.1333333333333337</v>
+      </c>
+    </row>
+    <row r="544" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A544" s="1">
+        <v>42997.976215277777</v>
+      </c>
+      <c r="B544" t="s">
+        <v>16</v>
+      </c>
+      <c r="C544">
+        <v>1</v>
+      </c>
+      <c r="D544">
+        <v>5</v>
+      </c>
+      <c r="E544">
+        <v>6</v>
+      </c>
+      <c r="F544">
+        <v>7.0682839604658669</v>
+      </c>
+      <c r="G544">
+        <v>10</v>
+      </c>
+      <c r="H544">
+        <v>0.3</v>
+      </c>
+      <c r="I544">
+        <v>0.1</v>
+      </c>
+      <c r="J544">
+        <v>4</v>
+      </c>
+      <c r="K544">
+        <v>4</v>
+      </c>
+      <c r="L544">
+        <v>2</v>
+      </c>
+      <c r="M544">
+        <v>0.36</v>
+      </c>
+      <c r="N544">
+        <v>1.5</v>
+      </c>
+      <c r="O544">
+        <v>0.46</v>
+      </c>
+      <c r="P544">
+        <v>7.1477777777777778</v>
+      </c>
+    </row>
+    <row r="545" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A545" s="1">
+        <v>42997.977881944447</v>
+      </c>
+      <c r="B545" t="s">
+        <v>19</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+      <c r="D545">
+        <v>5</v>
+      </c>
+      <c r="E545">
+        <v>6</v>
+      </c>
+      <c r="F545">
+        <v>5.8498117018447751</v>
+      </c>
+      <c r="G545">
+        <v>9.9900099900099892</v>
+      </c>
+      <c r="H545">
+        <v>0.3</v>
+      </c>
+      <c r="I545">
+        <v>0.1</v>
+      </c>
+      <c r="J545">
+        <v>4</v>
+      </c>
+      <c r="K545">
+        <v>4</v>
+      </c>
+      <c r="L545">
+        <v>2</v>
+      </c>
+      <c r="M545">
+        <v>0.36</v>
+      </c>
+      <c r="N545">
+        <v>1.5</v>
+      </c>
+      <c r="O545">
+        <v>0.46</v>
+      </c>
+      <c r="P545">
+        <v>7.1555555555555559</v>
+      </c>
+    </row>
+    <row r="546" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A546" s="1">
+        <v>42997.979803240742</v>
+      </c>
+      <c r="B546" t="s">
+        <v>18</v>
+      </c>
+      <c r="C546">
+        <v>1</v>
+      </c>
+      <c r="D546">
+        <v>5</v>
+      </c>
+      <c r="E546">
+        <v>6</v>
+      </c>
+      <c r="F546">
+        <v>5.4847459134868455</v>
+      </c>
+      <c r="G546">
+        <v>9.9600399600399605</v>
+      </c>
+      <c r="H546">
+        <v>0.3</v>
+      </c>
+      <c r="I546">
+        <v>0.1</v>
+      </c>
+      <c r="J546">
+        <v>4</v>
+      </c>
+      <c r="K546">
+        <v>4</v>
+      </c>
+      <c r="L546">
+        <v>2</v>
+      </c>
+      <c r="M546">
+        <v>0.36</v>
+      </c>
+      <c r="N546">
+        <v>1.5</v>
+      </c>
+      <c r="O546">
+        <v>0.46</v>
+      </c>
+      <c r="P546">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A547" s="1">
+        <v>42997.984467592592</v>
+      </c>
+      <c r="B547" t="s">
+        <v>18</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+      <c r="D547">
+        <v>1</v>
+      </c>
+      <c r="E547">
+        <v>6</v>
+      </c>
+      <c r="F547">
+        <v>23.688048082987503</v>
+      </c>
+      <c r="G547">
+        <v>10.415584415584416</v>
+      </c>
+      <c r="H547">
+        <v>0.3</v>
+      </c>
+      <c r="I547">
+        <v>0.1</v>
+      </c>
+      <c r="J547">
+        <v>4</v>
+      </c>
+      <c r="K547">
+        <v>4</v>
+      </c>
+      <c r="L547">
+        <v>2</v>
+      </c>
+      <c r="M547">
+        <v>0.36</v>
+      </c>
+      <c r="N547">
+        <v>1.5</v>
+      </c>
+      <c r="O547">
+        <v>0.46</v>
+      </c>
+      <c r="P547">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A548" s="1">
+        <v>42997.986921296295</v>
+      </c>
+      <c r="B548" t="s">
+        <v>18</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+      <c r="D548">
+        <v>1</v>
+      </c>
+      <c r="E548">
+        <v>6</v>
+      </c>
+      <c r="F548">
+        <v>24.699746919855606</v>
+      </c>
+      <c r="G548">
+        <v>10.08991008991009</v>
+      </c>
+      <c r="H548">
+        <v>0.3</v>
+      </c>
+      <c r="I548">
+        <v>0.1</v>
+      </c>
+      <c r="J548">
+        <v>4</v>
+      </c>
+      <c r="K548">
+        <v>4</v>
+      </c>
+      <c r="L548">
+        <v>2</v>
+      </c>
+      <c r="M548">
+        <v>0.36</v>
+      </c>
+      <c r="N548">
+        <v>1.5</v>
+      </c>
+      <c r="O548">
+        <v>0.46</v>
+      </c>
+      <c r="P548">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A549" s="1">
+        <v>42997.990937499999</v>
+      </c>
+      <c r="B549" t="s">
+        <v>18</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+      <c r="D549">
+        <v>1</v>
+      </c>
+      <c r="E549">
+        <v>6</v>
+      </c>
+      <c r="F549">
+        <v>23.855003220700031</v>
+      </c>
+      <c r="G549">
+        <v>10.007992007992007</v>
+      </c>
+      <c r="H549">
+        <v>0.3</v>
+      </c>
+      <c r="I549">
+        <v>0.1</v>
+      </c>
+      <c r="J549">
+        <v>4</v>
+      </c>
+      <c r="K549">
+        <v>4</v>
+      </c>
+      <c r="L549">
+        <v>2</v>
+      </c>
+      <c r="M549">
+        <v>0.36</v>
+      </c>
+      <c r="N549">
+        <v>1.5</v>
+      </c>
+      <c r="O549">
+        <v>0.46</v>
+      </c>
+      <c r="P549">
+        <v>7.0777777777777775</v>
+      </c>
+    </row>
+    <row r="550" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A550" s="1">
+        <v>42997.994710648149</v>
+      </c>
+      <c r="B550" t="s">
+        <v>19</v>
+      </c>
+      <c r="C550">
+        <v>1</v>
+      </c>
+      <c r="D550">
+        <v>1</v>
+      </c>
+      <c r="E550">
+        <v>6</v>
+      </c>
+      <c r="F550">
+        <v>26.103752299528622</v>
+      </c>
+      <c r="G550">
+        <v>10.029970029970031</v>
+      </c>
+      <c r="H550">
+        <v>0.3</v>
+      </c>
+      <c r="I550">
+        <v>0.1</v>
+      </c>
+      <c r="J550">
+        <v>4</v>
+      </c>
+      <c r="K550">
+        <v>4</v>
+      </c>
+      <c r="L550">
+        <v>2</v>
+      </c>
+      <c r="M550">
+        <v>0.36</v>
+      </c>
+      <c r="N550">
+        <v>1.5</v>
+      </c>
+      <c r="O550">
+        <v>0.46</v>
+      </c>
+      <c r="P550">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="551" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A551" s="1">
+        <v>42997.997731481482</v>
+      </c>
+      <c r="B551" t="s">
+        <v>16</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+      <c r="D551">
+        <v>1</v>
+      </c>
+      <c r="E551">
+        <v>6</v>
+      </c>
+      <c r="F551">
+        <v>26.989697599786503</v>
+      </c>
+      <c r="G551">
+        <v>9.9960039960039957</v>
+      </c>
+      <c r="H551">
+        <v>0.3</v>
+      </c>
+      <c r="I551">
+        <v>0.1</v>
+      </c>
+      <c r="J551">
+        <v>4</v>
+      </c>
+      <c r="K551">
+        <v>4</v>
+      </c>
+      <c r="L551">
+        <v>2</v>
+      </c>
+      <c r="M551">
+        <v>0.36</v>
+      </c>
+      <c r="N551">
+        <v>1.5</v>
+      </c>
+      <c r="O551">
+        <v>0.46</v>
+      </c>
+      <c r="P551">
+        <v>7.1388888888888884</v>
+      </c>
+    </row>
+    <row r="552" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
+        <v>42998.000416666669</v>
+      </c>
+      <c r="B552" t="s">
+        <v>17</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+      <c r="D552">
+        <v>1</v>
+      </c>
+      <c r="E552">
+        <v>6</v>
+      </c>
+      <c r="F552">
+        <v>28.408314685912149</v>
+      </c>
+      <c r="G552">
+        <v>9.9980019980019978</v>
+      </c>
+      <c r="H552">
+        <v>0.3</v>
+      </c>
+      <c r="I552">
+        <v>0.1</v>
+      </c>
+      <c r="J552">
+        <v>4</v>
+      </c>
+      <c r="K552">
+        <v>4</v>
+      </c>
+      <c r="L552">
+        <v>2</v>
+      </c>
+      <c r="M552">
+        <v>0.36</v>
+      </c>
+      <c r="N552">
+        <v>1.5</v>
+      </c>
+      <c r="O552">
+        <v>0.46</v>
+      </c>
+      <c r="P552">
+        <v>7.1188888888888888</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RunSummaries.xlsx
+++ b/RunSummaries.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -497,10 +497,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P552"/>
+  <dimension ref="A1:P699"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="A552" sqref="A552:P552"/>
+    <sheetView tabSelected="1" topLeftCell="A675" workbookViewId="0">
+      <selection activeCell="A699" sqref="A699:P699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28105,6 +28105,7356 @@
         <v>7.1188888888888888</v>
       </c>
     </row>
+    <row r="553" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A553" s="1">
+        <v>43001.610474537039</v>
+      </c>
+      <c r="B553" t="s">
+        <v>18</v>
+      </c>
+      <c r="C553">
+        <v>0</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
+      </c>
+      <c r="E553">
+        <v>7</v>
+      </c>
+      <c r="F553">
+        <v>58.967958114580121</v>
+      </c>
+      <c r="G553">
+        <v>5.0029970029970023</v>
+      </c>
+      <c r="H553">
+        <v>0.3</v>
+      </c>
+      <c r="I553">
+        <v>0.1</v>
+      </c>
+      <c r="J553">
+        <v>4</v>
+      </c>
+      <c r="K553">
+        <v>4</v>
+      </c>
+      <c r="L553">
+        <v>2</v>
+      </c>
+      <c r="M553">
+        <v>0.36</v>
+      </c>
+      <c r="N553">
+        <v>1.5</v>
+      </c>
+      <c r="O553">
+        <v>0.46</v>
+      </c>
+      <c r="P553">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="554" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
+        <v>43001.610949074071</v>
+      </c>
+      <c r="B554" t="s">
+        <v>19</v>
+      </c>
+      <c r="C554">
+        <v>0</v>
+      </c>
+      <c r="D554">
+        <v>1</v>
+      </c>
+      <c r="E554">
+        <v>7</v>
+      </c>
+      <c r="F554">
+        <v>33.726782240679249</v>
+      </c>
+      <c r="G554">
+        <v>4.9990009990009989</v>
+      </c>
+      <c r="H554">
+        <v>0.3</v>
+      </c>
+      <c r="I554">
+        <v>0.1</v>
+      </c>
+      <c r="J554">
+        <v>4</v>
+      </c>
+      <c r="K554">
+        <v>4</v>
+      </c>
+      <c r="L554">
+        <v>2</v>
+      </c>
+      <c r="M554">
+        <v>0.36</v>
+      </c>
+      <c r="N554">
+        <v>1.5</v>
+      </c>
+      <c r="O554">
+        <v>0.46</v>
+      </c>
+      <c r="P554">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="555" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
+        <v>43001.611377314817</v>
+      </c>
+      <c r="B555" t="s">
+        <v>16</v>
+      </c>
+      <c r="C555">
+        <v>0</v>
+      </c>
+      <c r="D555">
+        <v>1</v>
+      </c>
+      <c r="E555">
+        <v>7</v>
+      </c>
+      <c r="F555">
+        <v>32.144975339965448</v>
+      </c>
+      <c r="G555">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H555">
+        <v>0.3</v>
+      </c>
+      <c r="I555">
+        <v>0.1</v>
+      </c>
+      <c r="J555">
+        <v>4</v>
+      </c>
+      <c r="K555">
+        <v>4</v>
+      </c>
+      <c r="L555">
+        <v>2</v>
+      </c>
+      <c r="M555">
+        <v>0.36</v>
+      </c>
+      <c r="N555">
+        <v>1.5</v>
+      </c>
+      <c r="O555">
+        <v>0.46</v>
+      </c>
+      <c r="P555">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="556" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
+        <v>43001.611828703702</v>
+      </c>
+      <c r="B556" t="s">
+        <v>17</v>
+      </c>
+      <c r="C556">
+        <v>0</v>
+      </c>
+      <c r="D556">
+        <v>1</v>
+      </c>
+      <c r="E556">
+        <v>7</v>
+      </c>
+      <c r="F556">
+        <v>33.918730202614512</v>
+      </c>
+      <c r="G556">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H556">
+        <v>0.3</v>
+      </c>
+      <c r="I556">
+        <v>0.1</v>
+      </c>
+      <c r="J556">
+        <v>4</v>
+      </c>
+      <c r="K556">
+        <v>4</v>
+      </c>
+      <c r="L556">
+        <v>2</v>
+      </c>
+      <c r="M556">
+        <v>0.36</v>
+      </c>
+      <c r="N556">
+        <v>1.5</v>
+      </c>
+      <c r="O556">
+        <v>0.46</v>
+      </c>
+      <c r="P556">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="557" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
+        <v>43001.612268518518</v>
+      </c>
+      <c r="B557" t="s">
+        <v>18</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
+      </c>
+      <c r="E557">
+        <v>7</v>
+      </c>
+      <c r="F557">
+        <v>32.553679453789755</v>
+      </c>
+      <c r="G557">
+        <v>4.7632367632367636</v>
+      </c>
+      <c r="H557">
+        <v>0.3</v>
+      </c>
+      <c r="I557">
+        <v>0.1</v>
+      </c>
+      <c r="J557">
+        <v>4</v>
+      </c>
+      <c r="K557">
+        <v>4</v>
+      </c>
+      <c r="L557">
+        <v>2</v>
+      </c>
+      <c r="M557">
+        <v>0.36</v>
+      </c>
+      <c r="N557">
+        <v>1.5</v>
+      </c>
+      <c r="O557">
+        <v>0.46</v>
+      </c>
+      <c r="P557">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="558" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
+        <v>43001.612696759257</v>
+      </c>
+      <c r="B558" t="s">
+        <v>19</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+      <c r="D558">
+        <v>1</v>
+      </c>
+      <c r="E558">
+        <v>7</v>
+      </c>
+      <c r="F558">
+        <v>31.907692465225878</v>
+      </c>
+      <c r="G558">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H558">
+        <v>0.3</v>
+      </c>
+      <c r="I558">
+        <v>0.1</v>
+      </c>
+      <c r="J558">
+        <v>4</v>
+      </c>
+      <c r="K558">
+        <v>4</v>
+      </c>
+      <c r="L558">
+        <v>2</v>
+      </c>
+      <c r="M558">
+        <v>0.36</v>
+      </c>
+      <c r="N558">
+        <v>1.5</v>
+      </c>
+      <c r="O558">
+        <v>0.46</v>
+      </c>
+      <c r="P558">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="559" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
+        <v>43001.613125000003</v>
+      </c>
+      <c r="B559" t="s">
+        <v>16</v>
+      </c>
+      <c r="C559">
+        <v>1</v>
+      </c>
+      <c r="D559">
+        <v>1</v>
+      </c>
+      <c r="E559">
+        <v>7</v>
+      </c>
+      <c r="F559">
+        <v>32.338273979975661</v>
+      </c>
+      <c r="G559">
+        <v>5.0149850149850153</v>
+      </c>
+      <c r="H559">
+        <v>0.3</v>
+      </c>
+      <c r="I559">
+        <v>0.1</v>
+      </c>
+      <c r="J559">
+        <v>4</v>
+      </c>
+      <c r="K559">
+        <v>4</v>
+      </c>
+      <c r="L559">
+        <v>2</v>
+      </c>
+      <c r="M559">
+        <v>0.36</v>
+      </c>
+      <c r="N559">
+        <v>1.5</v>
+      </c>
+      <c r="O559">
+        <v>0.46</v>
+      </c>
+      <c r="P559">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="560" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
+        <v>43001.613564814812</v>
+      </c>
+      <c r="B560" t="s">
+        <v>17</v>
+      </c>
+      <c r="C560">
+        <v>1</v>
+      </c>
+      <c r="D560">
+        <v>1</v>
+      </c>
+      <c r="E560">
+        <v>7</v>
+      </c>
+      <c r="F560">
+        <v>32.060424364427725</v>
+      </c>
+      <c r="G560">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H560">
+        <v>0.3</v>
+      </c>
+      <c r="I560">
+        <v>0.1</v>
+      </c>
+      <c r="J560">
+        <v>4</v>
+      </c>
+      <c r="K560">
+        <v>4</v>
+      </c>
+      <c r="L560">
+        <v>2</v>
+      </c>
+      <c r="M560">
+        <v>0.36</v>
+      </c>
+      <c r="N560">
+        <v>1.5</v>
+      </c>
+      <c r="O560">
+        <v>0.46</v>
+      </c>
+      <c r="P560">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="561" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
+        <v>43001.613993055558</v>
+      </c>
+      <c r="B561" t="s">
+        <v>18</v>
+      </c>
+      <c r="C561">
+        <v>0</v>
+      </c>
+      <c r="D561">
+        <v>1</v>
+      </c>
+      <c r="E561">
+        <v>7</v>
+      </c>
+      <c r="F561">
+        <v>32.036706700624009</v>
+      </c>
+      <c r="G561">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H561">
+        <v>0.3</v>
+      </c>
+      <c r="I561">
+        <v>0.1</v>
+      </c>
+      <c r="J561">
+        <v>4</v>
+      </c>
+      <c r="K561">
+        <v>4</v>
+      </c>
+      <c r="L561">
+        <v>2</v>
+      </c>
+      <c r="M561">
+        <v>0.36</v>
+      </c>
+      <c r="N561">
+        <v>1.5</v>
+      </c>
+      <c r="O561">
+        <v>0.46</v>
+      </c>
+      <c r="P561">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="562" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
+        <v>43001.614432870374</v>
+      </c>
+      <c r="B562" t="s">
+        <v>19</v>
+      </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
+      <c r="D562">
+        <v>1</v>
+      </c>
+      <c r="E562">
+        <v>7</v>
+      </c>
+      <c r="F562">
+        <v>32.511841072453109</v>
+      </c>
+      <c r="G562">
+        <v>5.0109890109890109</v>
+      </c>
+      <c r="H562">
+        <v>0.3</v>
+      </c>
+      <c r="I562">
+        <v>0.1</v>
+      </c>
+      <c r="J562">
+        <v>4</v>
+      </c>
+      <c r="K562">
+        <v>4</v>
+      </c>
+      <c r="L562">
+        <v>2</v>
+      </c>
+      <c r="M562">
+        <v>0.36</v>
+      </c>
+      <c r="N562">
+        <v>1.5</v>
+      </c>
+      <c r="O562">
+        <v>0.46</v>
+      </c>
+      <c r="P562">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="563" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A563" s="1">
+        <v>43001.614861111113</v>
+      </c>
+      <c r="B563" t="s">
+        <v>16</v>
+      </c>
+      <c r="C563">
+        <v>0</v>
+      </c>
+      <c r="D563">
+        <v>1</v>
+      </c>
+      <c r="E563">
+        <v>7</v>
+      </c>
+      <c r="F563">
+        <v>32.004803050913303</v>
+      </c>
+      <c r="G563">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H563">
+        <v>0.3</v>
+      </c>
+      <c r="I563">
+        <v>0.1</v>
+      </c>
+      <c r="J563">
+        <v>4</v>
+      </c>
+      <c r="K563">
+        <v>4</v>
+      </c>
+      <c r="L563">
+        <v>2</v>
+      </c>
+      <c r="M563">
+        <v>0.36</v>
+      </c>
+      <c r="N563">
+        <v>1.5</v>
+      </c>
+      <c r="O563">
+        <v>0.46</v>
+      </c>
+      <c r="P563">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="564" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
+        <v>43001.615289351852</v>
+      </c>
+      <c r="B564" t="s">
+        <v>17</v>
+      </c>
+      <c r="C564">
+        <v>0</v>
+      </c>
+      <c r="D564">
+        <v>1</v>
+      </c>
+      <c r="E564">
+        <v>7</v>
+      </c>
+      <c r="F564">
+        <v>31.599339796492718</v>
+      </c>
+      <c r="G564">
+        <v>5.0029970029970023</v>
+      </c>
+      <c r="H564">
+        <v>0.3</v>
+      </c>
+      <c r="I564">
+        <v>0.1</v>
+      </c>
+      <c r="J564">
+        <v>4</v>
+      </c>
+      <c r="K564">
+        <v>4</v>
+      </c>
+      <c r="L564">
+        <v>2</v>
+      </c>
+      <c r="M564">
+        <v>0.36</v>
+      </c>
+      <c r="N564">
+        <v>1.5</v>
+      </c>
+      <c r="O564">
+        <v>0.46</v>
+      </c>
+      <c r="P564">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="565" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A565" s="1">
+        <v>43001.615717592591</v>
+      </c>
+      <c r="B565" t="s">
+        <v>18</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+      <c r="E565">
+        <v>7</v>
+      </c>
+      <c r="F565">
+        <v>32.188846618200969</v>
+      </c>
+      <c r="G565">
+        <v>4.8071928071928074</v>
+      </c>
+      <c r="H565">
+        <v>0.3</v>
+      </c>
+      <c r="I565">
+        <v>0.1</v>
+      </c>
+      <c r="J565">
+        <v>4</v>
+      </c>
+      <c r="K565">
+        <v>4</v>
+      </c>
+      <c r="L565">
+        <v>2</v>
+      </c>
+      <c r="M565">
+        <v>0.36</v>
+      </c>
+      <c r="N565">
+        <v>1.5</v>
+      </c>
+      <c r="O565">
+        <v>0.46</v>
+      </c>
+      <c r="P565">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="566" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A566" s="1">
+        <v>43001.61614583333</v>
+      </c>
+      <c r="B566" t="s">
+        <v>19</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
+      </c>
+      <c r="E566">
+        <v>7</v>
+      </c>
+      <c r="F566">
+        <v>32.209395740356221</v>
+      </c>
+      <c r="G566">
+        <v>5.0469530469530461</v>
+      </c>
+      <c r="H566">
+        <v>0.3</v>
+      </c>
+      <c r="I566">
+        <v>0.1</v>
+      </c>
+      <c r="J566">
+        <v>4</v>
+      </c>
+      <c r="K566">
+        <v>4</v>
+      </c>
+      <c r="L566">
+        <v>2</v>
+      </c>
+      <c r="M566">
+        <v>0.36</v>
+      </c>
+      <c r="N566">
+        <v>1.5</v>
+      </c>
+      <c r="O566">
+        <v>0.46</v>
+      </c>
+      <c r="P566">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="567" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A567" s="1">
+        <v>43001.616597222222</v>
+      </c>
+      <c r="B567" t="s">
+        <v>16</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567">
+        <v>1</v>
+      </c>
+      <c r="E567">
+        <v>7</v>
+      </c>
+      <c r="F567">
+        <v>33.688385672508723</v>
+      </c>
+      <c r="G567">
+        <v>5.0269730269730264</v>
+      </c>
+      <c r="H567">
+        <v>0.3</v>
+      </c>
+      <c r="I567">
+        <v>0.1</v>
+      </c>
+      <c r="J567">
+        <v>4</v>
+      </c>
+      <c r="K567">
+        <v>4</v>
+      </c>
+      <c r="L567">
+        <v>2</v>
+      </c>
+      <c r="M567">
+        <v>0.36</v>
+      </c>
+      <c r="N567">
+        <v>1.5</v>
+      </c>
+      <c r="O567">
+        <v>0.46</v>
+      </c>
+      <c r="P567">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="568" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
+        <v>43001.617025462961</v>
+      </c>
+      <c r="B568" t="s">
+        <v>17</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+      <c r="E568">
+        <v>7</v>
+      </c>
+      <c r="F568">
+        <v>32.049313989293772</v>
+      </c>
+      <c r="G568">
+        <v>5.0329670329670328</v>
+      </c>
+      <c r="H568">
+        <v>0.3</v>
+      </c>
+      <c r="I568">
+        <v>0.1</v>
+      </c>
+      <c r="J568">
+        <v>4</v>
+      </c>
+      <c r="K568">
+        <v>4</v>
+      </c>
+      <c r="L568">
+        <v>2</v>
+      </c>
+      <c r="M568">
+        <v>0.36</v>
+      </c>
+      <c r="N568">
+        <v>1.5</v>
+      </c>
+      <c r="O568">
+        <v>0.46</v>
+      </c>
+      <c r="P568">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A569" s="1">
+        <v>43001.683703703704</v>
+      </c>
+      <c r="B569" t="s">
+        <v>17</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569">
+        <v>7</v>
+      </c>
+      <c r="F569">
+        <v>32.818923060628201</v>
+      </c>
+      <c r="G569">
+        <v>2.9970029970029968</v>
+      </c>
+      <c r="H569">
+        <v>0.3</v>
+      </c>
+      <c r="I569">
+        <v>0.1</v>
+      </c>
+      <c r="J569">
+        <v>4</v>
+      </c>
+      <c r="K569">
+        <v>4</v>
+      </c>
+      <c r="L569">
+        <v>2</v>
+      </c>
+      <c r="M569">
+        <v>0.36</v>
+      </c>
+      <c r="N569">
+        <v>1.5</v>
+      </c>
+      <c r="O569">
+        <v>0.46</v>
+      </c>
+      <c r="P569">
+        <v>4.2933000000000003</v>
+      </c>
+    </row>
+    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A570" s="1">
+        <v>43001.684259259258</v>
+      </c>
+      <c r="B570" t="s">
+        <v>19</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570">
+        <v>7</v>
+      </c>
+      <c r="F570">
+        <v>17.973702256281964</v>
+      </c>
+      <c r="G570">
+        <v>3.0069930069930071</v>
+      </c>
+      <c r="H570">
+        <v>0.3</v>
+      </c>
+      <c r="I570">
+        <v>0.1</v>
+      </c>
+      <c r="J570">
+        <v>4</v>
+      </c>
+      <c r="K570">
+        <v>4</v>
+      </c>
+      <c r="L570">
+        <v>2</v>
+      </c>
+      <c r="M570">
+        <v>0.36</v>
+      </c>
+      <c r="N570">
+        <v>1.5</v>
+      </c>
+      <c r="O570">
+        <v>0.46</v>
+      </c>
+      <c r="P570">
+        <v>3.9344000000000001</v>
+      </c>
+    </row>
+    <row r="571" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A571" s="1">
+        <v>43001.684525462966</v>
+      </c>
+      <c r="B571" t="s">
+        <v>17</v>
+      </c>
+      <c r="C571">
+        <v>0</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
+      </c>
+      <c r="E571">
+        <v>7</v>
+      </c>
+      <c r="F571">
+        <v>17.800380916176362</v>
+      </c>
+      <c r="G571">
+        <v>2.9970029970029968</v>
+      </c>
+      <c r="H571">
+        <v>0.3</v>
+      </c>
+      <c r="I571">
+        <v>0.1</v>
+      </c>
+      <c r="J571">
+        <v>4</v>
+      </c>
+      <c r="K571">
+        <v>4</v>
+      </c>
+      <c r="L571">
+        <v>2</v>
+      </c>
+      <c r="M571">
+        <v>0.36</v>
+      </c>
+      <c r="N571">
+        <v>1.5</v>
+      </c>
+      <c r="O571">
+        <v>0.46</v>
+      </c>
+      <c r="P571">
+        <v>3.7778</v>
+      </c>
+    </row>
+    <row r="572" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A572" s="1">
+        <v>43001.684791666667</v>
+      </c>
+      <c r="B572" t="s">
+        <v>19</v>
+      </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
+      <c r="D572">
+        <v>1</v>
+      </c>
+      <c r="E572">
+        <v>7</v>
+      </c>
+      <c r="F572">
+        <v>17.816758647811572</v>
+      </c>
+      <c r="G572">
+        <v>2.9930069930069929</v>
+      </c>
+      <c r="H572">
+        <v>0.3</v>
+      </c>
+      <c r="I572">
+        <v>0.1</v>
+      </c>
+      <c r="J572">
+        <v>4</v>
+      </c>
+      <c r="K572">
+        <v>4</v>
+      </c>
+      <c r="L572">
+        <v>2</v>
+      </c>
+      <c r="M572">
+        <v>0.36</v>
+      </c>
+      <c r="N572">
+        <v>1.5</v>
+      </c>
+      <c r="O572">
+        <v>0.46</v>
+      </c>
+      <c r="P572">
+        <v>4.4421999999999997</v>
+      </c>
+    </row>
+    <row r="573" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A573" s="1">
+        <v>43001.685057870367</v>
+      </c>
+      <c r="B573" t="s">
+        <v>17</v>
+      </c>
+      <c r="C573">
+        <v>1</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+      <c r="E573">
+        <v>7</v>
+      </c>
+      <c r="F573">
+        <v>17.73321340105603</v>
+      </c>
+      <c r="G573">
+        <v>2.9970029970029968</v>
+      </c>
+      <c r="H573">
+        <v>0.3</v>
+      </c>
+      <c r="I573">
+        <v>0.1</v>
+      </c>
+      <c r="J573">
+        <v>4</v>
+      </c>
+      <c r="K573">
+        <v>4</v>
+      </c>
+      <c r="L573">
+        <v>2</v>
+      </c>
+      <c r="M573">
+        <v>0.36</v>
+      </c>
+      <c r="N573">
+        <v>1.5</v>
+      </c>
+      <c r="O573">
+        <v>0.46</v>
+      </c>
+      <c r="P573">
+        <v>4.2933000000000003</v>
+      </c>
+    </row>
+    <row r="574" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A574" s="1">
+        <v>43001.685324074075</v>
+      </c>
+      <c r="B574" t="s">
+        <v>19</v>
+      </c>
+      <c r="C574">
+        <v>0</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+      <c r="E574">
+        <v>7</v>
+      </c>
+      <c r="F574">
+        <v>17.662392559334958</v>
+      </c>
+      <c r="G574">
+        <v>3.0049950049950049</v>
+      </c>
+      <c r="H574">
+        <v>0.3</v>
+      </c>
+      <c r="I574">
+        <v>0.1</v>
+      </c>
+      <c r="J574">
+        <v>4</v>
+      </c>
+      <c r="K574">
+        <v>4</v>
+      </c>
+      <c r="L574">
+        <v>2</v>
+      </c>
+      <c r="M574">
+        <v>0.36</v>
+      </c>
+      <c r="N574">
+        <v>1.5</v>
+      </c>
+      <c r="O574">
+        <v>0.46</v>
+      </c>
+      <c r="P574">
+        <v>3.9344000000000001</v>
+      </c>
+    </row>
+    <row r="575" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A575" s="1">
+        <v>43001.685590277775</v>
+      </c>
+      <c r="B575" t="s">
+        <v>17</v>
+      </c>
+      <c r="C575">
+        <v>0</v>
+      </c>
+      <c r="D575">
+        <v>1</v>
+      </c>
+      <c r="E575">
+        <v>7</v>
+      </c>
+      <c r="F575">
+        <v>17.771501172603603</v>
+      </c>
+      <c r="G575">
+        <v>2.9910089910089912</v>
+      </c>
+      <c r="H575">
+        <v>0.3</v>
+      </c>
+      <c r="I575">
+        <v>0.1</v>
+      </c>
+      <c r="J575">
+        <v>4</v>
+      </c>
+      <c r="K575">
+        <v>4</v>
+      </c>
+      <c r="L575">
+        <v>2</v>
+      </c>
+      <c r="M575">
+        <v>0.36</v>
+      </c>
+      <c r="N575">
+        <v>1.5</v>
+      </c>
+      <c r="O575">
+        <v>0.46</v>
+      </c>
+      <c r="P575">
+        <v>3.7778</v>
+      </c>
+    </row>
+    <row r="576" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A576" s="1">
+        <v>43001.685856481483</v>
+      </c>
+      <c r="B576" t="s">
+        <v>19</v>
+      </c>
+      <c r="C576">
+        <v>1</v>
+      </c>
+      <c r="D576">
+        <v>1</v>
+      </c>
+      <c r="E576">
+        <v>7</v>
+      </c>
+      <c r="F576">
+        <v>18.018875894092247</v>
+      </c>
+      <c r="G576">
+        <v>2.9990009990009989</v>
+      </c>
+      <c r="H576">
+        <v>0.3</v>
+      </c>
+      <c r="I576">
+        <v>0.1</v>
+      </c>
+      <c r="J576">
+        <v>4</v>
+      </c>
+      <c r="K576">
+        <v>4</v>
+      </c>
+      <c r="L576">
+        <v>2</v>
+      </c>
+      <c r="M576">
+        <v>0.36</v>
+      </c>
+      <c r="N576">
+        <v>1.5</v>
+      </c>
+      <c r="O576">
+        <v>0.46</v>
+      </c>
+      <c r="P576">
+        <v>4.4421999999999997</v>
+      </c>
+    </row>
+    <row r="577" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A577" s="1">
+        <v>43001.686122685183</v>
+      </c>
+      <c r="B577" t="s">
+        <v>17</v>
+      </c>
+      <c r="C577">
+        <v>1</v>
+      </c>
+      <c r="D577">
+        <v>1</v>
+      </c>
+      <c r="E577">
+        <v>7</v>
+      </c>
+      <c r="F577">
+        <v>17.839343546776309</v>
+      </c>
+      <c r="G577">
+        <v>2.9950049950049951</v>
+      </c>
+      <c r="H577">
+        <v>0.3</v>
+      </c>
+      <c r="I577">
+        <v>0.1</v>
+      </c>
+      <c r="J577">
+        <v>4</v>
+      </c>
+      <c r="K577">
+        <v>4</v>
+      </c>
+      <c r="L577">
+        <v>2</v>
+      </c>
+      <c r="M577">
+        <v>0.36</v>
+      </c>
+      <c r="N577">
+        <v>1.5</v>
+      </c>
+      <c r="O577">
+        <v>0.46</v>
+      </c>
+      <c r="P577">
+        <v>4.2933000000000003</v>
+      </c>
+    </row>
+    <row r="578" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A578" s="1">
+        <v>43001.686874999999</v>
+      </c>
+      <c r="B578" t="s">
+        <v>19</v>
+      </c>
+      <c r="C578">
+        <v>0</v>
+      </c>
+      <c r="D578">
+        <v>1</v>
+      </c>
+      <c r="E578">
+        <v>7</v>
+      </c>
+      <c r="F578">
+        <v>17.767356341259166</v>
+      </c>
+      <c r="G578">
+        <v>7.5544455544455547</v>
+      </c>
+      <c r="H578">
+        <v>0.3</v>
+      </c>
+      <c r="I578">
+        <v>0.1</v>
+      </c>
+      <c r="J578">
+        <v>4</v>
+      </c>
+      <c r="K578">
+        <v>4</v>
+      </c>
+      <c r="L578">
+        <v>2</v>
+      </c>
+      <c r="M578">
+        <v>0.36</v>
+      </c>
+      <c r="N578">
+        <v>1.5</v>
+      </c>
+      <c r="O578">
+        <v>0.46</v>
+      </c>
+      <c r="P578">
+        <v>5.7445000000000004</v>
+      </c>
+    </row>
+    <row r="579" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A579" s="1">
+        <v>43001.687141203707</v>
+      </c>
+      <c r="B579" t="s">
+        <v>17</v>
+      </c>
+      <c r="C579">
+        <v>0</v>
+      </c>
+      <c r="D579">
+        <v>1</v>
+      </c>
+      <c r="E579">
+        <v>7</v>
+      </c>
+      <c r="F579">
+        <v>17.764524429161717</v>
+      </c>
+      <c r="G579">
+        <v>7.5324675324675319</v>
+      </c>
+      <c r="H579">
+        <v>0.3</v>
+      </c>
+      <c r="I579">
+        <v>0.1</v>
+      </c>
+      <c r="J579">
+        <v>4</v>
+      </c>
+      <c r="K579">
+        <v>4</v>
+      </c>
+      <c r="L579">
+        <v>2</v>
+      </c>
+      <c r="M579">
+        <v>0.36</v>
+      </c>
+      <c r="N579">
+        <v>1.5</v>
+      </c>
+      <c r="O579">
+        <v>0.46</v>
+      </c>
+      <c r="P579">
+        <v>5.6666999999999996</v>
+      </c>
+    </row>
+    <row r="580" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A580" s="1">
+        <v>43001.687407407408</v>
+      </c>
+      <c r="B580" t="s">
+        <v>19</v>
+      </c>
+      <c r="C580">
+        <v>1</v>
+      </c>
+      <c r="D580">
+        <v>1</v>
+      </c>
+      <c r="E580">
+        <v>7</v>
+      </c>
+      <c r="F580">
+        <v>17.81438816139147</v>
+      </c>
+      <c r="G580">
+        <v>7.5584415584415581</v>
+      </c>
+      <c r="H580">
+        <v>0.3</v>
+      </c>
+      <c r="I580">
+        <v>0.1</v>
+      </c>
+      <c r="J580">
+        <v>4</v>
+      </c>
+      <c r="K580">
+        <v>4</v>
+      </c>
+      <c r="L580">
+        <v>2</v>
+      </c>
+      <c r="M580">
+        <v>0.36</v>
+      </c>
+      <c r="N580">
+        <v>1.5</v>
+      </c>
+      <c r="O580">
+        <v>0.46</v>
+      </c>
+      <c r="P580">
+        <v>6.3333000000000004</v>
+      </c>
+    </row>
+    <row r="581" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A581" s="1">
+        <v>43001.687662037039</v>
+      </c>
+      <c r="B581" t="s">
+        <v>17</v>
+      </c>
+      <c r="C581">
+        <v>1</v>
+      </c>
+      <c r="D581">
+        <v>1</v>
+      </c>
+      <c r="E581">
+        <v>7</v>
+      </c>
+      <c r="F581">
+        <v>17.574519446916369</v>
+      </c>
+      <c r="G581">
+        <v>7.5244755244755241</v>
+      </c>
+      <c r="H581">
+        <v>0.3</v>
+      </c>
+      <c r="I581">
+        <v>0.1</v>
+      </c>
+      <c r="J581">
+        <v>4</v>
+      </c>
+      <c r="K581">
+        <v>4</v>
+      </c>
+      <c r="L581">
+        <v>2</v>
+      </c>
+      <c r="M581">
+        <v>0.36</v>
+      </c>
+      <c r="N581">
+        <v>1.5</v>
+      </c>
+      <c r="O581">
+        <v>0.46</v>
+      </c>
+      <c r="P581">
+        <v>6.2222</v>
+      </c>
+    </row>
+    <row r="582" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A582" s="1">
+        <v>43001.687928240739</v>
+      </c>
+      <c r="B582" t="s">
+        <v>19</v>
+      </c>
+      <c r="C582">
+        <v>0</v>
+      </c>
+      <c r="D582">
+        <v>1</v>
+      </c>
+      <c r="E582">
+        <v>7</v>
+      </c>
+      <c r="F582">
+        <v>17.850093933084317</v>
+      </c>
+      <c r="G582">
+        <v>7.6083916083916083</v>
+      </c>
+      <c r="H582">
+        <v>0.3</v>
+      </c>
+      <c r="I582">
+        <v>0.1</v>
+      </c>
+      <c r="J582">
+        <v>4</v>
+      </c>
+      <c r="K582">
+        <v>4</v>
+      </c>
+      <c r="L582">
+        <v>2</v>
+      </c>
+      <c r="M582">
+        <v>0.36</v>
+      </c>
+      <c r="N582">
+        <v>1.5</v>
+      </c>
+      <c r="O582">
+        <v>0.46</v>
+      </c>
+      <c r="P582">
+        <v>5.7445000000000004</v>
+      </c>
+    </row>
+    <row r="583" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A583" s="1">
+        <v>43001.688206018516</v>
+      </c>
+      <c r="B583" t="s">
+        <v>17</v>
+      </c>
+      <c r="C583">
+        <v>0</v>
+      </c>
+      <c r="D583">
+        <v>1</v>
+      </c>
+      <c r="E583">
+        <v>7</v>
+      </c>
+      <c r="F583">
+        <v>17.904133535695053</v>
+      </c>
+      <c r="G583">
+        <v>7.5184815184815186</v>
+      </c>
+      <c r="H583">
+        <v>0.3</v>
+      </c>
+      <c r="I583">
+        <v>0.1</v>
+      </c>
+      <c r="J583">
+        <v>4</v>
+      </c>
+      <c r="K583">
+        <v>4</v>
+      </c>
+      <c r="L583">
+        <v>2</v>
+      </c>
+      <c r="M583">
+        <v>0.36</v>
+      </c>
+      <c r="N583">
+        <v>1.5</v>
+      </c>
+      <c r="O583">
+        <v>0.46</v>
+      </c>
+      <c r="P583">
+        <v>5.6666999999999996</v>
+      </c>
+    </row>
+    <row r="584" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A584" s="1">
+        <v>43001.688472222224</v>
+      </c>
+      <c r="B584" t="s">
+        <v>19</v>
+      </c>
+      <c r="C584">
+        <v>1</v>
+      </c>
+      <c r="D584">
+        <v>1</v>
+      </c>
+      <c r="E584">
+        <v>7</v>
+      </c>
+      <c r="F584">
+        <v>17.786990291821343</v>
+      </c>
+      <c r="G584">
+        <v>7.5964035964035963</v>
+      </c>
+      <c r="H584">
+        <v>0.3</v>
+      </c>
+      <c r="I584">
+        <v>0.1</v>
+      </c>
+      <c r="J584">
+        <v>4</v>
+      </c>
+      <c r="K584">
+        <v>4</v>
+      </c>
+      <c r="L584">
+        <v>2</v>
+      </c>
+      <c r="M584">
+        <v>0.36</v>
+      </c>
+      <c r="N584">
+        <v>1.5</v>
+      </c>
+      <c r="O584">
+        <v>0.46</v>
+      </c>
+      <c r="P584">
+        <v>6.3333000000000004</v>
+      </c>
+    </row>
+    <row r="585" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A585" s="1">
+        <v>43001.688738425924</v>
+      </c>
+      <c r="B585" t="s">
+        <v>17</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+      <c r="D585">
+        <v>1</v>
+      </c>
+      <c r="E585">
+        <v>7</v>
+      </c>
+      <c r="F585">
+        <v>18.197290516102381</v>
+      </c>
+      <c r="G585">
+        <v>7.5324675324675319</v>
+      </c>
+      <c r="H585">
+        <v>0.3</v>
+      </c>
+      <c r="I585">
+        <v>0.1</v>
+      </c>
+      <c r="J585">
+        <v>4</v>
+      </c>
+      <c r="K585">
+        <v>4</v>
+      </c>
+      <c r="L585">
+        <v>2</v>
+      </c>
+      <c r="M585">
+        <v>0.36</v>
+      </c>
+      <c r="N585">
+        <v>1.5</v>
+      </c>
+      <c r="O585">
+        <v>0.46</v>
+      </c>
+      <c r="P585">
+        <v>6.2222</v>
+      </c>
+    </row>
+    <row r="586" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A586" s="1">
+        <v>43001.690706018519</v>
+      </c>
+      <c r="B586" t="s">
+        <v>17</v>
+      </c>
+      <c r="C586">
+        <v>1</v>
+      </c>
+      <c r="D586">
+        <v>1</v>
+      </c>
+      <c r="E586">
+        <v>7</v>
+      </c>
+      <c r="F586">
+        <v>17.964675656467623</v>
+      </c>
+      <c r="G586">
+        <v>10.301698301698302</v>
+      </c>
+      <c r="H586">
+        <v>0.3</v>
+      </c>
+      <c r="I586">
+        <v>0.1</v>
+      </c>
+      <c r="J586">
+        <v>4</v>
+      </c>
+      <c r="K586">
+        <v>4</v>
+      </c>
+      <c r="L586">
+        <v>2</v>
+      </c>
+      <c r="M586">
+        <v>0.36</v>
+      </c>
+      <c r="N586">
+        <v>1.5</v>
+      </c>
+      <c r="O586">
+        <v>0.46</v>
+      </c>
+      <c r="P586">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="587" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A587" s="1">
+        <v>43001.69121527778</v>
+      </c>
+      <c r="B587" t="s">
+        <v>19</v>
+      </c>
+      <c r="C587">
+        <v>0</v>
+      </c>
+      <c r="D587">
+        <v>1</v>
+      </c>
+      <c r="E587">
+        <v>7</v>
+      </c>
+      <c r="F587">
+        <v>17.844746899056254</v>
+      </c>
+      <c r="G587">
+        <v>10</v>
+      </c>
+      <c r="H587">
+        <v>0.3</v>
+      </c>
+      <c r="I587">
+        <v>0.1</v>
+      </c>
+      <c r="J587">
+        <v>4</v>
+      </c>
+      <c r="K587">
+        <v>4</v>
+      </c>
+      <c r="L587">
+        <v>2</v>
+      </c>
+      <c r="M587">
+        <v>0.36</v>
+      </c>
+      <c r="N587">
+        <v>1.5</v>
+      </c>
+      <c r="O587">
+        <v>0.46</v>
+      </c>
+      <c r="P587">
+        <v>6.5311000000000003</v>
+      </c>
+    </row>
+    <row r="588" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A588" s="1">
+        <v>43001.691481481481</v>
+      </c>
+      <c r="B588" t="s">
+        <v>17</v>
+      </c>
+      <c r="C588">
+        <v>0</v>
+      </c>
+      <c r="D588">
+        <v>1</v>
+      </c>
+      <c r="E588">
+        <v>7</v>
+      </c>
+      <c r="F588">
+        <v>17.870334264824418</v>
+      </c>
+      <c r="G588">
+        <v>10.015984015984015</v>
+      </c>
+      <c r="H588">
+        <v>0.3</v>
+      </c>
+      <c r="I588">
+        <v>0.1</v>
+      </c>
+      <c r="J588">
+        <v>4</v>
+      </c>
+      <c r="K588">
+        <v>4</v>
+      </c>
+      <c r="L588">
+        <v>2</v>
+      </c>
+      <c r="M588">
+        <v>0.36</v>
+      </c>
+      <c r="N588">
+        <v>1.5</v>
+      </c>
+      <c r="O588">
+        <v>0.46</v>
+      </c>
+      <c r="P588">
+        <v>6.5232999999999999</v>
+      </c>
+    </row>
+    <row r="589" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A589" s="1">
+        <v>43001.691747685189</v>
+      </c>
+      <c r="B589" t="s">
+        <v>19</v>
+      </c>
+      <c r="C589">
+        <v>1</v>
+      </c>
+      <c r="D589">
+        <v>1</v>
+      </c>
+      <c r="E589">
+        <v>7</v>
+      </c>
+      <c r="F589">
+        <v>17.949990992279599</v>
+      </c>
+      <c r="G589">
+        <v>10.029970029970031</v>
+      </c>
+      <c r="H589">
+        <v>0.3</v>
+      </c>
+      <c r="I589">
+        <v>0.1</v>
+      </c>
+      <c r="J589">
+        <v>4</v>
+      </c>
+      <c r="K589">
+        <v>4</v>
+      </c>
+      <c r="L589">
+        <v>2</v>
+      </c>
+      <c r="M589">
+        <v>0.36</v>
+      </c>
+      <c r="N589">
+        <v>1.5</v>
+      </c>
+      <c r="O589">
+        <v>0.46</v>
+      </c>
+      <c r="P589">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="590" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A590" s="1">
+        <v>43001.692013888889</v>
+      </c>
+      <c r="B590" t="s">
+        <v>17</v>
+      </c>
+      <c r="C590">
+        <v>1</v>
+      </c>
+      <c r="D590">
+        <v>1</v>
+      </c>
+      <c r="E590">
+        <v>7</v>
+      </c>
+      <c r="F590">
+        <v>17.879368224410314</v>
+      </c>
+      <c r="G590">
+        <v>9.9980019980019978</v>
+      </c>
+      <c r="H590">
+        <v>0.3</v>
+      </c>
+      <c r="I590">
+        <v>0.1</v>
+      </c>
+      <c r="J590">
+        <v>4</v>
+      </c>
+      <c r="K590">
+        <v>4</v>
+      </c>
+      <c r="L590">
+        <v>2</v>
+      </c>
+      <c r="M590">
+        <v>0.36</v>
+      </c>
+      <c r="N590">
+        <v>1.5</v>
+      </c>
+      <c r="O590">
+        <v>0.46</v>
+      </c>
+      <c r="P590">
+        <v>7.1189</v>
+      </c>
+    </row>
+    <row r="591" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A591" s="1">
+        <v>43001.692280092589</v>
+      </c>
+      <c r="B591" t="s">
+        <v>19</v>
+      </c>
+      <c r="C591">
+        <v>0</v>
+      </c>
+      <c r="D591">
+        <v>1</v>
+      </c>
+      <c r="E591">
+        <v>7</v>
+      </c>
+      <c r="F591">
+        <v>17.781181512125862</v>
+      </c>
+      <c r="G591">
+        <v>10.061938061938063</v>
+      </c>
+      <c r="H591">
+        <v>0.3</v>
+      </c>
+      <c r="I591">
+        <v>0.1</v>
+      </c>
+      <c r="J591">
+        <v>4</v>
+      </c>
+      <c r="K591">
+        <v>4</v>
+      </c>
+      <c r="L591">
+        <v>2</v>
+      </c>
+      <c r="M591">
+        <v>0.36</v>
+      </c>
+      <c r="N591">
+        <v>1.5</v>
+      </c>
+      <c r="O591">
+        <v>0.46</v>
+      </c>
+      <c r="P591">
+        <v>6.5311000000000003</v>
+      </c>
+    </row>
+    <row r="592" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A592" s="1">
+        <v>43001.692546296297</v>
+      </c>
+      <c r="B592" t="s">
+        <v>17</v>
+      </c>
+      <c r="C592">
+        <v>0</v>
+      </c>
+      <c r="D592">
+        <v>1</v>
+      </c>
+      <c r="E592">
+        <v>7</v>
+      </c>
+      <c r="F592">
+        <v>17.726090422153295</v>
+      </c>
+      <c r="G592">
+        <v>10.037962037962037</v>
+      </c>
+      <c r="H592">
+        <v>0.3</v>
+      </c>
+      <c r="I592">
+        <v>0.1</v>
+      </c>
+      <c r="J592">
+        <v>4</v>
+      </c>
+      <c r="K592">
+        <v>4</v>
+      </c>
+      <c r="L592">
+        <v>2</v>
+      </c>
+      <c r="M592">
+        <v>0.36</v>
+      </c>
+      <c r="N592">
+        <v>1.5</v>
+      </c>
+      <c r="O592">
+        <v>0.46</v>
+      </c>
+      <c r="P592">
+        <v>6.5232999999999999</v>
+      </c>
+    </row>
+    <row r="593" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A593" s="1">
+        <v>43001.692824074074</v>
+      </c>
+      <c r="B593" t="s">
+        <v>19</v>
+      </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
+      <c r="D593">
+        <v>1</v>
+      </c>
+      <c r="E593">
+        <v>7</v>
+      </c>
+      <c r="F593">
+        <v>17.813468829927519</v>
+      </c>
+      <c r="G593">
+        <v>10.055944055944055</v>
+      </c>
+      <c r="H593">
+        <v>0.3</v>
+      </c>
+      <c r="I593">
+        <v>0.1</v>
+      </c>
+      <c r="J593">
+        <v>4</v>
+      </c>
+      <c r="K593">
+        <v>4</v>
+      </c>
+      <c r="L593">
+        <v>2</v>
+      </c>
+      <c r="M593">
+        <v>0.36</v>
+      </c>
+      <c r="N593">
+        <v>1.5</v>
+      </c>
+      <c r="O593">
+        <v>0.46</v>
+      </c>
+      <c r="P593">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="594" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A594" s="1">
+        <v>43001.693078703705</v>
+      </c>
+      <c r="B594" t="s">
+        <v>17</v>
+      </c>
+      <c r="C594">
+        <v>1</v>
+      </c>
+      <c r="D594">
+        <v>1</v>
+      </c>
+      <c r="E594">
+        <v>7</v>
+      </c>
+      <c r="F594">
+        <v>17.651248265253848</v>
+      </c>
+      <c r="G594">
+        <v>10.015984015984015</v>
+      </c>
+      <c r="H594">
+        <v>0.3</v>
+      </c>
+      <c r="I594">
+        <v>0.1</v>
+      </c>
+      <c r="J594">
+        <v>4</v>
+      </c>
+      <c r="K594">
+        <v>4</v>
+      </c>
+      <c r="L594">
+        <v>2</v>
+      </c>
+      <c r="M594">
+        <v>0.36</v>
+      </c>
+      <c r="N594">
+        <v>1.5</v>
+      </c>
+      <c r="O594">
+        <v>0.46</v>
+      </c>
+      <c r="P594">
+        <v>7.1189</v>
+      </c>
+    </row>
+    <row r="595" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A595" s="1">
+        <v>43006.595937500002</v>
+      </c>
+      <c r="B595" t="s">
+        <v>19</v>
+      </c>
+      <c r="C595">
+        <v>0</v>
+      </c>
+      <c r="D595">
+        <v>1</v>
+      </c>
+      <c r="E595">
+        <v>7</v>
+      </c>
+      <c r="F595">
+        <v>42.229690801704926</v>
+      </c>
+      <c r="G595">
+        <v>4.9690309690309684</v>
+      </c>
+      <c r="H595">
+        <v>0.3</v>
+      </c>
+      <c r="I595">
+        <v>0.1</v>
+      </c>
+      <c r="J595">
+        <v>4</v>
+      </c>
+      <c r="K595">
+        <v>4</v>
+      </c>
+      <c r="L595">
+        <v>2</v>
+      </c>
+      <c r="M595">
+        <v>0.36</v>
+      </c>
+      <c r="N595">
+        <v>1.5</v>
+      </c>
+      <c r="O595">
+        <v>0.46</v>
+      </c>
+      <c r="P595">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="596" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A596" s="1">
+        <v>43006.596203703702</v>
+      </c>
+      <c r="B596" t="s">
+        <v>17</v>
+      </c>
+      <c r="C596">
+        <v>0</v>
+      </c>
+      <c r="D596">
+        <v>1</v>
+      </c>
+      <c r="E596">
+        <v>7</v>
+      </c>
+      <c r="F596">
+        <v>18.406741422823238</v>
+      </c>
+      <c r="G596">
+        <v>4.9550449550449551</v>
+      </c>
+      <c r="H596">
+        <v>0.3</v>
+      </c>
+      <c r="I596">
+        <v>0.1</v>
+      </c>
+      <c r="J596">
+        <v>4</v>
+      </c>
+      <c r="K596">
+        <v>4</v>
+      </c>
+      <c r="L596">
+        <v>2</v>
+      </c>
+      <c r="M596">
+        <v>0.36</v>
+      </c>
+      <c r="N596">
+        <v>1.5</v>
+      </c>
+      <c r="O596">
+        <v>0.46</v>
+      </c>
+      <c r="P596">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="597" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A597" s="1">
+        <v>43006.596446759257</v>
+      </c>
+      <c r="B597" t="s">
+        <v>19</v>
+      </c>
+      <c r="C597">
+        <v>1</v>
+      </c>
+      <c r="D597">
+        <v>1</v>
+      </c>
+      <c r="E597">
+        <v>7</v>
+      </c>
+      <c r="F597">
+        <v>17.779125844860665</v>
+      </c>
+      <c r="G597">
+        <v>4.9610389610389607</v>
+      </c>
+      <c r="H597">
+        <v>0.3</v>
+      </c>
+      <c r="I597">
+        <v>0.1</v>
+      </c>
+      <c r="J597">
+        <v>4</v>
+      </c>
+      <c r="K597">
+        <v>4</v>
+      </c>
+      <c r="L597">
+        <v>2</v>
+      </c>
+      <c r="M597">
+        <v>0.36</v>
+      </c>
+      <c r="N597">
+        <v>1.5</v>
+      </c>
+      <c r="O597">
+        <v>0.46</v>
+      </c>
+      <c r="P597">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="598" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A598" s="1">
+        <v>43006.596701388888</v>
+      </c>
+      <c r="B598" t="s">
+        <v>17</v>
+      </c>
+      <c r="C598">
+        <v>1</v>
+      </c>
+      <c r="D598">
+        <v>1</v>
+      </c>
+      <c r="E598">
+        <v>7</v>
+      </c>
+      <c r="F598">
+        <v>18.469721581770422</v>
+      </c>
+      <c r="G598">
+        <v>4.9310689310689311</v>
+      </c>
+      <c r="H598">
+        <v>0.3</v>
+      </c>
+      <c r="I598">
+        <v>0.1</v>
+      </c>
+      <c r="J598">
+        <v>4</v>
+      </c>
+      <c r="K598">
+        <v>4</v>
+      </c>
+      <c r="L598">
+        <v>2</v>
+      </c>
+      <c r="M598">
+        <v>0.36</v>
+      </c>
+      <c r="N598">
+        <v>1.5</v>
+      </c>
+      <c r="O598">
+        <v>0.46</v>
+      </c>
+      <c r="P598">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="599" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A599" s="1">
+        <v>43006.596944444442</v>
+      </c>
+      <c r="B599" t="s">
+        <v>19</v>
+      </c>
+      <c r="C599">
+        <v>0</v>
+      </c>
+      <c r="D599">
+        <v>1</v>
+      </c>
+      <c r="E599">
+        <v>7</v>
+      </c>
+      <c r="F599">
+        <v>17.33466476945814</v>
+      </c>
+      <c r="G599">
+        <v>4.9670329670329672</v>
+      </c>
+      <c r="H599">
+        <v>0.3</v>
+      </c>
+      <c r="I599">
+        <v>0.1</v>
+      </c>
+      <c r="J599">
+        <v>4</v>
+      </c>
+      <c r="K599">
+        <v>4</v>
+      </c>
+      <c r="L599">
+        <v>2</v>
+      </c>
+      <c r="M599">
+        <v>0.36</v>
+      </c>
+      <c r="N599">
+        <v>1.5</v>
+      </c>
+      <c r="O599">
+        <v>0.46</v>
+      </c>
+      <c r="P599">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="600" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A600" s="1">
+        <v>43006.597175925926</v>
+      </c>
+      <c r="B600" t="s">
+        <v>17</v>
+      </c>
+      <c r="C600">
+        <v>0</v>
+      </c>
+      <c r="D600">
+        <v>1</v>
+      </c>
+      <c r="E600">
+        <v>7</v>
+      </c>
+      <c r="F600">
+        <v>17.302990470141193</v>
+      </c>
+      <c r="G600">
+        <v>4.9370629370629375</v>
+      </c>
+      <c r="H600">
+        <v>0.3</v>
+      </c>
+      <c r="I600">
+        <v>0.1</v>
+      </c>
+      <c r="J600">
+        <v>4</v>
+      </c>
+      <c r="K600">
+        <v>4</v>
+      </c>
+      <c r="L600">
+        <v>2</v>
+      </c>
+      <c r="M600">
+        <v>0.36</v>
+      </c>
+      <c r="N600">
+        <v>1.5</v>
+      </c>
+      <c r="O600">
+        <v>0.46</v>
+      </c>
+      <c r="P600">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="601" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A601" s="1">
+        <v>43006.597430555557</v>
+      </c>
+      <c r="B601" t="s">
+        <v>19</v>
+      </c>
+      <c r="C601">
+        <v>1</v>
+      </c>
+      <c r="D601">
+        <v>1</v>
+      </c>
+      <c r="E601">
+        <v>7</v>
+      </c>
+      <c r="F601">
+        <v>18.887969068976577</v>
+      </c>
+      <c r="G601">
+        <v>4.9850149850149847</v>
+      </c>
+      <c r="H601">
+        <v>0.3</v>
+      </c>
+      <c r="I601">
+        <v>0.1</v>
+      </c>
+      <c r="J601">
+        <v>4</v>
+      </c>
+      <c r="K601">
+        <v>4</v>
+      </c>
+      <c r="L601">
+        <v>2</v>
+      </c>
+      <c r="M601">
+        <v>0.36</v>
+      </c>
+      <c r="N601">
+        <v>1.5</v>
+      </c>
+      <c r="O601">
+        <v>0.46</v>
+      </c>
+      <c r="P601">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="602" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A602" s="1">
+        <v>43006.597731481481</v>
+      </c>
+      <c r="B602" t="s">
+        <v>17</v>
+      </c>
+      <c r="C602">
+        <v>1</v>
+      </c>
+      <c r="D602">
+        <v>1</v>
+      </c>
+      <c r="E602">
+        <v>7</v>
+      </c>
+      <c r="F602">
+        <v>21.808434390390634</v>
+      </c>
+      <c r="G602">
+        <v>4.9390609390609388</v>
+      </c>
+      <c r="H602">
+        <v>0.3</v>
+      </c>
+      <c r="I602">
+        <v>0.1</v>
+      </c>
+      <c r="J602">
+        <v>4</v>
+      </c>
+      <c r="K602">
+        <v>4</v>
+      </c>
+      <c r="L602">
+        <v>2</v>
+      </c>
+      <c r="M602">
+        <v>0.36</v>
+      </c>
+      <c r="N602">
+        <v>1.5</v>
+      </c>
+      <c r="O602">
+        <v>0.46</v>
+      </c>
+      <c r="P602">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="603" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A603" s="1">
+        <v>43006.605081018519</v>
+      </c>
+      <c r="B603" t="s">
+        <v>18</v>
+      </c>
+      <c r="C603">
+        <v>0</v>
+      </c>
+      <c r="D603">
+        <v>1</v>
+      </c>
+      <c r="E603">
+        <v>7</v>
+      </c>
+      <c r="F603">
+        <v>17.37884490959955</v>
+      </c>
+      <c r="G603">
+        <v>4.9530469530469539</v>
+      </c>
+      <c r="H603">
+        <v>0.3</v>
+      </c>
+      <c r="I603">
+        <v>0.1</v>
+      </c>
+      <c r="J603">
+        <v>4</v>
+      </c>
+      <c r="K603">
+        <v>4</v>
+      </c>
+      <c r="L603">
+        <v>2</v>
+      </c>
+      <c r="M603">
+        <v>0.36</v>
+      </c>
+      <c r="N603">
+        <v>1.5</v>
+      </c>
+      <c r="O603">
+        <v>0.46</v>
+      </c>
+      <c r="P603">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="604" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A604" s="1">
+        <v>43006.605324074073</v>
+      </c>
+      <c r="B604" t="s">
+        <v>16</v>
+      </c>
+      <c r="C604">
+        <v>0</v>
+      </c>
+      <c r="D604">
+        <v>1</v>
+      </c>
+      <c r="E604">
+        <v>7</v>
+      </c>
+      <c r="F604">
+        <v>17.59518073213955</v>
+      </c>
+      <c r="G604">
+        <v>4.9450549450549453</v>
+      </c>
+      <c r="H604">
+        <v>0.3</v>
+      </c>
+      <c r="I604">
+        <v>0.1</v>
+      </c>
+      <c r="J604">
+        <v>4</v>
+      </c>
+      <c r="K604">
+        <v>4</v>
+      </c>
+      <c r="L604">
+        <v>2</v>
+      </c>
+      <c r="M604">
+        <v>0.36</v>
+      </c>
+      <c r="N604">
+        <v>1.5</v>
+      </c>
+      <c r="O604">
+        <v>0.46</v>
+      </c>
+      <c r="P604">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="605" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A605" s="1">
+        <v>43006.605567129627</v>
+      </c>
+      <c r="B605" t="s">
+        <v>18</v>
+      </c>
+      <c r="C605">
+        <v>1</v>
+      </c>
+      <c r="D605">
+        <v>1</v>
+      </c>
+      <c r="E605">
+        <v>7</v>
+      </c>
+      <c r="F605">
+        <v>17.697688200878947</v>
+      </c>
+      <c r="G605">
+        <v>4.7172827172827176</v>
+      </c>
+      <c r="H605">
+        <v>0.3</v>
+      </c>
+      <c r="I605">
+        <v>0.1</v>
+      </c>
+      <c r="J605">
+        <v>4</v>
+      </c>
+      <c r="K605">
+        <v>4</v>
+      </c>
+      <c r="L605">
+        <v>2</v>
+      </c>
+      <c r="M605">
+        <v>0.36</v>
+      </c>
+      <c r="N605">
+        <v>1.5</v>
+      </c>
+      <c r="O605">
+        <v>0.46</v>
+      </c>
+      <c r="P605">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="606" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A606" s="1">
+        <v>43006.605798611112</v>
+      </c>
+      <c r="B606" t="s">
+        <v>16</v>
+      </c>
+      <c r="C606">
+        <v>1</v>
+      </c>
+      <c r="D606">
+        <v>1</v>
+      </c>
+      <c r="E606">
+        <v>7</v>
+      </c>
+      <c r="F606">
+        <v>17.325315292581728</v>
+      </c>
+      <c r="G606">
+        <v>4.9530469530469539</v>
+      </c>
+      <c r="H606">
+        <v>0.3</v>
+      </c>
+      <c r="I606">
+        <v>0.1</v>
+      </c>
+      <c r="J606">
+        <v>4</v>
+      </c>
+      <c r="K606">
+        <v>4</v>
+      </c>
+      <c r="L606">
+        <v>2</v>
+      </c>
+      <c r="M606">
+        <v>0.36</v>
+      </c>
+      <c r="N606">
+        <v>1.5</v>
+      </c>
+      <c r="O606">
+        <v>0.46</v>
+      </c>
+      <c r="P606">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="607" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A607" s="1">
+        <v>43006.606041666666</v>
+      </c>
+      <c r="B607" t="s">
+        <v>18</v>
+      </c>
+      <c r="C607">
+        <v>0</v>
+      </c>
+      <c r="D607">
+        <v>1</v>
+      </c>
+      <c r="E607">
+        <v>7</v>
+      </c>
+      <c r="F607">
+        <v>17.499711996581699</v>
+      </c>
+      <c r="G607">
+        <v>4.9510489510489508</v>
+      </c>
+      <c r="H607">
+        <v>0.3</v>
+      </c>
+      <c r="I607">
+        <v>0.1</v>
+      </c>
+      <c r="J607">
+        <v>4</v>
+      </c>
+      <c r="K607">
+        <v>4</v>
+      </c>
+      <c r="L607">
+        <v>2</v>
+      </c>
+      <c r="M607">
+        <v>0.36</v>
+      </c>
+      <c r="N607">
+        <v>1.5</v>
+      </c>
+      <c r="O607">
+        <v>0.46</v>
+      </c>
+      <c r="P607">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="608" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A608" s="1">
+        <v>43006.60628472222</v>
+      </c>
+      <c r="B608" t="s">
+        <v>16</v>
+      </c>
+      <c r="C608">
+        <v>0</v>
+      </c>
+      <c r="D608">
+        <v>1</v>
+      </c>
+      <c r="E608">
+        <v>7</v>
+      </c>
+      <c r="F608">
+        <v>17.572991835798714</v>
+      </c>
+      <c r="G608">
+        <v>4.9390609390609388</v>
+      </c>
+      <c r="H608">
+        <v>0.3</v>
+      </c>
+      <c r="I608">
+        <v>0.1</v>
+      </c>
+      <c r="J608">
+        <v>4</v>
+      </c>
+      <c r="K608">
+        <v>4</v>
+      </c>
+      <c r="L608">
+        <v>2</v>
+      </c>
+      <c r="M608">
+        <v>0.36</v>
+      </c>
+      <c r="N608">
+        <v>1.5</v>
+      </c>
+      <c r="O608">
+        <v>0.46</v>
+      </c>
+      <c r="P608">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="609" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A609" s="1">
+        <v>43006.606527777774</v>
+      </c>
+      <c r="B609" t="s">
+        <v>18</v>
+      </c>
+      <c r="C609">
+        <v>1</v>
+      </c>
+      <c r="D609">
+        <v>1</v>
+      </c>
+      <c r="E609">
+        <v>7</v>
+      </c>
+      <c r="F609">
+        <v>17.487636002058402</v>
+      </c>
+      <c r="G609">
+        <v>4.7392607392607395</v>
+      </c>
+      <c r="H609">
+        <v>0.3</v>
+      </c>
+      <c r="I609">
+        <v>0.1</v>
+      </c>
+      <c r="J609">
+        <v>4</v>
+      </c>
+      <c r="K609">
+        <v>4</v>
+      </c>
+      <c r="L609">
+        <v>2</v>
+      </c>
+      <c r="M609">
+        <v>0.36</v>
+      </c>
+      <c r="N609">
+        <v>1.5</v>
+      </c>
+      <c r="O609">
+        <v>0.46</v>
+      </c>
+      <c r="P609">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="610" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A610" s="1">
+        <v>43006.606770833336</v>
+      </c>
+      <c r="B610" t="s">
+        <v>16</v>
+      </c>
+      <c r="C610">
+        <v>1</v>
+      </c>
+      <c r="D610">
+        <v>1</v>
+      </c>
+      <c r="E610">
+        <v>7</v>
+      </c>
+      <c r="F610">
+        <v>17.392735277684228</v>
+      </c>
+      <c r="G610">
+        <v>4.9550449550449551</v>
+      </c>
+      <c r="H610">
+        <v>0.3</v>
+      </c>
+      <c r="I610">
+        <v>0.1</v>
+      </c>
+      <c r="J610">
+        <v>4</v>
+      </c>
+      <c r="K610">
+        <v>4</v>
+      </c>
+      <c r="L610">
+        <v>2</v>
+      </c>
+      <c r="M610">
+        <v>0.36</v>
+      </c>
+      <c r="N610">
+        <v>1.5</v>
+      </c>
+      <c r="O610">
+        <v>0.46</v>
+      </c>
+      <c r="P610">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="611" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A611" s="1">
+        <v>43006.618935185186</v>
+      </c>
+      <c r="B611" t="s">
+        <v>18</v>
+      </c>
+      <c r="C611">
+        <v>0</v>
+      </c>
+      <c r="D611">
+        <v>1</v>
+      </c>
+      <c r="E611">
+        <v>7</v>
+      </c>
+      <c r="F611">
+        <v>19.226434652008397</v>
+      </c>
+      <c r="G611">
+        <v>4.9530469530469539</v>
+      </c>
+      <c r="H611">
+        <v>0.3</v>
+      </c>
+      <c r="I611">
+        <v>0.1</v>
+      </c>
+      <c r="J611">
+        <v>4</v>
+      </c>
+      <c r="K611">
+        <v>4</v>
+      </c>
+      <c r="L611">
+        <v>2</v>
+      </c>
+      <c r="M611">
+        <v>0.36</v>
+      </c>
+      <c r="N611">
+        <v>1.5</v>
+      </c>
+      <c r="O611">
+        <v>0.46</v>
+      </c>
+      <c r="P611">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="612" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A612" s="1">
+        <v>43006.619189814817</v>
+      </c>
+      <c r="B612" t="s">
+        <v>19</v>
+      </c>
+      <c r="C612">
+        <v>0</v>
+      </c>
+      <c r="D612">
+        <v>1</v>
+      </c>
+      <c r="E612">
+        <v>7</v>
+      </c>
+      <c r="F612">
+        <v>18.589151690009174</v>
+      </c>
+      <c r="G612">
+        <v>4.9690309690309684</v>
+      </c>
+      <c r="H612">
+        <v>0.3</v>
+      </c>
+      <c r="I612">
+        <v>0.1</v>
+      </c>
+      <c r="J612">
+        <v>4</v>
+      </c>
+      <c r="K612">
+        <v>4</v>
+      </c>
+      <c r="L612">
+        <v>2</v>
+      </c>
+      <c r="M612">
+        <v>0.36</v>
+      </c>
+      <c r="N612">
+        <v>1.5</v>
+      </c>
+      <c r="O612">
+        <v>0.46</v>
+      </c>
+      <c r="P612">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="613" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A613" s="1">
+        <v>43006.619444444441</v>
+      </c>
+      <c r="B613" t="s">
+        <v>17</v>
+      </c>
+      <c r="C613">
+        <v>0</v>
+      </c>
+      <c r="D613">
+        <v>1</v>
+      </c>
+      <c r="E613">
+        <v>7</v>
+      </c>
+      <c r="F613">
+        <v>18.600384942714346</v>
+      </c>
+      <c r="G613">
+        <v>4.9550449550449551</v>
+      </c>
+      <c r="H613">
+        <v>0.3</v>
+      </c>
+      <c r="I613">
+        <v>0.1</v>
+      </c>
+      <c r="J613">
+        <v>4</v>
+      </c>
+      <c r="K613">
+        <v>4</v>
+      </c>
+      <c r="L613">
+        <v>2</v>
+      </c>
+      <c r="M613">
+        <v>0.36</v>
+      </c>
+      <c r="N613">
+        <v>1.5</v>
+      </c>
+      <c r="O613">
+        <v>0.46</v>
+      </c>
+      <c r="P613">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="614" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A614" s="1">
+        <v>43006.619710648149</v>
+      </c>
+      <c r="B614" t="s">
+        <v>18</v>
+      </c>
+      <c r="C614">
+        <v>1</v>
+      </c>
+      <c r="D614">
+        <v>1</v>
+      </c>
+      <c r="E614">
+        <v>7</v>
+      </c>
+      <c r="F614">
+        <v>18.781380618985072</v>
+      </c>
+      <c r="G614">
+        <v>4.7172827172827176</v>
+      </c>
+      <c r="H614">
+        <v>0.3</v>
+      </c>
+      <c r="I614">
+        <v>0.1</v>
+      </c>
+      <c r="J614">
+        <v>4</v>
+      </c>
+      <c r="K614">
+        <v>4</v>
+      </c>
+      <c r="L614">
+        <v>2</v>
+      </c>
+      <c r="M614">
+        <v>0.36</v>
+      </c>
+      <c r="N614">
+        <v>1.5</v>
+      </c>
+      <c r="O614">
+        <v>0.46</v>
+      </c>
+      <c r="P614">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="615" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A615" s="1">
+        <v>43006.61996527778</v>
+      </c>
+      <c r="B615" t="s">
+        <v>19</v>
+      </c>
+      <c r="C615">
+        <v>1</v>
+      </c>
+      <c r="D615">
+        <v>1</v>
+      </c>
+      <c r="E615">
+        <v>7</v>
+      </c>
+      <c r="F615">
+        <v>18.567251276825814</v>
+      </c>
+      <c r="G615">
+        <v>4.9610389610389607</v>
+      </c>
+      <c r="H615">
+        <v>0.3</v>
+      </c>
+      <c r="I615">
+        <v>0.1</v>
+      </c>
+      <c r="J615">
+        <v>4</v>
+      </c>
+      <c r="K615">
+        <v>4</v>
+      </c>
+      <c r="L615">
+        <v>2</v>
+      </c>
+      <c r="M615">
+        <v>0.36</v>
+      </c>
+      <c r="N615">
+        <v>1.5</v>
+      </c>
+      <c r="O615">
+        <v>0.46</v>
+      </c>
+      <c r="P615">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="616" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A616" s="1">
+        <v>43006.620219907411</v>
+      </c>
+      <c r="B616" t="s">
+        <v>17</v>
+      </c>
+      <c r="C616">
+        <v>1</v>
+      </c>
+      <c r="D616">
+        <v>1</v>
+      </c>
+      <c r="E616">
+        <v>7</v>
+      </c>
+      <c r="F616">
+        <v>18.652761266754492</v>
+      </c>
+      <c r="G616">
+        <v>4.9310689310689311</v>
+      </c>
+      <c r="H616">
+        <v>0.3</v>
+      </c>
+      <c r="I616">
+        <v>0.1</v>
+      </c>
+      <c r="J616">
+        <v>4</v>
+      </c>
+      <c r="K616">
+        <v>4</v>
+      </c>
+      <c r="L616">
+        <v>2</v>
+      </c>
+      <c r="M616">
+        <v>0.36</v>
+      </c>
+      <c r="N616">
+        <v>1.5</v>
+      </c>
+      <c r="O616">
+        <v>0.46</v>
+      </c>
+      <c r="P616">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="617" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A617" s="1">
+        <v>43006.772766203707</v>
+      </c>
+      <c r="B617" t="s">
+        <v>18</v>
+      </c>
+      <c r="C617">
+        <v>0</v>
+      </c>
+      <c r="D617">
+        <v>1</v>
+      </c>
+      <c r="E617">
+        <v>7</v>
+      </c>
+      <c r="F617">
+        <v>24.760828912536834</v>
+      </c>
+      <c r="G617">
+        <v>6.9950049950049946</v>
+      </c>
+      <c r="H617">
+        <v>0.3</v>
+      </c>
+      <c r="I617">
+        <v>0.1</v>
+      </c>
+      <c r="J617">
+        <v>4</v>
+      </c>
+      <c r="K617">
+        <v>4</v>
+      </c>
+      <c r="L617">
+        <v>2</v>
+      </c>
+      <c r="M617">
+        <v>0.36</v>
+      </c>
+      <c r="N617">
+        <v>1.5</v>
+      </c>
+      <c r="O617">
+        <v>0.46</v>
+      </c>
+      <c r="P617">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="618" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A618" s="1">
+        <v>43006.773020833331</v>
+      </c>
+      <c r="B618" t="s">
+        <v>19</v>
+      </c>
+      <c r="C618">
+        <v>0</v>
+      </c>
+      <c r="D618">
+        <v>1</v>
+      </c>
+      <c r="E618">
+        <v>7</v>
+      </c>
+      <c r="F618">
+        <v>19.351065132908541</v>
+      </c>
+      <c r="G618">
+        <v>6.9890109890109891</v>
+      </c>
+      <c r="H618">
+        <v>0.3</v>
+      </c>
+      <c r="I618">
+        <v>0.1</v>
+      </c>
+      <c r="J618">
+        <v>4</v>
+      </c>
+      <c r="K618">
+        <v>4</v>
+      </c>
+      <c r="L618">
+        <v>2</v>
+      </c>
+      <c r="M618">
+        <v>0.36</v>
+      </c>
+      <c r="N618">
+        <v>1.5</v>
+      </c>
+      <c r="O618">
+        <v>0.46</v>
+      </c>
+      <c r="P618">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="619" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A619" s="1">
+        <v>43006.773275462961</v>
+      </c>
+      <c r="B619" t="s">
+        <v>16</v>
+      </c>
+      <c r="C619">
+        <v>0</v>
+      </c>
+      <c r="D619">
+        <v>1</v>
+      </c>
+      <c r="E619">
+        <v>7</v>
+      </c>
+      <c r="F619">
+        <v>18.63481806211599</v>
+      </c>
+      <c r="G619">
+        <v>7.0689310689310689</v>
+      </c>
+      <c r="H619">
+        <v>0.3</v>
+      </c>
+      <c r="I619">
+        <v>0.1</v>
+      </c>
+      <c r="J619">
+        <v>4</v>
+      </c>
+      <c r="K619">
+        <v>4</v>
+      </c>
+      <c r="L619">
+        <v>2</v>
+      </c>
+      <c r="M619">
+        <v>0.36</v>
+      </c>
+      <c r="N619">
+        <v>1.5</v>
+      </c>
+      <c r="O619">
+        <v>0.46</v>
+      </c>
+      <c r="P619">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="620" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A620" s="1">
+        <v>43006.773530092592</v>
+      </c>
+      <c r="B620" t="s">
+        <v>17</v>
+      </c>
+      <c r="C620">
+        <v>0</v>
+      </c>
+      <c r="D620">
+        <v>1</v>
+      </c>
+      <c r="E620">
+        <v>7</v>
+      </c>
+      <c r="F620">
+        <v>18.908284104098282</v>
+      </c>
+      <c r="G620">
+        <v>6.9630369630369637</v>
+      </c>
+      <c r="H620">
+        <v>0.3</v>
+      </c>
+      <c r="I620">
+        <v>0.1</v>
+      </c>
+      <c r="J620">
+        <v>4</v>
+      </c>
+      <c r="K620">
+        <v>4</v>
+      </c>
+      <c r="L620">
+        <v>2</v>
+      </c>
+      <c r="M620">
+        <v>0.36</v>
+      </c>
+      <c r="N620">
+        <v>1.5</v>
+      </c>
+      <c r="O620">
+        <v>0.46</v>
+      </c>
+      <c r="P620">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="621" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A621" s="1">
+        <v>43006.773784722223</v>
+      </c>
+      <c r="B621" t="s">
+        <v>18</v>
+      </c>
+      <c r="C621">
+        <v>1</v>
+      </c>
+      <c r="D621">
+        <v>1</v>
+      </c>
+      <c r="E621">
+        <v>7</v>
+      </c>
+      <c r="F621">
+        <v>18.786868195499469</v>
+      </c>
+      <c r="G621">
+        <v>6.6973026973026979</v>
+      </c>
+      <c r="H621">
+        <v>0.3</v>
+      </c>
+      <c r="I621">
+        <v>0.1</v>
+      </c>
+      <c r="J621">
+        <v>4</v>
+      </c>
+      <c r="K621">
+        <v>4</v>
+      </c>
+      <c r="L621">
+        <v>2</v>
+      </c>
+      <c r="M621">
+        <v>0.36</v>
+      </c>
+      <c r="N621">
+        <v>1.5</v>
+      </c>
+      <c r="O621">
+        <v>0.46</v>
+      </c>
+      <c r="P621">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="622" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A622" s="1">
+        <v>43006.774039351854</v>
+      </c>
+      <c r="B622" t="s">
+        <v>19</v>
+      </c>
+      <c r="C622">
+        <v>1</v>
+      </c>
+      <c r="D622">
+        <v>1</v>
+      </c>
+      <c r="E622">
+        <v>7</v>
+      </c>
+      <c r="F622">
+        <v>18.376815932713701</v>
+      </c>
+      <c r="G622">
+        <v>6.9550449550449551</v>
+      </c>
+      <c r="H622">
+        <v>0.3</v>
+      </c>
+      <c r="I622">
+        <v>0.1</v>
+      </c>
+      <c r="J622">
+        <v>4</v>
+      </c>
+      <c r="K622">
+        <v>4</v>
+      </c>
+      <c r="L622">
+        <v>2</v>
+      </c>
+      <c r="M622">
+        <v>0.36</v>
+      </c>
+      <c r="N622">
+        <v>1.5</v>
+      </c>
+      <c r="O622">
+        <v>0.46</v>
+      </c>
+      <c r="P622">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="623" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A623" s="1">
+        <v>43006.774282407408</v>
+      </c>
+      <c r="B623" t="s">
+        <v>16</v>
+      </c>
+      <c r="C623">
+        <v>1</v>
+      </c>
+      <c r="D623">
+        <v>1</v>
+      </c>
+      <c r="E623">
+        <v>7</v>
+      </c>
+      <c r="F623">
+        <v>18.293402083155431</v>
+      </c>
+      <c r="G623">
+        <v>7.0949050949050951</v>
+      </c>
+      <c r="H623">
+        <v>0.3</v>
+      </c>
+      <c r="I623">
+        <v>0.1</v>
+      </c>
+      <c r="J623">
+        <v>4</v>
+      </c>
+      <c r="K623">
+        <v>4</v>
+      </c>
+      <c r="L623">
+        <v>2</v>
+      </c>
+      <c r="M623">
+        <v>0.36</v>
+      </c>
+      <c r="N623">
+        <v>1.5</v>
+      </c>
+      <c r="O623">
+        <v>0.46</v>
+      </c>
+      <c r="P623">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="624" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A624" s="1">
+        <v>43006.774537037039</v>
+      </c>
+      <c r="B624" t="s">
+        <v>17</v>
+      </c>
+      <c r="C624">
+        <v>1</v>
+      </c>
+      <c r="D624">
+        <v>1</v>
+      </c>
+      <c r="E624">
+        <v>7</v>
+      </c>
+      <c r="F624">
+        <v>18.207247323775011</v>
+      </c>
+      <c r="G624">
+        <v>6.9950049950049946</v>
+      </c>
+      <c r="H624">
+        <v>0.3</v>
+      </c>
+      <c r="I624">
+        <v>0.1</v>
+      </c>
+      <c r="J624">
+        <v>4</v>
+      </c>
+      <c r="K624">
+        <v>4</v>
+      </c>
+      <c r="L624">
+        <v>2</v>
+      </c>
+      <c r="M624">
+        <v>0.36</v>
+      </c>
+      <c r="N624">
+        <v>1.5</v>
+      </c>
+      <c r="O624">
+        <v>0.46</v>
+      </c>
+      <c r="P624">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="625" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A625" s="1">
+        <v>43006.774780092594</v>
+      </c>
+      <c r="B625" t="s">
+        <v>18</v>
+      </c>
+      <c r="C625">
+        <v>0</v>
+      </c>
+      <c r="D625">
+        <v>1</v>
+      </c>
+      <c r="E625">
+        <v>7</v>
+      </c>
+      <c r="F625">
+        <v>18.114408518376727</v>
+      </c>
+      <c r="G625">
+        <v>6.9870129870129869</v>
+      </c>
+      <c r="H625">
+        <v>0.3</v>
+      </c>
+      <c r="I625">
+        <v>0.1</v>
+      </c>
+      <c r="J625">
+        <v>4</v>
+      </c>
+      <c r="K625">
+        <v>4</v>
+      </c>
+      <c r="L625">
+        <v>2</v>
+      </c>
+      <c r="M625">
+        <v>0.36</v>
+      </c>
+      <c r="N625">
+        <v>1.5</v>
+      </c>
+      <c r="O625">
+        <v>0.46</v>
+      </c>
+      <c r="P625">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="626" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A626" s="1">
+        <v>43006.775034722225</v>
+      </c>
+      <c r="B626" t="s">
+        <v>19</v>
+      </c>
+      <c r="C626">
+        <v>0</v>
+      </c>
+      <c r="D626">
+        <v>1</v>
+      </c>
+      <c r="E626">
+        <v>7</v>
+      </c>
+      <c r="F626">
+        <v>18.285648218776416</v>
+      </c>
+      <c r="G626">
+        <v>6.9330669330669332</v>
+      </c>
+      <c r="H626">
+        <v>0.3</v>
+      </c>
+      <c r="I626">
+        <v>0.1</v>
+      </c>
+      <c r="J626">
+        <v>4</v>
+      </c>
+      <c r="K626">
+        <v>4</v>
+      </c>
+      <c r="L626">
+        <v>2</v>
+      </c>
+      <c r="M626">
+        <v>0.36</v>
+      </c>
+      <c r="N626">
+        <v>1.5</v>
+      </c>
+      <c r="O626">
+        <v>0.46</v>
+      </c>
+      <c r="P626">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="627" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A627" s="1">
+        <v>43006.775277777779</v>
+      </c>
+      <c r="B627" t="s">
+        <v>16</v>
+      </c>
+      <c r="C627">
+        <v>0</v>
+      </c>
+      <c r="D627">
+        <v>1</v>
+      </c>
+      <c r="E627">
+        <v>7</v>
+      </c>
+      <c r="F627">
+        <v>18.26536548609252</v>
+      </c>
+      <c r="G627">
+        <v>7.0309690309690316</v>
+      </c>
+      <c r="H627">
+        <v>0.3</v>
+      </c>
+      <c r="I627">
+        <v>0.1</v>
+      </c>
+      <c r="J627">
+        <v>4</v>
+      </c>
+      <c r="K627">
+        <v>4</v>
+      </c>
+      <c r="L627">
+        <v>2</v>
+      </c>
+      <c r="M627">
+        <v>0.36</v>
+      </c>
+      <c r="N627">
+        <v>1.5</v>
+      </c>
+      <c r="O627">
+        <v>0.46</v>
+      </c>
+      <c r="P627">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="628" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A628" s="1">
+        <v>43006.775520833333</v>
+      </c>
+      <c r="B628" t="s">
+        <v>17</v>
+      </c>
+      <c r="C628">
+        <v>0</v>
+      </c>
+      <c r="D628">
+        <v>1</v>
+      </c>
+      <c r="E628">
+        <v>7</v>
+      </c>
+      <c r="F628">
+        <v>17.829097716153683</v>
+      </c>
+      <c r="G628">
+        <v>6.9090909090909083</v>
+      </c>
+      <c r="H628">
+        <v>0.3</v>
+      </c>
+      <c r="I628">
+        <v>0.1</v>
+      </c>
+      <c r="J628">
+        <v>4</v>
+      </c>
+      <c r="K628">
+        <v>4</v>
+      </c>
+      <c r="L628">
+        <v>2</v>
+      </c>
+      <c r="M628">
+        <v>0.36</v>
+      </c>
+      <c r="N628">
+        <v>1.5</v>
+      </c>
+      <c r="O628">
+        <v>0.46</v>
+      </c>
+      <c r="P628">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="629" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A629" s="1">
+        <v>43006.775763888887</v>
+      </c>
+      <c r="B629" t="s">
+        <v>18</v>
+      </c>
+      <c r="C629">
+        <v>1</v>
+      </c>
+      <c r="D629">
+        <v>1</v>
+      </c>
+      <c r="E629">
+        <v>7</v>
+      </c>
+      <c r="F629">
+        <v>18.225853847780041</v>
+      </c>
+      <c r="G629">
+        <v>6.663336663336664</v>
+      </c>
+      <c r="H629">
+        <v>0.3</v>
+      </c>
+      <c r="I629">
+        <v>0.1</v>
+      </c>
+      <c r="J629">
+        <v>4</v>
+      </c>
+      <c r="K629">
+        <v>4</v>
+      </c>
+      <c r="L629">
+        <v>2</v>
+      </c>
+      <c r="M629">
+        <v>0.36</v>
+      </c>
+      <c r="N629">
+        <v>1.5</v>
+      </c>
+      <c r="O629">
+        <v>0.46</v>
+      </c>
+      <c r="P629">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="630" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A630" s="1">
+        <v>43006.776018518518</v>
+      </c>
+      <c r="B630" t="s">
+        <v>19</v>
+      </c>
+      <c r="C630">
+        <v>1</v>
+      </c>
+      <c r="D630">
+        <v>1</v>
+      </c>
+      <c r="E630">
+        <v>7</v>
+      </c>
+      <c r="F630">
+        <v>18.077291738027871</v>
+      </c>
+      <c r="G630">
+        <v>6.9310689310689311</v>
+      </c>
+      <c r="H630">
+        <v>0.3</v>
+      </c>
+      <c r="I630">
+        <v>0.1</v>
+      </c>
+      <c r="J630">
+        <v>4</v>
+      </c>
+      <c r="K630">
+        <v>4</v>
+      </c>
+      <c r="L630">
+        <v>2</v>
+      </c>
+      <c r="M630">
+        <v>0.36</v>
+      </c>
+      <c r="N630">
+        <v>1.5</v>
+      </c>
+      <c r="O630">
+        <v>0.46</v>
+      </c>
+      <c r="P630">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="631" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A631" s="1">
+        <v>43006.776261574072</v>
+      </c>
+      <c r="B631" t="s">
+        <v>16</v>
+      </c>
+      <c r="C631">
+        <v>1</v>
+      </c>
+      <c r="D631">
+        <v>1</v>
+      </c>
+      <c r="E631">
+        <v>7</v>
+      </c>
+      <c r="F631">
+        <v>18.302252951115538</v>
+      </c>
+      <c r="G631">
+        <v>7.0489510489510492</v>
+      </c>
+      <c r="H631">
+        <v>0.3</v>
+      </c>
+      <c r="I631">
+        <v>0.1</v>
+      </c>
+      <c r="J631">
+        <v>4</v>
+      </c>
+      <c r="K631">
+        <v>4</v>
+      </c>
+      <c r="L631">
+        <v>2</v>
+      </c>
+      <c r="M631">
+        <v>0.36</v>
+      </c>
+      <c r="N631">
+        <v>1.5</v>
+      </c>
+      <c r="O631">
+        <v>0.46</v>
+      </c>
+      <c r="P631">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="632" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A632" s="1">
+        <v>43006.776516203703</v>
+      </c>
+      <c r="B632" t="s">
+        <v>17</v>
+      </c>
+      <c r="C632">
+        <v>1</v>
+      </c>
+      <c r="D632">
+        <v>1</v>
+      </c>
+      <c r="E632">
+        <v>7</v>
+      </c>
+      <c r="F632">
+        <v>18.371983679912905</v>
+      </c>
+      <c r="G632">
+        <v>6.9350649350649345</v>
+      </c>
+      <c r="H632">
+        <v>0.3</v>
+      </c>
+      <c r="I632">
+        <v>0.1</v>
+      </c>
+      <c r="J632">
+        <v>4</v>
+      </c>
+      <c r="K632">
+        <v>4</v>
+      </c>
+      <c r="L632">
+        <v>2</v>
+      </c>
+      <c r="M632">
+        <v>0.36</v>
+      </c>
+      <c r="N632">
+        <v>1.5</v>
+      </c>
+      <c r="O632">
+        <v>0.46</v>
+      </c>
+      <c r="P632">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="633" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A633" s="1">
+        <v>43006.865659722222</v>
+      </c>
+      <c r="B633" t="s">
+        <v>17</v>
+      </c>
+      <c r="C633">
+        <v>1</v>
+      </c>
+      <c r="D633">
+        <v>1</v>
+      </c>
+      <c r="E633">
+        <v>7</v>
+      </c>
+      <c r="F633">
+        <v>18.581545905122304</v>
+      </c>
+      <c r="G633">
+        <v>6.9950049950049946</v>
+      </c>
+      <c r="H633">
+        <v>0.3</v>
+      </c>
+      <c r="I633">
+        <v>0.1</v>
+      </c>
+      <c r="J633">
+        <v>4</v>
+      </c>
+      <c r="K633">
+        <v>4</v>
+      </c>
+      <c r="L633">
+        <v>2</v>
+      </c>
+      <c r="M633">
+        <v>0.36</v>
+      </c>
+      <c r="N633">
+        <v>1.5</v>
+      </c>
+      <c r="O633">
+        <v>0.46</v>
+      </c>
+      <c r="P633">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="634" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A634" s="1">
+        <v>43006.866053240738</v>
+      </c>
+      <c r="B634" t="s">
+        <v>18</v>
+      </c>
+      <c r="C634">
+        <v>0</v>
+      </c>
+      <c r="D634">
+        <v>1</v>
+      </c>
+      <c r="E634">
+        <v>7</v>
+      </c>
+      <c r="F634">
+        <v>18.867610537502969</v>
+      </c>
+      <c r="G634">
+        <v>6.9950049950049946</v>
+      </c>
+      <c r="H634">
+        <v>0.3</v>
+      </c>
+      <c r="I634">
+        <v>0.1</v>
+      </c>
+      <c r="J634">
+        <v>4</v>
+      </c>
+      <c r="K634">
+        <v>4</v>
+      </c>
+      <c r="L634">
+        <v>2</v>
+      </c>
+      <c r="M634">
+        <v>0.36</v>
+      </c>
+      <c r="N634">
+        <v>1.5</v>
+      </c>
+      <c r="O634">
+        <v>0.46</v>
+      </c>
+      <c r="P634">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="635" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A635" s="1">
+        <v>43006.866307870368</v>
+      </c>
+      <c r="B635" t="s">
+        <v>19</v>
+      </c>
+      <c r="C635">
+        <v>0</v>
+      </c>
+      <c r="D635">
+        <v>1</v>
+      </c>
+      <c r="E635">
+        <v>7</v>
+      </c>
+      <c r="F635">
+        <v>18.779701212045037</v>
+      </c>
+      <c r="G635">
+        <v>6.9890109890109891</v>
+      </c>
+      <c r="H635">
+        <v>0.3</v>
+      </c>
+      <c r="I635">
+        <v>0.1</v>
+      </c>
+      <c r="J635">
+        <v>4</v>
+      </c>
+      <c r="K635">
+        <v>4</v>
+      </c>
+      <c r="L635">
+        <v>2</v>
+      </c>
+      <c r="M635">
+        <v>0.36</v>
+      </c>
+      <c r="N635">
+        <v>1.5</v>
+      </c>
+      <c r="O635">
+        <v>0.46</v>
+      </c>
+      <c r="P635">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="636" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A636" s="1">
+        <v>43006.866574074076</v>
+      </c>
+      <c r="B636" t="s">
+        <v>16</v>
+      </c>
+      <c r="C636">
+        <v>0</v>
+      </c>
+      <c r="D636">
+        <v>1</v>
+      </c>
+      <c r="E636">
+        <v>7</v>
+      </c>
+      <c r="F636">
+        <v>19.41523184674956</v>
+      </c>
+      <c r="G636">
+        <v>7.0689310689310689</v>
+      </c>
+      <c r="H636">
+        <v>0.3</v>
+      </c>
+      <c r="I636">
+        <v>0.1</v>
+      </c>
+      <c r="J636">
+        <v>4</v>
+      </c>
+      <c r="K636">
+        <v>4</v>
+      </c>
+      <c r="L636">
+        <v>2</v>
+      </c>
+      <c r="M636">
+        <v>0.36</v>
+      </c>
+      <c r="N636">
+        <v>1.5</v>
+      </c>
+      <c r="O636">
+        <v>0.46</v>
+      </c>
+      <c r="P636">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="637" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A637" s="1">
+        <v>43006.866840277777</v>
+      </c>
+      <c r="B637" t="s">
+        <v>17</v>
+      </c>
+      <c r="C637">
+        <v>0</v>
+      </c>
+      <c r="D637">
+        <v>1</v>
+      </c>
+      <c r="E637">
+        <v>7</v>
+      </c>
+      <c r="F637">
+        <v>19.559660843592557</v>
+      </c>
+      <c r="G637">
+        <v>6.9630369630369637</v>
+      </c>
+      <c r="H637">
+        <v>0.3</v>
+      </c>
+      <c r="I637">
+        <v>0.1</v>
+      </c>
+      <c r="J637">
+        <v>4</v>
+      </c>
+      <c r="K637">
+        <v>4</v>
+      </c>
+      <c r="L637">
+        <v>2</v>
+      </c>
+      <c r="M637">
+        <v>0.36</v>
+      </c>
+      <c r="N637">
+        <v>1.5</v>
+      </c>
+      <c r="O637">
+        <v>0.46</v>
+      </c>
+      <c r="P637">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="638" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A638" s="1">
+        <v>43006.867118055554</v>
+      </c>
+      <c r="B638" t="s">
+        <v>18</v>
+      </c>
+      <c r="C638">
+        <v>1</v>
+      </c>
+      <c r="D638">
+        <v>1</v>
+      </c>
+      <c r="E638">
+        <v>7</v>
+      </c>
+      <c r="F638">
+        <v>19.712405639302023</v>
+      </c>
+      <c r="G638">
+        <v>6.6973026973026979</v>
+      </c>
+      <c r="H638">
+        <v>0.3</v>
+      </c>
+      <c r="I638">
+        <v>0.1</v>
+      </c>
+      <c r="J638">
+        <v>4</v>
+      </c>
+      <c r="K638">
+        <v>4</v>
+      </c>
+      <c r="L638">
+        <v>2</v>
+      </c>
+      <c r="M638">
+        <v>0.36</v>
+      </c>
+      <c r="N638">
+        <v>1.5</v>
+      </c>
+      <c r="O638">
+        <v>0.46</v>
+      </c>
+      <c r="P638">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="639" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A639" s="1">
+        <v>43006.867384259262</v>
+      </c>
+      <c r="B639" t="s">
+        <v>19</v>
+      </c>
+      <c r="C639">
+        <v>1</v>
+      </c>
+      <c r="D639">
+        <v>1</v>
+      </c>
+      <c r="E639">
+        <v>7</v>
+      </c>
+      <c r="F639">
+        <v>19.712973330659587</v>
+      </c>
+      <c r="G639">
+        <v>6.9550449550449551</v>
+      </c>
+      <c r="H639">
+        <v>0.3</v>
+      </c>
+      <c r="I639">
+        <v>0.1</v>
+      </c>
+      <c r="J639">
+        <v>4</v>
+      </c>
+      <c r="K639">
+        <v>4</v>
+      </c>
+      <c r="L639">
+        <v>2</v>
+      </c>
+      <c r="M639">
+        <v>0.36</v>
+      </c>
+      <c r="N639">
+        <v>1.5</v>
+      </c>
+      <c r="O639">
+        <v>0.46</v>
+      </c>
+      <c r="P639">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="640" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A640" s="1">
+        <v>43006.867650462962</v>
+      </c>
+      <c r="B640" t="s">
+        <v>16</v>
+      </c>
+      <c r="C640">
+        <v>1</v>
+      </c>
+      <c r="D640">
+        <v>1</v>
+      </c>
+      <c r="E640">
+        <v>7</v>
+      </c>
+      <c r="F640">
+        <v>19.464644022337936</v>
+      </c>
+      <c r="G640">
+        <v>7.0949050949050951</v>
+      </c>
+      <c r="H640">
+        <v>0.3</v>
+      </c>
+      <c r="I640">
+        <v>0.1</v>
+      </c>
+      <c r="J640">
+        <v>4</v>
+      </c>
+      <c r="K640">
+        <v>4</v>
+      </c>
+      <c r="L640">
+        <v>2</v>
+      </c>
+      <c r="M640">
+        <v>0.36</v>
+      </c>
+      <c r="N640">
+        <v>1.5</v>
+      </c>
+      <c r="O640">
+        <v>0.46</v>
+      </c>
+      <c r="P640">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="641" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A641" s="1">
+        <v>43006.867905092593</v>
+      </c>
+      <c r="B641" t="s">
+        <v>17</v>
+      </c>
+      <c r="C641">
+        <v>1</v>
+      </c>
+      <c r="D641">
+        <v>1</v>
+      </c>
+      <c r="E641">
+        <v>7</v>
+      </c>
+      <c r="F641">
+        <v>19.396579587609807</v>
+      </c>
+      <c r="G641">
+        <v>6.9950049950049946</v>
+      </c>
+      <c r="H641">
+        <v>0.3</v>
+      </c>
+      <c r="I641">
+        <v>0.1</v>
+      </c>
+      <c r="J641">
+        <v>4</v>
+      </c>
+      <c r="K641">
+        <v>4</v>
+      </c>
+      <c r="L641">
+        <v>2</v>
+      </c>
+      <c r="M641">
+        <v>0.36</v>
+      </c>
+      <c r="N641">
+        <v>1.5</v>
+      </c>
+      <c r="O641">
+        <v>0.46</v>
+      </c>
+      <c r="P641">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="642" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A642" s="1">
+        <v>43006.868171296293</v>
+      </c>
+      <c r="B642" t="s">
+        <v>18</v>
+      </c>
+      <c r="C642">
+        <v>0</v>
+      </c>
+      <c r="D642">
+        <v>1</v>
+      </c>
+      <c r="E642">
+        <v>7</v>
+      </c>
+      <c r="F642">
+        <v>19.405772669515038</v>
+      </c>
+      <c r="G642">
+        <v>6.9870129870129869</v>
+      </c>
+      <c r="H642">
+        <v>0.3</v>
+      </c>
+      <c r="I642">
+        <v>0.1</v>
+      </c>
+      <c r="J642">
+        <v>4</v>
+      </c>
+      <c r="K642">
+        <v>4</v>
+      </c>
+      <c r="L642">
+        <v>2</v>
+      </c>
+      <c r="M642">
+        <v>0.36</v>
+      </c>
+      <c r="N642">
+        <v>1.5</v>
+      </c>
+      <c r="O642">
+        <v>0.46</v>
+      </c>
+      <c r="P642">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="643" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A643" s="1">
+        <v>43006.868414351855</v>
+      </c>
+      <c r="B643" t="s">
+        <v>19</v>
+      </c>
+      <c r="C643">
+        <v>0</v>
+      </c>
+      <c r="D643">
+        <v>1</v>
+      </c>
+      <c r="E643">
+        <v>7</v>
+      </c>
+      <c r="F643">
+        <v>18.641192516452655</v>
+      </c>
+      <c r="G643">
+        <v>6.9330669330669332</v>
+      </c>
+      <c r="H643">
+        <v>0.3</v>
+      </c>
+      <c r="I643">
+        <v>0.1</v>
+      </c>
+      <c r="J643">
+        <v>4</v>
+      </c>
+      <c r="K643">
+        <v>4</v>
+      </c>
+      <c r="L643">
+        <v>2</v>
+      </c>
+      <c r="M643">
+        <v>0.36</v>
+      </c>
+      <c r="N643">
+        <v>1.5</v>
+      </c>
+      <c r="O643">
+        <v>0.46</v>
+      </c>
+      <c r="P643">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="644" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A644" s="1">
+        <v>43006.868692129632</v>
+      </c>
+      <c r="B644" t="s">
+        <v>16</v>
+      </c>
+      <c r="C644">
+        <v>0</v>
+      </c>
+      <c r="D644">
+        <v>1</v>
+      </c>
+      <c r="E644">
+        <v>7</v>
+      </c>
+      <c r="F644">
+        <v>19.920189311475138</v>
+      </c>
+      <c r="G644">
+        <v>7.0309690309690316</v>
+      </c>
+      <c r="H644">
+        <v>0.3</v>
+      </c>
+      <c r="I644">
+        <v>0.1</v>
+      </c>
+      <c r="J644">
+        <v>4</v>
+      </c>
+      <c r="K644">
+        <v>4</v>
+      </c>
+      <c r="L644">
+        <v>2</v>
+      </c>
+      <c r="M644">
+        <v>0.36</v>
+      </c>
+      <c r="N644">
+        <v>1.5</v>
+      </c>
+      <c r="O644">
+        <v>0.46</v>
+      </c>
+      <c r="P644">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="645" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A645" s="1">
+        <v>43006.868946759256</v>
+      </c>
+      <c r="B645" t="s">
+        <v>17</v>
+      </c>
+      <c r="C645">
+        <v>0</v>
+      </c>
+      <c r="D645">
+        <v>1</v>
+      </c>
+      <c r="E645">
+        <v>7</v>
+      </c>
+      <c r="F645">
+        <v>18.634578192528288</v>
+      </c>
+      <c r="G645">
+        <v>6.9090909090909083</v>
+      </c>
+      <c r="H645">
+        <v>0.3</v>
+      </c>
+      <c r="I645">
+        <v>0.1</v>
+      </c>
+      <c r="J645">
+        <v>4</v>
+      </c>
+      <c r="K645">
+        <v>4</v>
+      </c>
+      <c r="L645">
+        <v>2</v>
+      </c>
+      <c r="M645">
+        <v>0.36</v>
+      </c>
+      <c r="N645">
+        <v>1.5</v>
+      </c>
+      <c r="O645">
+        <v>0.46</v>
+      </c>
+      <c r="P645">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="646" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A646" s="1">
+        <v>43006.869201388887</v>
+      </c>
+      <c r="B646" t="s">
+        <v>18</v>
+      </c>
+      <c r="C646">
+        <v>1</v>
+      </c>
+      <c r="D646">
+        <v>1</v>
+      </c>
+      <c r="E646">
+        <v>7</v>
+      </c>
+      <c r="F646">
+        <v>18.965412724409994</v>
+      </c>
+      <c r="G646">
+        <v>6.663336663336664</v>
+      </c>
+      <c r="H646">
+        <v>0.3</v>
+      </c>
+      <c r="I646">
+        <v>0.1</v>
+      </c>
+      <c r="J646">
+        <v>4</v>
+      </c>
+      <c r="K646">
+        <v>4</v>
+      </c>
+      <c r="L646">
+        <v>2</v>
+      </c>
+      <c r="M646">
+        <v>0.36</v>
+      </c>
+      <c r="N646">
+        <v>1.5</v>
+      </c>
+      <c r="O646">
+        <v>0.46</v>
+      </c>
+      <c r="P646">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="647" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A647" s="1">
+        <v>43006.869479166664</v>
+      </c>
+      <c r="B647" t="s">
+        <v>19</v>
+      </c>
+      <c r="C647">
+        <v>1</v>
+      </c>
+      <c r="D647">
+        <v>1</v>
+      </c>
+      <c r="E647">
+        <v>7</v>
+      </c>
+      <c r="F647">
+        <v>19.244417834911516</v>
+      </c>
+      <c r="G647">
+        <v>6.9310689310689311</v>
+      </c>
+      <c r="H647">
+        <v>0.3</v>
+      </c>
+      <c r="I647">
+        <v>0.1</v>
+      </c>
+      <c r="J647">
+        <v>4</v>
+      </c>
+      <c r="K647">
+        <v>4</v>
+      </c>
+      <c r="L647">
+        <v>2</v>
+      </c>
+      <c r="M647">
+        <v>0.36</v>
+      </c>
+      <c r="N647">
+        <v>1.5</v>
+      </c>
+      <c r="O647">
+        <v>0.46</v>
+      </c>
+      <c r="P647">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="648" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A648" s="1">
+        <v>43006.869733796295</v>
+      </c>
+      <c r="B648" t="s">
+        <v>16</v>
+      </c>
+      <c r="C648">
+        <v>1</v>
+      </c>
+      <c r="D648">
+        <v>1</v>
+      </c>
+      <c r="E648">
+        <v>7</v>
+      </c>
+      <c r="F648">
+        <v>19.004975854727302</v>
+      </c>
+      <c r="G648">
+        <v>7.0489510489510492</v>
+      </c>
+      <c r="H648">
+        <v>0.3</v>
+      </c>
+      <c r="I648">
+        <v>0.1</v>
+      </c>
+      <c r="J648">
+        <v>4</v>
+      </c>
+      <c r="K648">
+        <v>4</v>
+      </c>
+      <c r="L648">
+        <v>2</v>
+      </c>
+      <c r="M648">
+        <v>0.36</v>
+      </c>
+      <c r="N648">
+        <v>1.5</v>
+      </c>
+      <c r="O648">
+        <v>0.46</v>
+      </c>
+      <c r="P648">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="649" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A649" s="1">
+        <v>43006.87</v>
+      </c>
+      <c r="B649" t="s">
+        <v>17</v>
+      </c>
+      <c r="C649">
+        <v>1</v>
+      </c>
+      <c r="D649">
+        <v>1</v>
+      </c>
+      <c r="E649">
+        <v>7</v>
+      </c>
+      <c r="F649">
+        <v>19.670197546997649</v>
+      </c>
+      <c r="G649">
+        <v>6.9350649350649345</v>
+      </c>
+      <c r="H649">
+        <v>0.3</v>
+      </c>
+      <c r="I649">
+        <v>0.1</v>
+      </c>
+      <c r="J649">
+        <v>4</v>
+      </c>
+      <c r="K649">
+        <v>4</v>
+      </c>
+      <c r="L649">
+        <v>2</v>
+      </c>
+      <c r="M649">
+        <v>0.36</v>
+      </c>
+      <c r="N649">
+        <v>1.5</v>
+      </c>
+      <c r="O649">
+        <v>0.46</v>
+      </c>
+      <c r="P649">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="650" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A650" s="1">
+        <v>43007.378113425926</v>
+      </c>
+      <c r="B650" t="s">
+        <v>18</v>
+      </c>
+      <c r="C650">
+        <v>0</v>
+      </c>
+      <c r="D650">
+        <v>1</v>
+      </c>
+      <c r="E650">
+        <v>7</v>
+      </c>
+      <c r="F650">
+        <v>36.028555355024579</v>
+      </c>
+      <c r="G650">
+        <v>6.779220779220779</v>
+      </c>
+      <c r="H650">
+        <v>0.3</v>
+      </c>
+      <c r="I650">
+        <v>0.1</v>
+      </c>
+      <c r="J650">
+        <v>4</v>
+      </c>
+      <c r="K650">
+        <v>4</v>
+      </c>
+      <c r="L650">
+        <v>2</v>
+      </c>
+      <c r="M650">
+        <v>0.36</v>
+      </c>
+      <c r="N650">
+        <v>1.5</v>
+      </c>
+      <c r="O650">
+        <v>0.46</v>
+      </c>
+      <c r="P650">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="651" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A651" s="1">
+        <v>43007.378379629627</v>
+      </c>
+      <c r="B651" t="s">
+        <v>19</v>
+      </c>
+      <c r="C651">
+        <v>0</v>
+      </c>
+      <c r="D651">
+        <v>1</v>
+      </c>
+      <c r="E651">
+        <v>7</v>
+      </c>
+      <c r="F651">
+        <v>19.640739642671072</v>
+      </c>
+      <c r="G651">
+        <v>6.8111888111888117</v>
+      </c>
+      <c r="H651">
+        <v>0.3</v>
+      </c>
+      <c r="I651">
+        <v>0.1</v>
+      </c>
+      <c r="J651">
+        <v>4</v>
+      </c>
+      <c r="K651">
+        <v>4</v>
+      </c>
+      <c r="L651">
+        <v>2</v>
+      </c>
+      <c r="M651">
+        <v>0.36</v>
+      </c>
+      <c r="N651">
+        <v>1.5</v>
+      </c>
+      <c r="O651">
+        <v>0.46</v>
+      </c>
+      <c r="P651">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="652" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A652" s="1">
+        <v>43007.378634259258</v>
+      </c>
+      <c r="B652" t="s">
+        <v>16</v>
+      </c>
+      <c r="C652">
+        <v>0</v>
+      </c>
+      <c r="D652">
+        <v>1</v>
+      </c>
+      <c r="E652">
+        <v>7</v>
+      </c>
+      <c r="F652">
+        <v>18.770887124088375</v>
+      </c>
+      <c r="G652">
+        <v>6.883116883116883</v>
+      </c>
+      <c r="H652">
+        <v>0.3</v>
+      </c>
+      <c r="I652">
+        <v>0.1</v>
+      </c>
+      <c r="J652">
+        <v>4</v>
+      </c>
+      <c r="K652">
+        <v>4</v>
+      </c>
+      <c r="L652">
+        <v>2</v>
+      </c>
+      <c r="M652">
+        <v>0.36</v>
+      </c>
+      <c r="N652">
+        <v>1.5</v>
+      </c>
+      <c r="O652">
+        <v>0.46</v>
+      </c>
+      <c r="P652">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="653" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A653" s="1">
+        <v>43007.378888888888</v>
+      </c>
+      <c r="B653" t="s">
+        <v>17</v>
+      </c>
+      <c r="C653">
+        <v>0</v>
+      </c>
+      <c r="D653">
+        <v>1</v>
+      </c>
+      <c r="E653">
+        <v>7</v>
+      </c>
+      <c r="F653">
+        <v>19.156399448747706</v>
+      </c>
+      <c r="G653">
+        <v>6.7892107892107889</v>
+      </c>
+      <c r="H653">
+        <v>0.3</v>
+      </c>
+      <c r="I653">
+        <v>0.1</v>
+      </c>
+      <c r="J653">
+        <v>4</v>
+      </c>
+      <c r="K653">
+        <v>4</v>
+      </c>
+      <c r="L653">
+        <v>2</v>
+      </c>
+      <c r="M653">
+        <v>0.36</v>
+      </c>
+      <c r="N653">
+        <v>1.5</v>
+      </c>
+      <c r="O653">
+        <v>0.46</v>
+      </c>
+      <c r="P653">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="654" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A654" s="1">
+        <v>43007.379143518519</v>
+      </c>
+      <c r="B654" t="s">
+        <v>18</v>
+      </c>
+      <c r="C654">
+        <v>1</v>
+      </c>
+      <c r="D654">
+        <v>1</v>
+      </c>
+      <c r="E654">
+        <v>7</v>
+      </c>
+      <c r="F654">
+        <v>18.709074010641896</v>
+      </c>
+      <c r="G654">
+        <v>6.5094905094905098</v>
+      </c>
+      <c r="H654">
+        <v>0.3</v>
+      </c>
+      <c r="I654">
+        <v>0.1</v>
+      </c>
+      <c r="J654">
+        <v>4</v>
+      </c>
+      <c r="K654">
+        <v>4</v>
+      </c>
+      <c r="L654">
+        <v>2</v>
+      </c>
+      <c r="M654">
+        <v>0.36</v>
+      </c>
+      <c r="N654">
+        <v>1.5</v>
+      </c>
+      <c r="O654">
+        <v>0.46</v>
+      </c>
+      <c r="P654">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="655" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A655" s="1">
+        <v>43007.379386574074</v>
+      </c>
+      <c r="B655" t="s">
+        <v>19</v>
+      </c>
+      <c r="C655">
+        <v>1</v>
+      </c>
+      <c r="D655">
+        <v>1</v>
+      </c>
+      <c r="E655">
+        <v>7</v>
+      </c>
+      <c r="F655">
+        <v>18.429344493985511</v>
+      </c>
+      <c r="G655">
+        <v>6.8311688311688306</v>
+      </c>
+      <c r="H655">
+        <v>0.3</v>
+      </c>
+      <c r="I655">
+        <v>0.1</v>
+      </c>
+      <c r="J655">
+        <v>4</v>
+      </c>
+      <c r="K655">
+        <v>4</v>
+      </c>
+      <c r="L655">
+        <v>2</v>
+      </c>
+      <c r="M655">
+        <v>0.36</v>
+      </c>
+      <c r="N655">
+        <v>1.5</v>
+      </c>
+      <c r="O655">
+        <v>0.46</v>
+      </c>
+      <c r="P655">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="656" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A656" s="1">
+        <v>43007.379641203705</v>
+      </c>
+      <c r="B656" t="s">
+        <v>16</v>
+      </c>
+      <c r="C656">
+        <v>1</v>
+      </c>
+      <c r="D656">
+        <v>1</v>
+      </c>
+      <c r="E656">
+        <v>7</v>
+      </c>
+      <c r="F656">
+        <v>18.64409781689891</v>
+      </c>
+      <c r="G656">
+        <v>6.9290709290709298</v>
+      </c>
+      <c r="H656">
+        <v>0.3</v>
+      </c>
+      <c r="I656">
+        <v>0.1</v>
+      </c>
+      <c r="J656">
+        <v>4</v>
+      </c>
+      <c r="K656">
+        <v>4</v>
+      </c>
+      <c r="L656">
+        <v>2</v>
+      </c>
+      <c r="M656">
+        <v>0.36</v>
+      </c>
+      <c r="N656">
+        <v>1.5</v>
+      </c>
+      <c r="O656">
+        <v>0.46</v>
+      </c>
+      <c r="P656">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="657" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A657" s="1">
+        <v>43007.379884259259</v>
+      </c>
+      <c r="B657" t="s">
+        <v>17</v>
+      </c>
+      <c r="C657">
+        <v>1</v>
+      </c>
+      <c r="D657">
+        <v>1</v>
+      </c>
+      <c r="E657">
+        <v>7</v>
+      </c>
+      <c r="F657">
+        <v>18.51771276992125</v>
+      </c>
+      <c r="G657">
+        <v>6.8471528471528469</v>
+      </c>
+      <c r="H657">
+        <v>0.3</v>
+      </c>
+      <c r="I657">
+        <v>0.1</v>
+      </c>
+      <c r="J657">
+        <v>4</v>
+      </c>
+      <c r="K657">
+        <v>4</v>
+      </c>
+      <c r="L657">
+        <v>2</v>
+      </c>
+      <c r="M657">
+        <v>0.36</v>
+      </c>
+      <c r="N657">
+        <v>1.5</v>
+      </c>
+      <c r="O657">
+        <v>0.46</v>
+      </c>
+      <c r="P657">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="658" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A658" s="1">
+        <v>43007.38013888889</v>
+      </c>
+      <c r="B658" t="s">
+        <v>18</v>
+      </c>
+      <c r="C658">
+        <v>0</v>
+      </c>
+      <c r="D658">
+        <v>1</v>
+      </c>
+      <c r="E658">
+        <v>7</v>
+      </c>
+      <c r="F658">
+        <v>18.724969688479767</v>
+      </c>
+      <c r="G658">
+        <v>6.7972027972027966</v>
+      </c>
+      <c r="H658">
+        <v>0.3</v>
+      </c>
+      <c r="I658">
+        <v>0.1</v>
+      </c>
+      <c r="J658">
+        <v>4</v>
+      </c>
+      <c r="K658">
+        <v>4</v>
+      </c>
+      <c r="L658">
+        <v>2</v>
+      </c>
+      <c r="M658">
+        <v>0.36</v>
+      </c>
+      <c r="N658">
+        <v>1.5</v>
+      </c>
+      <c r="O658">
+        <v>0.46</v>
+      </c>
+      <c r="P658">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="659" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A659" s="1">
+        <v>43007.380393518521</v>
+      </c>
+      <c r="B659" t="s">
+        <v>19</v>
+      </c>
+      <c r="C659">
+        <v>0</v>
+      </c>
+      <c r="D659">
+        <v>1</v>
+      </c>
+      <c r="E659">
+        <v>7</v>
+      </c>
+      <c r="F659">
+        <v>18.24880968714929</v>
+      </c>
+      <c r="G659">
+        <v>6.7932067932067932</v>
+      </c>
+      <c r="H659">
+        <v>0.3</v>
+      </c>
+      <c r="I659">
+        <v>0.1</v>
+      </c>
+      <c r="J659">
+        <v>4</v>
+      </c>
+      <c r="K659">
+        <v>4</v>
+      </c>
+      <c r="L659">
+        <v>2</v>
+      </c>
+      <c r="M659">
+        <v>0.36</v>
+      </c>
+      <c r="N659">
+        <v>1.5</v>
+      </c>
+      <c r="O659">
+        <v>0.46</v>
+      </c>
+      <c r="P659">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="660" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A660" s="1">
+        <v>43007.380636574075</v>
+      </c>
+      <c r="B660" t="s">
+        <v>16</v>
+      </c>
+      <c r="C660">
+        <v>0</v>
+      </c>
+      <c r="D660">
+        <v>1</v>
+      </c>
+      <c r="E660">
+        <v>7</v>
+      </c>
+      <c r="F660">
+        <v>18.454889005945248</v>
+      </c>
+      <c r="G660">
+        <v>6.8651348651348645</v>
+      </c>
+      <c r="H660">
+        <v>0.3</v>
+      </c>
+      <c r="I660">
+        <v>0.1</v>
+      </c>
+      <c r="J660">
+        <v>4</v>
+      </c>
+      <c r="K660">
+        <v>4</v>
+      </c>
+      <c r="L660">
+        <v>2</v>
+      </c>
+      <c r="M660">
+        <v>0.36</v>
+      </c>
+      <c r="N660">
+        <v>1.5</v>
+      </c>
+      <c r="O660">
+        <v>0.46</v>
+      </c>
+      <c r="P660">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="661" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A661" s="1">
+        <v>43007.380891203706</v>
+      </c>
+      <c r="B661" t="s">
+        <v>17</v>
+      </c>
+      <c r="C661">
+        <v>0</v>
+      </c>
+      <c r="D661">
+        <v>1</v>
+      </c>
+      <c r="E661">
+        <v>7</v>
+      </c>
+      <c r="F661">
+        <v>18.232663585461857</v>
+      </c>
+      <c r="G661">
+        <v>6.7612387612387614</v>
+      </c>
+      <c r="H661">
+        <v>0.3</v>
+      </c>
+      <c r="I661">
+        <v>0.1</v>
+      </c>
+      <c r="J661">
+        <v>4</v>
+      </c>
+      <c r="K661">
+        <v>4</v>
+      </c>
+      <c r="L661">
+        <v>2</v>
+      </c>
+      <c r="M661">
+        <v>0.36</v>
+      </c>
+      <c r="N661">
+        <v>1.5</v>
+      </c>
+      <c r="O661">
+        <v>0.46</v>
+      </c>
+      <c r="P661">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="662" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A662" s="1">
+        <v>43007.38113425926</v>
+      </c>
+      <c r="B662" t="s">
+        <v>18</v>
+      </c>
+      <c r="C662">
+        <v>1</v>
+      </c>
+      <c r="D662">
+        <v>1</v>
+      </c>
+      <c r="E662">
+        <v>7</v>
+      </c>
+      <c r="F662">
+        <v>18.351454041466734</v>
+      </c>
+      <c r="G662">
+        <v>6.5154845154845153</v>
+      </c>
+      <c r="H662">
+        <v>0.3</v>
+      </c>
+      <c r="I662">
+        <v>0.1</v>
+      </c>
+      <c r="J662">
+        <v>4</v>
+      </c>
+      <c r="K662">
+        <v>4</v>
+      </c>
+      <c r="L662">
+        <v>2</v>
+      </c>
+      <c r="M662">
+        <v>0.36</v>
+      </c>
+      <c r="N662">
+        <v>1.5</v>
+      </c>
+      <c r="O662">
+        <v>0.46</v>
+      </c>
+      <c r="P662">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="663" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A663" s="1">
+        <v>43007.381377314814</v>
+      </c>
+      <c r="B663" t="s">
+        <v>19</v>
+      </c>
+      <c r="C663">
+        <v>1</v>
+      </c>
+      <c r="D663">
+        <v>1</v>
+      </c>
+      <c r="E663">
+        <v>7</v>
+      </c>
+      <c r="F663">
+        <v>18.247395096234079</v>
+      </c>
+      <c r="G663">
+        <v>6.8471528471528469</v>
+      </c>
+      <c r="H663">
+        <v>0.3</v>
+      </c>
+      <c r="I663">
+        <v>0.1</v>
+      </c>
+      <c r="J663">
+        <v>4</v>
+      </c>
+      <c r="K663">
+        <v>4</v>
+      </c>
+      <c r="L663">
+        <v>2</v>
+      </c>
+      <c r="M663">
+        <v>0.36</v>
+      </c>
+      <c r="N663">
+        <v>1.5</v>
+      </c>
+      <c r="O663">
+        <v>0.46</v>
+      </c>
+      <c r="P663">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="664" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A664" s="1">
+        <v>43007.381631944445</v>
+      </c>
+      <c r="B664" t="s">
+        <v>16</v>
+      </c>
+      <c r="C664">
+        <v>1</v>
+      </c>
+      <c r="D664">
+        <v>1</v>
+      </c>
+      <c r="E664">
+        <v>7</v>
+      </c>
+      <c r="F664">
+        <v>18.425062981758078</v>
+      </c>
+      <c r="G664">
+        <v>6.9330669330669332</v>
+      </c>
+      <c r="H664">
+        <v>0.3</v>
+      </c>
+      <c r="I664">
+        <v>0.1</v>
+      </c>
+      <c r="J664">
+        <v>4</v>
+      </c>
+      <c r="K664">
+        <v>4</v>
+      </c>
+      <c r="L664">
+        <v>2</v>
+      </c>
+      <c r="M664">
+        <v>0.36</v>
+      </c>
+      <c r="N664">
+        <v>1.5</v>
+      </c>
+      <c r="O664">
+        <v>0.46</v>
+      </c>
+      <c r="P664">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="665" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A665" s="1">
+        <v>43007.381874999999</v>
+      </c>
+      <c r="B665" t="s">
+        <v>17</v>
+      </c>
+      <c r="C665">
+        <v>1</v>
+      </c>
+      <c r="D665">
+        <v>1</v>
+      </c>
+      <c r="E665">
+        <v>7</v>
+      </c>
+      <c r="F665">
+        <v>18.287470268164604</v>
+      </c>
+      <c r="G665">
+        <v>6.8311688311688306</v>
+      </c>
+      <c r="H665">
+        <v>0.3</v>
+      </c>
+      <c r="I665">
+        <v>0.1</v>
+      </c>
+      <c r="J665">
+        <v>4</v>
+      </c>
+      <c r="K665">
+        <v>4</v>
+      </c>
+      <c r="L665">
+        <v>2</v>
+      </c>
+      <c r="M665">
+        <v>0.36</v>
+      </c>
+      <c r="N665">
+        <v>1.5</v>
+      </c>
+      <c r="O665">
+        <v>0.46</v>
+      </c>
+      <c r="P665">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="666" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A666" s="1">
+        <v>43007.486157407409</v>
+      </c>
+      <c r="B666" t="s">
+        <v>18</v>
+      </c>
+      <c r="C666">
+        <v>0</v>
+      </c>
+      <c r="D666">
+        <v>1</v>
+      </c>
+      <c r="E666">
+        <v>7</v>
+      </c>
+      <c r="F666">
+        <v>18.59651408722106</v>
+      </c>
+      <c r="G666">
+        <v>5.0029970029970023</v>
+      </c>
+      <c r="H666">
+        <v>0.3</v>
+      </c>
+      <c r="I666">
+        <v>0.1</v>
+      </c>
+      <c r="J666">
+        <v>4</v>
+      </c>
+      <c r="K666">
+        <v>4</v>
+      </c>
+      <c r="L666">
+        <v>2</v>
+      </c>
+      <c r="M666">
+        <v>0.36</v>
+      </c>
+      <c r="N666">
+        <v>1.5</v>
+      </c>
+      <c r="O666">
+        <v>0.46</v>
+      </c>
+      <c r="P666">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="667" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A667" s="1">
+        <v>43007.48641203704</v>
+      </c>
+      <c r="B667" t="s">
+        <v>19</v>
+      </c>
+      <c r="C667">
+        <v>0</v>
+      </c>
+      <c r="D667">
+        <v>1</v>
+      </c>
+      <c r="E667">
+        <v>7</v>
+      </c>
+      <c r="F667">
+        <v>18.466043581425652</v>
+      </c>
+      <c r="G667">
+        <v>4.9990009990009989</v>
+      </c>
+      <c r="H667">
+        <v>0.3</v>
+      </c>
+      <c r="I667">
+        <v>0.1</v>
+      </c>
+      <c r="J667">
+        <v>4</v>
+      </c>
+      <c r="K667">
+        <v>4</v>
+      </c>
+      <c r="L667">
+        <v>2</v>
+      </c>
+      <c r="M667">
+        <v>0.36</v>
+      </c>
+      <c r="N667">
+        <v>1.5</v>
+      </c>
+      <c r="O667">
+        <v>0.46</v>
+      </c>
+      <c r="P667">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="668" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A668" s="1">
+        <v>43007.486666666664</v>
+      </c>
+      <c r="B668" t="s">
+        <v>16</v>
+      </c>
+      <c r="C668">
+        <v>0</v>
+      </c>
+      <c r="D668">
+        <v>1</v>
+      </c>
+      <c r="E668">
+        <v>7</v>
+      </c>
+      <c r="F668">
+        <v>18.84629988367924</v>
+      </c>
+      <c r="G668">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H668">
+        <v>0.3</v>
+      </c>
+      <c r="I668">
+        <v>0.1</v>
+      </c>
+      <c r="J668">
+        <v>4</v>
+      </c>
+      <c r="K668">
+        <v>4</v>
+      </c>
+      <c r="L668">
+        <v>2</v>
+      </c>
+      <c r="M668">
+        <v>0.36</v>
+      </c>
+      <c r="N668">
+        <v>1.5</v>
+      </c>
+      <c r="O668">
+        <v>0.46</v>
+      </c>
+      <c r="P668">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="669" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A669" s="1">
+        <v>43007.486921296295</v>
+      </c>
+      <c r="B669" t="s">
+        <v>17</v>
+      </c>
+      <c r="C669">
+        <v>0</v>
+      </c>
+      <c r="D669">
+        <v>1</v>
+      </c>
+      <c r="E669">
+        <v>7</v>
+      </c>
+      <c r="F669">
+        <v>18.410931464781228</v>
+      </c>
+      <c r="G669">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H669">
+        <v>0.3</v>
+      </c>
+      <c r="I669">
+        <v>0.1</v>
+      </c>
+      <c r="J669">
+        <v>4</v>
+      </c>
+      <c r="K669">
+        <v>4</v>
+      </c>
+      <c r="L669">
+        <v>2</v>
+      </c>
+      <c r="M669">
+        <v>0.36</v>
+      </c>
+      <c r="N669">
+        <v>1.5</v>
+      </c>
+      <c r="O669">
+        <v>0.46</v>
+      </c>
+      <c r="P669">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="670" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A670" s="1">
+        <v>43007.487175925926</v>
+      </c>
+      <c r="B670" t="s">
+        <v>18</v>
+      </c>
+      <c r="C670">
+        <v>1</v>
+      </c>
+      <c r="D670">
+        <v>1</v>
+      </c>
+      <c r="E670">
+        <v>7</v>
+      </c>
+      <c r="F670">
+        <v>18.540336309955002</v>
+      </c>
+      <c r="G670">
+        <v>4.7632367632367636</v>
+      </c>
+      <c r="H670">
+        <v>0.3</v>
+      </c>
+      <c r="I670">
+        <v>0.1</v>
+      </c>
+      <c r="J670">
+        <v>4</v>
+      </c>
+      <c r="K670">
+        <v>4</v>
+      </c>
+      <c r="L670">
+        <v>2</v>
+      </c>
+      <c r="M670">
+        <v>0.36</v>
+      </c>
+      <c r="N670">
+        <v>1.5</v>
+      </c>
+      <c r="O670">
+        <v>0.46</v>
+      </c>
+      <c r="P670">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="671" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A671" s="1">
+        <v>43007.48741898148</v>
+      </c>
+      <c r="B671" t="s">
+        <v>19</v>
+      </c>
+      <c r="C671">
+        <v>1</v>
+      </c>
+      <c r="D671">
+        <v>1</v>
+      </c>
+      <c r="E671">
+        <v>7</v>
+      </c>
+      <c r="F671">
+        <v>18.408804301277481</v>
+      </c>
+      <c r="G671">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H671">
+        <v>0.3</v>
+      </c>
+      <c r="I671">
+        <v>0.1</v>
+      </c>
+      <c r="J671">
+        <v>4</v>
+      </c>
+      <c r="K671">
+        <v>4</v>
+      </c>
+      <c r="L671">
+        <v>2</v>
+      </c>
+      <c r="M671">
+        <v>0.36</v>
+      </c>
+      <c r="N671">
+        <v>1.5</v>
+      </c>
+      <c r="O671">
+        <v>0.46</v>
+      </c>
+      <c r="P671">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="672" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A672" s="1">
+        <v>43007.487673611111</v>
+      </c>
+      <c r="B672" t="s">
+        <v>16</v>
+      </c>
+      <c r="C672">
+        <v>1</v>
+      </c>
+      <c r="D672">
+        <v>1</v>
+      </c>
+      <c r="E672">
+        <v>7</v>
+      </c>
+      <c r="F672">
+        <v>18.699839671167581</v>
+      </c>
+      <c r="G672">
+        <v>5.0149850149850153</v>
+      </c>
+      <c r="H672">
+        <v>0.3</v>
+      </c>
+      <c r="I672">
+        <v>0.1</v>
+      </c>
+      <c r="J672">
+        <v>4</v>
+      </c>
+      <c r="K672">
+        <v>4</v>
+      </c>
+      <c r="L672">
+        <v>2</v>
+      </c>
+      <c r="M672">
+        <v>0.36</v>
+      </c>
+      <c r="N672">
+        <v>1.5</v>
+      </c>
+      <c r="O672">
+        <v>0.46</v>
+      </c>
+      <c r="P672">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="673" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A673" s="1">
+        <v>43007.487928240742</v>
+      </c>
+      <c r="B673" t="s">
+        <v>17</v>
+      </c>
+      <c r="C673">
+        <v>1</v>
+      </c>
+      <c r="D673">
+        <v>1</v>
+      </c>
+      <c r="E673">
+        <v>7</v>
+      </c>
+      <c r="F673">
+        <v>18.624252606342985</v>
+      </c>
+      <c r="G673">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H673">
+        <v>0.3</v>
+      </c>
+      <c r="I673">
+        <v>0.1</v>
+      </c>
+      <c r="J673">
+        <v>4</v>
+      </c>
+      <c r="K673">
+        <v>4</v>
+      </c>
+      <c r="L673">
+        <v>2</v>
+      </c>
+      <c r="M673">
+        <v>0.36</v>
+      </c>
+      <c r="N673">
+        <v>1.5</v>
+      </c>
+      <c r="O673">
+        <v>0.46</v>
+      </c>
+      <c r="P673">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="674" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A674" s="1">
+        <v>43007.488182870373</v>
+      </c>
+      <c r="B674" t="s">
+        <v>18</v>
+      </c>
+      <c r="C674">
+        <v>0</v>
+      </c>
+      <c r="D674">
+        <v>1</v>
+      </c>
+      <c r="E674">
+        <v>7</v>
+      </c>
+      <c r="F674">
+        <v>18.493923783517378</v>
+      </c>
+      <c r="G674">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H674">
+        <v>0.3</v>
+      </c>
+      <c r="I674">
+        <v>0.1</v>
+      </c>
+      <c r="J674">
+        <v>4</v>
+      </c>
+      <c r="K674">
+        <v>4</v>
+      </c>
+      <c r="L674">
+        <v>2</v>
+      </c>
+      <c r="M674">
+        <v>0.36</v>
+      </c>
+      <c r="N674">
+        <v>1.5</v>
+      </c>
+      <c r="O674">
+        <v>0.46</v>
+      </c>
+      <c r="P674">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="675" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A675" s="1">
+        <v>43007.488425925927</v>
+      </c>
+      <c r="B675" t="s">
+        <v>19</v>
+      </c>
+      <c r="C675">
+        <v>0</v>
+      </c>
+      <c r="D675">
+        <v>1</v>
+      </c>
+      <c r="E675">
+        <v>7</v>
+      </c>
+      <c r="F675">
+        <v>18.182025836193379</v>
+      </c>
+      <c r="G675">
+        <v>5.0109890109890109</v>
+      </c>
+      <c r="H675">
+        <v>0.3</v>
+      </c>
+      <c r="I675">
+        <v>0.1</v>
+      </c>
+      <c r="J675">
+        <v>4</v>
+      </c>
+      <c r="K675">
+        <v>4</v>
+      </c>
+      <c r="L675">
+        <v>2</v>
+      </c>
+      <c r="M675">
+        <v>0.36</v>
+      </c>
+      <c r="N675">
+        <v>1.5</v>
+      </c>
+      <c r="O675">
+        <v>0.46</v>
+      </c>
+      <c r="P675">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="676" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A676" s="1">
+        <v>43007.488680555558</v>
+      </c>
+      <c r="B676" t="s">
+        <v>16</v>
+      </c>
+      <c r="C676">
+        <v>0</v>
+      </c>
+      <c r="D676">
+        <v>1</v>
+      </c>
+      <c r="E676">
+        <v>7</v>
+      </c>
+      <c r="F676">
+        <v>18.418505906708642</v>
+      </c>
+      <c r="G676">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H676">
+        <v>0.3</v>
+      </c>
+      <c r="I676">
+        <v>0.1</v>
+      </c>
+      <c r="J676">
+        <v>4</v>
+      </c>
+      <c r="K676">
+        <v>4</v>
+      </c>
+      <c r="L676">
+        <v>2</v>
+      </c>
+      <c r="M676">
+        <v>0.36</v>
+      </c>
+      <c r="N676">
+        <v>1.5</v>
+      </c>
+      <c r="O676">
+        <v>0.46</v>
+      </c>
+      <c r="P676">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="677" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A677" s="1">
+        <v>43007.488923611112</v>
+      </c>
+      <c r="B677" t="s">
+        <v>17</v>
+      </c>
+      <c r="C677">
+        <v>0</v>
+      </c>
+      <c r="D677">
+        <v>1</v>
+      </c>
+      <c r="E677">
+        <v>7</v>
+      </c>
+      <c r="F677">
+        <v>18.172871133422181</v>
+      </c>
+      <c r="G677">
+        <v>5.0029970029970023</v>
+      </c>
+      <c r="H677">
+        <v>0.3</v>
+      </c>
+      <c r="I677">
+        <v>0.1</v>
+      </c>
+      <c r="J677">
+        <v>4</v>
+      </c>
+      <c r="K677">
+        <v>4</v>
+      </c>
+      <c r="L677">
+        <v>2</v>
+      </c>
+      <c r="M677">
+        <v>0.36</v>
+      </c>
+      <c r="N677">
+        <v>1.5</v>
+      </c>
+      <c r="O677">
+        <v>0.46</v>
+      </c>
+      <c r="P677">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="678" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A678" s="1">
+        <v>43007.489166666666</v>
+      </c>
+      <c r="B678" t="s">
+        <v>18</v>
+      </c>
+      <c r="C678">
+        <v>1</v>
+      </c>
+      <c r="D678">
+        <v>1</v>
+      </c>
+      <c r="E678">
+        <v>7</v>
+      </c>
+      <c r="F678">
+        <v>18.189899315540128</v>
+      </c>
+      <c r="G678">
+        <v>4.8071928071928074</v>
+      </c>
+      <c r="H678">
+        <v>0.3</v>
+      </c>
+      <c r="I678">
+        <v>0.1</v>
+      </c>
+      <c r="J678">
+        <v>4</v>
+      </c>
+      <c r="K678">
+        <v>4</v>
+      </c>
+      <c r="L678">
+        <v>2</v>
+      </c>
+      <c r="M678">
+        <v>0.36</v>
+      </c>
+      <c r="N678">
+        <v>1.5</v>
+      </c>
+      <c r="O678">
+        <v>0.46</v>
+      </c>
+      <c r="P678">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="679" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A679" s="1">
+        <v>43007.489421296297</v>
+      </c>
+      <c r="B679" t="s">
+        <v>19</v>
+      </c>
+      <c r="C679">
+        <v>1</v>
+      </c>
+      <c r="D679">
+        <v>1</v>
+      </c>
+      <c r="E679">
+        <v>7</v>
+      </c>
+      <c r="F679">
+        <v>18.593904945759089</v>
+      </c>
+      <c r="G679">
+        <v>5.0469530469530461</v>
+      </c>
+      <c r="H679">
+        <v>0.3</v>
+      </c>
+      <c r="I679">
+        <v>0.1</v>
+      </c>
+      <c r="J679">
+        <v>4</v>
+      </c>
+      <c r="K679">
+        <v>4</v>
+      </c>
+      <c r="L679">
+        <v>2</v>
+      </c>
+      <c r="M679">
+        <v>0.36</v>
+      </c>
+      <c r="N679">
+        <v>1.5</v>
+      </c>
+      <c r="O679">
+        <v>0.46</v>
+      </c>
+      <c r="P679">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="680" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A680" s="1">
+        <v>43007.489664351851</v>
+      </c>
+      <c r="B680" t="s">
+        <v>16</v>
+      </c>
+      <c r="C680">
+        <v>1</v>
+      </c>
+      <c r="D680">
+        <v>1</v>
+      </c>
+      <c r="E680">
+        <v>7</v>
+      </c>
+      <c r="F680">
+        <v>18.441882317421666</v>
+      </c>
+      <c r="G680">
+        <v>5.0269730269730264</v>
+      </c>
+      <c r="H680">
+        <v>0.3</v>
+      </c>
+      <c r="I680">
+        <v>0.1</v>
+      </c>
+      <c r="J680">
+        <v>4</v>
+      </c>
+      <c r="K680">
+        <v>4</v>
+      </c>
+      <c r="L680">
+        <v>2</v>
+      </c>
+      <c r="M680">
+        <v>0.36</v>
+      </c>
+      <c r="N680">
+        <v>1.5</v>
+      </c>
+      <c r="O680">
+        <v>0.46</v>
+      </c>
+      <c r="P680">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="681" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A681" s="1">
+        <v>43007.489918981482</v>
+      </c>
+      <c r="B681" t="s">
+        <v>17</v>
+      </c>
+      <c r="C681">
+        <v>1</v>
+      </c>
+      <c r="D681">
+        <v>1</v>
+      </c>
+      <c r="E681">
+        <v>7</v>
+      </c>
+      <c r="F681">
+        <v>18.623671162462394</v>
+      </c>
+      <c r="G681">
+        <v>5.0329670329670328</v>
+      </c>
+      <c r="H681">
+        <v>0.3</v>
+      </c>
+      <c r="I681">
+        <v>0.1</v>
+      </c>
+      <c r="J681">
+        <v>4</v>
+      </c>
+      <c r="K681">
+        <v>4</v>
+      </c>
+      <c r="L681">
+        <v>2</v>
+      </c>
+      <c r="M681">
+        <v>0.36</v>
+      </c>
+      <c r="N681">
+        <v>1.5</v>
+      </c>
+      <c r="O681">
+        <v>0.46</v>
+      </c>
+      <c r="P681">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="682" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A682" s="1">
+        <v>43007.501967592594</v>
+      </c>
+      <c r="B682" t="s">
+        <v>18</v>
+      </c>
+      <c r="C682">
+        <v>0</v>
+      </c>
+      <c r="D682">
+        <v>1</v>
+      </c>
+      <c r="E682">
+        <v>7</v>
+      </c>
+      <c r="F682">
+        <v>18.423665341627064</v>
+      </c>
+      <c r="G682">
+        <v>6.779220779220779</v>
+      </c>
+      <c r="H682">
+        <v>0.3</v>
+      </c>
+      <c r="I682">
+        <v>0.1</v>
+      </c>
+      <c r="J682">
+        <v>4</v>
+      </c>
+      <c r="K682">
+        <v>4</v>
+      </c>
+      <c r="L682">
+        <v>2</v>
+      </c>
+      <c r="M682">
+        <v>0.36</v>
+      </c>
+      <c r="N682">
+        <v>1.5</v>
+      </c>
+      <c r="O682">
+        <v>0.46</v>
+      </c>
+      <c r="P682">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="683" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A683" s="1">
+        <v>43007.502210648148</v>
+      </c>
+      <c r="B683" t="s">
+        <v>19</v>
+      </c>
+      <c r="C683">
+        <v>0</v>
+      </c>
+      <c r="D683">
+        <v>1</v>
+      </c>
+      <c r="E683">
+        <v>7</v>
+      </c>
+      <c r="F683">
+        <v>18.398237566200009</v>
+      </c>
+      <c r="G683">
+        <v>6.8111888111888117</v>
+      </c>
+      <c r="H683">
+        <v>0.3</v>
+      </c>
+      <c r="I683">
+        <v>0.1</v>
+      </c>
+      <c r="J683">
+        <v>4</v>
+      </c>
+      <c r="K683">
+        <v>4</v>
+      </c>
+      <c r="L683">
+        <v>2</v>
+      </c>
+      <c r="M683">
+        <v>0.36</v>
+      </c>
+      <c r="N683">
+        <v>1.5</v>
+      </c>
+      <c r="O683">
+        <v>0.46</v>
+      </c>
+      <c r="P683">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="684" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A684" s="1">
+        <v>43007.502453703702</v>
+      </c>
+      <c r="B684" t="s">
+        <v>16</v>
+      </c>
+      <c r="C684">
+        <v>0</v>
+      </c>
+      <c r="D684">
+        <v>1</v>
+      </c>
+      <c r="E684">
+        <v>7</v>
+      </c>
+      <c r="F684">
+        <v>18.161381060345111</v>
+      </c>
+      <c r="G684">
+        <v>6.883116883116883</v>
+      </c>
+      <c r="H684">
+        <v>0.3</v>
+      </c>
+      <c r="I684">
+        <v>0.1</v>
+      </c>
+      <c r="J684">
+        <v>4</v>
+      </c>
+      <c r="K684">
+        <v>4</v>
+      </c>
+      <c r="L684">
+        <v>2</v>
+      </c>
+      <c r="M684">
+        <v>0.36</v>
+      </c>
+      <c r="N684">
+        <v>1.5</v>
+      </c>
+      <c r="O684">
+        <v>0.46</v>
+      </c>
+      <c r="P684">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="685" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A685" s="1">
+        <v>43007.502708333333</v>
+      </c>
+      <c r="B685" t="s">
+        <v>17</v>
+      </c>
+      <c r="C685">
+        <v>0</v>
+      </c>
+      <c r="D685">
+        <v>1</v>
+      </c>
+      <c r="E685">
+        <v>7</v>
+      </c>
+      <c r="F685">
+        <v>18.734247524305985</v>
+      </c>
+      <c r="G685">
+        <v>6.7892107892107889</v>
+      </c>
+      <c r="H685">
+        <v>0.3</v>
+      </c>
+      <c r="I685">
+        <v>0.1</v>
+      </c>
+      <c r="J685">
+        <v>4</v>
+      </c>
+      <c r="K685">
+        <v>4</v>
+      </c>
+      <c r="L685">
+        <v>2</v>
+      </c>
+      <c r="M685">
+        <v>0.36</v>
+      </c>
+      <c r="N685">
+        <v>1.5</v>
+      </c>
+      <c r="O685">
+        <v>0.46</v>
+      </c>
+      <c r="P685">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="686" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A686" s="1">
+        <v>43007.502962962964</v>
+      </c>
+      <c r="B686" t="s">
+        <v>18</v>
+      </c>
+      <c r="C686">
+        <v>1</v>
+      </c>
+      <c r="D686">
+        <v>1</v>
+      </c>
+      <c r="E686">
+        <v>7</v>
+      </c>
+      <c r="F686">
+        <v>18.779057721897757</v>
+      </c>
+      <c r="G686">
+        <v>6.5094905094905098</v>
+      </c>
+      <c r="H686">
+        <v>0.3</v>
+      </c>
+      <c r="I686">
+        <v>0.1</v>
+      </c>
+      <c r="J686">
+        <v>4</v>
+      </c>
+      <c r="K686">
+        <v>4</v>
+      </c>
+      <c r="L686">
+        <v>2</v>
+      </c>
+      <c r="M686">
+        <v>0.36</v>
+      </c>
+      <c r="N686">
+        <v>1.5</v>
+      </c>
+      <c r="O686">
+        <v>0.46</v>
+      </c>
+      <c r="P686">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="687" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A687" s="1">
+        <v>43007.503217592595</v>
+      </c>
+      <c r="B687" t="s">
+        <v>19</v>
+      </c>
+      <c r="C687">
+        <v>1</v>
+      </c>
+      <c r="D687">
+        <v>1</v>
+      </c>
+      <c r="E687">
+        <v>7</v>
+      </c>
+      <c r="F687">
+        <v>18.766333120009314</v>
+      </c>
+      <c r="G687">
+        <v>6.8311688311688306</v>
+      </c>
+      <c r="H687">
+        <v>0.3</v>
+      </c>
+      <c r="I687">
+        <v>0.1</v>
+      </c>
+      <c r="J687">
+        <v>4</v>
+      </c>
+      <c r="K687">
+        <v>4</v>
+      </c>
+      <c r="L687">
+        <v>2</v>
+      </c>
+      <c r="M687">
+        <v>0.36</v>
+      </c>
+      <c r="N687">
+        <v>1.5</v>
+      </c>
+      <c r="O687">
+        <v>0.46</v>
+      </c>
+      <c r="P687">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="688" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A688" s="1">
+        <v>43007.503460648149</v>
+      </c>
+      <c r="B688" t="s">
+        <v>16</v>
+      </c>
+      <c r="C688">
+        <v>1</v>
+      </c>
+      <c r="D688">
+        <v>1</v>
+      </c>
+      <c r="E688">
+        <v>7</v>
+      </c>
+      <c r="F688">
+        <v>18.516161933080223</v>
+      </c>
+      <c r="G688">
+        <v>6.9290709290709298</v>
+      </c>
+      <c r="H688">
+        <v>0.3</v>
+      </c>
+      <c r="I688">
+        <v>0.1</v>
+      </c>
+      <c r="J688">
+        <v>4</v>
+      </c>
+      <c r="K688">
+        <v>4</v>
+      </c>
+      <c r="L688">
+        <v>2</v>
+      </c>
+      <c r="M688">
+        <v>0.36</v>
+      </c>
+      <c r="N688">
+        <v>1.5</v>
+      </c>
+      <c r="O688">
+        <v>0.46</v>
+      </c>
+      <c r="P688">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="689" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A689" s="1">
+        <v>43007.50371527778</v>
+      </c>
+      <c r="B689" t="s">
+        <v>17</v>
+      </c>
+      <c r="C689">
+        <v>1</v>
+      </c>
+      <c r="D689">
+        <v>1</v>
+      </c>
+      <c r="E689">
+        <v>7</v>
+      </c>
+      <c r="F689">
+        <v>18.507077272228635</v>
+      </c>
+      <c r="G689">
+        <v>6.8471528471528469</v>
+      </c>
+      <c r="H689">
+        <v>0.3</v>
+      </c>
+      <c r="I689">
+        <v>0.1</v>
+      </c>
+      <c r="J689">
+        <v>4</v>
+      </c>
+      <c r="K689">
+        <v>4</v>
+      </c>
+      <c r="L689">
+        <v>2</v>
+      </c>
+      <c r="M689">
+        <v>0.36</v>
+      </c>
+      <c r="N689">
+        <v>1.5</v>
+      </c>
+      <c r="O689">
+        <v>0.46</v>
+      </c>
+      <c r="P689">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="690" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A690" s="1">
+        <v>43007.503958333335</v>
+      </c>
+      <c r="B690" t="s">
+        <v>18</v>
+      </c>
+      <c r="C690">
+        <v>0</v>
+      </c>
+      <c r="D690">
+        <v>1</v>
+      </c>
+      <c r="E690">
+        <v>7</v>
+      </c>
+      <c r="F690">
+        <v>18.312746765838348</v>
+      </c>
+      <c r="G690">
+        <v>6.7972027972027966</v>
+      </c>
+      <c r="H690">
+        <v>0.3</v>
+      </c>
+      <c r="I690">
+        <v>0.1</v>
+      </c>
+      <c r="J690">
+        <v>4</v>
+      </c>
+      <c r="K690">
+        <v>4</v>
+      </c>
+      <c r="L690">
+        <v>2</v>
+      </c>
+      <c r="M690">
+        <v>0.36</v>
+      </c>
+      <c r="N690">
+        <v>1.5</v>
+      </c>
+      <c r="O690">
+        <v>0.46</v>
+      </c>
+      <c r="P690">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="691" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A691" s="1">
+        <v>43007.504212962966</v>
+      </c>
+      <c r="B691" t="s">
+        <v>19</v>
+      </c>
+      <c r="C691">
+        <v>0</v>
+      </c>
+      <c r="D691">
+        <v>1</v>
+      </c>
+      <c r="E691">
+        <v>7</v>
+      </c>
+      <c r="F691">
+        <v>18.39882732555964</v>
+      </c>
+      <c r="G691">
+        <v>6.7932067932067932</v>
+      </c>
+      <c r="H691">
+        <v>0.3</v>
+      </c>
+      <c r="I691">
+        <v>0.1</v>
+      </c>
+      <c r="J691">
+        <v>4</v>
+      </c>
+      <c r="K691">
+        <v>4</v>
+      </c>
+      <c r="L691">
+        <v>2</v>
+      </c>
+      <c r="M691">
+        <v>0.36</v>
+      </c>
+      <c r="N691">
+        <v>1.5</v>
+      </c>
+      <c r="O691">
+        <v>0.46</v>
+      </c>
+      <c r="P691">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="692" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A692" s="1">
+        <v>43007.50445601852</v>
+      </c>
+      <c r="B692" t="s">
+        <v>16</v>
+      </c>
+      <c r="C692">
+        <v>0</v>
+      </c>
+      <c r="D692">
+        <v>1</v>
+      </c>
+      <c r="E692">
+        <v>7</v>
+      </c>
+      <c r="F692">
+        <v>18.183782321227596</v>
+      </c>
+      <c r="G692">
+        <v>6.8651348651348645</v>
+      </c>
+      <c r="H692">
+        <v>0.3</v>
+      </c>
+      <c r="I692">
+        <v>0.1</v>
+      </c>
+      <c r="J692">
+        <v>4</v>
+      </c>
+      <c r="K692">
+        <v>4</v>
+      </c>
+      <c r="L692">
+        <v>2</v>
+      </c>
+      <c r="M692">
+        <v>0.36</v>
+      </c>
+      <c r="N692">
+        <v>1.5</v>
+      </c>
+      <c r="O692">
+        <v>0.46</v>
+      </c>
+      <c r="P692">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="693" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A693" s="1">
+        <v>43007.504699074074</v>
+      </c>
+      <c r="B693" t="s">
+        <v>17</v>
+      </c>
+      <c r="C693">
+        <v>0</v>
+      </c>
+      <c r="D693">
+        <v>1</v>
+      </c>
+      <c r="E693">
+        <v>7</v>
+      </c>
+      <c r="F693">
+        <v>18.213133403631115</v>
+      </c>
+      <c r="G693">
+        <v>6.7612387612387614</v>
+      </c>
+      <c r="H693">
+        <v>0.3</v>
+      </c>
+      <c r="I693">
+        <v>0.1</v>
+      </c>
+      <c r="J693">
+        <v>4</v>
+      </c>
+      <c r="K693">
+        <v>4</v>
+      </c>
+      <c r="L693">
+        <v>2</v>
+      </c>
+      <c r="M693">
+        <v>0.36</v>
+      </c>
+      <c r="N693">
+        <v>1.5</v>
+      </c>
+      <c r="O693">
+        <v>0.46</v>
+      </c>
+      <c r="P693">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="694" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A694" s="1">
+        <v>43007.504953703705</v>
+      </c>
+      <c r="B694" t="s">
+        <v>18</v>
+      </c>
+      <c r="C694">
+        <v>1</v>
+      </c>
+      <c r="D694">
+        <v>1</v>
+      </c>
+      <c r="E694">
+        <v>7</v>
+      </c>
+      <c r="F694">
+        <v>18.745061804797967</v>
+      </c>
+      <c r="G694">
+        <v>6.5154845154845153</v>
+      </c>
+      <c r="H694">
+        <v>0.3</v>
+      </c>
+      <c r="I694">
+        <v>0.1</v>
+      </c>
+      <c r="J694">
+        <v>4</v>
+      </c>
+      <c r="K694">
+        <v>4</v>
+      </c>
+      <c r="L694">
+        <v>2</v>
+      </c>
+      <c r="M694">
+        <v>0.36</v>
+      </c>
+      <c r="N694">
+        <v>1.5</v>
+      </c>
+      <c r="O694">
+        <v>0.46</v>
+      </c>
+      <c r="P694">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="695" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A695" s="1">
+        <v>43007.505196759259</v>
+      </c>
+      <c r="B695" t="s">
+        <v>19</v>
+      </c>
+      <c r="C695">
+        <v>1</v>
+      </c>
+      <c r="D695">
+        <v>1</v>
+      </c>
+      <c r="E695">
+        <v>7</v>
+      </c>
+      <c r="F695">
+        <v>18.557358095550612</v>
+      </c>
+      <c r="G695">
+        <v>6.8471528471528469</v>
+      </c>
+      <c r="H695">
+        <v>0.3</v>
+      </c>
+      <c r="I695">
+        <v>0.1</v>
+      </c>
+      <c r="J695">
+        <v>4</v>
+      </c>
+      <c r="K695">
+        <v>4</v>
+      </c>
+      <c r="L695">
+        <v>2</v>
+      </c>
+      <c r="M695">
+        <v>0.36</v>
+      </c>
+      <c r="N695">
+        <v>1.5</v>
+      </c>
+      <c r="O695">
+        <v>0.46</v>
+      </c>
+      <c r="P695">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="696" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A696" s="1">
+        <v>43007.50545138889</v>
+      </c>
+      <c r="B696" t="s">
+        <v>16</v>
+      </c>
+      <c r="C696">
+        <v>1</v>
+      </c>
+      <c r="D696">
+        <v>1</v>
+      </c>
+      <c r="E696">
+        <v>7</v>
+      </c>
+      <c r="F696">
+        <v>18.380901391531452</v>
+      </c>
+      <c r="G696">
+        <v>6.9330669330669332</v>
+      </c>
+      <c r="H696">
+        <v>0.3</v>
+      </c>
+      <c r="I696">
+        <v>0.1</v>
+      </c>
+      <c r="J696">
+        <v>4</v>
+      </c>
+      <c r="K696">
+        <v>4</v>
+      </c>
+      <c r="L696">
+        <v>2</v>
+      </c>
+      <c r="M696">
+        <v>0.36</v>
+      </c>
+      <c r="N696">
+        <v>1.5</v>
+      </c>
+      <c r="O696">
+        <v>0.46</v>
+      </c>
+      <c r="P696">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="697" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A697" s="1">
+        <v>43007.505694444444</v>
+      </c>
+      <c r="B697" t="s">
+        <v>17</v>
+      </c>
+      <c r="C697">
+        <v>1</v>
+      </c>
+      <c r="D697">
+        <v>1</v>
+      </c>
+      <c r="E697">
+        <v>7</v>
+      </c>
+      <c r="F697">
+        <v>18.607746700273996</v>
+      </c>
+      <c r="G697">
+        <v>6.8311688311688306</v>
+      </c>
+      <c r="H697">
+        <v>0.3</v>
+      </c>
+      <c r="I697">
+        <v>0.1</v>
+      </c>
+      <c r="J697">
+        <v>4</v>
+      </c>
+      <c r="K697">
+        <v>4</v>
+      </c>
+      <c r="L697">
+        <v>2</v>
+      </c>
+      <c r="M697">
+        <v>0.36</v>
+      </c>
+      <c r="N697">
+        <v>1.5</v>
+      </c>
+      <c r="O697">
+        <v>0.46</v>
+      </c>
+      <c r="P697">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="698" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A698" s="1">
+        <v>43007.583703703705</v>
+      </c>
+      <c r="B698" t="s">
+        <v>17</v>
+      </c>
+      <c r="C698">
+        <v>1</v>
+      </c>
+      <c r="D698">
+        <v>1</v>
+      </c>
+      <c r="E698">
+        <v>7</v>
+      </c>
+      <c r="F698">
+        <v>19.309221642377473</v>
+      </c>
+      <c r="G698">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H698">
+        <v>0.3</v>
+      </c>
+      <c r="I698">
+        <v>0.1</v>
+      </c>
+      <c r="J698">
+        <v>4</v>
+      </c>
+      <c r="K698">
+        <v>4</v>
+      </c>
+      <c r="L698">
+        <v>2</v>
+      </c>
+      <c r="M698">
+        <v>0.36</v>
+      </c>
+      <c r="N698">
+        <v>1.5</v>
+      </c>
+      <c r="O698">
+        <v>0.46</v>
+      </c>
+      <c r="P698">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="699" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A699" s="1">
+        <v>43009.614687499998</v>
+      </c>
+      <c r="B699" t="s">
+        <v>17</v>
+      </c>
+      <c r="C699">
+        <v>1</v>
+      </c>
+      <c r="D699">
+        <v>100</v>
+      </c>
+      <c r="E699">
+        <v>7</v>
+      </c>
+      <c r="F699">
+        <v>29.609704781768649</v>
+      </c>
+      <c r="G699">
+        <v>7.0769230769230766</v>
+      </c>
+      <c r="H699">
+        <v>0.3</v>
+      </c>
+      <c r="I699">
+        <v>0.1</v>
+      </c>
+      <c r="J699">
+        <v>4</v>
+      </c>
+      <c r="K699">
+        <v>4</v>
+      </c>
+      <c r="L699">
+        <v>2</v>
+      </c>
+      <c r="M699">
+        <v>0.36</v>
+      </c>
+      <c r="N699">
+        <v>1.5</v>
+      </c>
+      <c r="O699">
+        <v>0.46</v>
+      </c>
+      <c r="P699">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RunSummaries.xlsx
+++ b/RunSummaries.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>control400</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>eq</t>
   </si>
 </sst>
 </file>
@@ -497,10 +506,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P699"/>
+  <dimension ref="A1:P777"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A675" workbookViewId="0">
-      <selection activeCell="A699" sqref="A699:P699"/>
+    <sheetView tabSelected="1" topLeftCell="A747" workbookViewId="0">
+      <selection activeCell="A777" sqref="A777:P777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35455,6 +35464,3906 @@
         <v>5.3221999999999996</v>
       </c>
     </row>
+    <row r="700" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A700" s="1">
+        <v>43011.936574074076</v>
+      </c>
+      <c r="B700" t="s">
+        <v>17</v>
+      </c>
+      <c r="C700">
+        <v>1</v>
+      </c>
+      <c r="D700">
+        <v>100000</v>
+      </c>
+      <c r="E700">
+        <v>1</v>
+      </c>
+      <c r="F700">
+        <v>23.48553336275118</v>
+      </c>
+      <c r="G700">
+        <v>0</v>
+      </c>
+      <c r="H700">
+        <v>0.3</v>
+      </c>
+      <c r="I700">
+        <v>0.1</v>
+      </c>
+      <c r="J700">
+        <v>4</v>
+      </c>
+      <c r="K700">
+        <v>4</v>
+      </c>
+      <c r="L700">
+        <v>2</v>
+      </c>
+      <c r="M700">
+        <v>0.36</v>
+      </c>
+      <c r="N700">
+        <v>1.5</v>
+      </c>
+      <c r="O700">
+        <v>0.46</v>
+      </c>
+      <c r="P700">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="701" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A701" s="1">
+        <v>43011.936805555553</v>
+      </c>
+      <c r="B701" t="s">
+        <v>17</v>
+      </c>
+      <c r="C701">
+        <v>1</v>
+      </c>
+      <c r="D701">
+        <v>100000</v>
+      </c>
+      <c r="E701">
+        <v>1</v>
+      </c>
+      <c r="F701">
+        <v>4.7930083226482978</v>
+      </c>
+      <c r="G701">
+        <v>0</v>
+      </c>
+      <c r="H701">
+        <v>0.3</v>
+      </c>
+      <c r="I701">
+        <v>0.1</v>
+      </c>
+      <c r="J701">
+        <v>4</v>
+      </c>
+      <c r="K701">
+        <v>4</v>
+      </c>
+      <c r="L701">
+        <v>2</v>
+      </c>
+      <c r="M701">
+        <v>0.36</v>
+      </c>
+      <c r="N701">
+        <v>1.5</v>
+      </c>
+      <c r="O701">
+        <v>0.46</v>
+      </c>
+      <c r="P701">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="702" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A702" s="1">
+        <v>43011.937210648146</v>
+      </c>
+      <c r="B702" t="s">
+        <v>17</v>
+      </c>
+      <c r="C702">
+        <v>1</v>
+      </c>
+      <c r="D702">
+        <v>100000</v>
+      </c>
+      <c r="E702">
+        <v>1</v>
+      </c>
+      <c r="F702">
+        <v>4.0183815682571398</v>
+      </c>
+      <c r="G702">
+        <v>0</v>
+      </c>
+      <c r="H702">
+        <v>0.3</v>
+      </c>
+      <c r="I702">
+        <v>0.1</v>
+      </c>
+      <c r="J702">
+        <v>4</v>
+      </c>
+      <c r="K702">
+        <v>4</v>
+      </c>
+      <c r="L702">
+        <v>2</v>
+      </c>
+      <c r="M702">
+        <v>0.36</v>
+      </c>
+      <c r="N702">
+        <v>1.5</v>
+      </c>
+      <c r="O702">
+        <v>0.46</v>
+      </c>
+      <c r="P702">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="703" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A703" s="1">
+        <v>43011.937916666669</v>
+      </c>
+      <c r="B703" t="s">
+        <v>17</v>
+      </c>
+      <c r="C703">
+        <v>1</v>
+      </c>
+      <c r="D703">
+        <v>100000</v>
+      </c>
+      <c r="E703">
+        <v>1</v>
+      </c>
+      <c r="F703">
+        <v>4.9367310414078069</v>
+      </c>
+      <c r="G703">
+        <v>0</v>
+      </c>
+      <c r="H703">
+        <v>0.3</v>
+      </c>
+      <c r="I703">
+        <v>0.1</v>
+      </c>
+      <c r="J703">
+        <v>4</v>
+      </c>
+      <c r="K703">
+        <v>4</v>
+      </c>
+      <c r="L703">
+        <v>2</v>
+      </c>
+      <c r="M703">
+        <v>0.36</v>
+      </c>
+      <c r="N703">
+        <v>1.5</v>
+      </c>
+      <c r="O703">
+        <v>0.46</v>
+      </c>
+      <c r="P703">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="704" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A704" s="1">
+        <v>43011.938680555555</v>
+      </c>
+      <c r="B704" t="s">
+        <v>17</v>
+      </c>
+      <c r="C704">
+        <v>1</v>
+      </c>
+      <c r="D704">
+        <v>100000</v>
+      </c>
+      <c r="E704">
+        <v>1</v>
+      </c>
+      <c r="F704">
+        <v>4.3039684975170287</v>
+      </c>
+      <c r="G704">
+        <v>0</v>
+      </c>
+      <c r="H704">
+        <v>0.3</v>
+      </c>
+      <c r="I704">
+        <v>0.1</v>
+      </c>
+      <c r="J704">
+        <v>4</v>
+      </c>
+      <c r="K704">
+        <v>4</v>
+      </c>
+      <c r="L704">
+        <v>2</v>
+      </c>
+      <c r="M704">
+        <v>0.36</v>
+      </c>
+      <c r="N704">
+        <v>1.5</v>
+      </c>
+      <c r="O704">
+        <v>0.46</v>
+      </c>
+      <c r="P704">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="705" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A705" s="1">
+        <v>43011.940358796295</v>
+      </c>
+      <c r="B705" t="s">
+        <v>17</v>
+      </c>
+      <c r="C705">
+        <v>1</v>
+      </c>
+      <c r="D705">
+        <v>100000</v>
+      </c>
+      <c r="E705">
+        <v>1</v>
+      </c>
+      <c r="F705">
+        <v>4.0133241090568035</v>
+      </c>
+      <c r="G705">
+        <v>0</v>
+      </c>
+      <c r="H705">
+        <v>0.3</v>
+      </c>
+      <c r="I705">
+        <v>0.1</v>
+      </c>
+      <c r="J705">
+        <v>4</v>
+      </c>
+      <c r="K705">
+        <v>4</v>
+      </c>
+      <c r="L705">
+        <v>2</v>
+      </c>
+      <c r="M705">
+        <v>0.36</v>
+      </c>
+      <c r="N705">
+        <v>1.5</v>
+      </c>
+      <c r="O705">
+        <v>0.46</v>
+      </c>
+      <c r="P705">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="706" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A706" s="1">
+        <v>43011.940729166665</v>
+      </c>
+      <c r="B706" t="s">
+        <v>17</v>
+      </c>
+      <c r="C706">
+        <v>1</v>
+      </c>
+      <c r="D706">
+        <v>100000</v>
+      </c>
+      <c r="E706">
+        <v>1</v>
+      </c>
+      <c r="F706">
+        <v>4.0430567213008786</v>
+      </c>
+      <c r="G706">
+        <v>0</v>
+      </c>
+      <c r="H706">
+        <v>0.3</v>
+      </c>
+      <c r="I706">
+        <v>0.1</v>
+      </c>
+      <c r="J706">
+        <v>4</v>
+      </c>
+      <c r="K706">
+        <v>4</v>
+      </c>
+      <c r="L706">
+        <v>2</v>
+      </c>
+      <c r="M706">
+        <v>0.36</v>
+      </c>
+      <c r="N706">
+        <v>1.5</v>
+      </c>
+      <c r="O706">
+        <v>0.46</v>
+      </c>
+      <c r="P706">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="707" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A707" s="1">
+        <v>43011.941805555558</v>
+      </c>
+      <c r="B707" t="s">
+        <v>17</v>
+      </c>
+      <c r="C707">
+        <v>1</v>
+      </c>
+      <c r="D707">
+        <v>100000</v>
+      </c>
+      <c r="E707">
+        <v>1</v>
+      </c>
+      <c r="F707">
+        <v>4.044434922931746</v>
+      </c>
+      <c r="G707">
+        <v>0</v>
+      </c>
+      <c r="H707">
+        <v>0.3</v>
+      </c>
+      <c r="I707">
+        <v>0.1</v>
+      </c>
+      <c r="J707">
+        <v>4</v>
+      </c>
+      <c r="K707">
+        <v>4</v>
+      </c>
+      <c r="L707">
+        <v>2</v>
+      </c>
+      <c r="M707">
+        <v>0.36</v>
+      </c>
+      <c r="N707">
+        <v>1.5</v>
+      </c>
+      <c r="O707">
+        <v>0.46</v>
+      </c>
+      <c r="P707">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="708" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A708" s="1">
+        <v>43011.942303240743</v>
+      </c>
+      <c r="B708" t="s">
+        <v>17</v>
+      </c>
+      <c r="C708">
+        <v>1</v>
+      </c>
+      <c r="D708">
+        <v>100000</v>
+      </c>
+      <c r="E708">
+        <v>1</v>
+      </c>
+      <c r="F708">
+        <v>4.0890279214626668</v>
+      </c>
+      <c r="G708">
+        <v>0</v>
+      </c>
+      <c r="H708">
+        <v>0.3</v>
+      </c>
+      <c r="I708">
+        <v>0.1</v>
+      </c>
+      <c r="J708">
+        <v>4</v>
+      </c>
+      <c r="K708">
+        <v>4</v>
+      </c>
+      <c r="L708">
+        <v>2</v>
+      </c>
+      <c r="M708">
+        <v>0.36</v>
+      </c>
+      <c r="N708">
+        <v>1.5</v>
+      </c>
+      <c r="O708">
+        <v>0.46</v>
+      </c>
+      <c r="P708">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="709" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A709" s="1">
+        <v>43012.577152777776</v>
+      </c>
+      <c r="B709" t="s">
+        <v>17</v>
+      </c>
+      <c r="C709">
+        <v>1</v>
+      </c>
+      <c r="D709">
+        <v>100000</v>
+      </c>
+      <c r="E709">
+        <v>1</v>
+      </c>
+      <c r="F709">
+        <v>8.0682352203314665</v>
+      </c>
+      <c r="G709">
+        <v>0</v>
+      </c>
+      <c r="H709">
+        <v>0.3</v>
+      </c>
+      <c r="I709">
+        <v>0.1</v>
+      </c>
+      <c r="J709">
+        <v>4</v>
+      </c>
+      <c r="K709">
+        <v>4</v>
+      </c>
+      <c r="L709">
+        <v>2</v>
+      </c>
+      <c r="M709">
+        <v>0.36</v>
+      </c>
+      <c r="N709">
+        <v>1.5</v>
+      </c>
+      <c r="O709">
+        <v>0.46</v>
+      </c>
+      <c r="P709">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="710" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A710" s="1">
+        <v>43012.610474537039</v>
+      </c>
+      <c r="B710" t="s">
+        <v>19</v>
+      </c>
+      <c r="C710">
+        <v>1</v>
+      </c>
+      <c r="D710">
+        <v>100000</v>
+      </c>
+      <c r="E710">
+        <v>1</v>
+      </c>
+      <c r="F710">
+        <v>8.5913160177620647</v>
+      </c>
+      <c r="G710">
+        <v>0</v>
+      </c>
+      <c r="H710">
+        <v>0.3</v>
+      </c>
+      <c r="I710">
+        <v>0.1</v>
+      </c>
+      <c r="J710">
+        <v>4</v>
+      </c>
+      <c r="K710">
+        <v>4</v>
+      </c>
+      <c r="L710">
+        <v>2</v>
+      </c>
+      <c r="M710">
+        <v>0.36</v>
+      </c>
+      <c r="N710">
+        <v>1.5</v>
+      </c>
+      <c r="O710">
+        <v>0.46</v>
+      </c>
+      <c r="P710">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="711" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A711" s="1">
+        <v>43012.610613425924</v>
+      </c>
+      <c r="B711" t="s">
+        <v>19</v>
+      </c>
+      <c r="C711">
+        <v>1</v>
+      </c>
+      <c r="D711">
+        <v>100000</v>
+      </c>
+      <c r="E711">
+        <v>1</v>
+      </c>
+      <c r="F711">
+        <v>7.306226034667195</v>
+      </c>
+      <c r="G711">
+        <v>0</v>
+      </c>
+      <c r="H711">
+        <v>0.3</v>
+      </c>
+      <c r="I711">
+        <v>0.1</v>
+      </c>
+      <c r="J711">
+        <v>4</v>
+      </c>
+      <c r="K711">
+        <v>4</v>
+      </c>
+      <c r="L711">
+        <v>2</v>
+      </c>
+      <c r="M711">
+        <v>0.36</v>
+      </c>
+      <c r="N711">
+        <v>1.5</v>
+      </c>
+      <c r="O711">
+        <v>0.46</v>
+      </c>
+      <c r="P711">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="712" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A712" s="1">
+        <v>43012.616030092591</v>
+      </c>
+      <c r="B712" t="s">
+        <v>19</v>
+      </c>
+      <c r="C712">
+        <v>1</v>
+      </c>
+      <c r="D712">
+        <v>100000</v>
+      </c>
+      <c r="E712">
+        <v>1</v>
+      </c>
+      <c r="F712">
+        <v>7.8201064482364808</v>
+      </c>
+      <c r="G712">
+        <v>0</v>
+      </c>
+      <c r="H712">
+        <v>0.3</v>
+      </c>
+      <c r="I712">
+        <v>0.1</v>
+      </c>
+      <c r="J712">
+        <v>4</v>
+      </c>
+      <c r="K712">
+        <v>4</v>
+      </c>
+      <c r="L712">
+        <v>2</v>
+      </c>
+      <c r="M712">
+        <v>0.36</v>
+      </c>
+      <c r="N712">
+        <v>1.5</v>
+      </c>
+      <c r="O712">
+        <v>0.46</v>
+      </c>
+      <c r="P712">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="713" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A713" s="1">
+        <v>43012.637754629628</v>
+      </c>
+      <c r="B713" t="s">
+        <v>19</v>
+      </c>
+      <c r="C713">
+        <v>1</v>
+      </c>
+      <c r="D713">
+        <v>100000</v>
+      </c>
+      <c r="E713">
+        <v>1</v>
+      </c>
+      <c r="F713">
+        <v>8.4126797109968461</v>
+      </c>
+      <c r="G713">
+        <v>0</v>
+      </c>
+      <c r="H713">
+        <v>0.3</v>
+      </c>
+      <c r="I713">
+        <v>0.1</v>
+      </c>
+      <c r="J713">
+        <v>4</v>
+      </c>
+      <c r="K713">
+        <v>4</v>
+      </c>
+      <c r="L713">
+        <v>2</v>
+      </c>
+      <c r="M713">
+        <v>0.36</v>
+      </c>
+      <c r="N713">
+        <v>1.5</v>
+      </c>
+      <c r="O713">
+        <v>0.46</v>
+      </c>
+      <c r="P713">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="714" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A714" s="1">
+        <v>43012.638564814813</v>
+      </c>
+      <c r="B714" t="s">
+        <v>17</v>
+      </c>
+      <c r="C714">
+        <v>1</v>
+      </c>
+      <c r="D714">
+        <v>100000</v>
+      </c>
+      <c r="E714">
+        <v>1</v>
+      </c>
+      <c r="F714">
+        <v>7.0620501125248669</v>
+      </c>
+      <c r="G714">
+        <v>0</v>
+      </c>
+      <c r="H714">
+        <v>0.3</v>
+      </c>
+      <c r="I714">
+        <v>0.1</v>
+      </c>
+      <c r="J714">
+        <v>4</v>
+      </c>
+      <c r="K714">
+        <v>4</v>
+      </c>
+      <c r="L714">
+        <v>2</v>
+      </c>
+      <c r="M714">
+        <v>0.36</v>
+      </c>
+      <c r="N714">
+        <v>1.5</v>
+      </c>
+      <c r="O714">
+        <v>0.46</v>
+      </c>
+      <c r="P714">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="715" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A715" s="1">
+        <v>43012.642569444448</v>
+      </c>
+      <c r="B715" t="s">
+        <v>17</v>
+      </c>
+      <c r="C715">
+        <v>1</v>
+      </c>
+      <c r="D715">
+        <v>100000</v>
+      </c>
+      <c r="E715">
+        <v>1</v>
+      </c>
+      <c r="F715">
+        <v>7.6487960175188725</v>
+      </c>
+      <c r="G715">
+        <v>0</v>
+      </c>
+      <c r="H715">
+        <v>0.3</v>
+      </c>
+      <c r="I715">
+        <v>0.1</v>
+      </c>
+      <c r="J715">
+        <v>4</v>
+      </c>
+      <c r="K715">
+        <v>4</v>
+      </c>
+      <c r="L715">
+        <v>2</v>
+      </c>
+      <c r="M715">
+        <v>0.36</v>
+      </c>
+      <c r="N715">
+        <v>1.5</v>
+      </c>
+      <c r="O715">
+        <v>0.46</v>
+      </c>
+      <c r="P715">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="716" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A716" s="1">
+        <v>43012.651886574073</v>
+      </c>
+      <c r="B716" t="s">
+        <v>17</v>
+      </c>
+      <c r="C716">
+        <v>1</v>
+      </c>
+      <c r="D716">
+        <v>100000</v>
+      </c>
+      <c r="E716">
+        <v>1</v>
+      </c>
+      <c r="F716">
+        <v>7.8110878193151105</v>
+      </c>
+      <c r="G716">
+        <v>0</v>
+      </c>
+      <c r="H716">
+        <v>0.3</v>
+      </c>
+      <c r="I716">
+        <v>0.1</v>
+      </c>
+      <c r="J716">
+        <v>4</v>
+      </c>
+      <c r="K716">
+        <v>4</v>
+      </c>
+      <c r="L716">
+        <v>2</v>
+      </c>
+      <c r="M716">
+        <v>0.36</v>
+      </c>
+      <c r="N716">
+        <v>1.5</v>
+      </c>
+      <c r="O716">
+        <v>0.46</v>
+      </c>
+      <c r="P716">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="717" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A717" s="1">
+        <v>43012.65792824074</v>
+      </c>
+      <c r="B717" t="s">
+        <v>17</v>
+      </c>
+      <c r="C717">
+        <v>1</v>
+      </c>
+      <c r="D717">
+        <v>100000</v>
+      </c>
+      <c r="E717">
+        <v>1</v>
+      </c>
+      <c r="F717">
+        <v>7.9312262346616267</v>
+      </c>
+      <c r="G717">
+        <v>0</v>
+      </c>
+      <c r="H717">
+        <v>0.3</v>
+      </c>
+      <c r="I717">
+        <v>0.1</v>
+      </c>
+      <c r="J717">
+        <v>4</v>
+      </c>
+      <c r="K717">
+        <v>4</v>
+      </c>
+      <c r="L717">
+        <v>2</v>
+      </c>
+      <c r="M717">
+        <v>0.36</v>
+      </c>
+      <c r="N717">
+        <v>1.5</v>
+      </c>
+      <c r="O717">
+        <v>0.46</v>
+      </c>
+      <c r="P717">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="718" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A718" s="1">
+        <v>43012.661874999998</v>
+      </c>
+      <c r="B718" t="s">
+        <v>17</v>
+      </c>
+      <c r="C718">
+        <v>1</v>
+      </c>
+      <c r="D718">
+        <v>100000</v>
+      </c>
+      <c r="E718">
+        <v>1</v>
+      </c>
+      <c r="F718">
+        <v>7.8385808139101405</v>
+      </c>
+      <c r="G718">
+        <v>0</v>
+      </c>
+      <c r="H718">
+        <v>0.3</v>
+      </c>
+      <c r="I718">
+        <v>0.1</v>
+      </c>
+      <c r="J718">
+        <v>4</v>
+      </c>
+      <c r="K718">
+        <v>4</v>
+      </c>
+      <c r="L718">
+        <v>2</v>
+      </c>
+      <c r="M718">
+        <v>0.36</v>
+      </c>
+      <c r="N718">
+        <v>1.5</v>
+      </c>
+      <c r="O718">
+        <v>0.46</v>
+      </c>
+      <c r="P718">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="719" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A719" s="1">
+        <v>43012.662083333336</v>
+      </c>
+      <c r="B719" t="s">
+        <v>17</v>
+      </c>
+      <c r="C719">
+        <v>1</v>
+      </c>
+      <c r="D719">
+        <v>100000</v>
+      </c>
+      <c r="E719">
+        <v>1</v>
+      </c>
+      <c r="F719">
+        <v>8.3114159701793895</v>
+      </c>
+      <c r="G719">
+        <v>0</v>
+      </c>
+      <c r="H719">
+        <v>0.3</v>
+      </c>
+      <c r="I719">
+        <v>0.1</v>
+      </c>
+      <c r="J719">
+        <v>4</v>
+      </c>
+      <c r="K719">
+        <v>4</v>
+      </c>
+      <c r="L719">
+        <v>2</v>
+      </c>
+      <c r="M719">
+        <v>0.36</v>
+      </c>
+      <c r="N719">
+        <v>1.5</v>
+      </c>
+      <c r="O719">
+        <v>0.46</v>
+      </c>
+      <c r="P719">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="720" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A720" s="1">
+        <v>43012.777303240742</v>
+      </c>
+      <c r="B720" t="s">
+        <v>19</v>
+      </c>
+      <c r="C720">
+        <v>1</v>
+      </c>
+      <c r="D720">
+        <v>100000</v>
+      </c>
+      <c r="E720">
+        <v>1</v>
+      </c>
+      <c r="F720">
+        <v>7.7164552538857318</v>
+      </c>
+      <c r="G720">
+        <v>0</v>
+      </c>
+      <c r="H720">
+        <v>0.3</v>
+      </c>
+      <c r="I720">
+        <v>0.1</v>
+      </c>
+      <c r="J720">
+        <v>4</v>
+      </c>
+      <c r="K720">
+        <v>4</v>
+      </c>
+      <c r="L720">
+        <v>2</v>
+      </c>
+      <c r="M720">
+        <v>0.36</v>
+      </c>
+      <c r="N720">
+        <v>1.5</v>
+      </c>
+      <c r="O720">
+        <v>0.46</v>
+      </c>
+      <c r="P720">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="721" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A721" s="1">
+        <v>43012.77752314815</v>
+      </c>
+      <c r="B721" t="s">
+        <v>19</v>
+      </c>
+      <c r="C721">
+        <v>1</v>
+      </c>
+      <c r="D721">
+        <v>100000</v>
+      </c>
+      <c r="E721">
+        <v>1</v>
+      </c>
+      <c r="F721">
+        <v>7.3785526610939147</v>
+      </c>
+      <c r="G721">
+        <v>0</v>
+      </c>
+      <c r="H721">
+        <v>0.3</v>
+      </c>
+      <c r="I721">
+        <v>0.1</v>
+      </c>
+      <c r="J721">
+        <v>4</v>
+      </c>
+      <c r="K721">
+        <v>4</v>
+      </c>
+      <c r="L721">
+        <v>2</v>
+      </c>
+      <c r="M721">
+        <v>0.36</v>
+      </c>
+      <c r="N721">
+        <v>1.5</v>
+      </c>
+      <c r="O721">
+        <v>0.46</v>
+      </c>
+      <c r="P721">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="722" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A722" s="1">
+        <v>43015.557997685188</v>
+      </c>
+      <c r="B722" t="s">
+        <v>19</v>
+      </c>
+      <c r="C722">
+        <v>0</v>
+      </c>
+      <c r="D722">
+        <v>100000</v>
+      </c>
+      <c r="E722">
+        <v>1</v>
+      </c>
+      <c r="F722">
+        <v>40.527161963810926</v>
+      </c>
+      <c r="G722">
+        <v>0</v>
+      </c>
+      <c r="H722">
+        <v>0.3</v>
+      </c>
+      <c r="I722">
+        <v>0.1</v>
+      </c>
+      <c r="J722">
+        <v>4</v>
+      </c>
+      <c r="K722">
+        <v>4</v>
+      </c>
+      <c r="L722">
+        <v>2</v>
+      </c>
+      <c r="M722">
+        <v>0.36</v>
+      </c>
+      <c r="N722">
+        <v>1.5</v>
+      </c>
+      <c r="O722">
+        <v>0.46</v>
+      </c>
+      <c r="P722">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="723" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A723" s="1">
+        <v>43015.558287037034</v>
+      </c>
+      <c r="B723" t="s">
+        <v>17</v>
+      </c>
+      <c r="C723">
+        <v>0</v>
+      </c>
+      <c r="D723">
+        <v>100000</v>
+      </c>
+      <c r="E723">
+        <v>1</v>
+      </c>
+      <c r="F723">
+        <v>17.612007921699458</v>
+      </c>
+      <c r="G723">
+        <v>0</v>
+      </c>
+      <c r="H723">
+        <v>0.3</v>
+      </c>
+      <c r="I723">
+        <v>0.1</v>
+      </c>
+      <c r="J723">
+        <v>4</v>
+      </c>
+      <c r="K723">
+        <v>4</v>
+      </c>
+      <c r="L723">
+        <v>2</v>
+      </c>
+      <c r="M723">
+        <v>0.36</v>
+      </c>
+      <c r="N723">
+        <v>1.5</v>
+      </c>
+      <c r="O723">
+        <v>0.46</v>
+      </c>
+      <c r="P723">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="724" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A724" s="1">
+        <v>43015.558518518519</v>
+      </c>
+      <c r="B724" t="s">
+        <v>19</v>
+      </c>
+      <c r="C724">
+        <v>1</v>
+      </c>
+      <c r="D724">
+        <v>100000</v>
+      </c>
+      <c r="E724">
+        <v>1</v>
+      </c>
+      <c r="F724">
+        <v>16.202677237465711</v>
+      </c>
+      <c r="G724">
+        <v>0</v>
+      </c>
+      <c r="H724">
+        <v>0.3</v>
+      </c>
+      <c r="I724">
+        <v>0.1</v>
+      </c>
+      <c r="J724">
+        <v>4</v>
+      </c>
+      <c r="K724">
+        <v>4</v>
+      </c>
+      <c r="L724">
+        <v>2</v>
+      </c>
+      <c r="M724">
+        <v>0.36</v>
+      </c>
+      <c r="N724">
+        <v>1.5</v>
+      </c>
+      <c r="O724">
+        <v>0.46</v>
+      </c>
+      <c r="P724">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="725" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A725" s="1">
+        <v>43015.55877314815</v>
+      </c>
+      <c r="B725" t="s">
+        <v>17</v>
+      </c>
+      <c r="C725">
+        <v>1</v>
+      </c>
+      <c r="D725">
+        <v>100000</v>
+      </c>
+      <c r="E725">
+        <v>1</v>
+      </c>
+      <c r="F725">
+        <v>17.252119061005342</v>
+      </c>
+      <c r="G725">
+        <v>0</v>
+      </c>
+      <c r="H725">
+        <v>0.3</v>
+      </c>
+      <c r="I725">
+        <v>0.1</v>
+      </c>
+      <c r="J725">
+        <v>4</v>
+      </c>
+      <c r="K725">
+        <v>4</v>
+      </c>
+      <c r="L725">
+        <v>2</v>
+      </c>
+      <c r="M725">
+        <v>0.36</v>
+      </c>
+      <c r="N725">
+        <v>1.5</v>
+      </c>
+      <c r="O725">
+        <v>0.46</v>
+      </c>
+      <c r="P725">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="726" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A726" s="1">
+        <v>43015.560266203705</v>
+      </c>
+      <c r="B726" t="s">
+        <v>19</v>
+      </c>
+      <c r="C726">
+        <v>0</v>
+      </c>
+      <c r="D726">
+        <v>1</v>
+      </c>
+      <c r="E726">
+        <v>7</v>
+      </c>
+      <c r="F726">
+        <v>39.514701510709941</v>
+      </c>
+      <c r="G726">
+        <v>4.9990009990009989</v>
+      </c>
+      <c r="H726">
+        <v>0.3</v>
+      </c>
+      <c r="I726">
+        <v>0.1</v>
+      </c>
+      <c r="J726">
+        <v>4</v>
+      </c>
+      <c r="K726">
+        <v>4</v>
+      </c>
+      <c r="L726">
+        <v>2</v>
+      </c>
+      <c r="M726">
+        <v>0.36</v>
+      </c>
+      <c r="N726">
+        <v>1.5</v>
+      </c>
+      <c r="O726">
+        <v>0.46</v>
+      </c>
+      <c r="P726">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="727" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A727" s="1">
+        <v>43015.560706018521</v>
+      </c>
+      <c r="B727" t="s">
+        <v>17</v>
+      </c>
+      <c r="C727">
+        <v>0</v>
+      </c>
+      <c r="D727">
+        <v>1</v>
+      </c>
+      <c r="E727">
+        <v>7</v>
+      </c>
+      <c r="F727">
+        <v>34.059199631882251</v>
+      </c>
+      <c r="G727">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H727">
+        <v>0.3</v>
+      </c>
+      <c r="I727">
+        <v>0.1</v>
+      </c>
+      <c r="J727">
+        <v>4</v>
+      </c>
+      <c r="K727">
+        <v>4</v>
+      </c>
+      <c r="L727">
+        <v>2</v>
+      </c>
+      <c r="M727">
+        <v>0.36</v>
+      </c>
+      <c r="N727">
+        <v>1.5</v>
+      </c>
+      <c r="O727">
+        <v>0.46</v>
+      </c>
+      <c r="P727">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="728" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A728" s="1">
+        <v>43015.561157407406</v>
+      </c>
+      <c r="B728" t="s">
+        <v>19</v>
+      </c>
+      <c r="C728">
+        <v>1</v>
+      </c>
+      <c r="D728">
+        <v>1</v>
+      </c>
+      <c r="E728">
+        <v>7</v>
+      </c>
+      <c r="F728">
+        <v>34.1385145437551</v>
+      </c>
+      <c r="G728">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H728">
+        <v>0.3</v>
+      </c>
+      <c r="I728">
+        <v>0.1</v>
+      </c>
+      <c r="J728">
+        <v>4</v>
+      </c>
+      <c r="K728">
+        <v>4</v>
+      </c>
+      <c r="L728">
+        <v>2</v>
+      </c>
+      <c r="M728">
+        <v>0.36</v>
+      </c>
+      <c r="N728">
+        <v>1.5</v>
+      </c>
+      <c r="O728">
+        <v>0.46</v>
+      </c>
+      <c r="P728">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="729" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A729" s="1">
+        <v>43015.561620370368</v>
+      </c>
+      <c r="B729" t="s">
+        <v>17</v>
+      </c>
+      <c r="C729">
+        <v>1</v>
+      </c>
+      <c r="D729">
+        <v>1</v>
+      </c>
+      <c r="E729">
+        <v>7</v>
+      </c>
+      <c r="F729">
+        <v>34.360910272258018</v>
+      </c>
+      <c r="G729">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H729">
+        <v>0.3</v>
+      </c>
+      <c r="I729">
+        <v>0.1</v>
+      </c>
+      <c r="J729">
+        <v>4</v>
+      </c>
+      <c r="K729">
+        <v>4</v>
+      </c>
+      <c r="L729">
+        <v>2</v>
+      </c>
+      <c r="M729">
+        <v>0.36</v>
+      </c>
+      <c r="N729">
+        <v>1.5</v>
+      </c>
+      <c r="O729">
+        <v>0.46</v>
+      </c>
+      <c r="P729">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="730" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A730" s="1">
+        <v>43015.571689814817</v>
+      </c>
+      <c r="B730" t="s">
+        <v>19</v>
+      </c>
+      <c r="C730">
+        <v>0</v>
+      </c>
+      <c r="D730">
+        <v>1</v>
+      </c>
+      <c r="E730">
+        <v>7</v>
+      </c>
+      <c r="F730">
+        <v>33.940114627208779</v>
+      </c>
+      <c r="G730">
+        <v>4.9990009990009989</v>
+      </c>
+      <c r="H730">
+        <v>0.3</v>
+      </c>
+      <c r="I730">
+        <v>0.1</v>
+      </c>
+      <c r="J730">
+        <v>4</v>
+      </c>
+      <c r="K730">
+        <v>4</v>
+      </c>
+      <c r="L730">
+        <v>2</v>
+      </c>
+      <c r="M730">
+        <v>0.36</v>
+      </c>
+      <c r="N730">
+        <v>1.5</v>
+      </c>
+      <c r="O730">
+        <v>0.46</v>
+      </c>
+      <c r="P730">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="731" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A731" s="1">
+        <v>43015.572129629632</v>
+      </c>
+      <c r="B731" t="s">
+        <v>17</v>
+      </c>
+      <c r="C731">
+        <v>0</v>
+      </c>
+      <c r="D731">
+        <v>1</v>
+      </c>
+      <c r="E731">
+        <v>7</v>
+      </c>
+      <c r="F731">
+        <v>33.828275180818963</v>
+      </c>
+      <c r="G731">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H731">
+        <v>0.3</v>
+      </c>
+      <c r="I731">
+        <v>0.1</v>
+      </c>
+      <c r="J731">
+        <v>4</v>
+      </c>
+      <c r="K731">
+        <v>4</v>
+      </c>
+      <c r="L731">
+        <v>2</v>
+      </c>
+      <c r="M731">
+        <v>0.36</v>
+      </c>
+      <c r="N731">
+        <v>1.5</v>
+      </c>
+      <c r="O731">
+        <v>0.46</v>
+      </c>
+      <c r="P731">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="732" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A732" s="1">
+        <v>43015.572581018518</v>
+      </c>
+      <c r="B732" t="s">
+        <v>19</v>
+      </c>
+      <c r="C732">
+        <v>1</v>
+      </c>
+      <c r="D732">
+        <v>1</v>
+      </c>
+      <c r="E732">
+        <v>7</v>
+      </c>
+      <c r="F732">
+        <v>33.905338955363483</v>
+      </c>
+      <c r="G732">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H732">
+        <v>0.3</v>
+      </c>
+      <c r="I732">
+        <v>0.1</v>
+      </c>
+      <c r="J732">
+        <v>4</v>
+      </c>
+      <c r="K732">
+        <v>4</v>
+      </c>
+      <c r="L732">
+        <v>2</v>
+      </c>
+      <c r="M732">
+        <v>0.36</v>
+      </c>
+      <c r="N732">
+        <v>1.5</v>
+      </c>
+      <c r="O732">
+        <v>0.46</v>
+      </c>
+      <c r="P732">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="733" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A733" s="1">
+        <v>43015.573020833333</v>
+      </c>
+      <c r="B733" t="s">
+        <v>17</v>
+      </c>
+      <c r="C733">
+        <v>1</v>
+      </c>
+      <c r="D733">
+        <v>1</v>
+      </c>
+      <c r="E733">
+        <v>7</v>
+      </c>
+      <c r="F733">
+        <v>33.269938724905899</v>
+      </c>
+      <c r="G733">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H733">
+        <v>0.3</v>
+      </c>
+      <c r="I733">
+        <v>0.1</v>
+      </c>
+      <c r="J733">
+        <v>4</v>
+      </c>
+      <c r="K733">
+        <v>4</v>
+      </c>
+      <c r="L733">
+        <v>2</v>
+      </c>
+      <c r="M733">
+        <v>0.36</v>
+      </c>
+      <c r="N733">
+        <v>1.5</v>
+      </c>
+      <c r="O733">
+        <v>0.46</v>
+      </c>
+      <c r="P733">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="734" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A734" s="1">
+        <v>43015.680185185185</v>
+      </c>
+      <c r="B734" t="s">
+        <v>19</v>
+      </c>
+      <c r="C734">
+        <v>0</v>
+      </c>
+      <c r="D734">
+        <v>1</v>
+      </c>
+      <c r="E734">
+        <v>7</v>
+      </c>
+      <c r="F734">
+        <v>34.151993528500164</v>
+      </c>
+      <c r="G734">
+        <v>4.9990009990009989</v>
+      </c>
+      <c r="H734">
+        <v>0.3</v>
+      </c>
+      <c r="I734">
+        <v>0.1</v>
+      </c>
+      <c r="J734">
+        <v>4</v>
+      </c>
+      <c r="K734">
+        <v>4</v>
+      </c>
+      <c r="L734">
+        <v>2</v>
+      </c>
+      <c r="M734">
+        <v>0.36</v>
+      </c>
+      <c r="N734">
+        <v>1.5</v>
+      </c>
+      <c r="O734">
+        <v>0.46</v>
+      </c>
+      <c r="P734">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="735" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A735" s="1">
+        <v>43015.683692129627</v>
+      </c>
+      <c r="B735" t="s">
+        <v>19</v>
+      </c>
+      <c r="C735">
+        <v>0</v>
+      </c>
+      <c r="D735">
+        <v>1</v>
+      </c>
+      <c r="E735">
+        <v>7</v>
+      </c>
+      <c r="F735">
+        <v>35.221841183941436</v>
+      </c>
+      <c r="G735">
+        <v>4.9990009990009989</v>
+      </c>
+      <c r="H735">
+        <v>0.3</v>
+      </c>
+      <c r="I735">
+        <v>0.1</v>
+      </c>
+      <c r="J735">
+        <v>4</v>
+      </c>
+      <c r="K735">
+        <v>4</v>
+      </c>
+      <c r="L735">
+        <v>2</v>
+      </c>
+      <c r="M735">
+        <v>0.36</v>
+      </c>
+      <c r="N735">
+        <v>1.5</v>
+      </c>
+      <c r="O735">
+        <v>0.46</v>
+      </c>
+      <c r="P735">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="736" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A736" s="1">
+        <v>43015.684155092589</v>
+      </c>
+      <c r="B736" t="s">
+        <v>17</v>
+      </c>
+      <c r="C736">
+        <v>0</v>
+      </c>
+      <c r="D736">
+        <v>1</v>
+      </c>
+      <c r="E736">
+        <v>7</v>
+      </c>
+      <c r="F736">
+        <v>35.840979147140544</v>
+      </c>
+      <c r="G736">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H736">
+        <v>0.3</v>
+      </c>
+      <c r="I736">
+        <v>0.1</v>
+      </c>
+      <c r="J736">
+        <v>4</v>
+      </c>
+      <c r="K736">
+        <v>4</v>
+      </c>
+      <c r="L736">
+        <v>2</v>
+      </c>
+      <c r="M736">
+        <v>0.36</v>
+      </c>
+      <c r="N736">
+        <v>1.5</v>
+      </c>
+      <c r="O736">
+        <v>0.46</v>
+      </c>
+      <c r="P736">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="737" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A737" s="1">
+        <v>43015.684641203705</v>
+      </c>
+      <c r="B737" t="s">
+        <v>19</v>
+      </c>
+      <c r="C737">
+        <v>1</v>
+      </c>
+      <c r="D737">
+        <v>1</v>
+      </c>
+      <c r="E737">
+        <v>7</v>
+      </c>
+      <c r="F737">
+        <v>35.894474297835551</v>
+      </c>
+      <c r="G737">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H737">
+        <v>0.3</v>
+      </c>
+      <c r="I737">
+        <v>0.1</v>
+      </c>
+      <c r="J737">
+        <v>4</v>
+      </c>
+      <c r="K737">
+        <v>4</v>
+      </c>
+      <c r="L737">
+        <v>2</v>
+      </c>
+      <c r="M737">
+        <v>0.36</v>
+      </c>
+      <c r="N737">
+        <v>1.5</v>
+      </c>
+      <c r="O737">
+        <v>0.46</v>
+      </c>
+      <c r="P737">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="738" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A738" s="1">
+        <v>43015.685127314813</v>
+      </c>
+      <c r="B738" t="s">
+        <v>17</v>
+      </c>
+      <c r="C738">
+        <v>1</v>
+      </c>
+      <c r="D738">
+        <v>1</v>
+      </c>
+      <c r="E738">
+        <v>7</v>
+      </c>
+      <c r="F738">
+        <v>35.428271276927653</v>
+      </c>
+      <c r="G738">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H738">
+        <v>0.3</v>
+      </c>
+      <c r="I738">
+        <v>0.1</v>
+      </c>
+      <c r="J738">
+        <v>4</v>
+      </c>
+      <c r="K738">
+        <v>4</v>
+      </c>
+      <c r="L738">
+        <v>2</v>
+      </c>
+      <c r="M738">
+        <v>0.36</v>
+      </c>
+      <c r="N738">
+        <v>1.5</v>
+      </c>
+      <c r="O738">
+        <v>0.46</v>
+      </c>
+      <c r="P738">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="739" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A739" s="1">
+        <v>43015.704548611109</v>
+      </c>
+      <c r="B739" t="s">
+        <v>18</v>
+      </c>
+      <c r="C739">
+        <v>0</v>
+      </c>
+      <c r="D739">
+        <v>1</v>
+      </c>
+      <c r="E739">
+        <v>7</v>
+      </c>
+      <c r="F739">
+        <v>77.247612626464473</v>
+      </c>
+      <c r="G739">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H739">
+        <v>0.3</v>
+      </c>
+      <c r="I739">
+        <v>0.1</v>
+      </c>
+      <c r="J739">
+        <v>4</v>
+      </c>
+      <c r="K739">
+        <v>4</v>
+      </c>
+      <c r="L739">
+        <v>2</v>
+      </c>
+      <c r="M739">
+        <v>0.36</v>
+      </c>
+      <c r="N739">
+        <v>1.5</v>
+      </c>
+      <c r="O739">
+        <v>0.46</v>
+      </c>
+      <c r="P739">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="740" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A740" s="1">
+        <v>43015.705127314817</v>
+      </c>
+      <c r="B740" t="s">
+        <v>19</v>
+      </c>
+      <c r="C740">
+        <v>0</v>
+      </c>
+      <c r="D740">
+        <v>1</v>
+      </c>
+      <c r="E740">
+        <v>7</v>
+      </c>
+      <c r="F740">
+        <v>42.807835109870538</v>
+      </c>
+      <c r="G740">
+        <v>5.0109890109890109</v>
+      </c>
+      <c r="H740">
+        <v>0.3</v>
+      </c>
+      <c r="I740">
+        <v>0.1</v>
+      </c>
+      <c r="J740">
+        <v>4</v>
+      </c>
+      <c r="K740">
+        <v>4</v>
+      </c>
+      <c r="L740">
+        <v>2</v>
+      </c>
+      <c r="M740">
+        <v>0.36</v>
+      </c>
+      <c r="N740">
+        <v>1.5</v>
+      </c>
+      <c r="O740">
+        <v>0.46</v>
+      </c>
+      <c r="P740">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="741" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A741" s="1">
+        <v>43015.705671296295</v>
+      </c>
+      <c r="B741" t="s">
+        <v>16</v>
+      </c>
+      <c r="C741">
+        <v>0</v>
+      </c>
+      <c r="D741">
+        <v>1</v>
+      </c>
+      <c r="E741">
+        <v>7</v>
+      </c>
+      <c r="F741">
+        <v>42.450642174121874</v>
+      </c>
+      <c r="G741">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H741">
+        <v>0.3</v>
+      </c>
+      <c r="I741">
+        <v>0.1</v>
+      </c>
+      <c r="J741">
+        <v>4</v>
+      </c>
+      <c r="K741">
+        <v>4</v>
+      </c>
+      <c r="L741">
+        <v>2</v>
+      </c>
+      <c r="M741">
+        <v>0.36</v>
+      </c>
+      <c r="N741">
+        <v>1.5</v>
+      </c>
+      <c r="O741">
+        <v>0.46</v>
+      </c>
+      <c r="P741">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="742" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A742" s="1">
+        <v>43015.706226851849</v>
+      </c>
+      <c r="B742" t="s">
+        <v>17</v>
+      </c>
+      <c r="C742">
+        <v>0</v>
+      </c>
+      <c r="D742">
+        <v>1</v>
+      </c>
+      <c r="E742">
+        <v>7</v>
+      </c>
+      <c r="F742">
+        <v>43.8225041414847</v>
+      </c>
+      <c r="G742">
+        <v>5.0029970029970023</v>
+      </c>
+      <c r="H742">
+        <v>0.3</v>
+      </c>
+      <c r="I742">
+        <v>0.1</v>
+      </c>
+      <c r="J742">
+        <v>4</v>
+      </c>
+      <c r="K742">
+        <v>4</v>
+      </c>
+      <c r="L742">
+        <v>2</v>
+      </c>
+      <c r="M742">
+        <v>0.36</v>
+      </c>
+      <c r="N742">
+        <v>1.5</v>
+      </c>
+      <c r="O742">
+        <v>0.46</v>
+      </c>
+      <c r="P742">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="743" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A743" s="1">
+        <v>43015.706782407404</v>
+      </c>
+      <c r="B743" t="s">
+        <v>18</v>
+      </c>
+      <c r="C743">
+        <v>1</v>
+      </c>
+      <c r="D743">
+        <v>1</v>
+      </c>
+      <c r="E743">
+        <v>7</v>
+      </c>
+      <c r="F743">
+        <v>43.404212426726041</v>
+      </c>
+      <c r="G743">
+        <v>4.8071928071928074</v>
+      </c>
+      <c r="H743">
+        <v>0.3</v>
+      </c>
+      <c r="I743">
+        <v>0.1</v>
+      </c>
+      <c r="J743">
+        <v>4</v>
+      </c>
+      <c r="K743">
+        <v>4</v>
+      </c>
+      <c r="L743">
+        <v>2</v>
+      </c>
+      <c r="M743">
+        <v>0.36</v>
+      </c>
+      <c r="N743">
+        <v>1.5</v>
+      </c>
+      <c r="O743">
+        <v>0.46</v>
+      </c>
+      <c r="P743">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="744" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A744" s="1">
+        <v>43015.707314814812</v>
+      </c>
+      <c r="B744" t="s">
+        <v>19</v>
+      </c>
+      <c r="C744">
+        <v>1</v>
+      </c>
+      <c r="D744">
+        <v>1</v>
+      </c>
+      <c r="E744">
+        <v>7</v>
+      </c>
+      <c r="F744">
+        <v>41.969520848539574</v>
+      </c>
+      <c r="G744">
+        <v>5.0469530469530461</v>
+      </c>
+      <c r="H744">
+        <v>0.3</v>
+      </c>
+      <c r="I744">
+        <v>0.1</v>
+      </c>
+      <c r="J744">
+        <v>4</v>
+      </c>
+      <c r="K744">
+        <v>4</v>
+      </c>
+      <c r="L744">
+        <v>2</v>
+      </c>
+      <c r="M744">
+        <v>0.36</v>
+      </c>
+      <c r="N744">
+        <v>1.5</v>
+      </c>
+      <c r="O744">
+        <v>0.46</v>
+      </c>
+      <c r="P744">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="745" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A745" s="1">
+        <v>43015.70784722222</v>
+      </c>
+      <c r="B745" t="s">
+        <v>16</v>
+      </c>
+      <c r="C745">
+        <v>1</v>
+      </c>
+      <c r="D745">
+        <v>1</v>
+      </c>
+      <c r="E745">
+        <v>7</v>
+      </c>
+      <c r="F745">
+        <v>42.243082192591757</v>
+      </c>
+      <c r="G745">
+        <v>5.0269730269730264</v>
+      </c>
+      <c r="H745">
+        <v>0.3</v>
+      </c>
+      <c r="I745">
+        <v>0.1</v>
+      </c>
+      <c r="J745">
+        <v>4</v>
+      </c>
+      <c r="K745">
+        <v>4</v>
+      </c>
+      <c r="L745">
+        <v>2</v>
+      </c>
+      <c r="M745">
+        <v>0.36</v>
+      </c>
+      <c r="N745">
+        <v>1.5</v>
+      </c>
+      <c r="O745">
+        <v>0.46</v>
+      </c>
+      <c r="P745">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="746" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A746" s="1">
+        <v>43015.708391203705</v>
+      </c>
+      <c r="B746" t="s">
+        <v>17</v>
+      </c>
+      <c r="C746">
+        <v>1</v>
+      </c>
+      <c r="D746">
+        <v>1</v>
+      </c>
+      <c r="E746">
+        <v>7</v>
+      </c>
+      <c r="F746">
+        <v>42.569157594652566</v>
+      </c>
+      <c r="G746">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H746">
+        <v>0.3</v>
+      </c>
+      <c r="I746">
+        <v>0.1</v>
+      </c>
+      <c r="J746">
+        <v>4</v>
+      </c>
+      <c r="K746">
+        <v>4</v>
+      </c>
+      <c r="L746">
+        <v>2</v>
+      </c>
+      <c r="M746">
+        <v>0.36</v>
+      </c>
+      <c r="N746">
+        <v>1.5</v>
+      </c>
+      <c r="O746">
+        <v>0.46</v>
+      </c>
+      <c r="P746">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="747" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A747" s="1">
+        <v>43025.501331018517</v>
+      </c>
+      <c r="B747" t="s">
+        <v>19</v>
+      </c>
+      <c r="C747">
+        <v>1</v>
+      </c>
+      <c r="D747">
+        <v>1</v>
+      </c>
+      <c r="E747">
+        <v>5</v>
+      </c>
+      <c r="F747">
+        <v>40.400061502287777</v>
+      </c>
+      <c r="G747">
+        <v>5.0469530469530461</v>
+      </c>
+      <c r="H747">
+        <v>0.3</v>
+      </c>
+      <c r="I747">
+        <v>0.1</v>
+      </c>
+      <c r="J747">
+        <v>4</v>
+      </c>
+      <c r="K747">
+        <v>4</v>
+      </c>
+      <c r="L747">
+        <v>2</v>
+      </c>
+      <c r="M747">
+        <v>0.36</v>
+      </c>
+      <c r="N747">
+        <v>1.5</v>
+      </c>
+      <c r="O747">
+        <v>0.46</v>
+      </c>
+      <c r="P747">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="748" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A748" s="1">
+        <v>43025.506585648145</v>
+      </c>
+      <c r="B748" t="s">
+        <v>19</v>
+      </c>
+      <c r="C748">
+        <v>1</v>
+      </c>
+      <c r="D748">
+        <v>1</v>
+      </c>
+      <c r="E748">
+        <v>5</v>
+      </c>
+      <c r="F748">
+        <v>21.701860460204788</v>
+      </c>
+      <c r="G748">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H748">
+        <v>0.3</v>
+      </c>
+      <c r="I748">
+        <v>0.1</v>
+      </c>
+      <c r="J748">
+        <v>4</v>
+      </c>
+      <c r="K748">
+        <v>4</v>
+      </c>
+      <c r="L748">
+        <v>2</v>
+      </c>
+      <c r="M748">
+        <v>0.36</v>
+      </c>
+      <c r="N748">
+        <v>1.5</v>
+      </c>
+      <c r="O748">
+        <v>0.46</v>
+      </c>
+      <c r="P748">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="749" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A749" s="1">
+        <v>43025.507152777776</v>
+      </c>
+      <c r="B749" t="s">
+        <v>19</v>
+      </c>
+      <c r="C749">
+        <v>1</v>
+      </c>
+      <c r="D749">
+        <v>1</v>
+      </c>
+      <c r="E749">
+        <v>5</v>
+      </c>
+      <c r="F749">
+        <v>21.691814659879871</v>
+      </c>
+      <c r="G749">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H749">
+        <v>0.3</v>
+      </c>
+      <c r="I749">
+        <v>0.1</v>
+      </c>
+      <c r="J749">
+        <v>4</v>
+      </c>
+      <c r="K749">
+        <v>4</v>
+      </c>
+      <c r="L749">
+        <v>2</v>
+      </c>
+      <c r="M749">
+        <v>0.36</v>
+      </c>
+      <c r="N749">
+        <v>1.5</v>
+      </c>
+      <c r="O749">
+        <v>0.46</v>
+      </c>
+      <c r="P749">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="750" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A750" s="1">
+        <v>43025.507754629631</v>
+      </c>
+      <c r="B750" t="s">
+        <v>19</v>
+      </c>
+      <c r="C750">
+        <v>1</v>
+      </c>
+      <c r="D750">
+        <v>1</v>
+      </c>
+      <c r="E750">
+        <v>5</v>
+      </c>
+      <c r="F750">
+        <v>21.934393826475873</v>
+      </c>
+      <c r="G750">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H750">
+        <v>0.3</v>
+      </c>
+      <c r="I750">
+        <v>0.1</v>
+      </c>
+      <c r="J750">
+        <v>4</v>
+      </c>
+      <c r="K750">
+        <v>4</v>
+      </c>
+      <c r="L750">
+        <v>2</v>
+      </c>
+      <c r="M750">
+        <v>0.36</v>
+      </c>
+      <c r="N750">
+        <v>1.5</v>
+      </c>
+      <c r="O750">
+        <v>0.46</v>
+      </c>
+      <c r="P750">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="751" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A751" s="1">
+        <v>43025.534259259257</v>
+      </c>
+      <c r="B751" t="s">
+        <v>19</v>
+      </c>
+      <c r="C751">
+        <v>1</v>
+      </c>
+      <c r="D751">
+        <v>1</v>
+      </c>
+      <c r="E751">
+        <v>5</v>
+      </c>
+      <c r="F751">
+        <v>22.203451295915922</v>
+      </c>
+      <c r="G751">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H751">
+        <v>0.3</v>
+      </c>
+      <c r="I751">
+        <v>0.1</v>
+      </c>
+      <c r="J751">
+        <v>4</v>
+      </c>
+      <c r="K751">
+        <v>4</v>
+      </c>
+      <c r="L751">
+        <v>2</v>
+      </c>
+      <c r="M751">
+        <v>0.36</v>
+      </c>
+      <c r="N751">
+        <v>1.5</v>
+      </c>
+      <c r="O751">
+        <v>0.46</v>
+      </c>
+      <c r="P751">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="752" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A752" s="1">
+        <v>43025.720300925925</v>
+      </c>
+      <c r="B752" t="s">
+        <v>19</v>
+      </c>
+      <c r="C752">
+        <v>1</v>
+      </c>
+      <c r="D752">
+        <v>1</v>
+      </c>
+      <c r="E752">
+        <v>5</v>
+      </c>
+      <c r="F752">
+        <v>36.077701196798678</v>
+      </c>
+      <c r="G752">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H752">
+        <v>0.3</v>
+      </c>
+      <c r="I752">
+        <v>0.1</v>
+      </c>
+      <c r="J752">
+        <v>4</v>
+      </c>
+      <c r="K752">
+        <v>4</v>
+      </c>
+      <c r="L752">
+        <v>2</v>
+      </c>
+      <c r="M752">
+        <v>0.36</v>
+      </c>
+      <c r="N752">
+        <v>1.5</v>
+      </c>
+      <c r="O752">
+        <v>0.46</v>
+      </c>
+      <c r="P752">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="753" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A753" s="1">
+        <v>43025.724953703706</v>
+      </c>
+      <c r="B753" t="s">
+        <v>19</v>
+      </c>
+      <c r="C753">
+        <v>1</v>
+      </c>
+      <c r="D753">
+        <v>1</v>
+      </c>
+      <c r="E753">
+        <v>5</v>
+      </c>
+      <c r="F753">
+        <v>23.244636709314012</v>
+      </c>
+      <c r="G753">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H753">
+        <v>0.3</v>
+      </c>
+      <c r="I753">
+        <v>0.1</v>
+      </c>
+      <c r="J753">
+        <v>4</v>
+      </c>
+      <c r="K753">
+        <v>4</v>
+      </c>
+      <c r="L753">
+        <v>2</v>
+      </c>
+      <c r="M753">
+        <v>0.36</v>
+      </c>
+      <c r="N753">
+        <v>1.5</v>
+      </c>
+      <c r="O753">
+        <v>0.46</v>
+      </c>
+      <c r="P753">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="754" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A754" s="1">
+        <v>43025.885706018518</v>
+      </c>
+      <c r="B754" t="s">
+        <v>19</v>
+      </c>
+      <c r="C754">
+        <v>1</v>
+      </c>
+      <c r="D754">
+        <v>1</v>
+      </c>
+      <c r="E754">
+        <v>5</v>
+      </c>
+      <c r="F754">
+        <v>88.36566885977895</v>
+      </c>
+      <c r="G754">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H754">
+        <v>0.3</v>
+      </c>
+      <c r="I754">
+        <v>0.1</v>
+      </c>
+      <c r="J754">
+        <v>4</v>
+      </c>
+      <c r="K754">
+        <v>4</v>
+      </c>
+      <c r="L754">
+        <v>2</v>
+      </c>
+      <c r="M754">
+        <v>0.36</v>
+      </c>
+      <c r="N754">
+        <v>1.5</v>
+      </c>
+      <c r="O754">
+        <v>0.46</v>
+      </c>
+      <c r="P754">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="755" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A755" s="1">
+        <v>43025.890601851854</v>
+      </c>
+      <c r="B755" t="s">
+        <v>19</v>
+      </c>
+      <c r="C755" t="b">
+        <v>1</v>
+      </c>
+      <c r="D755">
+        <v>1</v>
+      </c>
+      <c r="E755">
+        <v>5</v>
+      </c>
+      <c r="F755">
+        <v>22.434578301340089</v>
+      </c>
+      <c r="G755">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H755">
+        <v>0.3</v>
+      </c>
+      <c r="I755">
+        <v>0.1</v>
+      </c>
+      <c r="J755">
+        <v>4</v>
+      </c>
+      <c r="K755">
+        <v>4</v>
+      </c>
+      <c r="L755">
+        <v>2</v>
+      </c>
+      <c r="M755">
+        <v>0.36</v>
+      </c>
+      <c r="N755">
+        <v>1.5</v>
+      </c>
+      <c r="O755">
+        <v>0.46</v>
+      </c>
+      <c r="P755">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="756" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A756" s="1">
+        <v>43025.900902777779</v>
+      </c>
+      <c r="B756" t="s">
+        <v>19</v>
+      </c>
+      <c r="C756">
+        <v>1</v>
+      </c>
+      <c r="D756">
+        <v>1</v>
+      </c>
+      <c r="E756">
+        <v>5</v>
+      </c>
+      <c r="F756">
+        <v>59.340942188169478</v>
+      </c>
+      <c r="G756">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H756">
+        <v>0.3</v>
+      </c>
+      <c r="I756">
+        <v>0.1</v>
+      </c>
+      <c r="J756">
+        <v>4</v>
+      </c>
+      <c r="K756">
+        <v>4</v>
+      </c>
+      <c r="L756">
+        <v>2</v>
+      </c>
+      <c r="M756">
+        <v>0.36</v>
+      </c>
+      <c r="N756">
+        <v>1.5</v>
+      </c>
+      <c r="O756">
+        <v>0.46</v>
+      </c>
+      <c r="P756">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="757" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A757" s="1">
+        <v>43025.946157407408</v>
+      </c>
+      <c r="B757" t="s">
+        <v>19</v>
+      </c>
+      <c r="C757">
+        <v>1</v>
+      </c>
+      <c r="D757">
+        <v>1</v>
+      </c>
+      <c r="E757">
+        <v>5</v>
+      </c>
+      <c r="F757">
+        <v>38.078075586375675</v>
+      </c>
+      <c r="G757">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H757">
+        <v>0.3</v>
+      </c>
+      <c r="I757">
+        <v>0.1</v>
+      </c>
+      <c r="J757">
+        <v>4</v>
+      </c>
+      <c r="K757">
+        <v>4</v>
+      </c>
+      <c r="L757">
+        <v>2</v>
+      </c>
+      <c r="M757">
+        <v>0.36</v>
+      </c>
+      <c r="N757">
+        <v>1.5</v>
+      </c>
+      <c r="O757">
+        <v>0.46</v>
+      </c>
+      <c r="P757">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="758" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A758" s="1">
+        <v>43025.946701388886</v>
+      </c>
+      <c r="B758" t="s">
+        <v>19</v>
+      </c>
+      <c r="C758">
+        <v>1</v>
+      </c>
+      <c r="D758">
+        <v>1</v>
+      </c>
+      <c r="E758">
+        <v>5</v>
+      </c>
+      <c r="F758">
+        <v>37.550460835170348</v>
+      </c>
+      <c r="G758">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H758">
+        <v>0.3</v>
+      </c>
+      <c r="I758">
+        <v>0.1</v>
+      </c>
+      <c r="J758">
+        <v>4</v>
+      </c>
+      <c r="K758">
+        <v>4</v>
+      </c>
+      <c r="L758">
+        <v>2</v>
+      </c>
+      <c r="M758">
+        <v>0.36</v>
+      </c>
+      <c r="N758">
+        <v>1.5</v>
+      </c>
+      <c r="O758">
+        <v>0.46</v>
+      </c>
+      <c r="P758">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="759" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A759" s="1">
+        <v>43025.947476851848</v>
+      </c>
+      <c r="B759" t="s">
+        <v>19</v>
+      </c>
+      <c r="C759">
+        <v>1</v>
+      </c>
+      <c r="D759">
+        <v>1</v>
+      </c>
+      <c r="E759">
+        <v>5</v>
+      </c>
+      <c r="F759">
+        <v>37.736968282803005</v>
+      </c>
+      <c r="G759">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H759">
+        <v>0.3</v>
+      </c>
+      <c r="I759">
+        <v>0.1</v>
+      </c>
+      <c r="J759">
+        <v>4</v>
+      </c>
+      <c r="K759">
+        <v>4</v>
+      </c>
+      <c r="L759">
+        <v>2</v>
+      </c>
+      <c r="M759">
+        <v>0.36</v>
+      </c>
+      <c r="N759">
+        <v>1.5</v>
+      </c>
+      <c r="O759">
+        <v>0.46</v>
+      </c>
+      <c r="P759">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="760" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A760" s="1">
+        <v>43025.948587962965</v>
+      </c>
+      <c r="B760" t="s">
+        <v>19</v>
+      </c>
+      <c r="C760">
+        <v>1</v>
+      </c>
+      <c r="D760">
+        <v>1</v>
+      </c>
+      <c r="E760">
+        <v>5</v>
+      </c>
+      <c r="F760">
+        <v>36.40559798815201</v>
+      </c>
+      <c r="G760">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H760">
+        <v>0.3</v>
+      </c>
+      <c r="I760">
+        <v>0.1</v>
+      </c>
+      <c r="J760">
+        <v>4</v>
+      </c>
+      <c r="K760">
+        <v>4</v>
+      </c>
+      <c r="L760">
+        <v>2</v>
+      </c>
+      <c r="M760">
+        <v>0.36</v>
+      </c>
+      <c r="N760">
+        <v>1.5</v>
+      </c>
+      <c r="O760">
+        <v>0.46</v>
+      </c>
+      <c r="P760">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="761" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A761" s="1">
+        <v>43025.949016203704</v>
+      </c>
+      <c r="B761" t="s">
+        <v>19</v>
+      </c>
+      <c r="C761">
+        <v>1</v>
+      </c>
+      <c r="D761">
+        <v>1</v>
+      </c>
+      <c r="E761">
+        <v>5</v>
+      </c>
+      <c r="F761">
+        <v>19.344980795734646</v>
+      </c>
+      <c r="G761">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H761">
+        <v>0.3</v>
+      </c>
+      <c r="I761">
+        <v>0.1</v>
+      </c>
+      <c r="J761">
+        <v>4</v>
+      </c>
+      <c r="K761">
+        <v>4</v>
+      </c>
+      <c r="L761">
+        <v>2</v>
+      </c>
+      <c r="M761">
+        <v>0.36</v>
+      </c>
+      <c r="N761">
+        <v>1.5</v>
+      </c>
+      <c r="O761">
+        <v>0.46</v>
+      </c>
+      <c r="P761">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="762" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A762" s="1">
+        <v>43025.950416666667</v>
+      </c>
+      <c r="B762" t="s">
+        <v>19</v>
+      </c>
+      <c r="C762">
+        <v>1</v>
+      </c>
+      <c r="D762" t="s">
+        <v>21</v>
+      </c>
+      <c r="E762">
+        <v>5</v>
+      </c>
+      <c r="F762">
+        <v>9.0134543454310236</v>
+      </c>
+      <c r="G762">
+        <v>5.1653660349312522</v>
+      </c>
+      <c r="H762">
+        <v>0.3</v>
+      </c>
+      <c r="I762">
+        <v>0.1</v>
+      </c>
+      <c r="J762">
+        <v>4</v>
+      </c>
+      <c r="K762">
+        <v>4</v>
+      </c>
+      <c r="L762">
+        <v>2</v>
+      </c>
+      <c r="M762">
+        <v>0.36</v>
+      </c>
+      <c r="N762">
+        <v>1.5</v>
+      </c>
+      <c r="O762">
+        <v>0.46</v>
+      </c>
+      <c r="P762">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="763" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A763" s="1">
+        <v>43025.953043981484</v>
+      </c>
+      <c r="B763" t="s">
+        <v>19</v>
+      </c>
+      <c r="C763">
+        <v>1</v>
+      </c>
+      <c r="D763" t="s">
+        <v>21</v>
+      </c>
+      <c r="E763">
+        <v>5</v>
+      </c>
+      <c r="F763">
+        <v>9.3619387236259346</v>
+      </c>
+      <c r="G763">
+        <v>4.9911920140927766</v>
+      </c>
+      <c r="H763">
+        <v>0.3</v>
+      </c>
+      <c r="I763">
+        <v>0.1</v>
+      </c>
+      <c r="J763">
+        <v>4</v>
+      </c>
+      <c r="K763">
+        <v>4</v>
+      </c>
+      <c r="L763">
+        <v>2</v>
+      </c>
+      <c r="M763">
+        <v>0.36</v>
+      </c>
+      <c r="N763">
+        <v>1.5</v>
+      </c>
+      <c r="O763">
+        <v>0.46</v>
+      </c>
+      <c r="P763">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="764" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A764" s="1">
+        <v>43025.954699074071</v>
+      </c>
+      <c r="B764" t="s">
+        <v>19</v>
+      </c>
+      <c r="C764">
+        <v>1</v>
+      </c>
+      <c r="D764" t="s">
+        <v>22</v>
+      </c>
+      <c r="E764">
+        <v>5</v>
+      </c>
+      <c r="F764">
+        <v>9.131894568055225</v>
+      </c>
+      <c r="G764">
+        <v>2.6039178213091256</v>
+      </c>
+      <c r="H764">
+        <v>0.3</v>
+      </c>
+      <c r="I764">
+        <v>0.1</v>
+      </c>
+      <c r="J764">
+        <v>4</v>
+      </c>
+      <c r="K764">
+        <v>4</v>
+      </c>
+      <c r="L764">
+        <v>2</v>
+      </c>
+      <c r="M764">
+        <v>0.36</v>
+      </c>
+      <c r="N764">
+        <v>1.5</v>
+      </c>
+      <c r="O764">
+        <v>0.46</v>
+      </c>
+      <c r="P764">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="765" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A765" s="1">
+        <v>43025.955081018517</v>
+      </c>
+      <c r="B765" t="s">
+        <v>19</v>
+      </c>
+      <c r="C765">
+        <v>1</v>
+      </c>
+      <c r="D765" t="s">
+        <v>23</v>
+      </c>
+      <c r="E765">
+        <v>5</v>
+      </c>
+      <c r="F765">
+        <v>9.1941465949587968</v>
+      </c>
+      <c r="G765">
+        <v>7.4718275355218031</v>
+      </c>
+      <c r="H765">
+        <v>0.3</v>
+      </c>
+      <c r="I765">
+        <v>0.1</v>
+      </c>
+      <c r="J765">
+        <v>4</v>
+      </c>
+      <c r="K765">
+        <v>4</v>
+      </c>
+      <c r="L765">
+        <v>2</v>
+      </c>
+      <c r="M765">
+        <v>0.36</v>
+      </c>
+      <c r="N765">
+        <v>1.5</v>
+      </c>
+      <c r="O765">
+        <v>0.46</v>
+      </c>
+      <c r="P765">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="766" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A766" s="1">
+        <v>43025.955706018518</v>
+      </c>
+      <c r="B766" t="s">
+        <v>19</v>
+      </c>
+      <c r="C766">
+        <v>1</v>
+      </c>
+      <c r="D766">
+        <v>1</v>
+      </c>
+      <c r="E766">
+        <v>5</v>
+      </c>
+      <c r="F766">
+        <v>19.298922877987078</v>
+      </c>
+      <c r="G766">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H766">
+        <v>0.3</v>
+      </c>
+      <c r="I766">
+        <v>0.1</v>
+      </c>
+      <c r="J766">
+        <v>4</v>
+      </c>
+      <c r="K766">
+        <v>4</v>
+      </c>
+      <c r="L766">
+        <v>2</v>
+      </c>
+      <c r="M766">
+        <v>0.36</v>
+      </c>
+      <c r="N766">
+        <v>1.5</v>
+      </c>
+      <c r="O766">
+        <v>0.46</v>
+      </c>
+      <c r="P766">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="767" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A767" s="1">
+        <v>43025.962557870371</v>
+      </c>
+      <c r="B767" t="s">
+        <v>19</v>
+      </c>
+      <c r="C767">
+        <v>1</v>
+      </c>
+      <c r="D767">
+        <v>100</v>
+      </c>
+      <c r="E767">
+        <v>5</v>
+      </c>
+      <c r="F767">
+        <v>21.463344860479083</v>
+      </c>
+      <c r="G767">
+        <v>6.5934065934065931</v>
+      </c>
+      <c r="H767">
+        <v>0.3</v>
+      </c>
+      <c r="I767">
+        <v>0.1</v>
+      </c>
+      <c r="J767">
+        <v>4</v>
+      </c>
+      <c r="K767">
+        <v>4</v>
+      </c>
+      <c r="L767">
+        <v>2</v>
+      </c>
+      <c r="M767">
+        <v>0.36</v>
+      </c>
+      <c r="N767">
+        <v>1.5</v>
+      </c>
+      <c r="O767">
+        <v>0.46</v>
+      </c>
+      <c r="P767">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="768" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A768" s="1">
+        <v>43025.96298611111</v>
+      </c>
+      <c r="B768" t="s">
+        <v>19</v>
+      </c>
+      <c r="C768">
+        <v>1</v>
+      </c>
+      <c r="D768">
+        <v>1000</v>
+      </c>
+      <c r="E768">
+        <v>3</v>
+      </c>
+      <c r="F768">
+        <v>24.458196523808777</v>
+      </c>
+      <c r="G768">
+        <v>6.4102564102564097</v>
+      </c>
+      <c r="H768">
+        <v>0.3</v>
+      </c>
+      <c r="I768">
+        <v>0.1</v>
+      </c>
+      <c r="J768">
+        <v>4</v>
+      </c>
+      <c r="K768">
+        <v>4</v>
+      </c>
+      <c r="L768">
+        <v>2</v>
+      </c>
+      <c r="M768">
+        <v>0.36</v>
+      </c>
+      <c r="N768">
+        <v>1.5</v>
+      </c>
+      <c r="O768">
+        <v>0.46</v>
+      </c>
+      <c r="P768">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="769" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A769" s="1">
+        <v>43025.963321759256</v>
+      </c>
+      <c r="B769" t="s">
+        <v>19</v>
+      </c>
+      <c r="C769">
+        <v>1</v>
+      </c>
+      <c r="D769">
+        <v>1000</v>
+      </c>
+      <c r="E769">
+        <v>3</v>
+      </c>
+      <c r="F769">
+        <v>20.713068788164936</v>
+      </c>
+      <c r="G769">
+        <v>6.4102564102564097</v>
+      </c>
+      <c r="H769">
+        <v>0.3</v>
+      </c>
+      <c r="I769">
+        <v>0.1</v>
+      </c>
+      <c r="J769">
+        <v>4</v>
+      </c>
+      <c r="K769">
+        <v>4</v>
+      </c>
+      <c r="L769">
+        <v>2</v>
+      </c>
+      <c r="M769">
+        <v>0.36</v>
+      </c>
+      <c r="N769">
+        <v>1.5</v>
+      </c>
+      <c r="O769">
+        <v>0.46</v>
+      </c>
+      <c r="P769">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="770" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A770" s="1">
+        <v>43028.57403935185</v>
+      </c>
+      <c r="B770" t="s">
+        <v>19</v>
+      </c>
+      <c r="C770" t="b">
+        <v>1</v>
+      </c>
+      <c r="D770">
+        <v>10</v>
+      </c>
+      <c r="E770">
+        <v>5</v>
+      </c>
+      <c r="F770">
+        <v>28.691493416044366</v>
+      </c>
+      <c r="G770">
+        <v>4.8969072164948448</v>
+      </c>
+      <c r="H770">
+        <v>0.3</v>
+      </c>
+      <c r="I770">
+        <v>0.1</v>
+      </c>
+      <c r="J770">
+        <v>4</v>
+      </c>
+      <c r="K770">
+        <v>4</v>
+      </c>
+      <c r="L770">
+        <v>2</v>
+      </c>
+      <c r="M770">
+        <v>0.36</v>
+      </c>
+      <c r="N770">
+        <v>1.5</v>
+      </c>
+      <c r="O770">
+        <v>0.46</v>
+      </c>
+      <c r="P770">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="771" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A771" s="1">
+        <v>43028.577951388892</v>
+      </c>
+      <c r="B771" t="s">
+        <v>16</v>
+      </c>
+      <c r="C771" t="b">
+        <v>1</v>
+      </c>
+      <c r="D771">
+        <v>10</v>
+      </c>
+      <c r="E771">
+        <v>5</v>
+      </c>
+      <c r="F771">
+        <v>21.847654328809632</v>
+      </c>
+      <c r="G771">
+        <v>4.877081681205393</v>
+      </c>
+      <c r="H771">
+        <v>0.3</v>
+      </c>
+      <c r="I771">
+        <v>0.1</v>
+      </c>
+      <c r="J771">
+        <v>4</v>
+      </c>
+      <c r="K771">
+        <v>4</v>
+      </c>
+      <c r="L771">
+        <v>2</v>
+      </c>
+      <c r="M771">
+        <v>0.36</v>
+      </c>
+      <c r="N771">
+        <v>1.5</v>
+      </c>
+      <c r="O771">
+        <v>0.46</v>
+      </c>
+      <c r="P771">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="772" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A772" s="1">
+        <v>43030.758518518516</v>
+      </c>
+      <c r="B772" t="s">
+        <v>16</v>
+      </c>
+      <c r="C772" t="b">
+        <v>1</v>
+      </c>
+      <c r="D772">
+        <v>10</v>
+      </c>
+      <c r="E772">
+        <v>5</v>
+      </c>
+      <c r="F772">
+        <v>43.762502731915198</v>
+      </c>
+      <c r="G772">
+        <v>4.877081681205393</v>
+      </c>
+      <c r="H772">
+        <v>0.3</v>
+      </c>
+      <c r="I772">
+        <v>0.1</v>
+      </c>
+      <c r="J772">
+        <v>4</v>
+      </c>
+      <c r="K772">
+        <v>4</v>
+      </c>
+      <c r="L772">
+        <v>2</v>
+      </c>
+      <c r="M772">
+        <v>0.36</v>
+      </c>
+      <c r="N772">
+        <v>1.5</v>
+      </c>
+      <c r="O772">
+        <v>0.46</v>
+      </c>
+      <c r="P772">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="773" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A773" s="1">
+        <v>43030.760127314818</v>
+      </c>
+      <c r="B773" t="s">
+        <v>16</v>
+      </c>
+      <c r="C773" t="b">
+        <v>1</v>
+      </c>
+      <c r="D773">
+        <v>50</v>
+      </c>
+      <c r="E773">
+        <v>5</v>
+      </c>
+      <c r="F773">
+        <v>20.340114562843969</v>
+      </c>
+      <c r="G773">
+        <v>5.0961538461538458</v>
+      </c>
+      <c r="H773">
+        <v>0.3</v>
+      </c>
+      <c r="I773">
+        <v>0.1</v>
+      </c>
+      <c r="J773">
+        <v>4</v>
+      </c>
+      <c r="K773">
+        <v>4</v>
+      </c>
+      <c r="L773">
+        <v>2</v>
+      </c>
+      <c r="M773">
+        <v>0.36</v>
+      </c>
+      <c r="N773">
+        <v>1.5</v>
+      </c>
+      <c r="O773">
+        <v>0.46</v>
+      </c>
+      <c r="P773">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="774" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A774" s="1">
+        <v>43030.760474537034</v>
+      </c>
+      <c r="B774" t="s">
+        <v>16</v>
+      </c>
+      <c r="C774" t="b">
+        <v>1</v>
+      </c>
+      <c r="D774" t="s">
+        <v>23</v>
+      </c>
+      <c r="E774">
+        <v>5</v>
+      </c>
+      <c r="F774">
+        <v>24.007714960527625</v>
+      </c>
+      <c r="G774">
+        <v>7.5146986771190587</v>
+      </c>
+      <c r="H774">
+        <v>0.3</v>
+      </c>
+      <c r="I774">
+        <v>0.1</v>
+      </c>
+      <c r="J774">
+        <v>4</v>
+      </c>
+      <c r="K774">
+        <v>4</v>
+      </c>
+      <c r="L774">
+        <v>2</v>
+      </c>
+      <c r="M774">
+        <v>0.36</v>
+      </c>
+      <c r="N774">
+        <v>1.5</v>
+      </c>
+      <c r="O774">
+        <v>0.46</v>
+      </c>
+      <c r="P774">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="775" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A775" s="1">
+        <v>43030.872349537036</v>
+      </c>
+      <c r="B775" t="s">
+        <v>16</v>
+      </c>
+      <c r="C775" t="b">
+        <v>1</v>
+      </c>
+      <c r="D775" t="s">
+        <v>23</v>
+      </c>
+      <c r="E775">
+        <v>5</v>
+      </c>
+      <c r="F775">
+        <v>23.512504411863056</v>
+      </c>
+      <c r="G775">
+        <v>7.5146986771190587</v>
+      </c>
+      <c r="H775">
+        <v>0.3</v>
+      </c>
+      <c r="I775">
+        <v>0.1</v>
+      </c>
+      <c r="J775">
+        <v>4</v>
+      </c>
+      <c r="K775">
+        <v>4</v>
+      </c>
+      <c r="L775">
+        <v>2</v>
+      </c>
+      <c r="M775">
+        <v>0.36</v>
+      </c>
+      <c r="N775">
+        <v>1.5</v>
+      </c>
+      <c r="O775">
+        <v>0.46</v>
+      </c>
+      <c r="P775">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="776" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A776" s="1">
+        <v>43030.874502314815</v>
+      </c>
+      <c r="B776" t="s">
+        <v>16</v>
+      </c>
+      <c r="C776" t="b">
+        <v>1</v>
+      </c>
+      <c r="D776" t="s">
+        <v>23</v>
+      </c>
+      <c r="E776">
+        <v>5</v>
+      </c>
+      <c r="F776">
+        <v>26.191198545197157</v>
+      </c>
+      <c r="G776">
+        <v>7.5210957563898742</v>
+      </c>
+      <c r="H776">
+        <v>0.3</v>
+      </c>
+      <c r="I776">
+        <v>0.1</v>
+      </c>
+      <c r="J776">
+        <v>4</v>
+      </c>
+      <c r="K776">
+        <v>4</v>
+      </c>
+      <c r="L776">
+        <v>2</v>
+      </c>
+      <c r="M776">
+        <v>0.36</v>
+      </c>
+      <c r="N776">
+        <v>1.5</v>
+      </c>
+      <c r="O776">
+        <v>0.46</v>
+      </c>
+      <c r="P776">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="777" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A777" s="1">
+        <v>43030.874907407408</v>
+      </c>
+      <c r="B777" t="s">
+        <v>16</v>
+      </c>
+      <c r="C777" t="b">
+        <v>1</v>
+      </c>
+      <c r="D777" t="s">
+        <v>22</v>
+      </c>
+      <c r="E777">
+        <v>5</v>
+      </c>
+      <c r="F777">
+        <v>27.550988337322011</v>
+      </c>
+      <c r="G777">
+        <v>2.8145497912939774</v>
+      </c>
+      <c r="H777">
+        <v>0.3</v>
+      </c>
+      <c r="I777">
+        <v>0.1</v>
+      </c>
+      <c r="J777">
+        <v>4</v>
+      </c>
+      <c r="K777">
+        <v>4</v>
+      </c>
+      <c r="L777">
+        <v>2</v>
+      </c>
+      <c r="M777">
+        <v>0.36</v>
+      </c>
+      <c r="N777">
+        <v>1.5</v>
+      </c>
+      <c r="O777">
+        <v>0.46</v>
+      </c>
+      <c r="P777">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RunSummaries.xlsx
+++ b/RunSummaries.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P777"/>
+  <dimension ref="A1:P894"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A747" workbookViewId="0">
-      <selection activeCell="A777" sqref="A777:P777"/>
+    <sheetView tabSelected="1" topLeftCell="A863" workbookViewId="0">
+      <selection activeCell="A894" sqref="A894:P894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39364,6 +39364,5856 @@
         <v>5.3756000000000004</v>
       </c>
     </row>
+    <row r="778" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A778" s="1">
+        <v>43033.35050925926</v>
+      </c>
+      <c r="B778" t="s">
+        <v>17</v>
+      </c>
+      <c r="C778">
+        <v>1</v>
+      </c>
+      <c r="D778">
+        <v>10</v>
+      </c>
+      <c r="E778">
+        <v>5</v>
+      </c>
+      <c r="F778">
+        <v>53.820381960566216</v>
+      </c>
+      <c r="G778">
+        <v>4.7977795400475811</v>
+      </c>
+      <c r="H778">
+        <v>0.3</v>
+      </c>
+      <c r="I778">
+        <v>0.1</v>
+      </c>
+      <c r="J778">
+        <v>4</v>
+      </c>
+      <c r="K778">
+        <v>4</v>
+      </c>
+      <c r="L778">
+        <v>2</v>
+      </c>
+      <c r="M778">
+        <v>0.36</v>
+      </c>
+      <c r="N778">
+        <v>1.5</v>
+      </c>
+      <c r="O778">
+        <v>0.46</v>
+      </c>
+      <c r="P778">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="779" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A779" s="1">
+        <v>43033.368472222224</v>
+      </c>
+      <c r="B779" t="s">
+        <v>17</v>
+      </c>
+      <c r="C779">
+        <v>1</v>
+      </c>
+      <c r="D779">
+        <v>1</v>
+      </c>
+      <c r="E779">
+        <v>5</v>
+      </c>
+      <c r="F779">
+        <v>23.541923152859425</v>
+      </c>
+      <c r="G779">
+        <v>5.0329670329670328</v>
+      </c>
+      <c r="H779">
+        <v>0.3</v>
+      </c>
+      <c r="I779">
+        <v>0.1</v>
+      </c>
+      <c r="J779">
+        <v>4</v>
+      </c>
+      <c r="K779">
+        <v>4</v>
+      </c>
+      <c r="L779">
+        <v>2</v>
+      </c>
+      <c r="M779">
+        <v>0.36</v>
+      </c>
+      <c r="N779">
+        <v>1.5</v>
+      </c>
+      <c r="O779">
+        <v>0.46</v>
+      </c>
+      <c r="P779">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="780" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A780" s="1">
+        <v>43033.375486111108</v>
+      </c>
+      <c r="B780" t="s">
+        <v>17</v>
+      </c>
+      <c r="C780">
+        <v>1</v>
+      </c>
+      <c r="D780">
+        <v>1</v>
+      </c>
+      <c r="E780">
+        <v>5</v>
+      </c>
+      <c r="F780">
+        <v>22.66689663359772</v>
+      </c>
+      <c r="G780">
+        <v>5.0329670329670328</v>
+      </c>
+      <c r="H780">
+        <v>0.3</v>
+      </c>
+      <c r="I780">
+        <v>0.1</v>
+      </c>
+      <c r="J780">
+        <v>4</v>
+      </c>
+      <c r="K780">
+        <v>4</v>
+      </c>
+      <c r="L780">
+        <v>2</v>
+      </c>
+      <c r="M780">
+        <v>0.36</v>
+      </c>
+      <c r="N780">
+        <v>1.5</v>
+      </c>
+      <c r="O780">
+        <v>0.46</v>
+      </c>
+      <c r="P780">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="781" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A781" s="1">
+        <v>43033.386747685188</v>
+      </c>
+      <c r="B781" t="s">
+        <v>17</v>
+      </c>
+      <c r="C781">
+        <v>1</v>
+      </c>
+      <c r="D781">
+        <v>1</v>
+      </c>
+      <c r="E781">
+        <v>5</v>
+      </c>
+      <c r="F781">
+        <v>22.648629622151319</v>
+      </c>
+      <c r="G781">
+        <v>5.0329670329670328</v>
+      </c>
+      <c r="H781">
+        <v>0.3</v>
+      </c>
+      <c r="I781">
+        <v>0.1</v>
+      </c>
+      <c r="J781">
+        <v>4</v>
+      </c>
+      <c r="K781">
+        <v>4</v>
+      </c>
+      <c r="L781">
+        <v>2</v>
+      </c>
+      <c r="M781">
+        <v>0.36</v>
+      </c>
+      <c r="N781">
+        <v>1.5</v>
+      </c>
+      <c r="O781">
+        <v>0.46</v>
+      </c>
+      <c r="P781">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="782" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A782" s="1">
+        <v>43033.387719907405</v>
+      </c>
+      <c r="B782" t="s">
+        <v>17</v>
+      </c>
+      <c r="C782">
+        <v>1</v>
+      </c>
+      <c r="D782">
+        <v>1</v>
+      </c>
+      <c r="E782">
+        <v>5</v>
+      </c>
+      <c r="F782">
+        <v>22.358832570101249</v>
+      </c>
+      <c r="G782">
+        <v>5.0329670329670328</v>
+      </c>
+      <c r="H782">
+        <v>0.3</v>
+      </c>
+      <c r="I782">
+        <v>0.1</v>
+      </c>
+      <c r="J782">
+        <v>4</v>
+      </c>
+      <c r="K782">
+        <v>4</v>
+      </c>
+      <c r="L782">
+        <v>2</v>
+      </c>
+      <c r="M782">
+        <v>0.36</v>
+      </c>
+      <c r="N782">
+        <v>1.5</v>
+      </c>
+      <c r="O782">
+        <v>0.46</v>
+      </c>
+      <c r="P782">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="783" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A783" s="1">
+        <v>43033.388599537036</v>
+      </c>
+      <c r="B783" t="s">
+        <v>17</v>
+      </c>
+      <c r="C783">
+        <v>1</v>
+      </c>
+      <c r="D783">
+        <v>1000</v>
+      </c>
+      <c r="E783">
+        <v>3</v>
+      </c>
+      <c r="F783">
+        <v>6.9515536687458619</v>
+      </c>
+      <c r="G783">
+        <v>6.4102564102564097</v>
+      </c>
+      <c r="H783">
+        <v>0.3</v>
+      </c>
+      <c r="I783">
+        <v>0.1</v>
+      </c>
+      <c r="J783">
+        <v>4</v>
+      </c>
+      <c r="K783">
+        <v>4</v>
+      </c>
+      <c r="L783">
+        <v>2</v>
+      </c>
+      <c r="M783">
+        <v>0.36</v>
+      </c>
+      <c r="N783">
+        <v>1.5</v>
+      </c>
+      <c r="O783">
+        <v>0.46</v>
+      </c>
+      <c r="P783">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="784" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A784" s="1">
+        <v>43033.395856481482</v>
+      </c>
+      <c r="B784" t="s">
+        <v>17</v>
+      </c>
+      <c r="C784">
+        <v>1</v>
+      </c>
+      <c r="D784">
+        <v>1000</v>
+      </c>
+      <c r="E784">
+        <v>3</v>
+      </c>
+      <c r="F784">
+        <v>4.200681773019439</v>
+      </c>
+      <c r="G784">
+        <v>6.4102564102564097</v>
+      </c>
+      <c r="H784">
+        <v>0.3</v>
+      </c>
+      <c r="I784">
+        <v>0.1</v>
+      </c>
+      <c r="J784">
+        <v>4</v>
+      </c>
+      <c r="K784">
+        <v>4</v>
+      </c>
+      <c r="L784">
+        <v>2</v>
+      </c>
+      <c r="M784">
+        <v>0.36</v>
+      </c>
+      <c r="N784">
+        <v>1.5</v>
+      </c>
+      <c r="O784">
+        <v>0.46</v>
+      </c>
+      <c r="P784">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="785" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A785" s="1">
+        <v>43033.408113425925</v>
+      </c>
+      <c r="B785" t="s">
+        <v>17</v>
+      </c>
+      <c r="C785">
+        <v>1</v>
+      </c>
+      <c r="D785">
+        <v>1000</v>
+      </c>
+      <c r="E785">
+        <v>3</v>
+      </c>
+      <c r="F785">
+        <v>4.4084395090440678</v>
+      </c>
+      <c r="G785">
+        <v>6.4102564102564097</v>
+      </c>
+      <c r="H785">
+        <v>0.3</v>
+      </c>
+      <c r="I785">
+        <v>0.1</v>
+      </c>
+      <c r="J785">
+        <v>4</v>
+      </c>
+      <c r="K785">
+        <v>4</v>
+      </c>
+      <c r="L785">
+        <v>2</v>
+      </c>
+      <c r="M785">
+        <v>0.36</v>
+      </c>
+      <c r="N785">
+        <v>1.5</v>
+      </c>
+      <c r="O785">
+        <v>0.46</v>
+      </c>
+      <c r="P785">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="786" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A786" s="1">
+        <v>43033.408807870372</v>
+      </c>
+      <c r="B786" t="s">
+        <v>17</v>
+      </c>
+      <c r="C786">
+        <v>1</v>
+      </c>
+      <c r="D786">
+        <v>1000</v>
+      </c>
+      <c r="E786">
+        <v>3</v>
+      </c>
+      <c r="F786">
+        <v>3.9562229787522716</v>
+      </c>
+      <c r="G786">
+        <v>6.4102564102564097</v>
+      </c>
+      <c r="H786">
+        <v>0.3</v>
+      </c>
+      <c r="I786">
+        <v>0.1</v>
+      </c>
+      <c r="J786">
+        <v>4</v>
+      </c>
+      <c r="K786">
+        <v>4</v>
+      </c>
+      <c r="L786">
+        <v>2</v>
+      </c>
+      <c r="M786">
+        <v>0.36</v>
+      </c>
+      <c r="N786">
+        <v>1.5</v>
+      </c>
+      <c r="O786">
+        <v>0.46</v>
+      </c>
+      <c r="P786">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="787" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A787" s="1">
+        <v>43033.409236111111</v>
+      </c>
+      <c r="B787" t="s">
+        <v>17</v>
+      </c>
+      <c r="C787">
+        <v>1</v>
+      </c>
+      <c r="D787">
+        <v>1000</v>
+      </c>
+      <c r="E787">
+        <v>3</v>
+      </c>
+      <c r="F787">
+        <v>3.8223262264378559</v>
+      </c>
+      <c r="G787">
+        <v>6.4102564102564097</v>
+      </c>
+      <c r="H787">
+        <v>0.3</v>
+      </c>
+      <c r="I787">
+        <v>0.1</v>
+      </c>
+      <c r="J787">
+        <v>4</v>
+      </c>
+      <c r="K787">
+        <v>4</v>
+      </c>
+      <c r="L787">
+        <v>2</v>
+      </c>
+      <c r="M787">
+        <v>0.36</v>
+      </c>
+      <c r="N787">
+        <v>1.5</v>
+      </c>
+      <c r="O787">
+        <v>0.46</v>
+      </c>
+      <c r="P787">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="788" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A788" s="1">
+        <v>43033.410590277781</v>
+      </c>
+      <c r="B788" t="s">
+        <v>17</v>
+      </c>
+      <c r="C788">
+        <v>1</v>
+      </c>
+      <c r="D788">
+        <v>1000</v>
+      </c>
+      <c r="E788">
+        <v>3</v>
+      </c>
+      <c r="F788">
+        <v>3.8326395393152253</v>
+      </c>
+      <c r="G788">
+        <v>6.4102564102564097</v>
+      </c>
+      <c r="H788">
+        <v>0.3</v>
+      </c>
+      <c r="I788">
+        <v>0.1</v>
+      </c>
+      <c r="J788">
+        <v>4</v>
+      </c>
+      <c r="K788">
+        <v>4</v>
+      </c>
+      <c r="L788">
+        <v>2</v>
+      </c>
+      <c r="M788">
+        <v>0.36</v>
+      </c>
+      <c r="N788">
+        <v>1.5</v>
+      </c>
+      <c r="O788">
+        <v>0.46</v>
+      </c>
+      <c r="P788">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="789" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A789" s="1">
+        <v>43033.413171296299</v>
+      </c>
+      <c r="B789" t="s">
+        <v>17</v>
+      </c>
+      <c r="C789">
+        <v>1</v>
+      </c>
+      <c r="D789">
+        <v>1000</v>
+      </c>
+      <c r="E789">
+        <v>3</v>
+      </c>
+      <c r="F789">
+        <v>3.7445159126769911</v>
+      </c>
+      <c r="G789">
+        <v>6.4102564102564097</v>
+      </c>
+      <c r="H789">
+        <v>0.3</v>
+      </c>
+      <c r="I789">
+        <v>0.1</v>
+      </c>
+      <c r="J789">
+        <v>4</v>
+      </c>
+      <c r="K789">
+        <v>4</v>
+      </c>
+      <c r="L789">
+        <v>2</v>
+      </c>
+      <c r="M789">
+        <v>0.36</v>
+      </c>
+      <c r="N789">
+        <v>1.5</v>
+      </c>
+      <c r="O789">
+        <v>0.46</v>
+      </c>
+      <c r="P789">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="790" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A790" s="1">
+        <v>43033.415509259263</v>
+      </c>
+      <c r="B790" t="s">
+        <v>17</v>
+      </c>
+      <c r="C790">
+        <v>1</v>
+      </c>
+      <c r="D790">
+        <v>1000</v>
+      </c>
+      <c r="E790">
+        <v>3</v>
+      </c>
+      <c r="F790">
+        <v>4.2096648829296592</v>
+      </c>
+      <c r="G790">
+        <v>6.4102564102564097</v>
+      </c>
+      <c r="H790">
+        <v>0.3</v>
+      </c>
+      <c r="I790">
+        <v>0.1</v>
+      </c>
+      <c r="J790">
+        <v>4</v>
+      </c>
+      <c r="K790">
+        <v>4</v>
+      </c>
+      <c r="L790">
+        <v>2</v>
+      </c>
+      <c r="M790">
+        <v>0.36</v>
+      </c>
+      <c r="N790">
+        <v>1.5</v>
+      </c>
+      <c r="O790">
+        <v>0.46</v>
+      </c>
+      <c r="P790">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="791" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A791" s="1">
+        <v>43033.860196759262</v>
+      </c>
+      <c r="B791" t="s">
+        <v>17</v>
+      </c>
+      <c r="C791">
+        <v>1</v>
+      </c>
+      <c r="D791">
+        <v>1000</v>
+      </c>
+      <c r="E791">
+        <v>3</v>
+      </c>
+      <c r="F791">
+        <v>9.2768684519822973</v>
+      </c>
+      <c r="G791">
+        <v>6.4102564102564097</v>
+      </c>
+      <c r="H791">
+        <v>0.3</v>
+      </c>
+      <c r="I791">
+        <v>0.1</v>
+      </c>
+      <c r="J791">
+        <v>4</v>
+      </c>
+      <c r="K791">
+        <v>4</v>
+      </c>
+      <c r="L791">
+        <v>2</v>
+      </c>
+      <c r="M791">
+        <v>0.36</v>
+      </c>
+      <c r="N791">
+        <v>1.5</v>
+      </c>
+      <c r="O791">
+        <v>0.46</v>
+      </c>
+      <c r="P791">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="792" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A792" s="1">
+        <v>43035.463784722226</v>
+      </c>
+      <c r="B792" t="s">
+        <v>19</v>
+      </c>
+      <c r="C792">
+        <v>1</v>
+      </c>
+      <c r="D792">
+        <v>1000</v>
+      </c>
+      <c r="E792">
+        <v>3</v>
+      </c>
+      <c r="F792">
+        <v>18.518581082702656</v>
+      </c>
+      <c r="G792">
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="H792">
+        <v>0.3</v>
+      </c>
+      <c r="I792">
+        <v>0.1</v>
+      </c>
+      <c r="J792">
+        <v>4</v>
+      </c>
+      <c r="K792">
+        <v>4</v>
+      </c>
+      <c r="L792">
+        <v>2</v>
+      </c>
+      <c r="M792">
+        <v>0.36</v>
+      </c>
+      <c r="N792">
+        <v>1.5</v>
+      </c>
+      <c r="O792">
+        <v>0.46</v>
+      </c>
+      <c r="P792">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="793" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A793" s="1">
+        <v>43035.465532407405</v>
+      </c>
+      <c r="B793" t="s">
+        <v>19</v>
+      </c>
+      <c r="C793">
+        <v>1</v>
+      </c>
+      <c r="D793">
+        <v>1000</v>
+      </c>
+      <c r="E793">
+        <v>3</v>
+      </c>
+      <c r="F793">
+        <v>7.1476525293535831</v>
+      </c>
+      <c r="G793">
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="H793">
+        <v>0.3</v>
+      </c>
+      <c r="I793">
+        <v>0.1</v>
+      </c>
+      <c r="J793">
+        <v>4</v>
+      </c>
+      <c r="K793">
+        <v>4</v>
+      </c>
+      <c r="L793">
+        <v>2</v>
+      </c>
+      <c r="M793">
+        <v>0.36</v>
+      </c>
+      <c r="N793">
+        <v>1.5</v>
+      </c>
+      <c r="O793">
+        <v>0.46</v>
+      </c>
+      <c r="P793">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="794" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A794" s="1">
+        <v>43035.47078703704</v>
+      </c>
+      <c r="B794" t="s">
+        <v>19</v>
+      </c>
+      <c r="C794">
+        <v>1</v>
+      </c>
+      <c r="D794">
+        <v>1</v>
+      </c>
+      <c r="E794">
+        <v>5</v>
+      </c>
+      <c r="F794">
+        <v>95.109446872999058</v>
+      </c>
+      <c r="G794">
+        <v>5.0469530469530461</v>
+      </c>
+      <c r="H794">
+        <v>0.3</v>
+      </c>
+      <c r="I794">
+        <v>0.1</v>
+      </c>
+      <c r="J794">
+        <v>4</v>
+      </c>
+      <c r="K794">
+        <v>4</v>
+      </c>
+      <c r="L794">
+        <v>2</v>
+      </c>
+      <c r="M794">
+        <v>0.36</v>
+      </c>
+      <c r="N794">
+        <v>1.5</v>
+      </c>
+      <c r="O794">
+        <v>0.46</v>
+      </c>
+      <c r="P794">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="795" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A795" s="1">
+        <v>43036.570925925924</v>
+      </c>
+      <c r="B795" t="s">
+        <v>17</v>
+      </c>
+      <c r="C795">
+        <v>1</v>
+      </c>
+      <c r="D795">
+        <v>1</v>
+      </c>
+      <c r="E795">
+        <v>5</v>
+      </c>
+      <c r="F795">
+        <v>112.26100073373958</v>
+      </c>
+      <c r="G795">
+        <v>5.0329670329670328</v>
+      </c>
+      <c r="H795">
+        <v>0.3</v>
+      </c>
+      <c r="I795">
+        <v>0.1</v>
+      </c>
+      <c r="J795">
+        <v>4</v>
+      </c>
+      <c r="K795">
+        <v>4</v>
+      </c>
+      <c r="L795">
+        <v>2</v>
+      </c>
+      <c r="M795">
+        <v>0.36</v>
+      </c>
+      <c r="N795">
+        <v>1.5</v>
+      </c>
+      <c r="O795">
+        <v>0.46</v>
+      </c>
+      <c r="P795">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="796" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A796" s="1">
+        <v>43036.573148148149</v>
+      </c>
+      <c r="B796" t="s">
+        <v>17</v>
+      </c>
+      <c r="C796">
+        <v>1</v>
+      </c>
+      <c r="D796">
+        <v>1</v>
+      </c>
+      <c r="E796">
+        <v>5</v>
+      </c>
+      <c r="F796">
+        <v>28.32473943925401</v>
+      </c>
+      <c r="G796">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H796">
+        <v>0.3</v>
+      </c>
+      <c r="I796">
+        <v>0.1</v>
+      </c>
+      <c r="J796">
+        <v>4</v>
+      </c>
+      <c r="K796">
+        <v>4</v>
+      </c>
+      <c r="L796">
+        <v>2</v>
+      </c>
+      <c r="M796">
+        <v>0.36</v>
+      </c>
+      <c r="N796">
+        <v>1.5</v>
+      </c>
+      <c r="O796">
+        <v>0.46</v>
+      </c>
+      <c r="P796">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="797" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A797" s="1">
+        <v>43036.57534722222</v>
+      </c>
+      <c r="B797" t="s">
+        <v>18</v>
+      </c>
+      <c r="C797">
+        <v>0</v>
+      </c>
+      <c r="D797">
+        <v>1</v>
+      </c>
+      <c r="E797">
+        <v>5</v>
+      </c>
+      <c r="F797">
+        <v>27.890070900426132</v>
+      </c>
+      <c r="G797">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H797">
+        <v>0.3</v>
+      </c>
+      <c r="I797">
+        <v>0.1</v>
+      </c>
+      <c r="J797">
+        <v>4</v>
+      </c>
+      <c r="K797">
+        <v>4</v>
+      </c>
+      <c r="L797">
+        <v>2</v>
+      </c>
+      <c r="M797">
+        <v>0.36</v>
+      </c>
+      <c r="N797">
+        <v>1.5</v>
+      </c>
+      <c r="O797">
+        <v>0.46</v>
+      </c>
+      <c r="P797">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="798" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A798" s="1">
+        <v>43036.575740740744</v>
+      </c>
+      <c r="B798" t="s">
+        <v>18</v>
+      </c>
+      <c r="C798">
+        <v>0</v>
+      </c>
+      <c r="D798">
+        <v>1</v>
+      </c>
+      <c r="E798">
+        <v>5</v>
+      </c>
+      <c r="F798">
+        <v>55.084935875385227</v>
+      </c>
+      <c r="G798">
+        <v>5.0029970029970023</v>
+      </c>
+      <c r="H798">
+        <v>0.3</v>
+      </c>
+      <c r="I798">
+        <v>0.1</v>
+      </c>
+      <c r="J798">
+        <v>4</v>
+      </c>
+      <c r="K798">
+        <v>4</v>
+      </c>
+      <c r="L798">
+        <v>2</v>
+      </c>
+      <c r="M798">
+        <v>0.36</v>
+      </c>
+      <c r="N798">
+        <v>1.5</v>
+      </c>
+      <c r="O798">
+        <v>0.46</v>
+      </c>
+      <c r="P798">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="799" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A799" s="1">
+        <v>43036.576157407406</v>
+      </c>
+      <c r="B799" t="s">
+        <v>19</v>
+      </c>
+      <c r="C799">
+        <v>0</v>
+      </c>
+      <c r="D799">
+        <v>1</v>
+      </c>
+      <c r="E799">
+        <v>5</v>
+      </c>
+      <c r="F799">
+        <v>28.560216723566416</v>
+      </c>
+      <c r="G799">
+        <v>4.9990009990009989</v>
+      </c>
+      <c r="H799">
+        <v>0.3</v>
+      </c>
+      <c r="I799">
+        <v>0.1</v>
+      </c>
+      <c r="J799">
+        <v>4</v>
+      </c>
+      <c r="K799">
+        <v>4</v>
+      </c>
+      <c r="L799">
+        <v>2</v>
+      </c>
+      <c r="M799">
+        <v>0.36</v>
+      </c>
+      <c r="N799">
+        <v>1.5</v>
+      </c>
+      <c r="O799">
+        <v>0.46</v>
+      </c>
+      <c r="P799">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="800" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A800" s="1">
+        <v>43036.576550925929</v>
+      </c>
+      <c r="B800" t="s">
+        <v>16</v>
+      </c>
+      <c r="C800">
+        <v>0</v>
+      </c>
+      <c r="D800">
+        <v>1</v>
+      </c>
+      <c r="E800">
+        <v>5</v>
+      </c>
+      <c r="F800">
+        <v>28.292803048363133</v>
+      </c>
+      <c r="G800">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H800">
+        <v>0.3</v>
+      </c>
+      <c r="I800">
+        <v>0.1</v>
+      </c>
+      <c r="J800">
+        <v>4</v>
+      </c>
+      <c r="K800">
+        <v>4</v>
+      </c>
+      <c r="L800">
+        <v>2</v>
+      </c>
+      <c r="M800">
+        <v>0.36</v>
+      </c>
+      <c r="N800">
+        <v>1.5</v>
+      </c>
+      <c r="O800">
+        <v>0.46</v>
+      </c>
+      <c r="P800">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="801" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A801" s="1">
+        <v>43036.576956018522</v>
+      </c>
+      <c r="B801" t="s">
+        <v>18</v>
+      </c>
+      <c r="C801">
+        <v>1</v>
+      </c>
+      <c r="D801">
+        <v>1</v>
+      </c>
+      <c r="E801">
+        <v>5</v>
+      </c>
+      <c r="F801">
+        <v>29.837230131513138</v>
+      </c>
+      <c r="G801">
+        <v>4.8071928071928074</v>
+      </c>
+      <c r="H801">
+        <v>0.3</v>
+      </c>
+      <c r="I801">
+        <v>0.1</v>
+      </c>
+      <c r="J801">
+        <v>4</v>
+      </c>
+      <c r="K801">
+        <v>4</v>
+      </c>
+      <c r="L801">
+        <v>2</v>
+      </c>
+      <c r="M801">
+        <v>0.36</v>
+      </c>
+      <c r="N801">
+        <v>1.5</v>
+      </c>
+      <c r="O801">
+        <v>0.46</v>
+      </c>
+      <c r="P801">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="802" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A802" s="1">
+        <v>43036.577349537038</v>
+      </c>
+      <c r="B802" t="s">
+        <v>19</v>
+      </c>
+      <c r="C802">
+        <v>1</v>
+      </c>
+      <c r="D802">
+        <v>1</v>
+      </c>
+      <c r="E802">
+        <v>5</v>
+      </c>
+      <c r="F802">
+        <v>29.797707711817303</v>
+      </c>
+      <c r="G802">
+        <v>5.0469530469530461</v>
+      </c>
+      <c r="H802">
+        <v>0.3</v>
+      </c>
+      <c r="I802">
+        <v>0.1</v>
+      </c>
+      <c r="J802">
+        <v>4</v>
+      </c>
+      <c r="K802">
+        <v>4</v>
+      </c>
+      <c r="L802">
+        <v>2</v>
+      </c>
+      <c r="M802">
+        <v>0.36</v>
+      </c>
+      <c r="N802">
+        <v>1.5</v>
+      </c>
+      <c r="O802">
+        <v>0.46</v>
+      </c>
+      <c r="P802">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="803" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A803" s="1">
+        <v>43036.577662037038</v>
+      </c>
+      <c r="B803" t="s">
+        <v>19</v>
+      </c>
+      <c r="C803">
+        <v>1</v>
+      </c>
+      <c r="D803">
+        <v>1</v>
+      </c>
+      <c r="E803">
+        <v>5</v>
+      </c>
+      <c r="F803">
+        <v>24.791351088785689</v>
+      </c>
+      <c r="G803">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H803">
+        <v>0.3</v>
+      </c>
+      <c r="I803">
+        <v>0.1</v>
+      </c>
+      <c r="J803">
+        <v>4</v>
+      </c>
+      <c r="K803">
+        <v>4</v>
+      </c>
+      <c r="L803">
+        <v>2</v>
+      </c>
+      <c r="M803">
+        <v>0.36</v>
+      </c>
+      <c r="N803">
+        <v>1.5</v>
+      </c>
+      <c r="O803">
+        <v>0.46</v>
+      </c>
+      <c r="P803">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="804" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A804" s="1">
+        <v>43036.577881944446</v>
+      </c>
+      <c r="B804" t="s">
+        <v>16</v>
+      </c>
+      <c r="C804">
+        <v>1</v>
+      </c>
+      <c r="D804">
+        <v>1</v>
+      </c>
+      <c r="E804">
+        <v>5</v>
+      </c>
+      <c r="F804">
+        <v>29.694291070936586</v>
+      </c>
+      <c r="G804">
+        <v>5.0269730269730264</v>
+      </c>
+      <c r="H804">
+        <v>0.3</v>
+      </c>
+      <c r="I804">
+        <v>0.1</v>
+      </c>
+      <c r="J804">
+        <v>4</v>
+      </c>
+      <c r="K804">
+        <v>4</v>
+      </c>
+      <c r="L804">
+        <v>2</v>
+      </c>
+      <c r="M804">
+        <v>0.36</v>
+      </c>
+      <c r="N804">
+        <v>1.5</v>
+      </c>
+      <c r="O804">
+        <v>0.46</v>
+      </c>
+      <c r="P804">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="805" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A805" s="1">
+        <v>43036.578043981484</v>
+      </c>
+      <c r="B805" t="s">
+        <v>16</v>
+      </c>
+      <c r="C805">
+        <v>1</v>
+      </c>
+      <c r="D805">
+        <v>1</v>
+      </c>
+      <c r="E805">
+        <v>5</v>
+      </c>
+      <c r="F805">
+        <v>26.167915645228437</v>
+      </c>
+      <c r="G805">
+        <v>5.0149850149850153</v>
+      </c>
+      <c r="H805">
+        <v>0.3</v>
+      </c>
+      <c r="I805">
+        <v>0.1</v>
+      </c>
+      <c r="J805">
+        <v>4</v>
+      </c>
+      <c r="K805">
+        <v>4</v>
+      </c>
+      <c r="L805">
+        <v>2</v>
+      </c>
+      <c r="M805">
+        <v>0.36</v>
+      </c>
+      <c r="N805">
+        <v>1.5</v>
+      </c>
+      <c r="O805">
+        <v>0.46</v>
+      </c>
+      <c r="P805">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="806" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A806" s="1">
+        <v>43036.578287037039</v>
+      </c>
+      <c r="B806" t="s">
+        <v>17</v>
+      </c>
+      <c r="C806">
+        <v>1</v>
+      </c>
+      <c r="D806">
+        <v>1</v>
+      </c>
+      <c r="E806">
+        <v>5</v>
+      </c>
+      <c r="F806">
+        <v>28.362704142316677</v>
+      </c>
+      <c r="G806">
+        <v>5.0329670329670328</v>
+      </c>
+      <c r="H806">
+        <v>0.3</v>
+      </c>
+      <c r="I806">
+        <v>0.1</v>
+      </c>
+      <c r="J806">
+        <v>4</v>
+      </c>
+      <c r="K806">
+        <v>4</v>
+      </c>
+      <c r="L806">
+        <v>2</v>
+      </c>
+      <c r="M806">
+        <v>0.36</v>
+      </c>
+      <c r="N806">
+        <v>1.5</v>
+      </c>
+      <c r="O806">
+        <v>0.46</v>
+      </c>
+      <c r="P806">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="807" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A807" s="1">
+        <v>43036.578414351854</v>
+      </c>
+      <c r="B807" t="s">
+        <v>17</v>
+      </c>
+      <c r="C807">
+        <v>1</v>
+      </c>
+      <c r="D807">
+        <v>1</v>
+      </c>
+      <c r="E807">
+        <v>5</v>
+      </c>
+      <c r="F807">
+        <v>25.393189693598931</v>
+      </c>
+      <c r="G807">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H807">
+        <v>0.3</v>
+      </c>
+      <c r="I807">
+        <v>0.1</v>
+      </c>
+      <c r="J807">
+        <v>4</v>
+      </c>
+      <c r="K807">
+        <v>4</v>
+      </c>
+      <c r="L807">
+        <v>2</v>
+      </c>
+      <c r="M807">
+        <v>0.36</v>
+      </c>
+      <c r="N807">
+        <v>1.5</v>
+      </c>
+      <c r="O807">
+        <v>0.46</v>
+      </c>
+      <c r="P807">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="808" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A808" s="1">
+        <v>43036.581099537034</v>
+      </c>
+      <c r="B808" t="s">
+        <v>18</v>
+      </c>
+      <c r="C808">
+        <v>0</v>
+      </c>
+      <c r="D808">
+        <v>1</v>
+      </c>
+      <c r="E808">
+        <v>5</v>
+      </c>
+      <c r="F808">
+        <v>26.785961798823521</v>
+      </c>
+      <c r="G808">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H808">
+        <v>0.3</v>
+      </c>
+      <c r="I808">
+        <v>0.1</v>
+      </c>
+      <c r="J808">
+        <v>4</v>
+      </c>
+      <c r="K808">
+        <v>4</v>
+      </c>
+      <c r="L808">
+        <v>2</v>
+      </c>
+      <c r="M808">
+        <v>0.36</v>
+      </c>
+      <c r="N808">
+        <v>1.5</v>
+      </c>
+      <c r="O808">
+        <v>0.46</v>
+      </c>
+      <c r="P808">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="809" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A809" s="1">
+        <v>43036.581504629627</v>
+      </c>
+      <c r="B809" t="s">
+        <v>18</v>
+      </c>
+      <c r="C809">
+        <v>0</v>
+      </c>
+      <c r="D809">
+        <v>1</v>
+      </c>
+      <c r="E809">
+        <v>5</v>
+      </c>
+      <c r="F809">
+        <v>54.427638014557672</v>
+      </c>
+      <c r="G809">
+        <v>5.0029970029970023</v>
+      </c>
+      <c r="H809">
+        <v>0.3</v>
+      </c>
+      <c r="I809">
+        <v>0.1</v>
+      </c>
+      <c r="J809">
+        <v>4</v>
+      </c>
+      <c r="K809">
+        <v>4</v>
+      </c>
+      <c r="L809">
+        <v>2</v>
+      </c>
+      <c r="M809">
+        <v>0.36</v>
+      </c>
+      <c r="N809">
+        <v>1.5</v>
+      </c>
+      <c r="O809">
+        <v>0.46</v>
+      </c>
+      <c r="P809">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="810" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A810" s="1">
+        <v>43036.581921296296</v>
+      </c>
+      <c r="B810" t="s">
+        <v>19</v>
+      </c>
+      <c r="C810">
+        <v>0</v>
+      </c>
+      <c r="D810">
+        <v>1</v>
+      </c>
+      <c r="E810">
+        <v>5</v>
+      </c>
+      <c r="F810">
+        <v>28.843065489056784</v>
+      </c>
+      <c r="G810">
+        <v>4.9990009990009989</v>
+      </c>
+      <c r="H810">
+        <v>0.3</v>
+      </c>
+      <c r="I810">
+        <v>0.1</v>
+      </c>
+      <c r="J810">
+        <v>4</v>
+      </c>
+      <c r="K810">
+        <v>4</v>
+      </c>
+      <c r="L810">
+        <v>2</v>
+      </c>
+      <c r="M810">
+        <v>0.36</v>
+      </c>
+      <c r="N810">
+        <v>1.5</v>
+      </c>
+      <c r="O810">
+        <v>0.46</v>
+      </c>
+      <c r="P810">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="811" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A811" s="1">
+        <v>43036.582326388889</v>
+      </c>
+      <c r="B811" t="s">
+        <v>16</v>
+      </c>
+      <c r="C811">
+        <v>0</v>
+      </c>
+      <c r="D811">
+        <v>1</v>
+      </c>
+      <c r="E811">
+        <v>5</v>
+      </c>
+      <c r="F811">
+        <v>29.334026220710015</v>
+      </c>
+      <c r="G811">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H811">
+        <v>0.3</v>
+      </c>
+      <c r="I811">
+        <v>0.1</v>
+      </c>
+      <c r="J811">
+        <v>4</v>
+      </c>
+      <c r="K811">
+        <v>4</v>
+      </c>
+      <c r="L811">
+        <v>2</v>
+      </c>
+      <c r="M811">
+        <v>0.36</v>
+      </c>
+      <c r="N811">
+        <v>1.5</v>
+      </c>
+      <c r="O811">
+        <v>0.46</v>
+      </c>
+      <c r="P811">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="812" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A812" s="1">
+        <v>43036.582719907405</v>
+      </c>
+      <c r="B812" t="s">
+        <v>17</v>
+      </c>
+      <c r="C812">
+        <v>0</v>
+      </c>
+      <c r="D812">
+        <v>1</v>
+      </c>
+      <c r="E812">
+        <v>5</v>
+      </c>
+      <c r="F812">
+        <v>28.22123160091223</v>
+      </c>
+      <c r="G812">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H812">
+        <v>0.3</v>
+      </c>
+      <c r="I812">
+        <v>0.1</v>
+      </c>
+      <c r="J812">
+        <v>4</v>
+      </c>
+      <c r="K812">
+        <v>4</v>
+      </c>
+      <c r="L812">
+        <v>2</v>
+      </c>
+      <c r="M812">
+        <v>0.36</v>
+      </c>
+      <c r="N812">
+        <v>1.5</v>
+      </c>
+      <c r="O812">
+        <v>0.46</v>
+      </c>
+      <c r="P812">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="813" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A813" s="1">
+        <v>43036.583113425928</v>
+      </c>
+      <c r="B813" t="s">
+        <v>18</v>
+      </c>
+      <c r="C813">
+        <v>1</v>
+      </c>
+      <c r="D813">
+        <v>1</v>
+      </c>
+      <c r="E813">
+        <v>5</v>
+      </c>
+      <c r="F813">
+        <v>28.587382687265986</v>
+      </c>
+      <c r="G813">
+        <v>4.7632367632367636</v>
+      </c>
+      <c r="H813">
+        <v>0.3</v>
+      </c>
+      <c r="I813">
+        <v>0.1</v>
+      </c>
+      <c r="J813">
+        <v>4</v>
+      </c>
+      <c r="K813">
+        <v>4</v>
+      </c>
+      <c r="L813">
+        <v>2</v>
+      </c>
+      <c r="M813">
+        <v>0.36</v>
+      </c>
+      <c r="N813">
+        <v>1.5</v>
+      </c>
+      <c r="O813">
+        <v>0.46</v>
+      </c>
+      <c r="P813">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="814" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A814" s="1">
+        <v>43036.583506944444</v>
+      </c>
+      <c r="B814" t="s">
+        <v>19</v>
+      </c>
+      <c r="C814">
+        <v>1</v>
+      </c>
+      <c r="D814">
+        <v>1</v>
+      </c>
+      <c r="E814">
+        <v>5</v>
+      </c>
+      <c r="F814">
+        <v>28.484115482224976</v>
+      </c>
+      <c r="G814">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H814">
+        <v>0.3</v>
+      </c>
+      <c r="I814">
+        <v>0.1</v>
+      </c>
+      <c r="J814">
+        <v>4</v>
+      </c>
+      <c r="K814">
+        <v>4</v>
+      </c>
+      <c r="L814">
+        <v>2</v>
+      </c>
+      <c r="M814">
+        <v>0.36</v>
+      </c>
+      <c r="N814">
+        <v>1.5</v>
+      </c>
+      <c r="O814">
+        <v>0.46</v>
+      </c>
+      <c r="P814">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="815" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A815" s="1">
+        <v>43036.583923611113</v>
+      </c>
+      <c r="B815" t="s">
+        <v>17</v>
+      </c>
+      <c r="C815">
+        <v>1</v>
+      </c>
+      <c r="D815">
+        <v>1</v>
+      </c>
+      <c r="E815">
+        <v>5</v>
+      </c>
+      <c r="F815">
+        <v>30.371810768788198</v>
+      </c>
+      <c r="G815">
+        <v>5.0329670329670328</v>
+      </c>
+      <c r="H815">
+        <v>0.3</v>
+      </c>
+      <c r="I815">
+        <v>0.1</v>
+      </c>
+      <c r="J815">
+        <v>4</v>
+      </c>
+      <c r="K815">
+        <v>4</v>
+      </c>
+      <c r="L815">
+        <v>2</v>
+      </c>
+      <c r="M815">
+        <v>0.36</v>
+      </c>
+      <c r="N815">
+        <v>1.5</v>
+      </c>
+      <c r="O815">
+        <v>0.46</v>
+      </c>
+      <c r="P815">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="816" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A816" s="1">
+        <v>43036.58421296296</v>
+      </c>
+      <c r="B816" t="s">
+        <v>17</v>
+      </c>
+      <c r="C816">
+        <v>1</v>
+      </c>
+      <c r="D816">
+        <v>1</v>
+      </c>
+      <c r="E816">
+        <v>5</v>
+      </c>
+      <c r="F816">
+        <v>20.298725763474746</v>
+      </c>
+      <c r="G816">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H816">
+        <v>0.3</v>
+      </c>
+      <c r="I816">
+        <v>0.1</v>
+      </c>
+      <c r="J816">
+        <v>4</v>
+      </c>
+      <c r="K816">
+        <v>4</v>
+      </c>
+      <c r="L816">
+        <v>2</v>
+      </c>
+      <c r="M816">
+        <v>0.36</v>
+      </c>
+      <c r="N816">
+        <v>1.5</v>
+      </c>
+      <c r="O816">
+        <v>0.46</v>
+      </c>
+      <c r="P816">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="817" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A817" s="1">
+        <v>43036.592592592591</v>
+      </c>
+      <c r="B817" t="s">
+        <v>18</v>
+      </c>
+      <c r="C817">
+        <v>0</v>
+      </c>
+      <c r="D817">
+        <v>1</v>
+      </c>
+      <c r="E817">
+        <v>5</v>
+      </c>
+      <c r="F817">
+        <v>27.108156028936154</v>
+      </c>
+      <c r="G817">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H817">
+        <v>0.3</v>
+      </c>
+      <c r="I817">
+        <v>0.1</v>
+      </c>
+      <c r="J817">
+        <v>4</v>
+      </c>
+      <c r="K817">
+        <v>4</v>
+      </c>
+      <c r="L817">
+        <v>2</v>
+      </c>
+      <c r="M817">
+        <v>0.36</v>
+      </c>
+      <c r="N817">
+        <v>1.5</v>
+      </c>
+      <c r="O817">
+        <v>0.46</v>
+      </c>
+      <c r="P817">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="818" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A818" s="1">
+        <v>43036.59302083333</v>
+      </c>
+      <c r="B818" t="s">
+        <v>18</v>
+      </c>
+      <c r="C818">
+        <v>0</v>
+      </c>
+      <c r="D818">
+        <v>1</v>
+      </c>
+      <c r="E818">
+        <v>5</v>
+      </c>
+      <c r="F818">
+        <v>55.602957613660038</v>
+      </c>
+      <c r="G818">
+        <v>5.0029970029970023</v>
+      </c>
+      <c r="H818">
+        <v>0.3</v>
+      </c>
+      <c r="I818">
+        <v>0.1</v>
+      </c>
+      <c r="J818">
+        <v>4</v>
+      </c>
+      <c r="K818">
+        <v>4</v>
+      </c>
+      <c r="L818">
+        <v>2</v>
+      </c>
+      <c r="M818">
+        <v>0.36</v>
+      </c>
+      <c r="N818">
+        <v>1.5</v>
+      </c>
+      <c r="O818">
+        <v>0.46</v>
+      </c>
+      <c r="P818">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="819" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A819" s="1">
+        <v>43036.593449074076</v>
+      </c>
+      <c r="B819" t="s">
+        <v>19</v>
+      </c>
+      <c r="C819">
+        <v>0</v>
+      </c>
+      <c r="D819">
+        <v>1</v>
+      </c>
+      <c r="E819">
+        <v>5</v>
+      </c>
+      <c r="F819">
+        <v>29.043500548944717</v>
+      </c>
+      <c r="G819">
+        <v>4.9990009990009989</v>
+      </c>
+      <c r="H819">
+        <v>0.3</v>
+      </c>
+      <c r="I819">
+        <v>0.1</v>
+      </c>
+      <c r="J819">
+        <v>4</v>
+      </c>
+      <c r="K819">
+        <v>4</v>
+      </c>
+      <c r="L819">
+        <v>2</v>
+      </c>
+      <c r="M819">
+        <v>0.36</v>
+      </c>
+      <c r="N819">
+        <v>1.5</v>
+      </c>
+      <c r="O819">
+        <v>0.46</v>
+      </c>
+      <c r="P819">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="820" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A820" s="1">
+        <v>43036.593854166669</v>
+      </c>
+      <c r="B820" t="s">
+        <v>16</v>
+      </c>
+      <c r="C820">
+        <v>0</v>
+      </c>
+      <c r="D820">
+        <v>1</v>
+      </c>
+      <c r="E820">
+        <v>5</v>
+      </c>
+      <c r="F820">
+        <v>29.906209011141129</v>
+      </c>
+      <c r="G820">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H820">
+        <v>0.3</v>
+      </c>
+      <c r="I820">
+        <v>0.1</v>
+      </c>
+      <c r="J820">
+        <v>4</v>
+      </c>
+      <c r="K820">
+        <v>4</v>
+      </c>
+      <c r="L820">
+        <v>2</v>
+      </c>
+      <c r="M820">
+        <v>0.36</v>
+      </c>
+      <c r="N820">
+        <v>1.5</v>
+      </c>
+      <c r="O820">
+        <v>0.46</v>
+      </c>
+      <c r="P820">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="821" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A821" s="1">
+        <v>43036.594247685185</v>
+      </c>
+      <c r="B821" t="s">
+        <v>17</v>
+      </c>
+      <c r="C821">
+        <v>0</v>
+      </c>
+      <c r="D821">
+        <v>1</v>
+      </c>
+      <c r="E821">
+        <v>5</v>
+      </c>
+      <c r="F821">
+        <v>28.708818986479418</v>
+      </c>
+      <c r="G821">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H821">
+        <v>0.3</v>
+      </c>
+      <c r="I821">
+        <v>0.1</v>
+      </c>
+      <c r="J821">
+        <v>4</v>
+      </c>
+      <c r="K821">
+        <v>4</v>
+      </c>
+      <c r="L821">
+        <v>2</v>
+      </c>
+      <c r="M821">
+        <v>0.36</v>
+      </c>
+      <c r="N821">
+        <v>1.5</v>
+      </c>
+      <c r="O821">
+        <v>0.46</v>
+      </c>
+      <c r="P821">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="822" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A822" s="1">
+        <v>43036.594641203701</v>
+      </c>
+      <c r="B822" t="s">
+        <v>18</v>
+      </c>
+      <c r="C822">
+        <v>1</v>
+      </c>
+      <c r="D822">
+        <v>1</v>
+      </c>
+      <c r="E822">
+        <v>5</v>
+      </c>
+      <c r="F822">
+        <v>28.656977869736107</v>
+      </c>
+      <c r="G822">
+        <v>4.7632367632367636</v>
+      </c>
+      <c r="H822">
+        <v>0.3</v>
+      </c>
+      <c r="I822">
+        <v>0.1</v>
+      </c>
+      <c r="J822">
+        <v>4</v>
+      </c>
+      <c r="K822">
+        <v>4</v>
+      </c>
+      <c r="L822">
+        <v>2</v>
+      </c>
+      <c r="M822">
+        <v>0.36</v>
+      </c>
+      <c r="N822">
+        <v>1.5</v>
+      </c>
+      <c r="O822">
+        <v>0.46</v>
+      </c>
+      <c r="P822">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="823" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A823" s="1">
+        <v>43036.595034722224</v>
+      </c>
+      <c r="B823" t="s">
+        <v>19</v>
+      </c>
+      <c r="C823">
+        <v>1</v>
+      </c>
+      <c r="D823">
+        <v>1</v>
+      </c>
+      <c r="E823">
+        <v>5</v>
+      </c>
+      <c r="F823">
+        <v>28.234408514066967</v>
+      </c>
+      <c r="G823">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H823">
+        <v>0.3</v>
+      </c>
+      <c r="I823">
+        <v>0.1</v>
+      </c>
+      <c r="J823">
+        <v>4</v>
+      </c>
+      <c r="K823">
+        <v>4</v>
+      </c>
+      <c r="L823">
+        <v>2</v>
+      </c>
+      <c r="M823">
+        <v>0.36</v>
+      </c>
+      <c r="N823">
+        <v>1.5</v>
+      </c>
+      <c r="O823">
+        <v>0.46</v>
+      </c>
+      <c r="P823">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="824" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A824" s="1">
+        <v>43036.603009259263</v>
+      </c>
+      <c r="B824" t="s">
+        <v>17</v>
+      </c>
+      <c r="C824">
+        <v>0</v>
+      </c>
+      <c r="D824">
+        <v>1</v>
+      </c>
+      <c r="E824">
+        <v>5</v>
+      </c>
+      <c r="F824">
+        <v>24.658656543001843</v>
+      </c>
+      <c r="G824">
+        <v>5.0029970029970023</v>
+      </c>
+      <c r="H824">
+        <v>0.3</v>
+      </c>
+      <c r="I824">
+        <v>0.1</v>
+      </c>
+      <c r="J824">
+        <v>4</v>
+      </c>
+      <c r="K824">
+        <v>4</v>
+      </c>
+      <c r="L824">
+        <v>2</v>
+      </c>
+      <c r="M824">
+        <v>0.36</v>
+      </c>
+      <c r="N824">
+        <v>1.5</v>
+      </c>
+      <c r="O824">
+        <v>0.46</v>
+      </c>
+      <c r="P824">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="825" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A825" s="1">
+        <v>43036.603414351855</v>
+      </c>
+      <c r="B825" t="s">
+        <v>17</v>
+      </c>
+      <c r="C825">
+        <v>0</v>
+      </c>
+      <c r="D825">
+        <v>1</v>
+      </c>
+      <c r="E825">
+        <v>5</v>
+      </c>
+      <c r="F825">
+        <v>52.747295035306216</v>
+      </c>
+      <c r="G825">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H825">
+        <v>0.3</v>
+      </c>
+      <c r="I825">
+        <v>0.1</v>
+      </c>
+      <c r="J825">
+        <v>4</v>
+      </c>
+      <c r="K825">
+        <v>4</v>
+      </c>
+      <c r="L825">
+        <v>2</v>
+      </c>
+      <c r="M825">
+        <v>0.36</v>
+      </c>
+      <c r="N825">
+        <v>1.5</v>
+      </c>
+      <c r="O825">
+        <v>0.46</v>
+      </c>
+      <c r="P825">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="826" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A826" s="1">
+        <v>43036.603738425925</v>
+      </c>
+      <c r="B826" t="s">
+        <v>17</v>
+      </c>
+      <c r="C826">
+        <v>1</v>
+      </c>
+      <c r="D826">
+        <v>1</v>
+      </c>
+      <c r="E826">
+        <v>5</v>
+      </c>
+      <c r="F826">
+        <v>21.230754215802634</v>
+      </c>
+      <c r="G826">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H826">
+        <v>0.3</v>
+      </c>
+      <c r="I826">
+        <v>0.1</v>
+      </c>
+      <c r="J826">
+        <v>4</v>
+      </c>
+      <c r="K826">
+        <v>4</v>
+      </c>
+      <c r="L826">
+        <v>2</v>
+      </c>
+      <c r="M826">
+        <v>0.36</v>
+      </c>
+      <c r="N826">
+        <v>1.5</v>
+      </c>
+      <c r="O826">
+        <v>0.46</v>
+      </c>
+      <c r="P826">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="827" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A827" s="1">
+        <v>43036.612129629626</v>
+      </c>
+      <c r="B827" t="s">
+        <v>18</v>
+      </c>
+      <c r="C827">
+        <v>0</v>
+      </c>
+      <c r="D827">
+        <v>1</v>
+      </c>
+      <c r="E827">
+        <v>5</v>
+      </c>
+      <c r="F827">
+        <v>24.480454464147719</v>
+      </c>
+      <c r="G827">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H827">
+        <v>0.3</v>
+      </c>
+      <c r="I827">
+        <v>0.1</v>
+      </c>
+      <c r="J827">
+        <v>4</v>
+      </c>
+      <c r="K827">
+        <v>4</v>
+      </c>
+      <c r="L827">
+        <v>2</v>
+      </c>
+      <c r="M827">
+        <v>0.36</v>
+      </c>
+      <c r="N827">
+        <v>1.5</v>
+      </c>
+      <c r="O827">
+        <v>0.46</v>
+      </c>
+      <c r="P827">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="828" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A828" s="1">
+        <v>43036.612546296295</v>
+      </c>
+      <c r="B828" t="s">
+        <v>18</v>
+      </c>
+      <c r="C828">
+        <v>0</v>
+      </c>
+      <c r="D828">
+        <v>1</v>
+      </c>
+      <c r="E828">
+        <v>5</v>
+      </c>
+      <c r="F828">
+        <v>53.082440584854119</v>
+      </c>
+      <c r="G828">
+        <v>5.0029970029970023</v>
+      </c>
+      <c r="H828">
+        <v>0.3</v>
+      </c>
+      <c r="I828">
+        <v>0.1</v>
+      </c>
+      <c r="J828">
+        <v>4</v>
+      </c>
+      <c r="K828">
+        <v>4</v>
+      </c>
+      <c r="L828">
+        <v>2</v>
+      </c>
+      <c r="M828">
+        <v>0.36</v>
+      </c>
+      <c r="N828">
+        <v>1.5</v>
+      </c>
+      <c r="O828">
+        <v>0.46</v>
+      </c>
+      <c r="P828">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="829" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A829" s="1">
+        <v>43036.612962962965</v>
+      </c>
+      <c r="B829" t="s">
+        <v>19</v>
+      </c>
+      <c r="C829">
+        <v>0</v>
+      </c>
+      <c r="D829">
+        <v>1</v>
+      </c>
+      <c r="E829">
+        <v>5</v>
+      </c>
+      <c r="F829">
+        <v>27.855680817846032</v>
+      </c>
+      <c r="G829">
+        <v>4.9990009990009989</v>
+      </c>
+      <c r="H829">
+        <v>0.3</v>
+      </c>
+      <c r="I829">
+        <v>0.1</v>
+      </c>
+      <c r="J829">
+        <v>4</v>
+      </c>
+      <c r="K829">
+        <v>4</v>
+      </c>
+      <c r="L829">
+        <v>2</v>
+      </c>
+      <c r="M829">
+        <v>0.36</v>
+      </c>
+      <c r="N829">
+        <v>1.5</v>
+      </c>
+      <c r="O829">
+        <v>0.46</v>
+      </c>
+      <c r="P829">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="830" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A830" s="1">
+        <v>43036.613356481481</v>
+      </c>
+      <c r="B830" t="s">
+        <v>16</v>
+      </c>
+      <c r="C830">
+        <v>0</v>
+      </c>
+      <c r="D830">
+        <v>1</v>
+      </c>
+      <c r="E830">
+        <v>5</v>
+      </c>
+      <c r="F830">
+        <v>28.564604441412349</v>
+      </c>
+      <c r="G830">
+        <v>4.9910089910089912</v>
+      </c>
+      <c r="H830">
+        <v>0.3</v>
+      </c>
+      <c r="I830">
+        <v>0.1</v>
+      </c>
+      <c r="J830">
+        <v>4</v>
+      </c>
+      <c r="K830">
+        <v>4</v>
+      </c>
+      <c r="L830">
+        <v>2</v>
+      </c>
+      <c r="M830">
+        <v>0.36</v>
+      </c>
+      <c r="N830">
+        <v>1.5</v>
+      </c>
+      <c r="O830">
+        <v>0.46</v>
+      </c>
+      <c r="P830">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="831" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A831" s="1">
+        <v>43036.613726851851</v>
+      </c>
+      <c r="B831" t="s">
+        <v>17</v>
+      </c>
+      <c r="C831">
+        <v>0</v>
+      </c>
+      <c r="D831">
+        <v>1</v>
+      </c>
+      <c r="E831">
+        <v>5</v>
+      </c>
+      <c r="F831">
+        <v>27.584471728307083</v>
+      </c>
+      <c r="G831">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H831">
+        <v>0.3</v>
+      </c>
+      <c r="I831">
+        <v>0.1</v>
+      </c>
+      <c r="J831">
+        <v>4</v>
+      </c>
+      <c r="K831">
+        <v>4</v>
+      </c>
+      <c r="L831">
+        <v>2</v>
+      </c>
+      <c r="M831">
+        <v>0.36</v>
+      </c>
+      <c r="N831">
+        <v>1.5</v>
+      </c>
+      <c r="O831">
+        <v>0.46</v>
+      </c>
+      <c r="P831">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="832" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A832" s="1">
+        <v>43036.614120370374</v>
+      </c>
+      <c r="B832" t="s">
+        <v>18</v>
+      </c>
+      <c r="C832">
+        <v>1</v>
+      </c>
+      <c r="D832">
+        <v>1</v>
+      </c>
+      <c r="E832">
+        <v>5</v>
+      </c>
+      <c r="F832">
+        <v>28.203925842704539</v>
+      </c>
+      <c r="G832">
+        <v>4.7632367632367636</v>
+      </c>
+      <c r="H832">
+        <v>0.3</v>
+      </c>
+      <c r="I832">
+        <v>0.1</v>
+      </c>
+      <c r="J832">
+        <v>4</v>
+      </c>
+      <c r="K832">
+        <v>4</v>
+      </c>
+      <c r="L832">
+        <v>2</v>
+      </c>
+      <c r="M832">
+        <v>0.36</v>
+      </c>
+      <c r="N832">
+        <v>1.5</v>
+      </c>
+      <c r="O832">
+        <v>0.46</v>
+      </c>
+      <c r="P832">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="833" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A833" s="1">
+        <v>43036.61451388889</v>
+      </c>
+      <c r="B833" t="s">
+        <v>19</v>
+      </c>
+      <c r="C833">
+        <v>1</v>
+      </c>
+      <c r="D833">
+        <v>1</v>
+      </c>
+      <c r="E833">
+        <v>5</v>
+      </c>
+      <c r="F833">
+        <v>28.279747091840964</v>
+      </c>
+      <c r="G833">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H833">
+        <v>0.3</v>
+      </c>
+      <c r="I833">
+        <v>0.1</v>
+      </c>
+      <c r="J833">
+        <v>4</v>
+      </c>
+      <c r="K833">
+        <v>4</v>
+      </c>
+      <c r="L833">
+        <v>2</v>
+      </c>
+      <c r="M833">
+        <v>0.36</v>
+      </c>
+      <c r="N833">
+        <v>1.5</v>
+      </c>
+      <c r="O833">
+        <v>0.46</v>
+      </c>
+      <c r="P833">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="834" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A834" s="1">
+        <v>43036.614907407406</v>
+      </c>
+      <c r="B834" t="s">
+        <v>16</v>
+      </c>
+      <c r="C834">
+        <v>1</v>
+      </c>
+      <c r="D834">
+        <v>1</v>
+      </c>
+      <c r="E834">
+        <v>5</v>
+      </c>
+      <c r="F834">
+        <v>28.349444351469256</v>
+      </c>
+      <c r="G834">
+        <v>5.0149850149850153</v>
+      </c>
+      <c r="H834">
+        <v>0.3</v>
+      </c>
+      <c r="I834">
+        <v>0.1</v>
+      </c>
+      <c r="J834">
+        <v>4</v>
+      </c>
+      <c r="K834">
+        <v>4</v>
+      </c>
+      <c r="L834">
+        <v>2</v>
+      </c>
+      <c r="M834">
+        <v>0.36</v>
+      </c>
+      <c r="N834">
+        <v>1.5</v>
+      </c>
+      <c r="O834">
+        <v>0.46</v>
+      </c>
+      <c r="P834">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="835" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A835" s="1">
+        <v>43036.615219907406</v>
+      </c>
+      <c r="B835" t="s">
+        <v>17</v>
+      </c>
+      <c r="C835">
+        <v>1</v>
+      </c>
+      <c r="D835">
+        <v>1</v>
+      </c>
+      <c r="E835">
+        <v>5</v>
+      </c>
+      <c r="F835">
+        <v>21.020242636445001</v>
+      </c>
+      <c r="G835">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H835">
+        <v>0.3</v>
+      </c>
+      <c r="I835">
+        <v>0.1</v>
+      </c>
+      <c r="J835">
+        <v>4</v>
+      </c>
+      <c r="K835">
+        <v>4</v>
+      </c>
+      <c r="L835">
+        <v>2</v>
+      </c>
+      <c r="M835">
+        <v>0.36</v>
+      </c>
+      <c r="N835">
+        <v>1.5</v>
+      </c>
+      <c r="O835">
+        <v>0.46</v>
+      </c>
+      <c r="P835">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="836" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A836" s="1">
+        <v>43037.474768518521</v>
+      </c>
+      <c r="B836" t="s">
+        <v>17</v>
+      </c>
+      <c r="C836">
+        <v>1</v>
+      </c>
+      <c r="D836">
+        <v>100</v>
+      </c>
+      <c r="E836">
+        <v>1</v>
+      </c>
+      <c r="F836">
+        <v>18.473517377276217</v>
+      </c>
+      <c r="G836">
+        <v>6.9597069597069599</v>
+      </c>
+      <c r="H836">
+        <v>0.3</v>
+      </c>
+      <c r="I836">
+        <v>0.1</v>
+      </c>
+      <c r="J836">
+        <v>4</v>
+      </c>
+      <c r="K836">
+        <v>4</v>
+      </c>
+      <c r="L836">
+        <v>2</v>
+      </c>
+      <c r="M836">
+        <v>0.36</v>
+      </c>
+      <c r="N836">
+        <v>1.5</v>
+      </c>
+      <c r="O836">
+        <v>0.46</v>
+      </c>
+      <c r="P836">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="837" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A837" s="1">
+        <v>43037.475173611114</v>
+      </c>
+      <c r="B837" t="s">
+        <v>17</v>
+      </c>
+      <c r="C837">
+        <v>1</v>
+      </c>
+      <c r="D837">
+        <v>100</v>
+      </c>
+      <c r="E837">
+        <v>1</v>
+      </c>
+      <c r="F837">
+        <v>4.9103800950181551</v>
+      </c>
+      <c r="G837">
+        <v>6.9597069597069599</v>
+      </c>
+      <c r="H837">
+        <v>0.3</v>
+      </c>
+      <c r="I837">
+        <v>0.1</v>
+      </c>
+      <c r="J837">
+        <v>4</v>
+      </c>
+      <c r="K837">
+        <v>4</v>
+      </c>
+      <c r="L837">
+        <v>2</v>
+      </c>
+      <c r="M837">
+        <v>0.36</v>
+      </c>
+      <c r="N837">
+        <v>1.5</v>
+      </c>
+      <c r="O837">
+        <v>0.46</v>
+      </c>
+      <c r="P837">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="838" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A838" s="1">
+        <v>43037.478310185186</v>
+      </c>
+      <c r="B838" t="s">
+        <v>17</v>
+      </c>
+      <c r="C838">
+        <v>1</v>
+      </c>
+      <c r="D838">
+        <v>100</v>
+      </c>
+      <c r="E838">
+        <v>1</v>
+      </c>
+      <c r="F838">
+        <v>14.626165287558395</v>
+      </c>
+      <c r="G838">
+        <v>6.9597069597069599</v>
+      </c>
+      <c r="H838">
+        <v>0.3</v>
+      </c>
+      <c r="I838">
+        <v>0.1</v>
+      </c>
+      <c r="J838">
+        <v>4</v>
+      </c>
+      <c r="K838">
+        <v>4</v>
+      </c>
+      <c r="L838">
+        <v>2</v>
+      </c>
+      <c r="M838">
+        <v>0.36</v>
+      </c>
+      <c r="N838">
+        <v>1.5</v>
+      </c>
+      <c r="O838">
+        <v>0.46</v>
+      </c>
+      <c r="P838">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="839" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A839" s="1">
+        <v>43037.478703703702</v>
+      </c>
+      <c r="B839" t="s">
+        <v>17</v>
+      </c>
+      <c r="C839">
+        <v>1</v>
+      </c>
+      <c r="D839">
+        <v>100</v>
+      </c>
+      <c r="E839">
+        <v>1</v>
+      </c>
+      <c r="F839">
+        <v>3.7100346326358276</v>
+      </c>
+      <c r="G839">
+        <v>6.9597069597069599</v>
+      </c>
+      <c r="H839">
+        <v>0.3</v>
+      </c>
+      <c r="I839">
+        <v>0.1</v>
+      </c>
+      <c r="J839">
+        <v>4</v>
+      </c>
+      <c r="K839">
+        <v>4</v>
+      </c>
+      <c r="L839">
+        <v>2</v>
+      </c>
+      <c r="M839">
+        <v>0.36</v>
+      </c>
+      <c r="N839">
+        <v>1.5</v>
+      </c>
+      <c r="O839">
+        <v>0.46</v>
+      </c>
+      <c r="P839">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="840" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A840" s="1">
+        <v>43037.479166666664</v>
+      </c>
+      <c r="B840" t="s">
+        <v>17</v>
+      </c>
+      <c r="C840">
+        <v>1</v>
+      </c>
+      <c r="D840">
+        <v>100</v>
+      </c>
+      <c r="E840">
+        <v>5</v>
+      </c>
+      <c r="F840">
+        <v>8.698536392746826</v>
+      </c>
+      <c r="G840">
+        <v>6.9597069597069599</v>
+      </c>
+      <c r="H840">
+        <v>0.3</v>
+      </c>
+      <c r="I840">
+        <v>0.1</v>
+      </c>
+      <c r="J840">
+        <v>4</v>
+      </c>
+      <c r="K840">
+        <v>4</v>
+      </c>
+      <c r="L840">
+        <v>2</v>
+      </c>
+      <c r="M840">
+        <v>0.36</v>
+      </c>
+      <c r="N840">
+        <v>1.5</v>
+      </c>
+      <c r="O840">
+        <v>0.46</v>
+      </c>
+      <c r="P840">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="841" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A841" s="1">
+        <v>43037.479398148149</v>
+      </c>
+      <c r="B841" t="s">
+        <v>17</v>
+      </c>
+      <c r="C841">
+        <v>1</v>
+      </c>
+      <c r="D841">
+        <v>10</v>
+      </c>
+      <c r="E841">
+        <v>5</v>
+      </c>
+      <c r="F841">
+        <v>6.9586193920361259</v>
+      </c>
+      <c r="G841">
+        <v>4.8572561459159393</v>
+      </c>
+      <c r="H841">
+        <v>0.3</v>
+      </c>
+      <c r="I841">
+        <v>0.1</v>
+      </c>
+      <c r="J841">
+        <v>4</v>
+      </c>
+      <c r="K841">
+        <v>4</v>
+      </c>
+      <c r="L841">
+        <v>2</v>
+      </c>
+      <c r="M841">
+        <v>0.36</v>
+      </c>
+      <c r="N841">
+        <v>1.5</v>
+      </c>
+      <c r="O841">
+        <v>0.46</v>
+      </c>
+      <c r="P841">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="842" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A842" s="1">
+        <v>43037.480937499997</v>
+      </c>
+      <c r="B842" t="s">
+        <v>17</v>
+      </c>
+      <c r="C842">
+        <v>1</v>
+      </c>
+      <c r="D842">
+        <v>10</v>
+      </c>
+      <c r="E842">
+        <v>5</v>
+      </c>
+      <c r="F842">
+        <v>6.9325778770319033</v>
+      </c>
+      <c r="G842">
+        <v>4.8572561459159393</v>
+      </c>
+      <c r="H842">
+        <v>0.3</v>
+      </c>
+      <c r="I842">
+        <v>0.1</v>
+      </c>
+      <c r="J842">
+        <v>4</v>
+      </c>
+      <c r="K842">
+        <v>4</v>
+      </c>
+      <c r="L842">
+        <v>2</v>
+      </c>
+      <c r="M842">
+        <v>0.36</v>
+      </c>
+      <c r="N842">
+        <v>1.5</v>
+      </c>
+      <c r="O842">
+        <v>0.46</v>
+      </c>
+      <c r="P842">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="843" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A843" s="1">
+        <v>43037.481585648151</v>
+      </c>
+      <c r="B843" t="s">
+        <v>17</v>
+      </c>
+      <c r="C843">
+        <v>1</v>
+      </c>
+      <c r="D843">
+        <v>10</v>
+      </c>
+      <c r="E843">
+        <v>5</v>
+      </c>
+      <c r="F843">
+        <v>6.4750466147022463</v>
+      </c>
+      <c r="G843">
+        <v>4.8572561459159393</v>
+      </c>
+      <c r="H843">
+        <v>0.3</v>
+      </c>
+      <c r="I843">
+        <v>0.1</v>
+      </c>
+      <c r="J843">
+        <v>4</v>
+      </c>
+      <c r="K843">
+        <v>4</v>
+      </c>
+      <c r="L843">
+        <v>2</v>
+      </c>
+      <c r="M843">
+        <v>0.36</v>
+      </c>
+      <c r="N843">
+        <v>1.5</v>
+      </c>
+      <c r="O843">
+        <v>0.46</v>
+      </c>
+      <c r="P843">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="844" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A844" s="1">
+        <v>43037.482071759259</v>
+      </c>
+      <c r="B844" t="s">
+        <v>17</v>
+      </c>
+      <c r="C844">
+        <v>1</v>
+      </c>
+      <c r="D844">
+        <v>1</v>
+      </c>
+      <c r="E844">
+        <v>5</v>
+      </c>
+      <c r="F844">
+        <v>25.239703726648251</v>
+      </c>
+      <c r="G844">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H844">
+        <v>0.3</v>
+      </c>
+      <c r="I844">
+        <v>0.1</v>
+      </c>
+      <c r="J844">
+        <v>4</v>
+      </c>
+      <c r="K844">
+        <v>4</v>
+      </c>
+      <c r="L844">
+        <v>2</v>
+      </c>
+      <c r="M844">
+        <v>0.36</v>
+      </c>
+      <c r="N844">
+        <v>1.5</v>
+      </c>
+      <c r="O844">
+        <v>0.46</v>
+      </c>
+      <c r="P844">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="845" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A845" s="1">
+        <v>43037.483275462961</v>
+      </c>
+      <c r="B845" t="s">
+        <v>17</v>
+      </c>
+      <c r="C845">
+        <v>1</v>
+      </c>
+      <c r="D845">
+        <v>1</v>
+      </c>
+      <c r="E845">
+        <v>4</v>
+      </c>
+      <c r="F845">
+        <v>43.805736928283913</v>
+      </c>
+      <c r="G845">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H845">
+        <v>0.3</v>
+      </c>
+      <c r="I845">
+        <v>0.1</v>
+      </c>
+      <c r="J845">
+        <v>4</v>
+      </c>
+      <c r="K845">
+        <v>4</v>
+      </c>
+      <c r="L845">
+        <v>2</v>
+      </c>
+      <c r="M845">
+        <v>0.36</v>
+      </c>
+      <c r="N845">
+        <v>1.5</v>
+      </c>
+      <c r="O845">
+        <v>0.46</v>
+      </c>
+      <c r="P845">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="846" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A846" s="1">
+        <v>43037.484247685185</v>
+      </c>
+      <c r="B846" t="s">
+        <v>17</v>
+      </c>
+      <c r="C846">
+        <v>1</v>
+      </c>
+      <c r="D846">
+        <v>1</v>
+      </c>
+      <c r="E846">
+        <v>5</v>
+      </c>
+      <c r="F846">
+        <v>42.648678260797219</v>
+      </c>
+      <c r="G846">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H846">
+        <v>0.3</v>
+      </c>
+      <c r="I846">
+        <v>0.1</v>
+      </c>
+      <c r="J846">
+        <v>4</v>
+      </c>
+      <c r="K846">
+        <v>4</v>
+      </c>
+      <c r="L846">
+        <v>2</v>
+      </c>
+      <c r="M846">
+        <v>0.36</v>
+      </c>
+      <c r="N846">
+        <v>1.5</v>
+      </c>
+      <c r="O846">
+        <v>0.46</v>
+      </c>
+      <c r="P846">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="847" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A847" s="1">
+        <v>43037.484953703701</v>
+      </c>
+      <c r="B847" t="s">
+        <v>17</v>
+      </c>
+      <c r="C847">
+        <v>1</v>
+      </c>
+      <c r="D847">
+        <v>1</v>
+      </c>
+      <c r="E847">
+        <v>4</v>
+      </c>
+      <c r="F847">
+        <v>42.878672177766568</v>
+      </c>
+      <c r="G847">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H847">
+        <v>0.3</v>
+      </c>
+      <c r="I847">
+        <v>0.1</v>
+      </c>
+      <c r="J847">
+        <v>4</v>
+      </c>
+      <c r="K847">
+        <v>4</v>
+      </c>
+      <c r="L847">
+        <v>2</v>
+      </c>
+      <c r="M847">
+        <v>0.36</v>
+      </c>
+      <c r="N847">
+        <v>1.5</v>
+      </c>
+      <c r="O847">
+        <v>0.46</v>
+      </c>
+      <c r="P847">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="848" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A848" s="1">
+        <v>43037.485486111109</v>
+      </c>
+      <c r="B848" t="s">
+        <v>17</v>
+      </c>
+      <c r="C848">
+        <v>1</v>
+      </c>
+      <c r="D848">
+        <v>1</v>
+      </c>
+      <c r="E848">
+        <v>4</v>
+      </c>
+      <c r="F848">
+        <v>27.478425400636848</v>
+      </c>
+      <c r="G848">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H848">
+        <v>0.3</v>
+      </c>
+      <c r="I848">
+        <v>0.1</v>
+      </c>
+      <c r="J848">
+        <v>4</v>
+      </c>
+      <c r="K848">
+        <v>4</v>
+      </c>
+      <c r="L848">
+        <v>2</v>
+      </c>
+      <c r="M848">
+        <v>0.36</v>
+      </c>
+      <c r="N848">
+        <v>1.5</v>
+      </c>
+      <c r="O848">
+        <v>0.46</v>
+      </c>
+      <c r="P848">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="849" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A849" s="1">
+        <v>43037.486180555556</v>
+      </c>
+      <c r="B849" t="s">
+        <v>17</v>
+      </c>
+      <c r="C849">
+        <v>1</v>
+      </c>
+      <c r="D849">
+        <v>1</v>
+      </c>
+      <c r="E849">
+        <v>5</v>
+      </c>
+      <c r="F849">
+        <v>40.533612984214521</v>
+      </c>
+      <c r="G849">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H849">
+        <v>0.3</v>
+      </c>
+      <c r="I849">
+        <v>0.1</v>
+      </c>
+      <c r="J849">
+        <v>4</v>
+      </c>
+      <c r="K849">
+        <v>4</v>
+      </c>
+      <c r="L849">
+        <v>2</v>
+      </c>
+      <c r="M849">
+        <v>0.36</v>
+      </c>
+      <c r="N849">
+        <v>1.5</v>
+      </c>
+      <c r="O849">
+        <v>0.46</v>
+      </c>
+      <c r="P849">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="850" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A850" s="1">
+        <v>43037.486643518518</v>
+      </c>
+      <c r="B850" t="s">
+        <v>17</v>
+      </c>
+      <c r="C850">
+        <v>1</v>
+      </c>
+      <c r="D850">
+        <v>1</v>
+      </c>
+      <c r="E850">
+        <v>5</v>
+      </c>
+      <c r="F850">
+        <v>23.323118684375828</v>
+      </c>
+      <c r="G850">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H850">
+        <v>0.3</v>
+      </c>
+      <c r="I850">
+        <v>0.1</v>
+      </c>
+      <c r="J850">
+        <v>4</v>
+      </c>
+      <c r="K850">
+        <v>4</v>
+      </c>
+      <c r="L850">
+        <v>2</v>
+      </c>
+      <c r="M850">
+        <v>0.36</v>
+      </c>
+      <c r="N850">
+        <v>1.5</v>
+      </c>
+      <c r="O850">
+        <v>0.46</v>
+      </c>
+      <c r="P850">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="851" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A851" s="1">
+        <v>43037.487187500003</v>
+      </c>
+      <c r="B851" t="s">
+        <v>17</v>
+      </c>
+      <c r="C851">
+        <v>1</v>
+      </c>
+      <c r="D851">
+        <v>1</v>
+      </c>
+      <c r="E851">
+        <v>5</v>
+      </c>
+      <c r="F851">
+        <v>23.642244519912566</v>
+      </c>
+      <c r="G851">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H851">
+        <v>0.3</v>
+      </c>
+      <c r="I851">
+        <v>0.1</v>
+      </c>
+      <c r="J851">
+        <v>4</v>
+      </c>
+      <c r="K851">
+        <v>4</v>
+      </c>
+      <c r="L851">
+        <v>2</v>
+      </c>
+      <c r="M851">
+        <v>0.36</v>
+      </c>
+      <c r="N851">
+        <v>1.5</v>
+      </c>
+      <c r="O851">
+        <v>0.46</v>
+      </c>
+      <c r="P851">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="852" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A852" s="1">
+        <v>43037.488067129627</v>
+      </c>
+      <c r="B852" t="s">
+        <v>17</v>
+      </c>
+      <c r="C852">
+        <v>1</v>
+      </c>
+      <c r="D852">
+        <v>1</v>
+      </c>
+      <c r="E852">
+        <v>2</v>
+      </c>
+      <c r="F852">
+        <v>62.783429069334709</v>
+      </c>
+      <c r="G852">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H852">
+        <v>0.3</v>
+      </c>
+      <c r="I852">
+        <v>0.1</v>
+      </c>
+      <c r="J852">
+        <v>4</v>
+      </c>
+      <c r="K852">
+        <v>4</v>
+      </c>
+      <c r="L852">
+        <v>2</v>
+      </c>
+      <c r="M852">
+        <v>0.36</v>
+      </c>
+      <c r="N852">
+        <v>1.5</v>
+      </c>
+      <c r="O852">
+        <v>0.46</v>
+      </c>
+      <c r="P852">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="853" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A853" s="1">
+        <v>43037.488819444443</v>
+      </c>
+      <c r="B853" t="s">
+        <v>17</v>
+      </c>
+      <c r="C853">
+        <v>1</v>
+      </c>
+      <c r="D853">
+        <v>1</v>
+      </c>
+      <c r="E853">
+        <v>2</v>
+      </c>
+      <c r="F853">
+        <v>48.702618839091521</v>
+      </c>
+      <c r="G853">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H853">
+        <v>0.3</v>
+      </c>
+      <c r="I853">
+        <v>0.1</v>
+      </c>
+      <c r="J853">
+        <v>4</v>
+      </c>
+      <c r="K853">
+        <v>4</v>
+      </c>
+      <c r="L853">
+        <v>2</v>
+      </c>
+      <c r="M853">
+        <v>0.36</v>
+      </c>
+      <c r="N853">
+        <v>1.5</v>
+      </c>
+      <c r="O853">
+        <v>0.46</v>
+      </c>
+      <c r="P853">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="854" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A854" s="1">
+        <v>43037.489537037036</v>
+      </c>
+      <c r="B854" t="s">
+        <v>17</v>
+      </c>
+      <c r="C854">
+        <v>1</v>
+      </c>
+      <c r="D854">
+        <v>1</v>
+      </c>
+      <c r="E854">
+        <v>6</v>
+      </c>
+      <c r="F854">
+        <v>39.279567576838659</v>
+      </c>
+      <c r="G854">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H854">
+        <v>0.3</v>
+      </c>
+      <c r="I854">
+        <v>0.1</v>
+      </c>
+      <c r="J854">
+        <v>4</v>
+      </c>
+      <c r="K854">
+        <v>4</v>
+      </c>
+      <c r="L854">
+        <v>2</v>
+      </c>
+      <c r="M854">
+        <v>0.36</v>
+      </c>
+      <c r="N854">
+        <v>1.5</v>
+      </c>
+      <c r="O854">
+        <v>0.46</v>
+      </c>
+      <c r="P854">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="855" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A855" s="1">
+        <v>43037.489918981482</v>
+      </c>
+      <c r="B855" t="s">
+        <v>17</v>
+      </c>
+      <c r="C855">
+        <v>1</v>
+      </c>
+      <c r="D855">
+        <v>1</v>
+      </c>
+      <c r="E855">
+        <v>6</v>
+      </c>
+      <c r="F855">
+        <v>21.674175150963798</v>
+      </c>
+      <c r="G855">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H855">
+        <v>0.3</v>
+      </c>
+      <c r="I855">
+        <v>0.1</v>
+      </c>
+      <c r="J855">
+        <v>4</v>
+      </c>
+      <c r="K855">
+        <v>4</v>
+      </c>
+      <c r="L855">
+        <v>2</v>
+      </c>
+      <c r="M855">
+        <v>0.36</v>
+      </c>
+      <c r="N855">
+        <v>1.5</v>
+      </c>
+      <c r="O855">
+        <v>0.46</v>
+      </c>
+      <c r="P855">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="856" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A856" s="1">
+        <v>43037.490671296298</v>
+      </c>
+      <c r="B856" t="s">
+        <v>17</v>
+      </c>
+      <c r="C856">
+        <v>1</v>
+      </c>
+      <c r="D856">
+        <v>1</v>
+      </c>
+      <c r="E856">
+        <v>8</v>
+      </c>
+      <c r="F856">
+        <v>39.46451730783815</v>
+      </c>
+      <c r="G856">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H856">
+        <v>0.3</v>
+      </c>
+      <c r="I856">
+        <v>0.1</v>
+      </c>
+      <c r="J856">
+        <v>4</v>
+      </c>
+      <c r="K856">
+        <v>4</v>
+      </c>
+      <c r="L856">
+        <v>2</v>
+      </c>
+      <c r="M856">
+        <v>0.36</v>
+      </c>
+      <c r="N856">
+        <v>1.5</v>
+      </c>
+      <c r="O856">
+        <v>0.46</v>
+      </c>
+      <c r="P856">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="857" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A857" s="1">
+        <v>43037.491377314815</v>
+      </c>
+      <c r="B857" t="s">
+        <v>17</v>
+      </c>
+      <c r="C857">
+        <v>1</v>
+      </c>
+      <c r="D857">
+        <v>1</v>
+      </c>
+      <c r="E857">
+        <v>8</v>
+      </c>
+      <c r="F857">
+        <v>19.837973790809663</v>
+      </c>
+      <c r="G857">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H857">
+        <v>0.3</v>
+      </c>
+      <c r="I857">
+        <v>0.1</v>
+      </c>
+      <c r="J857">
+        <v>4</v>
+      </c>
+      <c r="K857">
+        <v>4</v>
+      </c>
+      <c r="L857">
+        <v>2</v>
+      </c>
+      <c r="M857">
+        <v>0.36</v>
+      </c>
+      <c r="N857">
+        <v>1.5</v>
+      </c>
+      <c r="O857">
+        <v>0.46</v>
+      </c>
+      <c r="P857">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="858" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A858" s="1">
+        <v>43037.492094907408</v>
+      </c>
+      <c r="B858" t="s">
+        <v>17</v>
+      </c>
+      <c r="C858">
+        <v>1</v>
+      </c>
+      <c r="D858">
+        <v>1</v>
+      </c>
+      <c r="E858">
+        <v>7</v>
+      </c>
+      <c r="F858">
+        <v>39.601969161178552</v>
+      </c>
+      <c r="G858">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H858">
+        <v>0.3</v>
+      </c>
+      <c r="I858">
+        <v>0.1</v>
+      </c>
+      <c r="J858">
+        <v>4</v>
+      </c>
+      <c r="K858">
+        <v>4</v>
+      </c>
+      <c r="L858">
+        <v>2</v>
+      </c>
+      <c r="M858">
+        <v>0.36</v>
+      </c>
+      <c r="N858">
+        <v>1.5</v>
+      </c>
+      <c r="O858">
+        <v>0.46</v>
+      </c>
+      <c r="P858">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="859" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A859" s="1">
+        <v>43037.492511574077</v>
+      </c>
+      <c r="B859" t="s">
+        <v>17</v>
+      </c>
+      <c r="C859">
+        <v>1</v>
+      </c>
+      <c r="D859">
+        <v>1</v>
+      </c>
+      <c r="E859">
+        <v>7</v>
+      </c>
+      <c r="F859">
+        <v>21.941383071895277</v>
+      </c>
+      <c r="G859">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H859">
+        <v>0.3</v>
+      </c>
+      <c r="I859">
+        <v>0.1</v>
+      </c>
+      <c r="J859">
+        <v>4</v>
+      </c>
+      <c r="K859">
+        <v>4</v>
+      </c>
+      <c r="L859">
+        <v>2</v>
+      </c>
+      <c r="M859">
+        <v>0.36</v>
+      </c>
+      <c r="N859">
+        <v>1.5</v>
+      </c>
+      <c r="O859">
+        <v>0.46</v>
+      </c>
+      <c r="P859">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="860" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A860" s="1">
+        <v>43037.495787037034</v>
+      </c>
+      <c r="B860" t="s">
+        <v>17</v>
+      </c>
+      <c r="C860">
+        <v>1</v>
+      </c>
+      <c r="D860">
+        <v>1</v>
+      </c>
+      <c r="E860">
+        <v>3</v>
+      </c>
+      <c r="F860">
+        <v>49.090489320777309</v>
+      </c>
+      <c r="G860">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H860">
+        <v>0.3</v>
+      </c>
+      <c r="I860">
+        <v>0.1</v>
+      </c>
+      <c r="J860">
+        <v>4</v>
+      </c>
+      <c r="K860">
+        <v>4</v>
+      </c>
+      <c r="L860">
+        <v>2</v>
+      </c>
+      <c r="M860">
+        <v>0.36</v>
+      </c>
+      <c r="N860">
+        <v>1.5</v>
+      </c>
+      <c r="O860">
+        <v>0.46</v>
+      </c>
+      <c r="P860">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="861" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A861" s="1">
+        <v>43037.496342592596</v>
+      </c>
+      <c r="B861" t="s">
+        <v>17</v>
+      </c>
+      <c r="C861">
+        <v>1</v>
+      </c>
+      <c r="D861">
+        <v>1</v>
+      </c>
+      <c r="E861">
+        <v>3</v>
+      </c>
+      <c r="F861">
+        <v>34.242837399406802</v>
+      </c>
+      <c r="G861">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H861">
+        <v>0.3</v>
+      </c>
+      <c r="I861">
+        <v>0.1</v>
+      </c>
+      <c r="J861">
+        <v>4</v>
+      </c>
+      <c r="K861">
+        <v>4</v>
+      </c>
+      <c r="L861">
+        <v>2</v>
+      </c>
+      <c r="M861">
+        <v>0.36</v>
+      </c>
+      <c r="N861">
+        <v>1.5</v>
+      </c>
+      <c r="O861">
+        <v>0.46</v>
+      </c>
+      <c r="P861">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="862" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A862" s="1">
+        <v>43037.498402777775</v>
+      </c>
+      <c r="B862" t="s">
+        <v>17</v>
+      </c>
+      <c r="C862">
+        <v>1</v>
+      </c>
+      <c r="D862">
+        <v>1</v>
+      </c>
+      <c r="E862">
+        <v>1</v>
+      </c>
+      <c r="F862">
+        <v>81.819127275496655</v>
+      </c>
+      <c r="G862">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H862">
+        <v>0.3</v>
+      </c>
+      <c r="I862">
+        <v>0.1</v>
+      </c>
+      <c r="J862">
+        <v>4</v>
+      </c>
+      <c r="K862">
+        <v>4</v>
+      </c>
+      <c r="L862">
+        <v>2</v>
+      </c>
+      <c r="M862">
+        <v>0.36</v>
+      </c>
+      <c r="N862">
+        <v>1.5</v>
+      </c>
+      <c r="O862">
+        <v>0.46</v>
+      </c>
+      <c r="P862">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="863" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A863" s="1">
+        <v>43037.499490740738</v>
+      </c>
+      <c r="B863" t="s">
+        <v>17</v>
+      </c>
+      <c r="C863">
+        <v>1</v>
+      </c>
+      <c r="D863">
+        <v>1</v>
+      </c>
+      <c r="E863">
+        <v>1</v>
+      </c>
+      <c r="F863">
+        <v>80.675242641244864</v>
+      </c>
+      <c r="G863">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H863">
+        <v>0.3</v>
+      </c>
+      <c r="I863">
+        <v>0.1</v>
+      </c>
+      <c r="J863">
+        <v>4</v>
+      </c>
+      <c r="K863">
+        <v>4</v>
+      </c>
+      <c r="L863">
+        <v>2</v>
+      </c>
+      <c r="M863">
+        <v>0.36</v>
+      </c>
+      <c r="N863">
+        <v>1.5</v>
+      </c>
+      <c r="O863">
+        <v>0.46</v>
+      </c>
+      <c r="P863">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="864" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A864" s="1">
+        <v>43037.500717592593</v>
+      </c>
+      <c r="B864" t="s">
+        <v>17</v>
+      </c>
+      <c r="C864">
+        <v>1</v>
+      </c>
+      <c r="D864">
+        <v>1</v>
+      </c>
+      <c r="E864">
+        <v>1</v>
+      </c>
+      <c r="F864">
+        <v>80.757266277706833</v>
+      </c>
+      <c r="G864">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H864">
+        <v>0.3</v>
+      </c>
+      <c r="I864">
+        <v>0.1</v>
+      </c>
+      <c r="J864">
+        <v>4</v>
+      </c>
+      <c r="K864">
+        <v>4</v>
+      </c>
+      <c r="L864">
+        <v>2</v>
+      </c>
+      <c r="M864">
+        <v>0.36</v>
+      </c>
+      <c r="N864">
+        <v>1.5</v>
+      </c>
+      <c r="O864">
+        <v>0.46</v>
+      </c>
+      <c r="P864">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="865" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A865" s="1">
+        <v>43037.504166666666</v>
+      </c>
+      <c r="B865" t="s">
+        <v>17</v>
+      </c>
+      <c r="C865">
+        <v>1</v>
+      </c>
+      <c r="D865">
+        <v>1</v>
+      </c>
+      <c r="E865">
+        <v>10</v>
+      </c>
+      <c r="F865">
+        <v>37.041842355108834</v>
+      </c>
+      <c r="G865">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H865">
+        <v>0.3</v>
+      </c>
+      <c r="I865">
+        <v>0.1</v>
+      </c>
+      <c r="J865">
+        <v>4</v>
+      </c>
+      <c r="K865">
+        <v>4</v>
+      </c>
+      <c r="L865">
+        <v>2</v>
+      </c>
+      <c r="M865">
+        <v>0.36</v>
+      </c>
+      <c r="N865">
+        <v>1.5</v>
+      </c>
+      <c r="O865">
+        <v>0.46</v>
+      </c>
+      <c r="P865">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="866" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A866" s="1">
+        <v>43037.504594907405</v>
+      </c>
+      <c r="B866" t="s">
+        <v>17</v>
+      </c>
+      <c r="C866">
+        <v>1</v>
+      </c>
+      <c r="D866">
+        <v>1</v>
+      </c>
+      <c r="E866">
+        <v>10</v>
+      </c>
+      <c r="F866">
+        <v>18.858290985178972</v>
+      </c>
+      <c r="G866">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H866">
+        <v>0.3</v>
+      </c>
+      <c r="I866">
+        <v>0.1</v>
+      </c>
+      <c r="J866">
+        <v>4</v>
+      </c>
+      <c r="K866">
+        <v>4</v>
+      </c>
+      <c r="L866">
+        <v>2</v>
+      </c>
+      <c r="M866">
+        <v>0.36</v>
+      </c>
+      <c r="N866">
+        <v>1.5</v>
+      </c>
+      <c r="O866">
+        <v>0.46</v>
+      </c>
+      <c r="P866">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="867" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A867" s="1">
+        <v>43037.508715277778</v>
+      </c>
+      <c r="B867" t="s">
+        <v>17</v>
+      </c>
+      <c r="C867">
+        <v>1</v>
+      </c>
+      <c r="D867">
+        <v>1</v>
+      </c>
+      <c r="E867">
+        <v>7</v>
+      </c>
+      <c r="F867">
+        <v>39.471296959092662</v>
+      </c>
+      <c r="G867">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H867">
+        <v>0.3</v>
+      </c>
+      <c r="I867">
+        <v>0.1</v>
+      </c>
+      <c r="J867">
+        <v>4</v>
+      </c>
+      <c r="K867">
+        <v>4</v>
+      </c>
+      <c r="L867">
+        <v>2</v>
+      </c>
+      <c r="M867">
+        <v>0.36</v>
+      </c>
+      <c r="N867">
+        <v>1.5</v>
+      </c>
+      <c r="O867">
+        <v>0.46</v>
+      </c>
+      <c r="P867">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="868" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A868" s="1">
+        <v>43037.509166666663</v>
+      </c>
+      <c r="B868" t="s">
+        <v>17</v>
+      </c>
+      <c r="C868">
+        <v>1</v>
+      </c>
+      <c r="D868">
+        <v>1</v>
+      </c>
+      <c r="E868">
+        <v>7</v>
+      </c>
+      <c r="F868">
+        <v>20.97121008151133</v>
+      </c>
+      <c r="G868">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H868">
+        <v>0.3</v>
+      </c>
+      <c r="I868">
+        <v>0.1</v>
+      </c>
+      <c r="J868">
+        <v>4</v>
+      </c>
+      <c r="K868">
+        <v>4</v>
+      </c>
+      <c r="L868">
+        <v>2</v>
+      </c>
+      <c r="M868">
+        <v>0.36</v>
+      </c>
+      <c r="N868">
+        <v>1.5</v>
+      </c>
+      <c r="O868">
+        <v>0.46</v>
+      </c>
+      <c r="P868">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="869" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A869" s="1">
+        <v>43037.538090277776</v>
+      </c>
+      <c r="B869" t="s">
+        <v>18</v>
+      </c>
+      <c r="C869">
+        <v>0</v>
+      </c>
+      <c r="D869">
+        <v>1</v>
+      </c>
+      <c r="E869">
+        <v>5</v>
+      </c>
+      <c r="F869">
+        <v>61.417231904263787</v>
+      </c>
+      <c r="G869">
+        <v>5.0029970029970023</v>
+      </c>
+      <c r="H869">
+        <v>0.3</v>
+      </c>
+      <c r="I869">
+        <v>0.1</v>
+      </c>
+      <c r="J869">
+        <v>4</v>
+      </c>
+      <c r="K869">
+        <v>4</v>
+      </c>
+      <c r="L869">
+        <v>2</v>
+      </c>
+      <c r="M869">
+        <v>0.36</v>
+      </c>
+      <c r="N869">
+        <v>1.5</v>
+      </c>
+      <c r="O869">
+        <v>0.46</v>
+      </c>
+      <c r="P869">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="870" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A870" s="1">
+        <v>43037.538587962961</v>
+      </c>
+      <c r="B870" t="s">
+        <v>19</v>
+      </c>
+      <c r="C870">
+        <v>0</v>
+      </c>
+      <c r="D870">
+        <v>1</v>
+      </c>
+      <c r="E870">
+        <v>5</v>
+      </c>
+      <c r="F870">
+        <v>34.226444575783013</v>
+      </c>
+      <c r="G870">
+        <v>4.9990009990009989</v>
+      </c>
+      <c r="H870">
+        <v>0.3</v>
+      </c>
+      <c r="I870">
+        <v>0.1</v>
+      </c>
+      <c r="J870">
+        <v>4</v>
+      </c>
+      <c r="K870">
+        <v>4</v>
+      </c>
+      <c r="L870">
+        <v>2</v>
+      </c>
+      <c r="M870">
+        <v>0.36</v>
+      </c>
+      <c r="N870">
+        <v>1.5</v>
+      </c>
+      <c r="O870">
+        <v>0.46</v>
+      </c>
+      <c r="P870">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="871" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A871" s="1">
+        <v>43037.540266203701</v>
+      </c>
+      <c r="B871" t="s">
+        <v>18</v>
+      </c>
+      <c r="C871">
+        <v>0</v>
+      </c>
+      <c r="D871">
+        <v>1</v>
+      </c>
+      <c r="E871">
+        <v>5</v>
+      </c>
+      <c r="F871">
+        <v>58.790436234255239</v>
+      </c>
+      <c r="G871">
+        <v>5.0029970029970023</v>
+      </c>
+      <c r="H871">
+        <v>0.3</v>
+      </c>
+      <c r="I871">
+        <v>0.1</v>
+      </c>
+      <c r="J871">
+        <v>4</v>
+      </c>
+      <c r="K871">
+        <v>4</v>
+      </c>
+      <c r="L871">
+        <v>2</v>
+      </c>
+      <c r="M871">
+        <v>0.36</v>
+      </c>
+      <c r="N871">
+        <v>1.5</v>
+      </c>
+      <c r="O871">
+        <v>0.46</v>
+      </c>
+      <c r="P871">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="872" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A872" s="1">
+        <v>43037.540347222224</v>
+      </c>
+      <c r="B872" t="s">
+        <v>18</v>
+      </c>
+      <c r="C872">
+        <v>0</v>
+      </c>
+      <c r="D872">
+        <v>1</v>
+      </c>
+      <c r="E872">
+        <v>5</v>
+      </c>
+      <c r="F872">
+        <v>49.288118698775428</v>
+      </c>
+      <c r="G872">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H872">
+        <v>0.3</v>
+      </c>
+      <c r="I872">
+        <v>0.1</v>
+      </c>
+      <c r="J872">
+        <v>4</v>
+      </c>
+      <c r="K872">
+        <v>4</v>
+      </c>
+      <c r="L872">
+        <v>2</v>
+      </c>
+      <c r="M872">
+        <v>0.36</v>
+      </c>
+      <c r="N872">
+        <v>1.5</v>
+      </c>
+      <c r="O872">
+        <v>0.46</v>
+      </c>
+      <c r="P872">
+        <v>4.8356000000000003</v>
+      </c>
+    </row>
+    <row r="873" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A873" s="1">
+        <v>43037.540775462963</v>
+      </c>
+      <c r="B873" t="s">
+        <v>19</v>
+      </c>
+      <c r="C873">
+        <v>0</v>
+      </c>
+      <c r="D873">
+        <v>1</v>
+      </c>
+      <c r="E873">
+        <v>5</v>
+      </c>
+      <c r="F873">
+        <v>31.348394140707121</v>
+      </c>
+      <c r="G873">
+        <v>5.0109890109890109</v>
+      </c>
+      <c r="H873">
+        <v>0.3</v>
+      </c>
+      <c r="I873">
+        <v>0.1</v>
+      </c>
+      <c r="J873">
+        <v>4</v>
+      </c>
+      <c r="K873">
+        <v>4</v>
+      </c>
+      <c r="L873">
+        <v>2</v>
+      </c>
+      <c r="M873">
+        <v>0.36</v>
+      </c>
+      <c r="N873">
+        <v>1.5</v>
+      </c>
+      <c r="O873">
+        <v>0.46</v>
+      </c>
+      <c r="P873">
+        <v>4.9410999999999996</v>
+      </c>
+    </row>
+    <row r="874" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A874" s="1">
+        <v>43037.541250000002</v>
+      </c>
+      <c r="B874" t="s">
+        <v>16</v>
+      </c>
+      <c r="C874">
+        <v>0</v>
+      </c>
+      <c r="D874">
+        <v>1</v>
+      </c>
+      <c r="E874">
+        <v>5</v>
+      </c>
+      <c r="F874">
+        <v>36.024462998950106</v>
+      </c>
+      <c r="G874">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H874">
+        <v>0.3</v>
+      </c>
+      <c r="I874">
+        <v>0.1</v>
+      </c>
+      <c r="J874">
+        <v>4</v>
+      </c>
+      <c r="K874">
+        <v>4</v>
+      </c>
+      <c r="L874">
+        <v>2</v>
+      </c>
+      <c r="M874">
+        <v>0.36</v>
+      </c>
+      <c r="N874">
+        <v>1.5</v>
+      </c>
+      <c r="O874">
+        <v>0.46</v>
+      </c>
+      <c r="P874">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="875" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A875" s="1">
+        <v>43037.541631944441</v>
+      </c>
+      <c r="B875" t="s">
+        <v>17</v>
+      </c>
+      <c r="C875">
+        <v>0</v>
+      </c>
+      <c r="D875">
+        <v>1</v>
+      </c>
+      <c r="E875">
+        <v>5</v>
+      </c>
+      <c r="F875">
+        <v>31.74624354457972</v>
+      </c>
+      <c r="G875">
+        <v>5.0049950049950054</v>
+      </c>
+      <c r="H875">
+        <v>0.3</v>
+      </c>
+      <c r="I875">
+        <v>0.1</v>
+      </c>
+      <c r="J875">
+        <v>4</v>
+      </c>
+      <c r="K875">
+        <v>4</v>
+      </c>
+      <c r="L875">
+        <v>2</v>
+      </c>
+      <c r="M875">
+        <v>0.36</v>
+      </c>
+      <c r="N875">
+        <v>1.5</v>
+      </c>
+      <c r="O875">
+        <v>0.46</v>
+      </c>
+      <c r="P875">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="876" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A876" s="1">
+        <v>43037.541701388887</v>
+      </c>
+      <c r="B876" t="s">
+        <v>17</v>
+      </c>
+      <c r="C876">
+        <v>0</v>
+      </c>
+      <c r="D876">
+        <v>1</v>
+      </c>
+      <c r="E876">
+        <v>5</v>
+      </c>
+      <c r="F876">
+        <v>34.298927997844537</v>
+      </c>
+      <c r="G876">
+        <v>5.0029970029970023</v>
+      </c>
+      <c r="H876">
+        <v>0.3</v>
+      </c>
+      <c r="I876">
+        <v>0.1</v>
+      </c>
+      <c r="J876">
+        <v>4</v>
+      </c>
+      <c r="K876">
+        <v>4</v>
+      </c>
+      <c r="L876">
+        <v>2</v>
+      </c>
+      <c r="M876">
+        <v>0.36</v>
+      </c>
+      <c r="N876">
+        <v>1.5</v>
+      </c>
+      <c r="O876">
+        <v>0.46</v>
+      </c>
+      <c r="P876">
+        <v>4.8444000000000003</v>
+      </c>
+    </row>
+    <row r="877" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A877" s="1">
+        <v>43037.542129629626</v>
+      </c>
+      <c r="B877" t="s">
+        <v>18</v>
+      </c>
+      <c r="C877">
+        <v>1</v>
+      </c>
+      <c r="D877">
+        <v>1</v>
+      </c>
+      <c r="E877">
+        <v>5</v>
+      </c>
+      <c r="F877">
+        <v>30.650763002758005</v>
+      </c>
+      <c r="G877">
+        <v>4.8071928071928074</v>
+      </c>
+      <c r="H877">
+        <v>0.3</v>
+      </c>
+      <c r="I877">
+        <v>0.1</v>
+      </c>
+      <c r="J877">
+        <v>4</v>
+      </c>
+      <c r="K877">
+        <v>4</v>
+      </c>
+      <c r="L877">
+        <v>2</v>
+      </c>
+      <c r="M877">
+        <v>0.36</v>
+      </c>
+      <c r="N877">
+        <v>1.5</v>
+      </c>
+      <c r="O877">
+        <v>0.46</v>
+      </c>
+      <c r="P877">
+        <v>5.2389000000000001</v>
+      </c>
+    </row>
+    <row r="878" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A878" s="1">
+        <v>43037.542569444442</v>
+      </c>
+      <c r="B878" t="s">
+        <v>19</v>
+      </c>
+      <c r="C878">
+        <v>1</v>
+      </c>
+      <c r="D878">
+        <v>1</v>
+      </c>
+      <c r="E878">
+        <v>5</v>
+      </c>
+      <c r="F878">
+        <v>36.351650050062609</v>
+      </c>
+      <c r="G878">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H878">
+        <v>0.3</v>
+      </c>
+      <c r="I878">
+        <v>0.1</v>
+      </c>
+      <c r="J878">
+        <v>4</v>
+      </c>
+      <c r="K878">
+        <v>4</v>
+      </c>
+      <c r="L878">
+        <v>2</v>
+      </c>
+      <c r="M878">
+        <v>0.36</v>
+      </c>
+      <c r="N878">
+        <v>1.5</v>
+      </c>
+      <c r="O878">
+        <v>0.46</v>
+      </c>
+      <c r="P878">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="879" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A879" s="1">
+        <v>43037.543020833335</v>
+      </c>
+      <c r="B879" t="s">
+        <v>16</v>
+      </c>
+      <c r="C879">
+        <v>1</v>
+      </c>
+      <c r="D879">
+        <v>1</v>
+      </c>
+      <c r="E879">
+        <v>5</v>
+      </c>
+      <c r="F879">
+        <v>33.055073346758029</v>
+      </c>
+      <c r="G879">
+        <v>5.0269730269730264</v>
+      </c>
+      <c r="H879">
+        <v>0.3</v>
+      </c>
+      <c r="I879">
+        <v>0.1</v>
+      </c>
+      <c r="J879">
+        <v>4</v>
+      </c>
+      <c r="K879">
+        <v>4</v>
+      </c>
+      <c r="L879">
+        <v>2</v>
+      </c>
+      <c r="M879">
+        <v>0.36</v>
+      </c>
+      <c r="N879">
+        <v>1.5</v>
+      </c>
+      <c r="O879">
+        <v>0.46</v>
+      </c>
+      <c r="P879">
+        <v>5.3756000000000004</v>
+      </c>
+    </row>
+    <row r="880" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A880" s="1">
+        <v>43037.543414351851</v>
+      </c>
+      <c r="B880" t="s">
+        <v>17</v>
+      </c>
+      <c r="C880">
+        <v>1</v>
+      </c>
+      <c r="D880">
+        <v>1</v>
+      </c>
+      <c r="E880">
+        <v>5</v>
+      </c>
+      <c r="F880">
+        <v>27.790041045257301</v>
+      </c>
+      <c r="G880">
+        <v>5.0329670329670328</v>
+      </c>
+      <c r="H880">
+        <v>0.3</v>
+      </c>
+      <c r="I880">
+        <v>0.1</v>
+      </c>
+      <c r="J880">
+        <v>4</v>
+      </c>
+      <c r="K880">
+        <v>4</v>
+      </c>
+      <c r="L880">
+        <v>2</v>
+      </c>
+      <c r="M880">
+        <v>0.36</v>
+      </c>
+      <c r="N880">
+        <v>1.5</v>
+      </c>
+      <c r="O880">
+        <v>0.46</v>
+      </c>
+      <c r="P880">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="881" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A881" s="1">
+        <v>43037.543553240743</v>
+      </c>
+      <c r="B881" t="s">
+        <v>17</v>
+      </c>
+      <c r="C881">
+        <v>1</v>
+      </c>
+      <c r="D881">
+        <v>1</v>
+      </c>
+      <c r="E881">
+        <v>5</v>
+      </c>
+      <c r="F881">
+        <v>28.757496031310488</v>
+      </c>
+      <c r="G881">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H881">
+        <v>0.3</v>
+      </c>
+      <c r="I881">
+        <v>0.1</v>
+      </c>
+      <c r="J881">
+        <v>4</v>
+      </c>
+      <c r="K881">
+        <v>4</v>
+      </c>
+      <c r="L881">
+        <v>2</v>
+      </c>
+      <c r="M881">
+        <v>0.36</v>
+      </c>
+      <c r="N881">
+        <v>1.5</v>
+      </c>
+      <c r="O881">
+        <v>0.46</v>
+      </c>
+      <c r="P881">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="882" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A882" s="1">
+        <v>43037.789560185185</v>
+      </c>
+      <c r="B882" t="s">
+        <v>17</v>
+      </c>
+      <c r="C882">
+        <v>1</v>
+      </c>
+      <c r="D882">
+        <v>1</v>
+      </c>
+      <c r="E882">
+        <v>12</v>
+      </c>
+      <c r="F882">
+        <v>51.594261215767752</v>
+      </c>
+      <c r="G882">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H882">
+        <v>0.3</v>
+      </c>
+      <c r="I882">
+        <v>0.1</v>
+      </c>
+      <c r="J882">
+        <v>4</v>
+      </c>
+      <c r="K882">
+        <v>4</v>
+      </c>
+      <c r="L882">
+        <v>2</v>
+      </c>
+      <c r="M882">
+        <v>0.36</v>
+      </c>
+      <c r="N882">
+        <v>1.5</v>
+      </c>
+      <c r="O882">
+        <v>0.46</v>
+      </c>
+      <c r="P882">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="883" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A883" s="1">
+        <v>43037.790416666663</v>
+      </c>
+      <c r="B883" t="s">
+        <v>17</v>
+      </c>
+      <c r="C883">
+        <v>1</v>
+      </c>
+      <c r="D883">
+        <v>1</v>
+      </c>
+      <c r="E883">
+        <v>12</v>
+      </c>
+      <c r="F883">
+        <v>18.738017853582956</v>
+      </c>
+      <c r="G883">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H883">
+        <v>0.3</v>
+      </c>
+      <c r="I883">
+        <v>0.1</v>
+      </c>
+      <c r="J883">
+        <v>4</v>
+      </c>
+      <c r="K883">
+        <v>4</v>
+      </c>
+      <c r="L883">
+        <v>2</v>
+      </c>
+      <c r="M883">
+        <v>0.36</v>
+      </c>
+      <c r="N883">
+        <v>1.5</v>
+      </c>
+      <c r="O883">
+        <v>0.46</v>
+      </c>
+      <c r="P883">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="884" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A884" s="1">
+        <v>43037.791238425925</v>
+      </c>
+      <c r="B884" t="s">
+        <v>17</v>
+      </c>
+      <c r="C884">
+        <v>1</v>
+      </c>
+      <c r="D884">
+        <v>1</v>
+      </c>
+      <c r="E884">
+        <v>9</v>
+      </c>
+      <c r="F884">
+        <v>40.996281383526281</v>
+      </c>
+      <c r="G884">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H884">
+        <v>0.3</v>
+      </c>
+      <c r="I884">
+        <v>0.1</v>
+      </c>
+      <c r="J884">
+        <v>4</v>
+      </c>
+      <c r="K884">
+        <v>4</v>
+      </c>
+      <c r="L884">
+        <v>2</v>
+      </c>
+      <c r="M884">
+        <v>0.36</v>
+      </c>
+      <c r="N884">
+        <v>1.5</v>
+      </c>
+      <c r="O884">
+        <v>0.46</v>
+      </c>
+      <c r="P884">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="885" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A885" s="1">
+        <v>43037.791608796295</v>
+      </c>
+      <c r="B885" t="s">
+        <v>17</v>
+      </c>
+      <c r="C885">
+        <v>1</v>
+      </c>
+      <c r="D885">
+        <v>1</v>
+      </c>
+      <c r="E885">
+        <v>9</v>
+      </c>
+      <c r="F885">
+        <v>19.481491235284011</v>
+      </c>
+      <c r="G885">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H885">
+        <v>0.3</v>
+      </c>
+      <c r="I885">
+        <v>0.1</v>
+      </c>
+      <c r="J885">
+        <v>4</v>
+      </c>
+      <c r="K885">
+        <v>4</v>
+      </c>
+      <c r="L885">
+        <v>2</v>
+      </c>
+      <c r="M885">
+        <v>0.36</v>
+      </c>
+      <c r="N885">
+        <v>1.5</v>
+      </c>
+      <c r="O885">
+        <v>0.46</v>
+      </c>
+      <c r="P885">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="886" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A886" s="1">
+        <v>43037.792372685188</v>
+      </c>
+      <c r="B886" t="s">
+        <v>17</v>
+      </c>
+      <c r="C886">
+        <v>1</v>
+      </c>
+      <c r="D886">
+        <v>1</v>
+      </c>
+      <c r="E886">
+        <v>12</v>
+      </c>
+      <c r="F886">
+        <v>43.69286007077563</v>
+      </c>
+      <c r="G886">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H886">
+        <v>0.3</v>
+      </c>
+      <c r="I886">
+        <v>0.1</v>
+      </c>
+      <c r="J886">
+        <v>4</v>
+      </c>
+      <c r="K886">
+        <v>4</v>
+      </c>
+      <c r="L886">
+        <v>2</v>
+      </c>
+      <c r="M886">
+        <v>0.36</v>
+      </c>
+      <c r="N886">
+        <v>1.5</v>
+      </c>
+      <c r="O886">
+        <v>0.46</v>
+      </c>
+      <c r="P886">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="887" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A887" s="1">
+        <v>43037.795115740744</v>
+      </c>
+      <c r="B887" t="s">
+        <v>17</v>
+      </c>
+      <c r="C887">
+        <v>1</v>
+      </c>
+      <c r="D887">
+        <v>1</v>
+      </c>
+      <c r="E887">
+        <v>10</v>
+      </c>
+      <c r="F887">
+        <v>42.291905473351619</v>
+      </c>
+      <c r="G887">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H887">
+        <v>0.3</v>
+      </c>
+      <c r="I887">
+        <v>0.1</v>
+      </c>
+      <c r="J887">
+        <v>4</v>
+      </c>
+      <c r="K887">
+        <v>4</v>
+      </c>
+      <c r="L887">
+        <v>2</v>
+      </c>
+      <c r="M887">
+        <v>0.36</v>
+      </c>
+      <c r="N887">
+        <v>1.5</v>
+      </c>
+      <c r="O887">
+        <v>0.46</v>
+      </c>
+      <c r="P887">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="888" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A888" s="1">
+        <v>43037.795520833337</v>
+      </c>
+      <c r="B888" t="s">
+        <v>17</v>
+      </c>
+      <c r="C888">
+        <v>1</v>
+      </c>
+      <c r="D888">
+        <v>1</v>
+      </c>
+      <c r="E888">
+        <v>10</v>
+      </c>
+      <c r="F888">
+        <v>19.130663882317517</v>
+      </c>
+      <c r="G888">
+        <v>4.9970029970029977</v>
+      </c>
+      <c r="H888">
+        <v>0.3</v>
+      </c>
+      <c r="I888">
+        <v>0.1</v>
+      </c>
+      <c r="J888">
+        <v>4</v>
+      </c>
+      <c r="K888">
+        <v>4</v>
+      </c>
+      <c r="L888">
+        <v>2</v>
+      </c>
+      <c r="M888">
+        <v>0.36</v>
+      </c>
+      <c r="N888">
+        <v>1.5</v>
+      </c>
+      <c r="O888">
+        <v>0.46</v>
+      </c>
+      <c r="P888">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="889" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A889" s="1">
+        <v>43051.654120370367</v>
+      </c>
+      <c r="B889" t="s">
+        <v>17</v>
+      </c>
+      <c r="C889">
+        <v>1</v>
+      </c>
+      <c r="D889">
+        <v>100</v>
+      </c>
+      <c r="E889">
+        <v>10</v>
+      </c>
+      <c r="F889">
+        <v>31.758030685029343</v>
+      </c>
+      <c r="G889">
+        <v>6.9597069597069599</v>
+      </c>
+      <c r="H889">
+        <v>0.3</v>
+      </c>
+      <c r="I889">
+        <v>0.1</v>
+      </c>
+      <c r="J889">
+        <v>4</v>
+      </c>
+      <c r="K889">
+        <v>4</v>
+      </c>
+      <c r="L889">
+        <v>2</v>
+      </c>
+      <c r="M889">
+        <v>0.36</v>
+      </c>
+      <c r="N889">
+        <v>1.5</v>
+      </c>
+      <c r="O889">
+        <v>0.46</v>
+      </c>
+      <c r="P889">
+        <v>5.3221999999999996</v>
+      </c>
+    </row>
+    <row r="890" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A890" s="1">
+        <v>43054.813194444447</v>
+      </c>
+      <c r="B890" t="s">
+        <v>19</v>
+      </c>
+      <c r="C890">
+        <v>1</v>
+      </c>
+      <c r="D890">
+        <v>1</v>
+      </c>
+      <c r="E890">
+        <v>5</v>
+      </c>
+      <c r="F890">
+        <v>45.876018965110632</v>
+      </c>
+      <c r="G890">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H890">
+        <v>0.3</v>
+      </c>
+      <c r="I890">
+        <v>0.1</v>
+      </c>
+      <c r="J890">
+        <v>4</v>
+      </c>
+      <c r="K890">
+        <v>4</v>
+      </c>
+      <c r="L890">
+        <v>2</v>
+      </c>
+      <c r="M890">
+        <v>0.36</v>
+      </c>
+      <c r="N890">
+        <v>1.5</v>
+      </c>
+      <c r="O890">
+        <v>0.46</v>
+      </c>
+      <c r="P890">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="891" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A891" s="1">
+        <v>43054.817916666667</v>
+      </c>
+      <c r="B891" t="s">
+        <v>19</v>
+      </c>
+      <c r="C891">
+        <v>1</v>
+      </c>
+      <c r="D891">
+        <v>1</v>
+      </c>
+      <c r="E891">
+        <v>5</v>
+      </c>
+      <c r="F891">
+        <v>26.548177710395198</v>
+      </c>
+      <c r="G891">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H891">
+        <v>0.3</v>
+      </c>
+      <c r="I891">
+        <v>0.1</v>
+      </c>
+      <c r="J891">
+        <v>4</v>
+      </c>
+      <c r="K891">
+        <v>4</v>
+      </c>
+      <c r="L891">
+        <v>2</v>
+      </c>
+      <c r="M891">
+        <v>0.36</v>
+      </c>
+      <c r="N891">
+        <v>1.5</v>
+      </c>
+      <c r="O891">
+        <v>0.46</v>
+      </c>
+      <c r="P891">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="892" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A892" s="1">
+        <v>43063.514224537037</v>
+      </c>
+      <c r="B892" t="s">
+        <v>19</v>
+      </c>
+      <c r="C892">
+        <v>1</v>
+      </c>
+      <c r="D892">
+        <v>1</v>
+      </c>
+      <c r="E892">
+        <v>5</v>
+      </c>
+      <c r="F892">
+        <v>45.410892491041103</v>
+      </c>
+      <c r="G892">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H892">
+        <v>0.3</v>
+      </c>
+      <c r="I892">
+        <v>0.1</v>
+      </c>
+      <c r="J892">
+        <v>4</v>
+      </c>
+      <c r="K892">
+        <v>4</v>
+      </c>
+      <c r="L892">
+        <v>2</v>
+      </c>
+      <c r="M892">
+        <v>0.36</v>
+      </c>
+      <c r="N892">
+        <v>1.5</v>
+      </c>
+      <c r="O892">
+        <v>0.46</v>
+      </c>
+      <c r="P892">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="893" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A893" s="1">
+        <v>43063.51761574074</v>
+      </c>
+      <c r="B893" t="s">
+        <v>19</v>
+      </c>
+      <c r="C893">
+        <v>1</v>
+      </c>
+      <c r="D893">
+        <v>1</v>
+      </c>
+      <c r="E893">
+        <v>5</v>
+      </c>
+      <c r="F893">
+        <v>192.29225975302606</v>
+      </c>
+      <c r="G893">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H893">
+        <v>0.3</v>
+      </c>
+      <c r="I893">
+        <v>0.1</v>
+      </c>
+      <c r="J893">
+        <v>4</v>
+      </c>
+      <c r="K893">
+        <v>4</v>
+      </c>
+      <c r="L893">
+        <v>2</v>
+      </c>
+      <c r="M893">
+        <v>0.36</v>
+      </c>
+      <c r="N893">
+        <v>1.5</v>
+      </c>
+      <c r="O893">
+        <v>0.46</v>
+      </c>
+      <c r="P893">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
+    <row r="894" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A894" s="1">
+        <v>43072.560486111113</v>
+      </c>
+      <c r="B894" t="s">
+        <v>19</v>
+      </c>
+      <c r="C894">
+        <v>1</v>
+      </c>
+      <c r="D894">
+        <v>1</v>
+      </c>
+      <c r="E894">
+        <v>5</v>
+      </c>
+      <c r="F894">
+        <v>212.16663477402733</v>
+      </c>
+      <c r="G894">
+        <v>5.0069930069930075</v>
+      </c>
+      <c r="H894">
+        <v>0.3</v>
+      </c>
+      <c r="I894">
+        <v>0.1</v>
+      </c>
+      <c r="J894">
+        <v>4</v>
+      </c>
+      <c r="K894">
+        <v>4</v>
+      </c>
+      <c r="L894">
+        <v>2</v>
+      </c>
+      <c r="M894">
+        <v>0.36</v>
+      </c>
+      <c r="N894">
+        <v>1.5</v>
+      </c>
+      <c r="O894">
+        <v>0.46</v>
+      </c>
+      <c r="P894">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RunSummaries.xlsx
+++ b/RunSummaries.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P894"/>
+  <dimension ref="A1:P895"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A863" workbookViewId="0">
-      <selection activeCell="A894" sqref="A894:P894"/>
+      <selection activeCell="A895" sqref="A895:P895"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45214,6 +45214,56 @@
         <v>5.4410999999999996</v>
       </c>
     </row>
+    <row r="895" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A895" s="1">
+        <v>43075.789756944447</v>
+      </c>
+      <c r="B895" t="s">
+        <v>19</v>
+      </c>
+      <c r="C895">
+        <v>1</v>
+      </c>
+      <c r="D895">
+        <v>10</v>
+      </c>
+      <c r="E895">
+        <v>5</v>
+      </c>
+      <c r="F895">
+        <v>58.157460851178477</v>
+      </c>
+      <c r="G895">
+        <v>4.8969072164948448</v>
+      </c>
+      <c r="H895">
+        <v>0.3</v>
+      </c>
+      <c r="I895">
+        <v>0.1</v>
+      </c>
+      <c r="J895">
+        <v>4</v>
+      </c>
+      <c r="K895">
+        <v>4</v>
+      </c>
+      <c r="L895">
+        <v>2</v>
+      </c>
+      <c r="M895">
+        <v>0.36</v>
+      </c>
+      <c r="N895">
+        <v>1.5</v>
+      </c>
+      <c r="O895">
+        <v>0.46</v>
+      </c>
+      <c r="P895">
+        <v>5.4410999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RunSummaries.xlsx
+++ b/RunSummaries.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P895"/>
+  <dimension ref="A1:P894"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A863" workbookViewId="0">
-      <selection activeCell="A895" sqref="A895:P895"/>
+      <selection activeCell="A894" sqref="A894:P894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45214,56 +45214,6 @@
         <v>5.4410999999999996</v>
       </c>
     </row>
-    <row r="895" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A895" s="1">
-        <v>43075.789756944447</v>
-      </c>
-      <c r="B895" t="s">
-        <v>19</v>
-      </c>
-      <c r="C895">
-        <v>1</v>
-      </c>
-      <c r="D895">
-        <v>10</v>
-      </c>
-      <c r="E895">
-        <v>5</v>
-      </c>
-      <c r="F895">
-        <v>58.157460851178477</v>
-      </c>
-      <c r="G895">
-        <v>4.8969072164948448</v>
-      </c>
-      <c r="H895">
-        <v>0.3</v>
-      </c>
-      <c r="I895">
-        <v>0.1</v>
-      </c>
-      <c r="J895">
-        <v>4</v>
-      </c>
-      <c r="K895">
-        <v>4</v>
-      </c>
-      <c r="L895">
-        <v>2</v>
-      </c>
-      <c r="M895">
-        <v>0.36</v>
-      </c>
-      <c r="N895">
-        <v>1.5</v>
-      </c>
-      <c r="O895">
-        <v>0.46</v>
-      </c>
-      <c r="P895">
-        <v>5.4410999999999996</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
